--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10621"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musny\Desktop\GPA_Cal\result_backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712E78C4-F8E3-49D1-994B-524F996ADD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{712E78C4-F8E3-49D1-994B-524F996ADD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EF23019-124E-514B-8534-5A7A0B1C6DB6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="2.2" sheetId="2" r:id="rId4"/>
     <sheet name="OGPA" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3676" uniqueCount="264">
   <si>
     <t>Reg. No</t>
   </si>
@@ -776,9 +778,6 @@
   </si>
   <si>
     <t xml:space="preserve"> B+</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t>2.1 GPA</t>
@@ -836,7 +835,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -854,6 +853,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -916,7 +922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -939,6 +945,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1250,13 +1259,13 @@
       <selection activeCell="H2" sqref="H2:H108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.27734375" customWidth="1"/>
+    <col min="2" max="2" width="30.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>236</v>
       </c>
@@ -1264,25 +1273,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
@@ -1319,7 +1328,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>237</v>
       </c>
@@ -1356,7 +1365,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
@@ -1383,7 +1392,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -1410,7 +1419,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
@@ -1437,7 +1446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -1464,7 +1473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1491,7 +1500,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -1518,7 +1527,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
@@ -1545,7 +1554,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
@@ -1572,7 +1581,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
@@ -1599,7 +1608,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
@@ -1626,7 +1635,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
@@ -1653,7 +1662,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
@@ -1680,7 +1689,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
@@ -1707,7 +1716,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
@@ -1734,7 +1743,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
@@ -1761,7 +1770,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
@@ -1788,7 +1797,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
@@ -1815,7 +1824,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
@@ -1842,7 +1851,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
@@ -1869,7 +1878,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
@@ -1896,7 +1905,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
@@ -1923,7 +1932,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
@@ -1950,7 +1959,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>52</v>
       </c>
@@ -1977,7 +1986,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>53</v>
       </c>
@@ -2004,7 +2013,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
@@ -2031,7 +2040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>55</v>
       </c>
@@ -2058,7 +2067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>56</v>
       </c>
@@ -2085,7 +2094,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>57</v>
       </c>
@@ -2112,7 +2121,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>58</v>
       </c>
@@ -2139,7 +2148,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>59</v>
       </c>
@@ -2166,7 +2175,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>60</v>
       </c>
@@ -2193,7 +2202,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>61</v>
       </c>
@@ -2220,7 +2229,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>62</v>
       </c>
@@ -2247,7 +2256,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>63</v>
       </c>
@@ -2274,7 +2283,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>64</v>
       </c>
@@ -2301,7 +2310,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>65</v>
       </c>
@@ -2328,7 +2337,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>66</v>
       </c>
@@ -2355,7 +2364,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>67</v>
       </c>
@@ -2382,7 +2391,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>68</v>
       </c>
@@ -2409,7 +2418,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>69</v>
       </c>
@@ -2436,7 +2445,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>70</v>
       </c>
@@ -2463,7 +2472,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>71</v>
       </c>
@@ -2490,7 +2499,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>72</v>
       </c>
@@ -2517,7 +2526,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>73</v>
       </c>
@@ -2544,7 +2553,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>74</v>
       </c>
@@ -2571,7 +2580,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>75</v>
       </c>
@@ -2598,7 +2607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>76</v>
       </c>
@@ -2625,7 +2634,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>77</v>
       </c>
@@ -2652,7 +2661,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>78</v>
       </c>
@@ -2679,7 +2688,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>79</v>
       </c>
@@ -2706,7 +2715,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>80</v>
       </c>
@@ -2733,7 +2742,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2769,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>82</v>
       </c>
@@ -2787,7 +2796,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>83</v>
       </c>
@@ -2814,12 +2823,12 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>24</v>
@@ -2841,7 +2850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>85</v>
       </c>
@@ -2868,7 +2877,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>86</v>
       </c>
@@ -2895,7 +2904,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>87</v>
       </c>
@@ -2922,7 +2931,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>88</v>
       </c>
@@ -2949,7 +2958,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>89</v>
       </c>
@@ -2976,7 +2985,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>90</v>
       </c>
@@ -3003,7 +3012,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>91</v>
       </c>
@@ -3030,7 +3039,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>92</v>
       </c>
@@ -3057,7 +3066,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>93</v>
       </c>
@@ -3094,7 +3103,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>94</v>
       </c>
@@ -3121,7 +3130,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>95</v>
       </c>
@@ -3148,7 +3157,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>96</v>
       </c>
@@ -3175,7 +3184,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>97</v>
       </c>
@@ -3202,7 +3211,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>98</v>
       </c>
@@ -3229,7 +3238,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>99</v>
       </c>
@@ -3256,7 +3265,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>100</v>
       </c>
@@ -3283,7 +3292,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>101</v>
       </c>
@@ -3310,7 +3319,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>102</v>
       </c>
@@ -3337,7 +3346,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>103</v>
       </c>
@@ -3364,7 +3373,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>104</v>
       </c>
@@ -3391,7 +3400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>105</v>
       </c>
@@ -3418,7 +3427,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>106</v>
       </c>
@@ -3445,7 +3454,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>107</v>
       </c>
@@ -3472,7 +3481,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>108</v>
       </c>
@@ -3499,7 +3508,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>109</v>
       </c>
@@ -3526,7 +3535,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>110</v>
       </c>
@@ -3553,7 +3562,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>111</v>
       </c>
@@ -3580,7 +3589,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>112</v>
       </c>
@@ -3607,7 +3616,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>113</v>
       </c>
@@ -3634,7 +3643,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>114</v>
       </c>
@@ -3661,7 +3670,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>115</v>
       </c>
@@ -3688,7 +3697,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>238</v>
       </c>
@@ -3715,7 +3724,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>116</v>
       </c>
@@ -3742,7 +3751,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>117</v>
       </c>
@@ -3769,7 +3778,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>118</v>
       </c>
@@ -3796,7 +3805,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>119</v>
       </c>
@@ -3823,7 +3832,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>120</v>
       </c>
@@ -3850,7 +3859,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>121</v>
       </c>
@@ -3877,7 +3886,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>122</v>
       </c>
@@ -3904,7 +3913,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>123</v>
       </c>
@@ -3931,7 +3940,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>124</v>
       </c>
@@ -3958,7 +3967,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>125</v>
       </c>
@@ -3985,7 +3994,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>126</v>
       </c>
@@ -4012,7 +4021,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>127</v>
       </c>
@@ -4039,7 +4048,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>128</v>
       </c>
@@ -4066,7 +4075,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>129</v>
       </c>
@@ -4093,7 +4102,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>130</v>
       </c>
@@ -4120,7 +4129,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>131</v>
       </c>
@@ -4147,7 +4156,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>132</v>
       </c>
@@ -4174,7 +4183,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>133</v>
       </c>
@@ -4216,13 +4225,13 @@
       <selection activeCell="I2" sqref="I2:I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="1" max="1" width="19.37109375" customWidth="1"/>
+    <col min="2" max="2" width="30.9375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>236</v>
       </c>
@@ -4230,28 +4239,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
@@ -4288,7 +4297,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>237</v>
       </c>
@@ -4325,7 +4334,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
@@ -4355,7 +4364,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>31</v>
       </c>
@@ -4385,7 +4394,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
@@ -4415,7 +4424,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
@@ -4445,7 +4454,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
@@ -4475,7 +4484,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>35</v>
       </c>
@@ -4505,7 +4514,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
@@ -4535,7 +4544,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
@@ -4565,7 +4574,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>38</v>
       </c>
@@ -4595,7 +4604,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
@@ -4625,7 +4634,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
@@ -4655,7 +4664,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
@@ -4685,7 +4694,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>42</v>
       </c>
@@ -4715,7 +4724,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>43</v>
       </c>
@@ -4745,7 +4754,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>44</v>
       </c>
@@ -4775,7 +4784,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -4805,7 +4814,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
@@ -4835,7 +4844,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>47</v>
       </c>
@@ -4865,7 +4874,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>48</v>
       </c>
@@ -4895,7 +4904,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>49</v>
       </c>
@@ -4925,7 +4934,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>50</v>
       </c>
@@ -4955,7 +4964,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>51</v>
       </c>
@@ -4985,7 +4994,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>52</v>
       </c>
@@ -5015,7 +5024,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>53</v>
       </c>
@@ -5045,7 +5054,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>54</v>
       </c>
@@ -5075,7 +5084,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>55</v>
       </c>
@@ -5105,7 +5114,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>56</v>
       </c>
@@ -5135,7 +5144,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>57</v>
       </c>
@@ -5165,7 +5174,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>58</v>
       </c>
@@ -5195,7 +5204,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>59</v>
       </c>
@@ -5225,7 +5234,7 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>60</v>
       </c>
@@ -5255,7 +5264,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>61</v>
       </c>
@@ -5285,7 +5294,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>62</v>
       </c>
@@ -5315,7 +5324,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>63</v>
       </c>
@@ -5345,7 +5354,7 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>64</v>
       </c>
@@ -5375,7 +5384,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>65</v>
       </c>
@@ -5405,7 +5414,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>66</v>
       </c>
@@ -5435,7 +5444,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>67</v>
       </c>
@@ -5465,7 +5474,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>68</v>
       </c>
@@ -5495,7 +5504,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>69</v>
       </c>
@@ -5525,7 +5534,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>70</v>
       </c>
@@ -5555,7 +5564,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>71</v>
       </c>
@@ -5585,7 +5594,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>72</v>
       </c>
@@ -5615,7 +5624,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>73</v>
       </c>
@@ -5645,7 +5654,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>74</v>
       </c>
@@ -5675,7 +5684,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>75</v>
       </c>
@@ -5705,7 +5714,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>76</v>
       </c>
@@ -5735,7 +5744,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>77</v>
       </c>
@@ -5765,7 +5774,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>78</v>
       </c>
@@ -5795,7 +5804,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>79</v>
       </c>
@@ -5825,7 +5834,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>80</v>
       </c>
@@ -5855,7 +5864,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>81</v>
       </c>
@@ -5885,7 +5894,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>82</v>
       </c>
@@ -5915,7 +5924,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>83</v>
       </c>
@@ -5945,12 +5954,12 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>24</v>
@@ -5975,7 +5984,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>85</v>
       </c>
@@ -6005,7 +6014,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>86</v>
       </c>
@@ -6035,7 +6044,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>87</v>
       </c>
@@ -6065,7 +6074,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>88</v>
       </c>
@@ -6095,7 +6104,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>89</v>
       </c>
@@ -6125,7 +6134,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>90</v>
       </c>
@@ -6155,7 +6164,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>91</v>
       </c>
@@ -6185,7 +6194,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>92</v>
       </c>
@@ -6215,7 +6224,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>93</v>
       </c>
@@ -6252,7 +6261,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>94</v>
       </c>
@@ -6282,7 +6291,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>95</v>
       </c>
@@ -6312,7 +6321,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>96</v>
       </c>
@@ -6342,7 +6351,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>97</v>
       </c>
@@ -6372,7 +6381,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>98</v>
       </c>
@@ -6402,7 +6411,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>99</v>
       </c>
@@ -6432,7 +6441,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>100</v>
       </c>
@@ -6462,7 +6471,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>101</v>
       </c>
@@ -6492,7 +6501,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>102</v>
       </c>
@@ -6522,7 +6531,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>103</v>
       </c>
@@ -6552,7 +6561,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>104</v>
       </c>
@@ -6582,7 +6591,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>105</v>
       </c>
@@ -6612,7 +6621,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>106</v>
       </c>
@@ -6642,7 +6651,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>107</v>
       </c>
@@ -6672,7 +6681,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>108</v>
       </c>
@@ -6702,7 +6711,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>109</v>
       </c>
@@ -6732,7 +6741,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>110</v>
       </c>
@@ -6762,7 +6771,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>111</v>
       </c>
@@ -6792,7 +6801,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>112</v>
       </c>
@@ -6822,7 +6831,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>113</v>
       </c>
@@ -6852,7 +6861,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>114</v>
       </c>
@@ -6882,7 +6891,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>115</v>
       </c>
@@ -6912,7 +6921,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>238</v>
       </c>
@@ -6942,7 +6951,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>116</v>
       </c>
@@ -6972,7 +6981,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>117</v>
       </c>
@@ -7002,7 +7011,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>118</v>
       </c>
@@ -7032,7 +7041,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>119</v>
       </c>
@@ -7062,7 +7071,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>120</v>
       </c>
@@ -7092,7 +7101,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>121</v>
       </c>
@@ -7122,7 +7131,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>122</v>
       </c>
@@ -7152,7 +7161,7 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>123</v>
       </c>
@@ -7182,7 +7191,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>124</v>
       </c>
@@ -7212,7 +7221,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>125</v>
       </c>
@@ -7242,7 +7251,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>126</v>
       </c>
@@ -7272,7 +7281,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>127</v>
       </c>
@@ -7302,7 +7311,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>128</v>
       </c>
@@ -7332,7 +7341,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>129</v>
       </c>
@@ -7362,7 +7371,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>130</v>
       </c>
@@ -7392,7 +7401,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>131</v>
       </c>
@@ -7422,7 +7431,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>132</v>
       </c>
@@ -7452,7 +7461,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>133</v>
       </c>
@@ -7491,23 +7500,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.41015625" customWidth="1"/>
+    <col min="2" max="2" width="29.0546875" customWidth="1"/>
+    <col min="3" max="3" width="21.38671875" customWidth="1"/>
+    <col min="4" max="4" width="16.0078125" customWidth="1"/>
+    <col min="5" max="5" width="27.3046875" customWidth="1"/>
+    <col min="6" max="6" width="10.0859375" customWidth="1"/>
+    <col min="8" max="9" width="9.14453125" customWidth="1"/>
+    <col min="11" max="11" width="10.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7542,7 +7551,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -7589,7 +7598,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>237</v>
@@ -7604,16 +7613,16 @@
         <v>222</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>222</v>
+        <v>25</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>222</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="K3" s="5">
         <f t="shared" ref="K3:K66" si="0">IFERROR(
@@ -7628,10 +7637,10 @@
         (4 + 3 + 3 + 3 + 2),
     2),
 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -7667,7 +7676,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -7703,7 +7712,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -7739,7 +7748,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -7775,7 +7784,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -7811,7 +7820,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -7847,7 +7856,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -7883,7 +7892,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -7919,7 +7928,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -7936,7 +7945,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>22</v>
@@ -7952,10 +7961,10 @@
       </c>
       <c r="K12" s="5">
         <f t="shared" si="0"/>
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -7991,7 +8000,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -8027,7 +8036,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -8063,7 +8072,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -8080,7 +8089,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>21</v>
@@ -8089,17 +8098,17 @@
         <v>23</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="K16" s="5">
         <f t="shared" si="0"/>
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -8135,7 +8144,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -8171,7 +8180,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -8197,17 +8206,17 @@
         <v>221</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="K19" s="5">
         <f t="shared" si="0"/>
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -8243,7 +8252,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -8279,7 +8288,7 @@
         <v>3.91</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -8315,7 +8324,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -8351,7 +8360,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -8387,7 +8396,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -8423,7 +8432,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -8452,14 +8461,14 @@
         <v>21</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="K26" s="5">
         <f t="shared" si="0"/>
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -8495,7 +8504,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -8531,7 +8540,7 @@
         <v>3.91</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -8567,7 +8576,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -8603,7 +8612,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -8639,7 +8648,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -8665,17 +8674,17 @@
         <v>219</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>25</v>
       </c>
       <c r="K32" s="5">
         <f t="shared" si="0"/>
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -8711,7 +8720,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -8747,7 +8756,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -8783,7 +8792,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -8819,7 +8828,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -8854,11 +8863,9 @@
         <f t="shared" si="0"/>
         <v>3.13</v>
       </c>
-      <c r="M37" s="8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -8894,7 +8901,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -8930,7 +8937,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -8966,7 +8973,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -9002,7 +9009,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -9038,7 +9045,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -9074,7 +9081,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -9110,7 +9117,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -9146,7 +9153,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -9182,7 +9189,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -9199,7 +9206,7 @@
         <v>156</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>23</v>
@@ -9211,14 +9218,14 @@
         <v>21</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="K47" s="5">
         <f t="shared" si="0"/>
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -9254,7 +9261,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -9290,7 +9297,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -9326,7 +9333,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -9362,7 +9369,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -9398,7 +9405,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -9434,7 +9441,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>80</v>
       </c>
@@ -9470,7 +9477,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -9506,7 +9513,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -9542,7 +9549,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -9578,7 +9585,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>84</v>
       </c>
@@ -9614,7 +9621,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>85</v>
       </c>
@@ -9650,7 +9657,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -9686,7 +9693,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -9722,7 +9729,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>88</v>
       </c>
@@ -9758,7 +9765,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>89</v>
       </c>
@@ -9775,10 +9782,10 @@
         <v>171</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>221</v>
@@ -9791,10 +9798,10 @@
       </c>
       <c r="K63" s="5">
         <f t="shared" si="0"/>
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>90</v>
       </c>
@@ -9830,7 +9837,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>91</v>
       </c>
@@ -9856,17 +9863,17 @@
         <v>21</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>23</v>
       </c>
       <c r="K65" s="5">
         <f t="shared" si="0"/>
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>92</v>
       </c>
@@ -9902,7 +9909,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>93</v>
       </c>
@@ -9949,7 +9956,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>94</v>
       </c>
@@ -9966,7 +9973,7 @@
         <v>176</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>218</v>
@@ -9982,10 +9989,10 @@
       </c>
       <c r="K68" s="5">
         <f t="shared" si="1"/>
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>95</v>
       </c>
@@ -10021,7 +10028,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -10057,7 +10064,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -10093,7 +10100,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -10129,7 +10136,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>99</v>
       </c>
@@ -10149,23 +10156,23 @@
         <v>22</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="K73" s="5">
         <f t="shared" si="1"/>
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>100</v>
       </c>
@@ -10201,7 +10208,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>101</v>
       </c>
@@ -10235,7 +10242,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>102</v>
       </c>
@@ -10271,7 +10278,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -10297,17 +10304,17 @@
         <v>21</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="K77" s="5">
         <f t="shared" si="1"/>
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>104</v>
       </c>
@@ -10343,7 +10350,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>105</v>
       </c>
@@ -10379,7 +10386,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -10415,7 +10422,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>107</v>
       </c>
@@ -10451,7 +10458,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>108</v>
       </c>
@@ -10487,7 +10494,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>109</v>
       </c>
@@ -10523,7 +10530,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>110</v>
       </c>
@@ -10559,7 +10566,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>111</v>
       </c>
@@ -10595,7 +10602,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>112</v>
       </c>
@@ -10631,7 +10638,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>113</v>
       </c>
@@ -10667,7 +10674,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>114</v>
       </c>
@@ -10703,7 +10710,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -10732,14 +10739,14 @@
         <v>21</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="K89" s="5">
         <f t="shared" si="1"/>
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
         <v>238</v>
@@ -10770,7 +10777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>116</v>
       </c>
@@ -10806,7 +10813,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>117</v>
       </c>
@@ -10842,7 +10849,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>118</v>
       </c>
@@ -10878,7 +10885,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>119</v>
       </c>
@@ -10914,7 +10921,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>120</v>
       </c>
@@ -10950,7 +10957,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>121</v>
       </c>
@@ -10986,7 +10993,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>122</v>
       </c>
@@ -11022,7 +11029,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>123</v>
       </c>
@@ -11058,7 +11065,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>124</v>
       </c>
@@ -11087,14 +11094,14 @@
         <v>28</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K99" s="5">
         <f t="shared" si="1"/>
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>125</v>
       </c>
@@ -11130,7 +11137,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>126</v>
       </c>
@@ -11166,7 +11173,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>127</v>
       </c>
@@ -11202,7 +11209,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>128</v>
       </c>
@@ -11238,7 +11245,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>129</v>
       </c>
@@ -11274,7 +11281,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>130</v>
       </c>
@@ -11310,7 +11317,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>131</v>
       </c>
@@ -11346,7 +11353,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>132</v>
       </c>
@@ -11382,7 +11389,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>133</v>
       </c>
@@ -11433,13 +11440,13 @@
       <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>236</v>
       </c>
@@ -11465,7 +11472,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
@@ -11502,7 +11509,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>237</v>
       </c>
@@ -11539,7 +11546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
@@ -11566,7 +11573,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>31</v>
       </c>
@@ -11593,7 +11600,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
@@ -11620,7 +11627,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
@@ -11647,7 +11654,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
@@ -11674,7 +11681,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>35</v>
       </c>
@@ -11701,7 +11708,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
@@ -11728,7 +11735,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
@@ -11755,7 +11762,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>38</v>
       </c>
@@ -11782,7 +11789,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
@@ -11809,7 +11816,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
@@ -11836,7 +11843,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
@@ -11863,7 +11870,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>42</v>
       </c>
@@ -11890,7 +11897,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>43</v>
       </c>
@@ -11917,7 +11924,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>44</v>
       </c>
@@ -11944,7 +11951,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -11971,7 +11978,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
@@ -11998,7 +12005,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>47</v>
       </c>
@@ -12025,7 +12032,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>48</v>
       </c>
@@ -12052,7 +12059,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>49</v>
       </c>
@@ -12079,7 +12086,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>50</v>
       </c>
@@ -12106,7 +12113,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>51</v>
       </c>
@@ -12133,7 +12140,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>52</v>
       </c>
@@ -12160,7 +12167,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>53</v>
       </c>
@@ -12187,7 +12194,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>54</v>
       </c>
@@ -12214,7 +12221,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>55</v>
       </c>
@@ -12241,7 +12248,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>56</v>
       </c>
@@ -12268,7 +12275,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>57</v>
       </c>
@@ -12295,7 +12302,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>58</v>
       </c>
@@ -12322,7 +12329,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>59</v>
       </c>
@@ -12349,7 +12356,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>60</v>
       </c>
@@ -12376,7 +12383,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>61</v>
       </c>
@@ -12403,7 +12410,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>62</v>
       </c>
@@ -12430,7 +12437,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>63</v>
       </c>
@@ -12457,7 +12464,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>64</v>
       </c>
@@ -12484,7 +12491,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>65</v>
       </c>
@@ -12511,7 +12518,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>66</v>
       </c>
@@ -12538,7 +12545,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>67</v>
       </c>
@@ -12565,7 +12572,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>68</v>
       </c>
@@ -12592,7 +12599,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>69</v>
       </c>
@@ -12619,7 +12626,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>70</v>
       </c>
@@ -12646,7 +12653,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>71</v>
       </c>
@@ -12673,7 +12680,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>72</v>
       </c>
@@ -12700,7 +12707,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>73</v>
       </c>
@@ -12727,7 +12734,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>74</v>
       </c>
@@ -12754,7 +12761,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>75</v>
       </c>
@@ -12781,7 +12788,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>76</v>
       </c>
@@ -12808,7 +12815,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>77</v>
       </c>
@@ -12835,7 +12842,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>78</v>
       </c>
@@ -12862,7 +12869,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>79</v>
       </c>
@@ -12889,7 +12896,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>80</v>
       </c>
@@ -12916,7 +12923,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>81</v>
       </c>
@@ -12943,7 +12950,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>82</v>
       </c>
@@ -12970,7 +12977,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>83</v>
       </c>
@@ -12997,7 +13004,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>84</v>
       </c>
@@ -13024,7 +13031,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>85</v>
       </c>
@@ -13051,7 +13058,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>86</v>
       </c>
@@ -13078,7 +13085,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>87</v>
       </c>
@@ -13105,7 +13112,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>88</v>
       </c>
@@ -13132,7 +13139,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>89</v>
       </c>
@@ -13159,7 +13166,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>90</v>
       </c>
@@ -13186,7 +13193,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>91</v>
       </c>
@@ -13213,7 +13220,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>92</v>
       </c>
@@ -13240,7 +13247,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>93</v>
       </c>
@@ -13277,7 +13284,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>94</v>
       </c>
@@ -13304,7 +13311,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>95</v>
       </c>
@@ -13331,7 +13338,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>96</v>
       </c>
@@ -13358,7 +13365,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>97</v>
       </c>
@@ -13385,7 +13392,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>98</v>
       </c>
@@ -13412,7 +13419,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>99</v>
       </c>
@@ -13439,7 +13446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>100</v>
       </c>
@@ -13466,7 +13473,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>101</v>
       </c>
@@ -13493,7 +13500,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>102</v>
       </c>
@@ -13520,7 +13527,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>103</v>
       </c>
@@ -13547,7 +13554,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>104</v>
       </c>
@@ -13574,7 +13581,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>105</v>
       </c>
@@ -13601,7 +13608,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>106</v>
       </c>
@@ -13628,7 +13635,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>107</v>
       </c>
@@ -13655,7 +13662,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>108</v>
       </c>
@@ -13682,7 +13689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>109</v>
       </c>
@@ -13709,7 +13716,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>110</v>
       </c>
@@ -13736,7 +13743,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>111</v>
       </c>
@@ -13763,7 +13770,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>112</v>
       </c>
@@ -13790,7 +13797,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>113</v>
       </c>
@@ -13817,7 +13824,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>114</v>
       </c>
@@ -13844,7 +13851,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>115</v>
       </c>
@@ -13871,7 +13878,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>238</v>
       </c>
@@ -13898,7 +13905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>116</v>
       </c>
@@ -13925,7 +13932,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>117</v>
       </c>
@@ -13952,7 +13959,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>118</v>
       </c>
@@ -13979,7 +13986,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>119</v>
       </c>
@@ -14006,7 +14013,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>120</v>
       </c>
@@ -14033,7 +14040,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>121</v>
       </c>
@@ -14060,7 +14067,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>122</v>
       </c>
@@ -14087,7 +14094,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>123</v>
       </c>
@@ -14114,7 +14121,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>124</v>
       </c>
@@ -14141,7 +14148,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>125</v>
       </c>
@@ -14168,7 +14175,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>126</v>
       </c>
@@ -14195,7 +14202,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>127</v>
       </c>
@@ -14222,7 +14229,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>128</v>
       </c>
@@ -14249,7 +14256,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>129</v>
       </c>
@@ -14276,7 +14283,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>130</v>
       </c>
@@ -14303,7 +14310,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>131</v>
       </c>
@@ -14330,7 +14337,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>132</v>
       </c>
@@ -14357,7 +14364,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>133</v>
       </c>
@@ -14395,19 +14402,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325CB179-F49C-49B9-8265-356F4F1FB48D}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.390625" customWidth="1"/>
+    <col min="2" max="2" width="29.19140625" customWidth="1"/>
+    <col min="3" max="6" width="11.43359375" customWidth="1"/>
+    <col min="7" max="7" width="11.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>236</v>
       </c>
@@ -14415,22 +14422,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
@@ -14443,7 +14450,7 @@
       <c r="D2" s="2">
         <v>3.5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="9">
         <v>3.67</v>
       </c>
       <c r="F2" s="2">
@@ -14454,7 +14461,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>237</v>
       </c>
@@ -14467,18 +14474,18 @@
       <c r="D3" s="2">
         <v>1.47</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
+      <c r="E3" s="9">
+        <v>1.01</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:G66" si="0">ROUND(SUM(C3:F3)/4, 2)</f>
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
@@ -14491,7 +14498,7 @@
       <c r="D4" s="2">
         <v>2.91</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="9">
         <v>3.01</v>
       </c>
       <c r="F4" s="2">
@@ -14502,7 +14509,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
@@ -14515,7 +14522,7 @@
       <c r="D5" s="2">
         <v>3.19</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="9">
         <v>2.69</v>
       </c>
       <c r="F5" s="2">
@@ -14526,7 +14533,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
@@ -14539,7 +14546,7 @@
       <c r="D6" s="2">
         <v>3.77</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="9">
         <v>3.87</v>
       </c>
       <c r="F6" s="2">
@@ -14550,7 +14557,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -14563,7 +14570,7 @@
       <c r="D7" s="2">
         <v>3.6</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="9">
         <v>3.75</v>
       </c>
       <c r="F7" s="2">
@@ -14574,7 +14581,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -14587,7 +14594,7 @@
       <c r="D8" s="2">
         <v>2.5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="9">
         <v>2.68</v>
       </c>
       <c r="F8" s="2">
@@ -14598,7 +14605,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -14611,7 +14618,7 @@
       <c r="D9" s="2">
         <v>2.87</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="9">
         <v>1.95</v>
       </c>
       <c r="F9" s="2">
@@ -14622,7 +14629,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
@@ -14635,7 +14642,7 @@
       <c r="D10" s="2">
         <v>3.29</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="9">
         <v>2.94</v>
       </c>
       <c r="F10" s="2">
@@ -14646,7 +14653,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
@@ -14659,7 +14666,7 @@
       <c r="D11" s="2">
         <v>3.33</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="9">
         <v>3.25</v>
       </c>
       <c r="F11" s="2">
@@ -14670,7 +14677,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
@@ -14683,18 +14690,18 @@
       <c r="D12" s="2">
         <v>3.06</v>
       </c>
-      <c r="E12" s="2">
-        <v>2.0499999999999998</v>
+      <c r="E12" s="9">
+        <v>2.3199999999999998</v>
       </c>
       <c r="F12" s="2">
         <v>2.4900000000000002</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
@@ -14707,7 +14714,7 @@
       <c r="D13" s="2">
         <v>3.24</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="9">
         <v>3.43</v>
       </c>
       <c r="F13" s="2">
@@ -14718,7 +14725,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
@@ -14731,7 +14738,7 @@
       <c r="D14" s="2">
         <v>3.33</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="9">
         <v>2.98</v>
       </c>
       <c r="F14" s="2">
@@ -14742,7 +14749,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
@@ -14755,7 +14762,7 @@
       <c r="D15" s="2">
         <v>3.11</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="9">
         <v>3.37</v>
       </c>
       <c r="F15" s="2">
@@ -14766,7 +14773,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
@@ -14779,18 +14786,18 @@
       <c r="D16" s="2">
         <v>1.98</v>
       </c>
-      <c r="E16" s="2">
-        <v>1.56</v>
+      <c r="E16" s="9">
+        <v>2.06</v>
       </c>
       <c r="F16" s="2">
         <v>2.0099999999999998</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="0"/>
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
@@ -14803,7 +14810,7 @@
       <c r="D17" s="2">
         <v>3.35</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="9">
         <v>3.9</v>
       </c>
       <c r="F17" s="2">
@@ -14814,7 +14821,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
@@ -14827,7 +14834,7 @@
       <c r="D18" s="2">
         <v>3.33</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="9">
         <v>3.65</v>
       </c>
       <c r="F18" s="2">
@@ -14838,7 +14845,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
@@ -14851,18 +14858,18 @@
       <c r="D19" s="2">
         <v>2.59</v>
       </c>
-      <c r="E19" s="2">
-        <v>1.1100000000000001</v>
+      <c r="E19" s="9">
+        <v>1.6</v>
       </c>
       <c r="F19" s="2">
         <v>1.87</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="0"/>
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
@@ -14875,7 +14882,7 @@
       <c r="D20" s="2">
         <v>3.92</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="9">
         <v>3.24</v>
       </c>
       <c r="F20" s="2">
@@ -14886,7 +14893,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
@@ -14899,7 +14906,7 @@
       <c r="D21" s="2">
         <v>3.61</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="9">
         <v>3.91</v>
       </c>
       <c r="F21" s="2">
@@ -14910,7 +14917,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
@@ -14923,7 +14930,7 @@
       <c r="D22" s="2">
         <v>2.83</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="9">
         <v>2.84</v>
       </c>
       <c r="F22" s="2">
@@ -14934,7 +14941,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
@@ -14947,7 +14954,7 @@
       <c r="D23" s="2">
         <v>2.81</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="9">
         <v>3.03</v>
       </c>
       <c r="F23" s="2">
@@ -14958,7 +14965,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
@@ -14971,7 +14978,7 @@
       <c r="D24" s="2">
         <v>3.73</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="9">
         <v>3.23</v>
       </c>
       <c r="F24" s="2">
@@ -14982,7 +14989,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
@@ -14995,7 +15002,7 @@
       <c r="D25" s="2">
         <v>2.95</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="9">
         <v>2.77</v>
       </c>
       <c r="F25" s="2">
@@ -15006,7 +15013,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>52</v>
       </c>
@@ -15019,18 +15026,18 @@
       <c r="D26" s="2">
         <v>1.65</v>
       </c>
-      <c r="E26" s="2">
-        <v>1.41</v>
+      <c r="E26" s="9">
+        <v>1.54</v>
       </c>
       <c r="F26" s="2">
         <v>0.56999999999999995</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="0"/>
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>53</v>
       </c>
@@ -15043,7 +15050,7 @@
       <c r="D27" s="2">
         <v>3.11</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="9">
         <v>2.5099999999999998</v>
       </c>
       <c r="F27" s="2">
@@ -15054,7 +15061,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
@@ -15067,7 +15074,7 @@
       <c r="D28" s="2">
         <v>3.96</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="9">
         <v>3.91</v>
       </c>
       <c r="F28" s="2">
@@ -15078,7 +15085,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>55</v>
       </c>
@@ -15091,7 +15098,7 @@
       <c r="D29" s="2">
         <v>3.79</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="9">
         <v>3.87</v>
       </c>
       <c r="F29" s="2">
@@ -15102,7 +15109,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>56</v>
       </c>
@@ -15115,7 +15122,7 @@
       <c r="D30" s="2">
         <v>3.77</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="9">
         <v>3.59</v>
       </c>
       <c r="F30" s="2">
@@ -15126,7 +15133,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>57</v>
       </c>
@@ -15139,7 +15146,7 @@
       <c r="D31" s="2">
         <v>2.97</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="9">
         <v>2.4900000000000002</v>
       </c>
       <c r="F31" s="2">
@@ -15150,7 +15157,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>58</v>
       </c>
@@ -15163,18 +15170,18 @@
       <c r="D32" s="2">
         <v>3.31</v>
       </c>
-      <c r="E32" s="2">
-        <v>2.15</v>
+      <c r="E32" s="9">
+        <v>2.35</v>
       </c>
       <c r="F32" s="2">
         <v>2.27</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="0"/>
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>59</v>
       </c>
@@ -15187,7 +15194,7 @@
       <c r="D33" s="2">
         <v>3.54</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="9">
         <v>3.43</v>
       </c>
       <c r="F33" s="2">
@@ -15198,7 +15205,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>60</v>
       </c>
@@ -15211,7 +15218,7 @@
       <c r="D34" s="2">
         <v>2.87</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="9">
         <v>2.65</v>
       </c>
       <c r="F34" s="2">
@@ -15222,7 +15229,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>61</v>
       </c>
@@ -15235,7 +15242,7 @@
       <c r="D35" s="2">
         <v>3.67</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="9">
         <v>3.67</v>
       </c>
       <c r="F35" s="2">
@@ -15246,7 +15253,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>62</v>
       </c>
@@ -15259,7 +15266,7 @@
       <c r="D36" s="2">
         <v>3.15</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="9">
         <v>2.64</v>
       </c>
       <c r="F36" s="2">
@@ -15270,7 +15277,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>63</v>
       </c>
@@ -15283,7 +15290,7 @@
       <c r="D37" s="2">
         <v>3.54</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="9">
         <v>3.13</v>
       </c>
       <c r="F37" s="2">
@@ -15294,7 +15301,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>64</v>
       </c>
@@ -15307,7 +15314,7 @@
       <c r="D38" s="2">
         <v>3.45</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="9">
         <v>2.91</v>
       </c>
       <c r="F38" s="2">
@@ -15318,7 +15325,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>65</v>
       </c>
@@ -15331,7 +15338,7 @@
       <c r="D39" s="2">
         <v>3.41</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="9">
         <v>3.37</v>
       </c>
       <c r="F39" s="2">
@@ -15342,7 +15349,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>66</v>
       </c>
@@ -15355,7 +15362,7 @@
       <c r="D40" s="2">
         <v>3.75</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="9">
         <v>3.71</v>
       </c>
       <c r="F40" s="2">
@@ -15366,7 +15373,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>67</v>
       </c>
@@ -15379,7 +15386,7 @@
       <c r="D41" s="2">
         <v>3.65</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="9">
         <v>3.65</v>
       </c>
       <c r="F41" s="2">
@@ -15390,7 +15397,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>68</v>
       </c>
@@ -15403,7 +15410,7 @@
       <c r="D42" s="2">
         <v>3.57</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="9">
         <v>3.71</v>
       </c>
       <c r="F42" s="2">
@@ -15414,7 +15421,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>69</v>
       </c>
@@ -15427,7 +15434,7 @@
       <c r="D43" s="2">
         <v>3.64</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="9">
         <v>3.9</v>
       </c>
       <c r="F43" s="2">
@@ -15438,7 +15445,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>70</v>
       </c>
@@ -15451,7 +15458,7 @@
       <c r="D44" s="2">
         <v>3.77</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="9">
         <v>3.79</v>
       </c>
       <c r="F44" s="2">
@@ -15462,7 +15469,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>71</v>
       </c>
@@ -15475,7 +15482,7 @@
       <c r="D45" s="2">
         <v>3.65</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="9">
         <v>3.71</v>
       </c>
       <c r="F45" s="2">
@@ -15486,7 +15493,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>72</v>
       </c>
@@ -15499,7 +15506,7 @@
       <c r="D46" s="2">
         <v>3.56</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="9">
         <v>3.75</v>
       </c>
       <c r="F46" s="2">
@@ -15510,7 +15517,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>73</v>
       </c>
@@ -15523,18 +15530,18 @@
       <c r="D47" s="2">
         <v>2.41</v>
       </c>
-      <c r="E47" s="2">
-        <v>1.31</v>
+      <c r="E47" s="9">
+        <v>1.66</v>
       </c>
       <c r="F47" s="2">
         <v>1.6</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" si="0"/>
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>74</v>
       </c>
@@ -15547,7 +15554,7 @@
       <c r="D48" s="2">
         <v>3.67</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="9">
         <v>3.55</v>
       </c>
       <c r="F48" s="2">
@@ -15558,7 +15565,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>75</v>
       </c>
@@ -15571,7 +15578,7 @@
       <c r="D49" s="2">
         <v>3.5</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="9">
         <v>3.57</v>
       </c>
       <c r="F49" s="2">
@@ -15582,7 +15589,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>76</v>
       </c>
@@ -15595,7 +15602,7 @@
       <c r="D50" s="2">
         <v>3.73</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="9">
         <v>3.87</v>
       </c>
       <c r="F50" s="2">
@@ -15606,7 +15613,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>77</v>
       </c>
@@ -15619,7 +15626,7 @@
       <c r="D51" s="2">
         <v>3.58</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="9">
         <v>2.93</v>
       </c>
       <c r="F51" s="2">
@@ -15630,7 +15637,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>78</v>
       </c>
@@ -15643,7 +15650,7 @@
       <c r="D52" s="2">
         <v>3.57</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="9">
         <v>3.29</v>
       </c>
       <c r="F52" s="2">
@@ -15654,7 +15661,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>79</v>
       </c>
@@ -15667,7 +15674,7 @@
       <c r="D53" s="2">
         <v>3.55</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="9">
         <v>3.71</v>
       </c>
       <c r="F53" s="2">
@@ -15678,7 +15685,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>80</v>
       </c>
@@ -15691,7 +15698,7 @@
       <c r="D54" s="2">
         <v>3.22</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="9">
         <v>2.83</v>
       </c>
       <c r="F54" s="2">
@@ -15702,7 +15709,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>81</v>
       </c>
@@ -15715,7 +15722,7 @@
       <c r="D55" s="2">
         <v>2.7</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="9">
         <v>2.69</v>
       </c>
       <c r="F55" s="2">
@@ -15726,7 +15733,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>82</v>
       </c>
@@ -15739,7 +15746,7 @@
       <c r="D56" s="2">
         <v>3.52</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="9">
         <v>2.92</v>
       </c>
       <c r="F56" s="2">
@@ -15750,7 +15757,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>83</v>
       </c>
@@ -15763,7 +15770,7 @@
       <c r="D57" s="2">
         <v>3.6</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="9">
         <v>3.07</v>
       </c>
       <c r="F57" s="2">
@@ -15774,7 +15781,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>84</v>
       </c>
@@ -15787,7 +15794,7 @@
       <c r="D58" s="2">
         <v>3.6</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="9">
         <v>3.79</v>
       </c>
       <c r="F58" s="2">
@@ -15798,7 +15805,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>85</v>
       </c>
@@ -15811,7 +15818,7 @@
       <c r="D59" s="2">
         <v>2.75</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="9">
         <v>2.4900000000000002</v>
       </c>
       <c r="F59" s="2">
@@ -15822,7 +15829,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>86</v>
       </c>
@@ -15835,7 +15842,7 @@
       <c r="D60" s="2">
         <v>3.01</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="9">
         <v>2.23</v>
       </c>
       <c r="F60" s="2">
@@ -15846,7 +15853,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>87</v>
       </c>
@@ -15859,7 +15866,7 @@
       <c r="D61" s="2">
         <v>3.01</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="9">
         <v>2.4700000000000002</v>
       </c>
       <c r="F61" s="2">
@@ -15870,7 +15877,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>88</v>
       </c>
@@ -15883,7 +15890,7 @@
       <c r="D62" s="2">
         <v>2.86</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="9">
         <v>2.5099999999999998</v>
       </c>
       <c r="F62" s="2">
@@ -15894,7 +15901,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>89</v>
       </c>
@@ -15907,18 +15914,18 @@
       <c r="D63" s="2">
         <v>2.27</v>
       </c>
-      <c r="E63" s="2">
-        <v>0.77</v>
+      <c r="E63" s="9">
+        <v>1.5</v>
       </c>
       <c r="F63" s="2">
         <v>1.36</v>
       </c>
       <c r="G63" s="2">
         <f t="shared" si="0"/>
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>90</v>
       </c>
@@ -15931,7 +15938,7 @@
       <c r="D64" s="2">
         <v>3.21</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="9">
         <v>3.01</v>
       </c>
       <c r="F64" s="2">
@@ -15942,7 +15949,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>91</v>
       </c>
@@ -15955,18 +15962,18 @@
       <c r="D65" s="2">
         <v>2.74</v>
       </c>
-      <c r="E65" s="2">
-        <v>2.17</v>
+      <c r="E65" s="9">
+        <v>2.57</v>
       </c>
       <c r="F65" s="2">
         <v>2.44</v>
       </c>
       <c r="G65" s="2">
         <f t="shared" si="0"/>
-        <v>2.48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>92</v>
       </c>
@@ -15979,7 +15986,7 @@
       <c r="D66" s="2">
         <v>3.05</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="9">
         <v>2.9</v>
       </c>
       <c r="F66" s="2">
@@ -15990,7 +15997,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>93</v>
       </c>
@@ -16003,7 +16010,7 @@
       <c r="D67" s="2">
         <v>3.32</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="9">
         <v>3.21</v>
       </c>
       <c r="F67" s="2">
@@ -16014,7 +16021,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>94</v>
       </c>
@@ -16027,18 +16034,18 @@
       <c r="D68" s="2">
         <v>3.33</v>
       </c>
-      <c r="E68" s="2">
-        <v>2.72</v>
+      <c r="E68" s="9">
+        <v>3.6</v>
       </c>
       <c r="F68" s="2">
         <v>2.71</v>
       </c>
       <c r="G68" s="2">
         <f t="shared" si="1"/>
-        <v>3.07</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>95</v>
       </c>
@@ -16051,7 +16058,7 @@
       <c r="D69" s="2">
         <v>1.33</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="9">
         <v>1.88</v>
       </c>
       <c r="F69" s="2">
@@ -16062,7 +16069,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>96</v>
       </c>
@@ -16075,7 +16082,7 @@
       <c r="D70" s="2">
         <v>2.63</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="9">
         <v>1.97</v>
       </c>
       <c r="F70" s="2">
@@ -16086,7 +16093,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>97</v>
       </c>
@@ -16099,7 +16106,7 @@
       <c r="D71" s="2">
         <v>2.48</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="9">
         <v>1.9</v>
       </c>
       <c r="F71" s="2">
@@ -16110,7 +16117,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>98</v>
       </c>
@@ -16123,7 +16130,7 @@
       <c r="D72" s="2">
         <v>3.29</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="9">
         <v>3.51</v>
       </c>
       <c r="F72" s="2">
@@ -16134,7 +16141,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>99</v>
       </c>
@@ -16147,18 +16154,18 @@
       <c r="D73" s="2">
         <v>2.87</v>
       </c>
-      <c r="E73" s="2">
-        <v>1.34</v>
+      <c r="E73" s="9">
+        <v>2.41</v>
       </c>
       <c r="F73" s="2">
         <v>0</v>
       </c>
       <c r="G73" s="2">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>100</v>
       </c>
@@ -16171,7 +16178,7 @@
       <c r="D74" s="2">
         <v>3.23</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="9">
         <v>3.06</v>
       </c>
       <c r="F74" s="2">
@@ -16182,7 +16189,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>101</v>
       </c>
@@ -16195,7 +16202,7 @@
       <c r="D75" s="2">
         <v>3.37</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="9">
         <v>2.62</v>
       </c>
       <c r="F75" s="2">
@@ -16206,7 +16213,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>102</v>
       </c>
@@ -16219,7 +16226,7 @@
       <c r="D76" s="2">
         <v>3.34</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="9">
         <v>2.91</v>
       </c>
       <c r="F76" s="2">
@@ -16230,7 +16237,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>103</v>
       </c>
@@ -16243,18 +16250,18 @@
       <c r="D77" s="2">
         <v>2.4500000000000002</v>
       </c>
-      <c r="E77" s="2">
-        <v>1.95</v>
+      <c r="E77" s="9">
+        <v>2.19</v>
       </c>
       <c r="F77" s="2">
         <v>1.8</v>
       </c>
       <c r="G77" s="2">
         <f t="shared" si="1"/>
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>104</v>
       </c>
@@ -16267,7 +16274,7 @@
       <c r="D78" s="2">
         <v>3.69</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="9">
         <v>3.1</v>
       </c>
       <c r="F78" s="2">
@@ -16278,7 +16285,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>105</v>
       </c>
@@ -16291,7 +16298,7 @@
       <c r="D79" s="2">
         <v>3.56</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="9">
         <v>3.23</v>
       </c>
       <c r="F79" s="2">
@@ -16302,7 +16309,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>106</v>
       </c>
@@ -16315,7 +16322,7 @@
       <c r="D80" s="2">
         <v>3.79</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="9">
         <v>3.69</v>
       </c>
       <c r="F80" s="2">
@@ -16326,7 +16333,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>107</v>
       </c>
@@ -16339,7 +16346,7 @@
       <c r="D81" s="2">
         <v>3.52</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="9">
         <v>3.65</v>
       </c>
       <c r="F81" s="2">
@@ -16350,7 +16357,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>108</v>
       </c>
@@ -16363,7 +16370,7 @@
       <c r="D82" s="2">
         <v>2.66</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="9">
         <v>2.63</v>
       </c>
       <c r="F82" s="2">
@@ -16374,7 +16381,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>109</v>
       </c>
@@ -16387,7 +16394,7 @@
       <c r="D83" s="2">
         <v>3.22</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="9">
         <v>3.27</v>
       </c>
       <c r="F83" s="2">
@@ -16398,7 +16405,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>110</v>
       </c>
@@ -16411,7 +16418,7 @@
       <c r="D84" s="2">
         <v>3.29</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="9">
         <v>3.57</v>
       </c>
       <c r="F84" s="2">
@@ -16422,7 +16429,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>111</v>
       </c>
@@ -16435,7 +16442,7 @@
       <c r="D85" s="2">
         <v>3.51</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="9">
         <v>3.57</v>
       </c>
       <c r="F85" s="2">
@@ -16446,7 +16453,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>112</v>
       </c>
@@ -16459,7 +16466,7 @@
       <c r="D86" s="2">
         <v>3.6</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="9">
         <v>3.85</v>
       </c>
       <c r="F86" s="2">
@@ -16470,7 +16477,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>113</v>
       </c>
@@ -16483,7 +16490,7 @@
       <c r="D87" s="2">
         <v>2.79</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="9">
         <v>2.04</v>
       </c>
       <c r="F87" s="2">
@@ -16494,7 +16501,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>114</v>
       </c>
@@ -16507,7 +16514,7 @@
       <c r="D88" s="2">
         <v>2.79</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="9">
         <v>2.2000000000000002</v>
       </c>
       <c r="F88" s="2">
@@ -16518,7 +16525,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>115</v>
       </c>
@@ -16531,18 +16538,18 @@
       <c r="D89" s="2">
         <v>3.05</v>
       </c>
-      <c r="E89" s="2">
-        <v>1.65</v>
+      <c r="E89" s="9">
+        <v>1.7</v>
       </c>
       <c r="F89" s="2">
         <v>1.9</v>
       </c>
       <c r="G89" s="2">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>238</v>
       </c>
@@ -16555,7 +16562,7 @@
       <c r="D90" s="2">
         <v>2.5</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="9">
         <v>0</v>
       </c>
       <c r="F90" s="2">
@@ -16566,7 +16573,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>116</v>
       </c>
@@ -16579,7 +16586,7 @@
       <c r="D91" s="2">
         <v>3.55</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="9">
         <v>3.29</v>
       </c>
       <c r="F91" s="2">
@@ -16590,7 +16597,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>117</v>
       </c>
@@ -16603,7 +16610,7 @@
       <c r="D92" s="2">
         <v>3.05</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="9">
         <v>2.99</v>
       </c>
       <c r="F92" s="2">
@@ -16614,7 +16621,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>118</v>
       </c>
@@ -16627,7 +16634,7 @@
       <c r="D93" s="2">
         <v>3.47</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="9">
         <v>3.63</v>
       </c>
       <c r="F93" s="2">
@@ -16638,7 +16645,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>119</v>
       </c>
@@ -16651,7 +16658,7 @@
       <c r="D94" s="2">
         <v>3.31</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="9">
         <v>2.84</v>
       </c>
       <c r="F94" s="2">
@@ -16662,7 +16669,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>120</v>
       </c>
@@ -16675,7 +16682,7 @@
       <c r="D95" s="2">
         <v>3.1</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="9">
         <v>2.89</v>
       </c>
       <c r="F95" s="2">
@@ -16686,7 +16693,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>121</v>
       </c>
@@ -16699,7 +16706,7 @@
       <c r="D96" s="2">
         <v>3.56</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="9">
         <v>3.61</v>
       </c>
       <c r="F96" s="2">
@@ -16710,7 +16717,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>122</v>
       </c>
@@ -16723,7 +16730,7 @@
       <c r="D97" s="2">
         <v>3.54</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="9">
         <v>2.96</v>
       </c>
       <c r="F97" s="2">
@@ -16734,7 +16741,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>123</v>
       </c>
@@ -16747,7 +16754,7 @@
       <c r="D98" s="2">
         <v>3.15</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="9">
         <v>3.33</v>
       </c>
       <c r="F98" s="2">
@@ -16758,7 +16765,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>124</v>
       </c>
@@ -16771,18 +16778,18 @@
       <c r="D99" s="2">
         <v>3.1</v>
       </c>
-      <c r="E99" s="2">
-        <v>2.71</v>
+      <c r="E99" s="9">
+        <v>2.75</v>
       </c>
       <c r="F99" s="2">
         <v>1.88</v>
       </c>
       <c r="G99" s="2">
         <f t="shared" si="1"/>
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>125</v>
       </c>
@@ -16795,7 +16802,7 @@
       <c r="D100" s="2">
         <v>3.29</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="9">
         <v>2.99</v>
       </c>
       <c r="F100" s="2">
@@ -16806,7 +16813,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>126</v>
       </c>
@@ -16819,7 +16826,7 @@
       <c r="D101" s="2">
         <v>3.71</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="9">
         <v>3.43</v>
       </c>
       <c r="F101" s="2">
@@ -16830,7 +16837,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>127</v>
       </c>
@@ -16843,7 +16850,7 @@
       <c r="D102" s="2">
         <v>3.35</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="9">
         <v>2.65</v>
       </c>
       <c r="F102" s="2">
@@ -16854,7 +16861,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>128</v>
       </c>
@@ -16867,7 +16874,7 @@
       <c r="D103" s="2">
         <v>3.18</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="9">
         <v>2.65</v>
       </c>
       <c r="F103" s="2">
@@ -16878,7 +16885,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>129</v>
       </c>
@@ -16891,7 +16898,7 @@
       <c r="D104" s="2">
         <v>2.71</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="9">
         <v>2.2400000000000002</v>
       </c>
       <c r="F104" s="2">
@@ -16902,7 +16909,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>130</v>
       </c>
@@ -16915,7 +16922,7 @@
       <c r="D105" s="2">
         <v>3.47</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="9">
         <v>3.51</v>
       </c>
       <c r="F105" s="2">
@@ -16926,7 +16933,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>131</v>
       </c>
@@ -16939,7 +16946,7 @@
       <c r="D106" s="2">
         <v>2.93</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="9">
         <v>2.95</v>
       </c>
       <c r="F106" s="2">
@@ -16950,7 +16957,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>132</v>
       </c>
@@ -16963,7 +16970,7 @@
       <c r="D107" s="2">
         <v>3.29</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="9">
         <v>3.49</v>
       </c>
       <c r="F107" s="2">
@@ -16974,7 +16981,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>133</v>
       </c>
@@ -16987,7 +16994,7 @@
       <c r="D108" s="2">
         <v>2.56</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="9">
         <v>3.33</v>
       </c>
       <c r="F108" s="2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musny\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912F7D05-BDCB-485A-82B6-20FD8549832D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6877EC-A0EF-4CC0-9ED8-1DB9D38D35A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14111,7 +14111,7 @@
   <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="K105" sqref="K105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14436,7 +14436,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>218</v>
@@ -14452,7 +14452,7 @@
       </c>
       <c r="I10" s="5">
         <f t="shared" si="0"/>
-        <v>3.33</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -14466,7 +14466,7 @@
         <v>218</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>218</v>
+        <v>22</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>27</v>
@@ -14482,7 +14482,7 @@
       </c>
       <c r="I11" s="5">
         <f t="shared" si="0"/>
-        <v>3.65</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -14496,7 +14496,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>24</v>
@@ -14512,7 +14512,7 @@
       </c>
       <c r="I12" s="5">
         <f t="shared" si="0"/>
-        <v>3.39</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -14526,7 +14526,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>218</v>
@@ -14542,7 +14542,7 @@
       </c>
       <c r="I13" s="5">
         <f t="shared" si="0"/>
-        <v>3.65</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -14586,7 +14586,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>27</v>
@@ -14602,7 +14602,7 @@
       </c>
       <c r="I15" s="5">
         <f t="shared" si="0"/>
-        <v>3.62</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -14646,7 +14646,7 @@
         <v>218</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>24</v>
@@ -14662,7 +14662,7 @@
       </c>
       <c r="I17" s="5">
         <f t="shared" si="0"/>
-        <v>3.9</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -14676,7 +14676,7 @@
         <v>218</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>24</v>
@@ -14692,7 +14692,7 @@
       </c>
       <c r="I18" s="5">
         <f t="shared" si="0"/>
-        <v>3.9</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -14736,7 +14736,7 @@
         <v>218</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>24</v>
@@ -14752,7 +14752,7 @@
       </c>
       <c r="I20" s="5">
         <f t="shared" si="0"/>
-        <v>3.63</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -14766,7 +14766,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>27</v>
@@ -14782,7 +14782,7 @@
       </c>
       <c r="I21" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -14796,7 +14796,7 @@
         <v>22</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>218</v>
@@ -14812,7 +14812,7 @@
       </c>
       <c r="I22" s="5">
         <f t="shared" si="0"/>
-        <v>3.27</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -14826,7 +14826,7 @@
         <v>28</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>26</v>
@@ -14842,7 +14842,7 @@
       </c>
       <c r="I23" s="5">
         <f t="shared" si="0"/>
-        <v>3.17</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -14856,7 +14856,7 @@
         <v>26</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>27</v>
@@ -14872,7 +14872,7 @@
       </c>
       <c r="I24" s="5">
         <f t="shared" si="0"/>
-        <v>3.63</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -14886,7 +14886,7 @@
         <v>26</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>26</v>
@@ -14902,7 +14902,7 @@
       </c>
       <c r="I25" s="5">
         <f t="shared" si="0"/>
-        <v>3.16</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -14946,7 +14946,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>22</v>
@@ -14962,7 +14962,7 @@
       </c>
       <c r="I27" s="5">
         <f t="shared" si="0"/>
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -14976,7 +14976,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>24</v>
@@ -14992,7 +14992,7 @@
       </c>
       <c r="I28" s="5">
         <f t="shared" si="0"/>
-        <v>3.96</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -15006,7 +15006,7 @@
         <v>218</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>24</v>
@@ -15022,7 +15022,7 @@
       </c>
       <c r="I29" s="5">
         <f t="shared" si="0"/>
-        <v>3.94</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -15036,7 +15036,7 @@
         <v>22</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>218</v>
@@ -15052,7 +15052,7 @@
       </c>
       <c r="I30" s="5">
         <f t="shared" si="0"/>
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -15066,7 +15066,7 @@
         <v>22</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>26</v>
@@ -15082,7 +15082,7 @@
       </c>
       <c r="I31" s="5">
         <f t="shared" si="0"/>
-        <v>3.23</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -15096,7 +15096,7 @@
         <v>28</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>22</v>
@@ -15112,7 +15112,7 @@
       </c>
       <c r="I32" s="5">
         <f t="shared" si="0"/>
-        <v>2.75</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -15126,7 +15126,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>218</v>
@@ -15142,7 +15142,7 @@
       </c>
       <c r="I33" s="5">
         <f t="shared" si="0"/>
-        <v>3.49</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -15156,7 +15156,7 @@
         <v>22</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>218</v>
@@ -15172,7 +15172,7 @@
       </c>
       <c r="I34" s="5">
         <f t="shared" si="0"/>
-        <v>3.37</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -15186,7 +15186,7 @@
         <v>27</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>24</v>
@@ -15202,7 +15202,7 @@
       </c>
       <c r="I35" s="5">
         <f t="shared" si="0"/>
-        <v>3.87</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -15216,7 +15216,7 @@
         <v>26</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>218</v>
@@ -15232,7 +15232,7 @@
       </c>
       <c r="I36" s="5">
         <f t="shared" si="0"/>
-        <v>3.41</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -15276,7 +15276,7 @@
         <v>22</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>26</v>
@@ -15292,7 +15292,7 @@
       </c>
       <c r="I38" s="5">
         <f t="shared" si="0"/>
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -15306,7 +15306,7 @@
         <v>27</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>26</v>
@@ -15322,7 +15322,7 @@
       </c>
       <c r="I39" s="5">
         <f t="shared" si="0"/>
-        <v>3.71</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -15336,7 +15336,7 @@
         <v>27</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>218</v>
+        <v>22</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>24</v>
@@ -15352,7 +15352,7 @@
       </c>
       <c r="I40" s="5">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -15366,7 +15366,7 @@
         <v>27</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>27</v>
@@ -15382,7 +15382,7 @@
       </c>
       <c r="I41" s="5">
         <f t="shared" si="0"/>
-        <v>3.92</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -15396,7 +15396,7 @@
         <v>27</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>24</v>
@@ -15412,7 +15412,7 @@
       </c>
       <c r="I42" s="5">
         <f t="shared" si="0"/>
-        <v>3.87</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -15426,7 +15426,7 @@
         <v>218</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>24</v>
@@ -15442,7 +15442,7 @@
       </c>
       <c r="I43" s="5">
         <f t="shared" si="0"/>
-        <v>3.84</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -15456,7 +15456,7 @@
         <v>218</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>24</v>
@@ -15472,7 +15472,7 @@
       </c>
       <c r="I44" s="5">
         <f t="shared" si="0"/>
-        <v>3.94</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -15516,7 +15516,7 @@
         <v>27</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>24</v>
@@ -15532,7 +15532,7 @@
       </c>
       <c r="I46" s="5">
         <f t="shared" si="0"/>
-        <v>3.9</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -15546,7 +15546,7 @@
         <v>23</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>219</v>
@@ -15562,7 +15562,7 @@
       </c>
       <c r="I47" s="5">
         <f t="shared" si="0"/>
-        <v>2.3199999999999998</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -15576,7 +15576,7 @@
         <v>27</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>218</v>
+        <v>28</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>27</v>
@@ -15592,7 +15592,7 @@
       </c>
       <c r="I48" s="5">
         <f t="shared" si="0"/>
-        <v>3.86</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -15606,7 +15606,7 @@
         <v>218</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>218</v>
@@ -15622,7 +15622,7 @@
       </c>
       <c r="I49" s="5">
         <f t="shared" si="0"/>
-        <v>3.59</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -15636,7 +15636,7 @@
         <v>24</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>24</v>
@@ -15652,7 +15652,7 @@
       </c>
       <c r="I50" s="5">
         <f t="shared" si="0"/>
-        <v>3.91</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -15666,7 +15666,7 @@
         <v>26</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>218</v>
@@ -15682,7 +15682,7 @@
       </c>
       <c r="I51" s="5">
         <f t="shared" si="0"/>
-        <v>3.33</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -15696,7 +15696,7 @@
         <v>218</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>24</v>
@@ -15712,7 +15712,7 @@
       </c>
       <c r="I52" s="5">
         <f t="shared" si="0"/>
-        <v>3.73</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -15756,7 +15756,7 @@
         <v>26</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>27</v>
@@ -15772,7 +15772,7 @@
       </c>
       <c r="I54" s="5">
         <f t="shared" si="0"/>
-        <v>3.27</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -15786,7 +15786,7 @@
         <v>22</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>24</v>
@@ -15802,7 +15802,7 @@
       </c>
       <c r="I55" s="5">
         <f t="shared" si="0"/>
-        <v>3.18</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -15816,7 +15816,7 @@
         <v>218</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>27</v>
@@ -15832,7 +15832,7 @@
       </c>
       <c r="I56" s="5">
         <f t="shared" si="0"/>
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -15846,7 +15846,7 @@
         <v>24</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>218</v>
+        <v>22</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>24</v>
@@ -15862,7 +15862,7 @@
       </c>
       <c r="I57" s="5">
         <f t="shared" si="0"/>
-        <v>3.85</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -15906,7 +15906,7 @@
         <v>28</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>26</v>
@@ -15922,7 +15922,7 @@
       </c>
       <c r="I59" s="5">
         <f t="shared" si="0"/>
-        <v>3.11</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -15936,7 +15936,7 @@
         <v>22</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>28</v>
@@ -15952,7 +15952,7 @@
       </c>
       <c r="I60" s="5">
         <f t="shared" si="0"/>
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -15966,7 +15966,7 @@
         <v>26</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>26</v>
@@ -15982,7 +15982,7 @@
       </c>
       <c r="I61" s="5">
         <f t="shared" si="0"/>
-        <v>3.25</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -15996,7 +15996,7 @@
         <v>26</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>26</v>
@@ -16012,7 +16012,7 @@
       </c>
       <c r="I62" s="5">
         <f t="shared" si="0"/>
-        <v>3.11</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -16026,7 +16026,7 @@
         <v>28</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>25</v>
@@ -16042,7 +16042,7 @@
       </c>
       <c r="I63" s="5">
         <f t="shared" si="0"/>
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -16056,7 +16056,7 @@
         <v>27</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>24</v>
@@ -16072,7 +16072,7 @@
       </c>
       <c r="I64" s="5">
         <f t="shared" si="0"/>
-        <v>3.63</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -16086,7 +16086,7 @@
         <v>28</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>218</v>
+        <v>28</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>26</v>
@@ -16102,7 +16102,7 @@
       </c>
       <c r="I65" s="5">
         <f t="shared" si="0"/>
-        <v>3.14</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -16116,7 +16116,7 @@
         <v>218</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>218</v>
@@ -16132,7 +16132,7 @@
       </c>
       <c r="I66" s="5">
         <f t="shared" si="0"/>
-        <v>3.45</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -16146,7 +16146,7 @@
         <v>218</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>24</v>
@@ -16162,7 +16162,7 @@
       </c>
       <c r="I67" s="5">
         <f t="shared" si="0"/>
-        <v>3.53</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -16176,7 +16176,7 @@
         <v>218</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>218</v>
@@ -16204,7 +16204,7 @@
         (3 + 3 + 3 + 2 + 2 + 2),
     2),
 0)</f>
-        <v>3.78</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -16248,7 +16248,7 @@
         <v>28</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>21</v>
@@ -16264,7 +16264,7 @@
       </c>
       <c r="I70" s="5">
         <f t="shared" si="1"/>
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -16278,7 +16278,7 @@
         <v>28</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>28</v>
@@ -16294,7 +16294,7 @@
       </c>
       <c r="I71" s="5">
         <f t="shared" si="1"/>
-        <v>2.73</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -16308,7 +16308,7 @@
         <v>27</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>24</v>
@@ -16324,7 +16324,7 @@
       </c>
       <c r="I72" s="5">
         <f t="shared" si="1"/>
-        <v>3.81</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -16368,7 +16368,7 @@
         <v>22</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>218</v>
@@ -16384,7 +16384,7 @@
       </c>
       <c r="I74" s="5">
         <f t="shared" si="1"/>
-        <v>3.43</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -16398,7 +16398,7 @@
         <v>26</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>218</v>
+        <v>28</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>27</v>
@@ -16414,7 +16414,7 @@
       </c>
       <c r="I75" s="5">
         <f t="shared" si="1"/>
-        <v>3.49</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -16428,7 +16428,7 @@
         <v>26</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>26</v>
@@ -16444,7 +16444,7 @@
       </c>
       <c r="I76" s="5">
         <f t="shared" si="1"/>
-        <v>3.21</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -16458,7 +16458,7 @@
         <v>21</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>28</v>
@@ -16474,7 +16474,7 @@
       </c>
       <c r="I77" s="5">
         <f t="shared" si="1"/>
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -16488,7 +16488,7 @@
         <v>218</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>218</v>
+        <v>22</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>24</v>
@@ -16504,7 +16504,7 @@
       </c>
       <c r="I78" s="5">
         <f t="shared" si="1"/>
-        <v>3.65</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -16518,7 +16518,7 @@
         <v>27</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>27</v>
@@ -16534,7 +16534,7 @@
       </c>
       <c r="I79" s="5">
         <f t="shared" si="1"/>
-        <v>3.73</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -16668,7 +16668,7 @@
         <v>218</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>24</v>
@@ -16684,7 +16684,7 @@
       </c>
       <c r="I84" s="5">
         <f t="shared" si="1"/>
-        <v>3.62</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -16698,7 +16698,7 @@
         <v>26</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>218</v>
@@ -16714,7 +16714,7 @@
       </c>
       <c r="I85" s="5">
         <f t="shared" si="1"/>
-        <v>3.72</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -16788,7 +16788,7 @@
         <v>28</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>28</v>
@@ -16804,7 +16804,7 @@
       </c>
       <c r="I88" s="5">
         <f t="shared" si="1"/>
-        <v>2.73</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -16818,7 +16818,7 @@
         <v>28</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>22</v>
@@ -16834,7 +16834,7 @@
       </c>
       <c r="I89" s="5">
         <f t="shared" si="1"/>
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -16878,7 +16878,7 @@
         <v>218</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>24</v>
@@ -16894,7 +16894,7 @@
       </c>
       <c r="I91" s="5">
         <f t="shared" si="1"/>
-        <v>3.49</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -16908,7 +16908,7 @@
         <v>26</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>22</v>
@@ -16924,7 +16924,7 @@
       </c>
       <c r="I92" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -16938,7 +16938,7 @@
         <v>27</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>218</v>
@@ -16954,7 +16954,7 @@
       </c>
       <c r="I93" s="5">
         <f t="shared" si="1"/>
-        <v>3.63</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -16968,7 +16968,7 @@
         <v>22</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>218</v>
@@ -16984,7 +16984,7 @@
       </c>
       <c r="I94" s="5">
         <f t="shared" si="1"/>
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -17088,7 +17088,7 @@
         <v>27</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>24</v>
@@ -17104,7 +17104,7 @@
       </c>
       <c r="I98" s="5">
         <f t="shared" si="1"/>
-        <v>3.49</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -17148,7 +17148,7 @@
         <v>26</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>27</v>
@@ -17164,7 +17164,7 @@
       </c>
       <c r="I100" s="5">
         <f t="shared" si="1"/>
-        <v>3.36</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -17178,7 +17178,7 @@
         <v>26</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>26</v>
@@ -17194,7 +17194,7 @@
       </c>
       <c r="I101" s="5">
         <f t="shared" si="1"/>
-        <v>3.41</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -17298,7 +17298,7 @@
         <v>24</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>24</v>
@@ -17314,7 +17314,7 @@
       </c>
       <c r="I105" s="5">
         <f t="shared" si="1"/>
-        <v>3.54</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -17328,7 +17328,7 @@
         <v>22</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>26</v>
@@ -17344,7 +17344,7 @@
       </c>
       <c r="I106" s="5">
         <f t="shared" si="1"/>
-        <v>3.19</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -17358,7 +17358,7 @@
         <v>28</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>218</v>
@@ -17374,7 +17374,7 @@
       </c>
       <c r="I107" s="5">
         <f t="shared" si="1"/>
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -17388,7 +17388,7 @@
         <v>28</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>218</v>
+        <v>28</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>26</v>
@@ -17404,7 +17404,7 @@
       </c>
       <c r="I108" s="5">
         <f t="shared" si="1"/>
-        <v>3.37</v>
+        <v>3.17</v>
       </c>
     </row>
   </sheetData>
@@ -17416,7 +17416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325CB179-F49C-49B9-8265-356F4F1FB48D}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" workbookViewId="0">
+    <sheetView topLeftCell="B13" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musny\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6877EC-A0EF-4CC0-9ED8-1DB9D38D35A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9A9160-F5CC-4D7E-AD9E-13357714E4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.1" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4541" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4434" uniqueCount="273">
   <si>
     <t>Reg. No</t>
   </si>
@@ -851,6 +851,12 @@
   </si>
   <si>
     <t>Mr. Ahamed M.I.A.</t>
+  </si>
+  <si>
+    <t>3.1 GPA</t>
+  </si>
+  <si>
+    <t>not released yet</t>
   </si>
 </sst>
 </file>
@@ -975,7 +981,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4243,8 +4260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC641C32-EE3F-414D-89DA-74290CB143F8}">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView topLeftCell="B73" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7522,8 +7539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView topLeftCell="C76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J124" sqref="J124"/>
+    <sheetView topLeftCell="C74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10487,7 +10504,7 @@
         <v>23</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>21</v>
@@ -10497,7 +10514,7 @@
       </c>
       <c r="J89" s="5">
         <f t="shared" si="2"/>
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -10788,7 +10805,7 @@
         <v>28</v>
       </c>
       <c r="J98" s="5">
-        <f t="shared" ref="J98:J129" si="3">IFERROR(
+        <f t="shared" ref="J98:J108" si="3">IFERROR(
     ROUND(
         (
             (IF(E98="A+", 4, IF(E98="A", 4, IF(E98="A-", 3.7, IF(E98="B+", 3.3, IF(E98="B", 3, IF(E98="B-", 2.7, IF(E98="C+", 2.3, IF(E98="C", 2, IF(E98="C-", 1.7, IF(E98="D+", 1.3, IF(E98="D", 1, IF(E98="E", 0, 0))))))))))))) * 4 +
@@ -14110,14 +14127,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF4024C-D5C5-4006-A7A8-DFD50063D4CF}">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K105" sqref="K105"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -14166,7 +14184,7 @@
         <v>218</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>26</v>
@@ -14188,7 +14206,7 @@
         (3 + 3 + 3 + 2 + 2 + 2),
     2),
 0)</f>
-        <v>3.33</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -14208,7 +14226,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>22</v>
@@ -14230,7 +14248,7 @@
         (3 + 3 + 3 + 2 + 2 + 2),
     2),
 0)</f>
-        <v>2.36</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -14250,7 +14268,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>27</v>
@@ -14272,7 +14290,7 @@
         (3 + 3 + 3 + 2 + 2 + 2),
     2),
 0)</f>
-        <v>3.37</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -14292,7 +14310,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>27</v>
@@ -14302,7 +14320,7 @@
       </c>
       <c r="I5" s="5">
         <f t="shared" si="0"/>
-        <v>3.43</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -14322,7 +14340,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>27</v>
@@ -14332,7 +14350,7 @@
       </c>
       <c r="I6" s="5">
         <f t="shared" si="0"/>
-        <v>3.76</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -14352,7 +14370,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>24</v>
@@ -14362,7 +14380,7 @@
       </c>
       <c r="I7" s="5">
         <f t="shared" si="0"/>
-        <v>3.86</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -14382,7 +14400,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>27</v>
@@ -14392,7 +14410,7 @@
       </c>
       <c r="I8" s="5">
         <f t="shared" si="0"/>
-        <v>2.85</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -14412,7 +14430,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>22</v>
@@ -14422,7 +14440,7 @@
       </c>
       <c r="I9" s="5">
         <f t="shared" si="0"/>
-        <v>2.4900000000000002</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -14442,7 +14460,7 @@
         <v>218</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>24</v>
@@ -14452,7 +14470,7 @@
       </c>
       <c r="I10" s="5">
         <f t="shared" si="0"/>
-        <v>3.21</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -14472,7 +14490,7 @@
         <v>27</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>24</v>
@@ -14482,7 +14500,7 @@
       </c>
       <c r="I11" s="5">
         <f t="shared" si="0"/>
-        <v>3.51</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -14502,7 +14520,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>24</v>
@@ -14512,7 +14530,7 @@
       </c>
       <c r="I12" s="5">
         <f t="shared" si="0"/>
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -14532,7 +14550,7 @@
         <v>218</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>27</v>
@@ -14542,7 +14560,7 @@
       </c>
       <c r="I13" s="5">
         <f t="shared" si="0"/>
-        <v>3.37</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -14562,7 +14580,7 @@
         <v>22</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>28</v>
@@ -14572,7 +14590,7 @@
       </c>
       <c r="I14" s="5">
         <f t="shared" si="0"/>
-        <v>3.12</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -14592,7 +14610,7 @@
         <v>27</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>27</v>
@@ -14602,7 +14620,7 @@
       </c>
       <c r="I15" s="5">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -14622,7 +14640,7 @@
         <v>28</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>23</v>
@@ -14632,7 +14650,7 @@
       </c>
       <c r="I16" s="5">
         <f t="shared" si="0"/>
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -14652,7 +14670,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>27</v>
@@ -14662,7 +14680,7 @@
       </c>
       <c r="I17" s="5">
         <f t="shared" si="0"/>
-        <v>3.64</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -14682,7 +14700,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>218</v>
@@ -14692,7 +14710,7 @@
       </c>
       <c r="I18" s="5">
         <f t="shared" si="0"/>
-        <v>3.84</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -14712,7 +14730,7 @@
         <v>23</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>26</v>
@@ -14722,7 +14740,7 @@
       </c>
       <c r="I19" s="5">
         <f t="shared" si="0"/>
-        <v>2.4300000000000002</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -14742,7 +14760,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>27</v>
@@ -14752,7 +14770,7 @@
       </c>
       <c r="I20" s="5">
         <f t="shared" si="0"/>
-        <v>3.51</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -14772,7 +14790,7 @@
         <v>27</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>24</v>
@@ -14782,7 +14800,7 @@
       </c>
       <c r="I21" s="5">
         <f t="shared" si="0"/>
-        <v>3.86</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -14802,7 +14820,7 @@
         <v>218</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>26</v>
@@ -14812,7 +14830,7 @@
       </c>
       <c r="I22" s="5">
         <f t="shared" si="0"/>
-        <v>3.07</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -14832,7 +14850,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>26</v>
@@ -14842,7 +14860,7 @@
       </c>
       <c r="I23" s="5">
         <f t="shared" si="0"/>
-        <v>3.03</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -14862,7 +14880,7 @@
         <v>27</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>27</v>
@@ -14872,7 +14890,7 @@
       </c>
       <c r="I24" s="5">
         <f t="shared" si="0"/>
-        <v>3.37</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -14892,7 +14910,7 @@
         <v>26</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>26</v>
@@ -14902,7 +14920,7 @@
       </c>
       <c r="I25" s="5">
         <f t="shared" si="0"/>
-        <v>2.96</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -14922,7 +14940,7 @@
         <v>28</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>218</v>
@@ -14932,7 +14950,7 @@
       </c>
       <c r="I26" s="5">
         <f t="shared" si="0"/>
-        <v>2.58</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -14952,7 +14970,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>26</v>
@@ -14962,7 +14980,7 @@
       </c>
       <c r="I27" s="5">
         <f t="shared" si="0"/>
-        <v>2.84</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -14982,7 +15000,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>24</v>
@@ -14992,7 +15010,7 @@
       </c>
       <c r="I28" s="5">
         <f t="shared" si="0"/>
-        <v>3.9</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -15012,7 +15030,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>24</v>
@@ -15022,7 +15040,7 @@
       </c>
       <c r="I29" s="5">
         <f t="shared" si="0"/>
-        <v>3.68</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -15042,7 +15060,7 @@
         <v>218</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>26</v>
@@ -15052,7 +15070,7 @@
       </c>
       <c r="I30" s="5">
         <f t="shared" si="0"/>
-        <v>3.35</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -15072,7 +15090,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>27</v>
@@ -15082,7 +15100,7 @@
       </c>
       <c r="I31" s="5">
         <f t="shared" si="0"/>
-        <v>3.03</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -15102,7 +15120,7 @@
         <v>22</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>28</v>
@@ -15112,7 +15130,7 @@
       </c>
       <c r="I32" s="5">
         <f t="shared" si="0"/>
-        <v>2.61</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -15132,7 +15150,7 @@
         <v>218</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>26</v>
@@ -15142,7 +15160,7 @@
       </c>
       <c r="I33" s="5">
         <f t="shared" si="0"/>
-        <v>3.15</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -15162,7 +15180,7 @@
         <v>218</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>218</v>
@@ -15172,7 +15190,7 @@
       </c>
       <c r="I34" s="5">
         <f t="shared" si="0"/>
-        <v>3.09</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -15192,7 +15210,7 @@
         <v>24</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>24</v>
@@ -15202,7 +15220,7 @@
       </c>
       <c r="I35" s="5">
         <f t="shared" si="0"/>
-        <v>3.67</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -15222,7 +15240,7 @@
         <v>218</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>218</v>
@@ -15232,7 +15250,7 @@
       </c>
       <c r="I36" s="5">
         <f t="shared" si="0"/>
-        <v>3.35</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -15252,7 +15270,7 @@
         <v>218</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>27</v>
@@ -15262,7 +15280,7 @@
       </c>
       <c r="I37" s="5">
         <f t="shared" si="0"/>
-        <v>3.51</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -15282,7 +15300,7 @@
         <v>26</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>26</v>
@@ -15292,7 +15310,7 @@
       </c>
       <c r="I38" s="5">
         <f t="shared" si="0"/>
-        <v>3.04</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -15312,7 +15330,7 @@
         <v>26</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>27</v>
@@ -15322,7 +15340,7 @@
       </c>
       <c r="I39" s="5">
         <f t="shared" si="0"/>
-        <v>3.63</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -15342,7 +15360,7 @@
         <v>24</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>24</v>
@@ -15352,7 +15370,7 @@
       </c>
       <c r="I40" s="5">
         <f t="shared" si="0"/>
-        <v>3.61</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -15372,7 +15390,7 @@
         <v>27</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>27</v>
@@ -15382,7 +15400,7 @@
       </c>
       <c r="I41" s="5">
         <f t="shared" si="0"/>
-        <v>3.72</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -15402,7 +15420,7 @@
         <v>24</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>27</v>
@@ -15412,7 +15430,7 @@
       </c>
       <c r="I42" s="5">
         <f t="shared" si="0"/>
-        <v>3.61</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -15432,7 +15450,7 @@
         <v>24</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>27</v>
@@ -15442,7 +15460,7 @@
       </c>
       <c r="I43" s="5">
         <f t="shared" si="0"/>
-        <v>3.56</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -15462,7 +15480,7 @@
         <v>24</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>24</v>
@@ -15472,7 +15490,7 @@
       </c>
       <c r="I44" s="5">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -15492,7 +15510,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>24</v>
@@ -15502,7 +15520,7 @@
       </c>
       <c r="I45" s="5">
         <f t="shared" si="0"/>
-        <v>3.9</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -15522,7 +15540,7 @@
         <v>24</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>24</v>
@@ -15532,7 +15550,7 @@
       </c>
       <c r="I46" s="5">
         <f t="shared" si="0"/>
-        <v>3.82</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -15552,7 +15570,7 @@
         <v>219</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>26</v>
@@ -15562,7 +15580,7 @@
       </c>
       <c r="I47" s="5">
         <f t="shared" si="0"/>
-        <v>2.2599999999999998</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -15582,7 +15600,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>24</v>
@@ -15592,7 +15610,7 @@
       </c>
       <c r="I48" s="5">
         <f t="shared" si="0"/>
-        <v>3.66</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -15612,7 +15630,7 @@
         <v>218</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>26</v>
@@ -15622,7 +15640,7 @@
       </c>
       <c r="I49" s="5">
         <f t="shared" si="0"/>
-        <v>3.31</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -15642,7 +15660,7 @@
         <v>24</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>24</v>
@@ -15652,7 +15670,7 @@
       </c>
       <c r="I50" s="5">
         <f t="shared" si="0"/>
-        <v>3.71</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -15672,7 +15690,7 @@
         <v>218</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>218</v>
@@ -15682,7 +15700,7 @@
       </c>
       <c r="I51" s="5">
         <f t="shared" si="0"/>
-        <v>3.19</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -15702,7 +15720,7 @@
         <v>24</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>24</v>
@@ -15712,7 +15730,7 @@
       </c>
       <c r="I52" s="5">
         <f t="shared" si="0"/>
-        <v>3.53</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -15732,7 +15750,7 @@
         <v>24</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>24</v>
@@ -15742,7 +15760,7 @@
       </c>
       <c r="I53" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -15762,7 +15780,7 @@
         <v>27</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>218</v>
@@ -15772,7 +15790,7 @@
       </c>
       <c r="I54" s="5">
         <f t="shared" si="0"/>
-        <v>3.35</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -15792,7 +15810,7 @@
         <v>24</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>218</v>
@@ -15802,7 +15820,7 @@
       </c>
       <c r="I55" s="5">
         <f t="shared" si="0"/>
-        <v>2.98</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -15822,7 +15840,7 @@
         <v>27</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>218</v>
@@ -15832,7 +15850,7 @@
       </c>
       <c r="I56" s="5">
         <f t="shared" si="0"/>
-        <v>3.47</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -15852,7 +15870,7 @@
         <v>24</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>24</v>
@@ -15862,7 +15880,7 @@
       </c>
       <c r="I57" s="5">
         <f t="shared" si="0"/>
-        <v>3.71</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -15882,7 +15900,7 @@
         <v>24</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>24</v>
@@ -15892,7 +15910,7 @@
       </c>
       <c r="I58" s="5">
         <f t="shared" si="0"/>
-        <v>3.94</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -15912,7 +15930,7 @@
         <v>26</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>26</v>
@@ -15922,7 +15940,7 @@
       </c>
       <c r="I59" s="5">
         <f t="shared" si="0"/>
-        <v>2.97</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -15942,7 +15960,7 @@
         <v>28</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>218</v>
@@ -15952,7 +15970,7 @@
       </c>
       <c r="I60" s="5">
         <f t="shared" si="0"/>
-        <v>2.94</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -15972,7 +15990,7 @@
         <v>26</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>218</v>
@@ -15982,7 +16000,7 @@
       </c>
       <c r="I61" s="5">
         <f t="shared" si="0"/>
-        <v>3.11</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -16002,7 +16020,7 @@
         <v>26</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>26</v>
@@ -16012,7 +16030,7 @@
       </c>
       <c r="I62" s="5">
         <f t="shared" si="0"/>
-        <v>2.97</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -16032,7 +16050,7 @@
         <v>25</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>25</v>
+        <v>272</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>23</v>
@@ -16042,7 +16060,7 @@
       </c>
       <c r="I63" s="5">
         <f t="shared" si="0"/>
-        <v>2.27</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -16062,7 +16080,7 @@
         <v>24</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>26</v>
@@ -16072,7 +16090,7 @@
       </c>
       <c r="I64" s="5">
         <f t="shared" si="0"/>
-        <v>3.69</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -16092,7 +16110,7 @@
         <v>26</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>24</v>
@@ -16102,7 +16120,7 @@
       </c>
       <c r="I65" s="5">
         <f t="shared" si="0"/>
-        <v>2.94</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -16122,7 +16140,7 @@
         <v>218</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>27</v>
@@ -16132,7 +16150,7 @@
       </c>
       <c r="I66" s="5">
         <f t="shared" si="0"/>
-        <v>3.31</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -16152,7 +16170,7 @@
         <v>24</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>26</v>
@@ -16162,7 +16180,7 @@
       </c>
       <c r="I67" s="5">
         <f t="shared" si="0"/>
-        <v>3.27</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -16182,7 +16200,7 @@
         <v>218</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>27</v>
@@ -16204,7 +16222,7 @@
         (3 + 3 + 3 + 2 + 2 + 2),
     2),
 0)</f>
-        <v>3.5</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -16224,7 +16242,7 @@
         <v>26</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>218</v>
@@ -16234,7 +16252,7 @@
       </c>
       <c r="I69" s="5">
         <f t="shared" si="1"/>
-        <v>3.15</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -16254,7 +16272,7 @@
         <v>21</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>26</v>
@@ -16264,7 +16282,7 @@
       </c>
       <c r="I70" s="5">
         <f t="shared" si="1"/>
-        <v>2.52</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -16284,7 +16302,7 @@
         <v>28</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>218</v>
@@ -16294,7 +16312,7 @@
       </c>
       <c r="I71" s="5">
         <f t="shared" si="1"/>
-        <v>2.79</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -16314,7 +16332,7 @@
         <v>24</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>24</v>
@@ -16324,7 +16342,7 @@
       </c>
       <c r="I72" s="5">
         <f t="shared" si="1"/>
-        <v>3.73</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -16344,7 +16362,7 @@
         <v>22</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>21</v>
@@ -16354,7 +16372,7 @@
       </c>
       <c r="I73" s="5">
         <f t="shared" si="1"/>
-        <v>2.57</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -16374,7 +16392,7 @@
         <v>218</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>218</v>
@@ -16384,7 +16402,7 @@
       </c>
       <c r="I74" s="5">
         <f t="shared" si="1"/>
-        <v>3.09</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -16404,7 +16422,7 @@
         <v>27</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>24</v>
@@ -16414,7 +16432,7 @@
       </c>
       <c r="I75" s="5">
         <f t="shared" si="1"/>
-        <v>3.29</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -16434,7 +16452,7 @@
         <v>26</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>218</v>
@@ -16444,7 +16462,7 @@
       </c>
       <c r="I76" s="5">
         <f t="shared" si="1"/>
-        <v>3.15</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -16464,7 +16482,7 @@
         <v>28</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>28</v>
@@ -16474,7 +16492,7 @@
       </c>
       <c r="I77" s="5">
         <f t="shared" si="1"/>
-        <v>2.52</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -16494,7 +16512,7 @@
         <v>24</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>24</v>
@@ -16504,7 +16522,7 @@
       </c>
       <c r="I78" s="5">
         <f t="shared" si="1"/>
-        <v>3.51</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -16524,7 +16542,7 @@
         <v>27</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>218</v>
@@ -16534,7 +16552,7 @@
       </c>
       <c r="I79" s="5">
         <f t="shared" si="1"/>
-        <v>3.67</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -16554,7 +16572,7 @@
         <v>27</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>218</v>
@@ -16564,7 +16582,7 @@
       </c>
       <c r="I80" s="5">
         <f t="shared" si="1"/>
-        <v>3.76</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -16584,7 +16602,7 @@
         <v>26</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>27</v>
@@ -16594,7 +16612,7 @@
       </c>
       <c r="I81" s="5">
         <f t="shared" si="1"/>
-        <v>3.58</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -16614,7 +16632,7 @@
         <v>222</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>222</v>
@@ -16644,7 +16662,7 @@
         <v>218</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>24</v>
@@ -16654,7 +16672,7 @@
       </c>
       <c r="I83" s="5">
         <f t="shared" si="1"/>
-        <v>3.55</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -16674,7 +16692,7 @@
         <v>24</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>218</v>
@@ -16684,7 +16702,7 @@
       </c>
       <c r="I84" s="5">
         <f t="shared" si="1"/>
-        <v>3.56</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -16704,7 +16722,7 @@
         <v>218</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>27</v>
@@ -16714,7 +16732,7 @@
       </c>
       <c r="I85" s="5">
         <f t="shared" si="1"/>
-        <v>3.66</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -16734,7 +16752,7 @@
         <v>24</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>24</v>
@@ -16744,7 +16762,7 @@
       </c>
       <c r="I86" s="5">
         <f t="shared" si="1"/>
-        <v>3.96</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -16764,7 +16782,7 @@
         <v>22</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>218</v>
@@ -16774,7 +16792,7 @@
       </c>
       <c r="I87" s="5">
         <f t="shared" si="1"/>
-        <v>2.95</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -16794,7 +16812,7 @@
         <v>28</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>28</v>
@@ -16804,7 +16822,7 @@
       </c>
       <c r="I88" s="5">
         <f t="shared" si="1"/>
-        <v>2.59</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -16824,7 +16842,7 @@
         <v>22</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>22</v>
@@ -16834,7 +16852,7 @@
       </c>
       <c r="I89" s="5">
         <f t="shared" si="1"/>
-        <v>2.88</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -16854,7 +16872,7 @@
         <v>222</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>222</v>
@@ -16884,7 +16902,7 @@
         <v>24</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>27</v>
@@ -16894,7 +16912,7 @@
       </c>
       <c r="I91" s="5">
         <f t="shared" si="1"/>
-        <v>3.55</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -16914,7 +16932,7 @@
         <v>22</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>22</v>
@@ -16924,7 +16942,7 @@
       </c>
       <c r="I92" s="5">
         <f t="shared" si="1"/>
-        <v>3.06</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -16944,7 +16962,7 @@
         <v>218</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>218</v>
@@ -16954,7 +16972,7 @@
       </c>
       <c r="I93" s="5">
         <f t="shared" si="1"/>
-        <v>3.71</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -16974,7 +16992,7 @@
         <v>218</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>27</v>
@@ -16984,7 +17002,7 @@
       </c>
       <c r="I94" s="5">
         <f t="shared" si="1"/>
-        <v>3.39</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -17004,7 +17022,7 @@
         <v>27</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>22</v>
@@ -17014,7 +17032,7 @@
       </c>
       <c r="I95" s="5">
         <f t="shared" si="1"/>
-        <v>3.4</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -17034,7 +17052,7 @@
         <v>26</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>27</v>
@@ -17044,7 +17062,7 @@
       </c>
       <c r="I96" s="5">
         <f t="shared" si="1"/>
-        <v>3.66</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -17064,7 +17082,7 @@
         <v>24</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>218</v>
@@ -17074,7 +17092,7 @@
       </c>
       <c r="I97" s="5">
         <f t="shared" si="1"/>
-        <v>3.41</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -17094,7 +17112,7 @@
         <v>24</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>218</v>
@@ -17104,7 +17122,7 @@
       </c>
       <c r="I98" s="5">
         <f t="shared" si="1"/>
-        <v>3.55</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -17124,7 +17142,7 @@
         <v>27</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>26</v>
@@ -17134,7 +17152,7 @@
       </c>
       <c r="I99" s="5">
         <f t="shared" si="1"/>
-        <v>3.29</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -17154,7 +17172,7 @@
         <v>27</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>26</v>
@@ -17164,7 +17182,7 @@
       </c>
       <c r="I100" s="5">
         <f t="shared" si="1"/>
-        <v>3.3</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -17184,7 +17202,7 @@
         <v>26</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>27</v>
@@ -17194,7 +17212,7 @@
       </c>
       <c r="I101" s="5">
         <f t="shared" si="1"/>
-        <v>3.49</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -17214,7 +17232,7 @@
         <v>218</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>218</v>
@@ -17224,7 +17242,7 @@
       </c>
       <c r="I102" s="5">
         <f t="shared" si="1"/>
-        <v>3.23</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -17244,7 +17262,7 @@
         <v>24</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>218</v>
@@ -17254,7 +17272,7 @@
       </c>
       <c r="I103" s="5">
         <f t="shared" si="1"/>
-        <v>3.41</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -17274,7 +17292,7 @@
         <v>27</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>218</v>
@@ -17284,7 +17302,7 @@
       </c>
       <c r="I104" s="5">
         <f t="shared" si="1"/>
-        <v>3.21</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -17304,7 +17322,7 @@
         <v>24</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>26</v>
@@ -17314,7 +17332,7 @@
       </c>
       <c r="I105" s="5">
         <f t="shared" si="1"/>
-        <v>3.62</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -17334,7 +17352,7 @@
         <v>26</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>26</v>
@@ -17344,7 +17362,7 @@
       </c>
       <c r="I106" s="5">
         <f t="shared" si="1"/>
-        <v>3.05</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -17364,7 +17382,7 @@
         <v>218</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>218</v>
@@ -17374,7 +17392,7 @@
       </c>
       <c r="I107" s="5">
         <f t="shared" si="1"/>
-        <v>3.4</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -17394,7 +17412,7 @@
         <v>26</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>218</v>
@@ -17404,7 +17422,7 @@
       </c>
       <c r="I108" s="5">
         <f t="shared" si="1"/>
-        <v>3.17</v>
+        <v>2.77</v>
       </c>
     </row>
   </sheetData>
@@ -17416,2927 +17434,3141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325CB179-F49C-49B9-8265-356F4F1FB48D}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="7" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="2">
+        <v>3.26</v>
+      </c>
       <c r="D2" s="2">
-        <v>3.26</v>
-      </c>
-      <c r="E2" s="2">
         <v>3.5</v>
       </c>
-      <c r="F2" s="9">
+      <c r="E2" s="9">
+        <f>'2.1'!J2</f>
         <v>3.67</v>
       </c>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>2.59</v>
       </c>
+      <c r="G2">
+        <f>'3.1'!I2</f>
+        <v>2.79</v>
+      </c>
       <c r="H2" s="2">
-        <f>ROUND(SUM(D2:G2)/4, 2)</f>
-        <v>3.26</v>
+        <f>ROUND(SUM(C2:G2)/5, 2)</f>
+        <v>3.16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>240</v>
       </c>
+      <c r="C3" s="2">
+        <v>2.08</v>
+      </c>
       <c r="D3" s="2">
-        <v>2.08</v>
-      </c>
-      <c r="E3" s="2">
         <v>1.47</v>
       </c>
-      <c r="F3" s="9">
+      <c r="E3" s="9">
+        <f>'2.1'!J3</f>
         <v>1.01</v>
       </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <f>'3.1'!I3</f>
+        <v>2.09</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H66" si="0">ROUND(SUM(D3:G3)/4, 2)</f>
-        <v>1.1399999999999999</v>
+        <f t="shared" ref="H3:H66" si="0">ROUND(SUM(C3:G3)/5, 2)</f>
+        <v>1.33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="2">
+        <v>3.55</v>
+      </c>
       <c r="D4" s="2">
-        <v>3.55</v>
-      </c>
-      <c r="E4" s="2">
         <v>2.91</v>
       </c>
-      <c r="F4" s="9">
+      <c r="E4" s="9">
+        <f>'2.1'!J4</f>
         <v>3.01</v>
       </c>
+      <c r="F4" s="2">
+        <v>2.67</v>
+      </c>
       <c r="G4" s="2">
-        <v>2.67</v>
+        <f>'3.1'!I4</f>
+        <v>2.97</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.31</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.19</v>
+      </c>
+      <c r="E5" s="9">
+        <f>'2.1'!J5</f>
+        <v>2.69</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="G5" s="2">
+        <f>'3.1'!I5</f>
+        <v>3.03</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.77</v>
+      </c>
+      <c r="E6" s="9">
+        <f>'2.1'!J6</f>
+        <v>3.87</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3.44</v>
+      </c>
+      <c r="G6" s="2">
+        <f>'3.1'!I6</f>
+        <v>3.23</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="E7" s="9">
+        <f>'2.1'!J7</f>
+        <v>3.75</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3.66</v>
+      </c>
+      <c r="G7" s="2">
+        <f>'3.1'!I7</f>
+        <v>3.33</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
         <v>3.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3.31</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3.19</v>
-      </c>
-      <c r="F5" s="9">
-        <v>2.69</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="D8" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E8" s="9">
+        <f>'2.1'!J8</f>
+        <v>2.68</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2.19</v>
+      </c>
+      <c r="G8" s="2">
+        <f>'3.1'!I8</f>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.87</v>
+      </c>
+      <c r="E9" s="9">
+        <f>'2.1'!J9</f>
+        <v>1.95</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.13</v>
+      </c>
+      <c r="G9" s="2">
+        <f>'3.1'!I9</f>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3.77</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="E10" s="9">
+        <f>'2.1'!J10</f>
+        <v>2.94</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="G10" s="2">
+        <f>'3.1'!I10</f>
+        <v>2.85</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3.69</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="E11" s="9">
+        <f>'2.1'!J11</f>
+        <v>3.25</v>
+      </c>
+      <c r="F11" s="2">
         <v>2.65</v>
       </c>
-      <c r="H5" s="2">
-        <f t="shared" si="0"/>
-        <v>2.96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3.77</v>
-      </c>
-      <c r="F6" s="9">
-        <v>3.87</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="G11" s="2">
+        <f>'3.1'!I11</f>
+        <v>3.11</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3.69</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3.06</v>
+      </c>
+      <c r="E12" s="9">
+        <f>'2.1'!J12</f>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G12" s="2">
+        <f>'3.1'!I12</f>
+        <v>2.95</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3.64</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3.24</v>
+      </c>
+      <c r="E13" s="9">
+        <f>'2.1'!J13</f>
+        <v>3.43</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2.42</v>
+      </c>
+      <c r="G13" s="2">
+        <f>'3.1'!I13</f>
+        <v>2.93</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3.22</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="E14" s="9">
+        <f>'2.1'!J14</f>
+        <v>2.98</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="G14" s="2">
+        <f>'3.1'!I14</f>
+        <v>2.68</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
         <v>3.44</v>
       </c>
-      <c r="H6" s="2">
-        <f t="shared" si="0"/>
-        <v>3.77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="F7" s="9">
-        <v>3.75</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3.66</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3.04</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F8" s="9">
-        <v>2.68</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2.19</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.87</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1.95</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2.13</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="0"/>
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3.77</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3.29</v>
-      </c>
-      <c r="F10" s="9">
-        <v>2.94</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="0"/>
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2">
-        <v>3.69</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3.33</v>
-      </c>
-      <c r="F11" s="9">
-        <v>3.25</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2.65</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="0"/>
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3.69</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3.06</v>
-      </c>
-      <c r="F12" s="9">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="0"/>
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3.64</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3.24</v>
-      </c>
-      <c r="F13" s="9">
-        <v>3.43</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2.42</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="0"/>
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3.22</v>
-      </c>
-      <c r="E14" s="2">
-        <v>3.33</v>
-      </c>
-      <c r="F14" s="9">
-        <v>2.98</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2.65</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="0"/>
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D15" s="2">
-        <v>3.44</v>
-      </c>
-      <c r="E15" s="2">
         <v>3.11</v>
       </c>
-      <c r="F15" s="9">
+      <c r="E15" s="9">
+        <f>'2.1'!J15</f>
         <v>3.37</v>
       </c>
+      <c r="F15" s="2">
+        <v>2.77</v>
+      </c>
       <c r="G15" s="2">
-        <v>2.77</v>
+        <f>'3.1'!I15</f>
+        <v>3.01</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="0"/>
-        <v>3.17</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.98</v>
       </c>
       <c r="D16" s="2">
         <v>1.98</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="9">
+        <f>'2.1'!J16</f>
+        <v>2.06</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G16" s="2">
+        <f>'3.1'!I16</f>
+        <v>1.85</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
         <v>1.98</v>
       </c>
-      <c r="F16" s="9">
-        <v>2.06</v>
-      </c>
-      <c r="G16" s="2">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0099999999999998</v>
-      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>245</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3.5</v>
       </c>
       <c r="D17" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="E17" s="9">
+        <f>'2.1'!J17</f>
+        <v>3.9</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3.18</v>
+      </c>
+      <c r="G17" s="2">
+        <f>'3.1'!I17</f>
+        <v>3.11</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3.87</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="E18" s="9">
+        <f>'2.1'!J18</f>
+        <v>3.65</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3.38</v>
+      </c>
+      <c r="G18" s="2">
+        <f>'3.1'!I18</f>
+        <v>3.31</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="0"/>
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2.59</v>
+      </c>
+      <c r="E19" s="9">
+        <f>'2.1'!J19</f>
+        <v>1.6</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.87</v>
+      </c>
+      <c r="G19" s="2">
+        <f>'3.1'!I19</f>
+        <v>2.16</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="0"/>
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3.88</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3.92</v>
+      </c>
+      <c r="E20" s="9">
+        <f>'2.1'!J20</f>
+        <v>3.24</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2.82</v>
+      </c>
+      <c r="G20" s="2">
+        <f>'3.1'!I20</f>
+        <v>3.11</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="0"/>
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3.61</v>
+      </c>
+      <c r="E21" s="9">
+        <f>'2.1'!J21</f>
+        <v>3.91</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3.59</v>
+      </c>
+      <c r="G21" s="2">
+        <f>'3.1'!I21</f>
+        <v>3.33</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="0"/>
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2.83</v>
+      </c>
+      <c r="E22" s="9">
+        <f>'2.1'!J22</f>
+        <v>2.84</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2.79</v>
+      </c>
+      <c r="G22" s="2">
+        <f>'3.1'!I22</f>
+        <v>2.71</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="0"/>
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2.81</v>
+      </c>
+      <c r="E23" s="9">
+        <f>'2.1'!J23</f>
+        <v>3.03</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2.29</v>
+      </c>
+      <c r="G23" s="2">
+        <f>'3.1'!I23</f>
+        <v>2.59</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3.81</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3.73</v>
+      </c>
+      <c r="E24" s="9">
+        <f>'2.1'!J24</f>
+        <v>3.23</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="G24" s="2">
+        <f>'3.1'!I24</f>
+        <v>2.97</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="0"/>
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="E25" s="9">
+        <f>'2.1'!J25</f>
+        <v>2.77</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2.36</v>
+      </c>
+      <c r="G25" s="2">
+        <f>'3.1'!I25</f>
+        <v>2.56</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="E26" s="9">
+        <f>'2.1'!J26</f>
+        <v>1.54</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G26" s="2">
+        <f>'3.1'!I26</f>
+        <v>2.31</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="0"/>
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3.79</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3.11</v>
+      </c>
+      <c r="E27" s="9">
+        <f>'2.1'!J27</f>
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="G27" s="2">
+        <f>'3.1'!I27</f>
+        <v>2.48</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="0"/>
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3.96</v>
+      </c>
+      <c r="E28" s="9">
+        <f>'2.1'!J28</f>
+        <v>3.91</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3.49</v>
+      </c>
+      <c r="G28" s="2">
+        <f>'3.1'!I28</f>
+        <v>3.37</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3.79</v>
+      </c>
+      <c r="E29" s="9">
+        <f>'2.1'!J29</f>
+        <v>3.87</v>
+      </c>
+      <c r="F29" s="2">
+        <v>3.53</v>
+      </c>
+      <c r="G29" s="2">
+        <f>'3.1'!I29</f>
+        <v>3.15</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="0"/>
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3.87</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3.77</v>
+      </c>
+      <c r="E30" s="9">
+        <f>'2.1'!J30</f>
+        <v>3.59</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2.83</v>
+      </c>
+      <c r="G30" s="2">
+        <f>'3.1'!I30</f>
+        <v>2.91</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="0"/>
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2.97</v>
+      </c>
+      <c r="E31" s="9">
+        <f>'2.1'!J31</f>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G31" s="2">
+        <f>'3.1'!I31</f>
+        <v>2.73</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="0"/>
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3.77</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3.31</v>
+      </c>
+      <c r="E32" s="9">
+        <f>'2.1'!J32</f>
+        <v>2.35</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2.27</v>
+      </c>
+      <c r="G32" s="2">
+        <f>'3.1'!I32</f>
+        <v>2.34</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="0"/>
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3.77</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3.54</v>
+      </c>
+      <c r="E33" s="9">
+        <f>'2.1'!J33</f>
+        <v>3.43</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="G33" s="2">
+        <f>'3.1'!I33</f>
+        <v>2.65</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="0"/>
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3.17</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2.87</v>
+      </c>
+      <c r="E34" s="9">
+        <f>'2.1'!J34</f>
+        <v>2.65</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2.34</v>
+      </c>
+      <c r="G34" s="2">
+        <f>'3.1'!I34</f>
+        <v>2.79</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="0"/>
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3.41</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="E35" s="9">
+        <f>'2.1'!J35</f>
+        <v>3.67</v>
+      </c>
+      <c r="F35" s="2">
+        <v>3.13</v>
+      </c>
+      <c r="G35" s="2">
+        <f>'3.1'!I35</f>
+        <v>3.27</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="0"/>
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3.92</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3.15</v>
+      </c>
+      <c r="E36" s="9">
+        <f>'2.1'!J36</f>
+        <v>2.64</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2.72</v>
+      </c>
+      <c r="G36" s="2">
+        <f>'3.1'!I36</f>
+        <v>2.99</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="0"/>
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3.85</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3.54</v>
+      </c>
+      <c r="E37" s="9">
+        <f>'2.1'!J37</f>
+        <v>3.13</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="G37" s="2">
+        <f>'3.1'!I37</f>
+        <v>3.01</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2.87</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="E38" s="9">
+        <f>'2.1'!J38</f>
+        <v>2.91</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2.54</v>
+      </c>
+      <c r="G38" s="2">
+        <f>'3.1'!I38</f>
+        <v>2.73</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3.44</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3.41</v>
+      </c>
+      <c r="E39" s="9">
+        <f>'2.1'!J39</f>
+        <v>3.37</v>
+      </c>
+      <c r="F39" s="2">
+        <v>3.14</v>
+      </c>
+      <c r="G39" s="2">
+        <f>'3.1'!I39</f>
+        <v>3.19</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="0"/>
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="2">
+        <v>3.81</v>
+      </c>
+      <c r="D40" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="E40" s="9">
+        <f>'2.1'!J40</f>
+        <v>3.71</v>
+      </c>
+      <c r="F40" s="2">
+        <v>3.21</v>
+      </c>
+      <c r="G40" s="2">
+        <f>'3.1'!I40</f>
+        <v>3.17</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="0"/>
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="E41" s="9">
+        <f>'2.1'!J41</f>
+        <v>3.65</v>
+      </c>
+      <c r="F41" s="2">
+        <v>3.01</v>
+      </c>
+      <c r="G41" s="2">
+        <f>'3.1'!I41</f>
+        <v>3.23</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="0"/>
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3.81</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3.57</v>
+      </c>
+      <c r="E42" s="9">
+        <f>'2.1'!J42</f>
+        <v>3.71</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="G42" s="2">
+        <f>'3.1'!I42</f>
+        <v>3.11</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="0"/>
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3.64</v>
+      </c>
+      <c r="E43" s="9">
+        <f>'2.1'!J43</f>
+        <v>3.9</v>
+      </c>
+      <c r="F43" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="G43" s="2">
+        <f>'3.1'!I43</f>
+        <v>3.03</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="0"/>
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="2">
+        <v>3.92</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3.77</v>
+      </c>
+      <c r="E44" s="9">
+        <f>'2.1'!J44</f>
+        <v>3.79</v>
+      </c>
+      <c r="F44" s="2">
+        <v>3.39</v>
+      </c>
+      <c r="G44" s="2">
+        <f>'3.1'!I44</f>
+        <v>3.07</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="0"/>
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="2">
+        <v>3.61</v>
+      </c>
+      <c r="D45" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="E45" s="9">
+        <f>'2.1'!J45</f>
+        <v>3.71</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3.57</v>
+      </c>
+      <c r="G45" s="2">
+        <f>'3.1'!I45</f>
+        <v>3.41</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="0"/>
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="2">
+        <v>3.88</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3.56</v>
+      </c>
+      <c r="E46" s="9">
+        <f>'2.1'!J46</f>
+        <v>3.75</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2.69</v>
+      </c>
+      <c r="G46" s="2">
+        <f>'3.1'!I46</f>
+        <v>3.33</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="0"/>
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2.83</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2.41</v>
+      </c>
+      <c r="E47" s="9">
+        <f>'2.1'!J47</f>
+        <v>1.66</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="G47" s="2">
+        <f>'3.1'!I47</f>
+        <v>1.99</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="2">
+        <v>3.59</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="E48" s="9">
+        <f>'2.1'!J48</f>
+        <v>3.55</v>
+      </c>
+      <c r="F48" s="2">
+        <v>3.31</v>
+      </c>
+      <c r="G48" s="2">
+        <f>'3.1'!I48</f>
+        <v>3.17</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="0"/>
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2">
         <v>3.5</v>
       </c>
-      <c r="E17" s="2">
-        <v>3.35</v>
-      </c>
-      <c r="F17" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="G17" s="2">
-        <v>3.18</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="0"/>
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="E49" s="9">
+        <f>'2.1'!J49</f>
+        <v>3.57</v>
+      </c>
+      <c r="F49" s="2">
+        <v>2.48</v>
+      </c>
+      <c r="G49" s="2">
+        <f>'3.1'!I49</f>
+        <v>2.82</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="0"/>
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="2">
+        <v>3.86</v>
+      </c>
+      <c r="D50" s="2">
+        <v>3.73</v>
+      </c>
+      <c r="E50" s="9">
+        <f>'2.1'!J50</f>
         <v>3.87</v>
       </c>
-      <c r="E18" s="2">
-        <v>3.33</v>
-      </c>
-      <c r="F18" s="9">
-        <v>3.65</v>
-      </c>
-      <c r="G18" s="2">
-        <v>3.38</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="0"/>
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2">
-        <v>3.45</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.59</v>
-      </c>
-      <c r="F19" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1.87</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="0"/>
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="2">
-        <v>3.88</v>
-      </c>
-      <c r="E20" s="2">
-        <v>3.92</v>
-      </c>
-      <c r="F20" s="9">
-        <v>3.24</v>
-      </c>
-      <c r="G20" s="2">
-        <v>2.82</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="0"/>
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2">
-        <v>3.75</v>
-      </c>
-      <c r="E21" s="2">
-        <v>3.61</v>
-      </c>
-      <c r="F21" s="9">
-        <v>3.91</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="F50" s="2">
+        <v>3.34</v>
+      </c>
+      <c r="G50" s="2">
+        <f>'3.1'!I50</f>
+        <v>3.17</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="0"/>
         <v>3.59</v>
       </c>
-      <c r="H21" s="2">
-        <f t="shared" si="0"/>
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2.65</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2.83</v>
-      </c>
-      <c r="F22" s="9">
-        <v>2.84</v>
-      </c>
-      <c r="G22" s="2">
-        <v>2.79</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="0"/>
-        <v>2.78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2.81</v>
-      </c>
-      <c r="F23" s="9">
-        <v>3.03</v>
-      </c>
-      <c r="G23" s="2">
-        <v>2.29</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="0"/>
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="2">
-        <v>3.81</v>
-      </c>
-      <c r="E24" s="2">
-        <v>3.73</v>
-      </c>
-      <c r="F24" s="9">
-        <v>3.23</v>
-      </c>
-      <c r="G24" s="2">
-        <v>3.11</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="0"/>
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="2">
-        <v>3.35</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2.95</v>
-      </c>
-      <c r="F25" s="9">
-        <v>2.77</v>
-      </c>
-      <c r="G25" s="2">
-        <v>2.36</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="0"/>
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1.65</v>
-      </c>
-      <c r="F26" s="9">
-        <v>1.54</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="0"/>
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="2">
-        <v>3.79</v>
-      </c>
-      <c r="E27" s="2">
-        <v>3.11</v>
-      </c>
-      <c r="F27" s="9">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="G27" s="2">
-        <v>2.25</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="0"/>
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="2">
-        <v>4</v>
-      </c>
-      <c r="E28" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="F28" s="9">
-        <v>3.91</v>
-      </c>
-      <c r="G28" s="2">
-        <v>3.49</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="0"/>
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="2">
-        <v>4</v>
-      </c>
-      <c r="E29" s="2">
-        <v>3.79</v>
-      </c>
-      <c r="F29" s="9">
-        <v>3.87</v>
-      </c>
-      <c r="G29" s="2">
-        <v>3.53</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="0"/>
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="2">
-        <v>3.87</v>
-      </c>
-      <c r="E30" s="2">
-        <v>3.77</v>
-      </c>
-      <c r="F30" s="9">
-        <v>3.59</v>
-      </c>
-      <c r="G30" s="2">
-        <v>2.83</v>
-      </c>
-      <c r="H30" s="2">
-        <f t="shared" si="0"/>
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="2">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="E31" s="2">
-        <v>2.97</v>
-      </c>
-      <c r="F31" s="9">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="G31" s="2">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="0"/>
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="2">
-        <v>3.77</v>
-      </c>
-      <c r="E32" s="2">
-        <v>3.31</v>
-      </c>
-      <c r="F32" s="9">
-        <v>2.35</v>
-      </c>
-      <c r="G32" s="2">
-        <v>2.27</v>
-      </c>
-      <c r="H32" s="2">
-        <f t="shared" si="0"/>
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="2">
-        <v>3.77</v>
-      </c>
-      <c r="E33" s="2">
-        <v>3.54</v>
-      </c>
-      <c r="F33" s="9">
-        <v>3.43</v>
-      </c>
-      <c r="G33" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" si="0"/>
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="2">
-        <v>3.17</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2.87</v>
-      </c>
-      <c r="F34" s="9">
-        <v>2.65</v>
-      </c>
-      <c r="G34" s="2">
-        <v>2.34</v>
-      </c>
-      <c r="H34" s="2">
-        <f t="shared" si="0"/>
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D35" s="2">
-        <v>3.41</v>
-      </c>
-      <c r="E35" s="2">
-        <v>3.67</v>
-      </c>
-      <c r="F35" s="9">
-        <v>3.67</v>
-      </c>
-      <c r="G35" s="2">
-        <v>3.13</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="0"/>
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" s="2">
-        <v>3.92</v>
-      </c>
-      <c r="E36" s="2">
-        <v>3.15</v>
-      </c>
-      <c r="F36" s="9">
-        <v>2.64</v>
-      </c>
-      <c r="G36" s="2">
-        <v>2.72</v>
-      </c>
-      <c r="H36" s="2">
-        <f t="shared" si="0"/>
-        <v>3.11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="2">
-        <v>3.85</v>
-      </c>
-      <c r="E37" s="2">
-        <v>3.54</v>
-      </c>
-      <c r="F37" s="9">
-        <v>3.13</v>
-      </c>
-      <c r="G37" s="2">
-        <v>2.95</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="0"/>
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="2">
-        <v>2.87</v>
-      </c>
-      <c r="E38" s="2">
-        <v>3.45</v>
-      </c>
-      <c r="F38" s="9">
-        <v>2.91</v>
-      </c>
-      <c r="G38" s="2">
-        <v>2.54</v>
-      </c>
-      <c r="H38" s="2">
-        <f t="shared" si="0"/>
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="2">
-        <v>3.44</v>
-      </c>
-      <c r="E39" s="2">
-        <v>3.41</v>
-      </c>
-      <c r="F39" s="9">
-        <v>3.37</v>
-      </c>
-      <c r="G39" s="2">
-        <v>3.14</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="0"/>
-        <v>3.34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" s="2">
-        <v>3.81</v>
-      </c>
-      <c r="E40" s="2">
-        <v>3.75</v>
-      </c>
-      <c r="F40" s="9">
-        <v>3.71</v>
-      </c>
-      <c r="G40" s="2">
-        <v>3.21</v>
-      </c>
-      <c r="H40" s="2">
-        <f t="shared" si="0"/>
-        <v>3.62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D41" s="2">
-        <v>3.35</v>
-      </c>
-      <c r="E41" s="2">
-        <v>3.65</v>
-      </c>
-      <c r="F41" s="9">
-        <v>3.65</v>
-      </c>
-      <c r="G41" s="2">
-        <v>3.01</v>
-      </c>
-      <c r="H41" s="2">
-        <f t="shared" si="0"/>
-        <v>3.42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D42" s="2">
-        <v>3.81</v>
-      </c>
-      <c r="E42" s="2">
-        <v>3.57</v>
-      </c>
-      <c r="F42" s="9">
-        <v>3.71</v>
-      </c>
-      <c r="G42" s="2">
-        <v>2.98</v>
-      </c>
-      <c r="H42" s="2">
-        <f t="shared" si="0"/>
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="2">
-        <v>3.67</v>
-      </c>
-      <c r="E43" s="2">
-        <v>3.64</v>
-      </c>
-      <c r="F43" s="9">
-        <v>3.9</v>
-      </c>
-      <c r="G43" s="2">
-        <v>3.33</v>
-      </c>
-      <c r="H43" s="2">
-        <f t="shared" si="0"/>
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D44" s="2">
-        <v>3.92</v>
-      </c>
-      <c r="E44" s="2">
-        <v>3.77</v>
-      </c>
-      <c r="F44" s="9">
-        <v>3.79</v>
-      </c>
-      <c r="G44" s="2">
-        <v>3.39</v>
-      </c>
-      <c r="H44" s="2">
-        <f t="shared" si="0"/>
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" s="2">
-        <v>3.61</v>
-      </c>
-      <c r="E45" s="2">
-        <v>3.65</v>
-      </c>
-      <c r="F45" s="9">
-        <v>3.71</v>
-      </c>
-      <c r="G45" s="2">
-        <v>3.57</v>
-      </c>
-      <c r="H45" s="2">
-        <f t="shared" si="0"/>
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46" s="2">
-        <v>3.88</v>
-      </c>
-      <c r="E46" s="2">
-        <v>3.56</v>
-      </c>
-      <c r="F46" s="9">
-        <v>3.75</v>
-      </c>
-      <c r="G46" s="2">
-        <v>2.69</v>
-      </c>
-      <c r="H46" s="2">
-        <f t="shared" si="0"/>
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D47" s="2">
-        <v>2.83</v>
-      </c>
-      <c r="E47" s="2">
-        <v>2.41</v>
-      </c>
-      <c r="F47" s="9">
-        <v>1.66</v>
-      </c>
-      <c r="G47" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="H47" s="2">
-        <f t="shared" si="0"/>
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D48" s="2">
-        <v>3.59</v>
-      </c>
-      <c r="E48" s="2">
-        <v>3.67</v>
-      </c>
-      <c r="F48" s="9">
-        <v>3.55</v>
-      </c>
-      <c r="G48" s="2">
-        <v>3.31</v>
-      </c>
-      <c r="H48" s="2">
-        <f t="shared" si="0"/>
-        <v>3.53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D49" s="2">
-        <v>4</v>
-      </c>
-      <c r="E49" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="F49" s="9">
-        <v>3.57</v>
-      </c>
-      <c r="G49" s="2">
-        <v>2.48</v>
-      </c>
-      <c r="H49" s="2">
-        <f t="shared" si="0"/>
-        <v>3.39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D50" s="2">
-        <v>3.86</v>
-      </c>
-      <c r="E50" s="2">
-        <v>3.73</v>
-      </c>
-      <c r="F50" s="9">
-        <v>3.87</v>
-      </c>
-      <c r="G50" s="2">
-        <v>3.34</v>
-      </c>
-      <c r="H50" s="2">
-        <f t="shared" si="0"/>
-        <v>3.7</v>
-      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="2" t="s">
         <v>160</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3.58</v>
       </c>
       <c r="D51" s="2">
         <v>3.58</v>
       </c>
-      <c r="E51" s="2">
-        <v>3.58</v>
-      </c>
-      <c r="F51" s="9">
+      <c r="E51" s="9">
+        <f>'2.1'!J51</f>
         <v>2.93</v>
       </c>
+      <c r="F51" s="2">
+        <v>2.65</v>
+      </c>
       <c r="G51" s="2">
-        <v>2.65</v>
+        <f>'3.1'!I51</f>
+        <v>2.83</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" si="0"/>
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="D52" s="2">
+        <v>3.57</v>
+      </c>
+      <c r="E52" s="9">
+        <f>'2.1'!J52</f>
+        <v>3.29</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2.93</v>
+      </c>
+      <c r="G52" s="2">
+        <f>'3.1'!I52</f>
+        <v>3.17</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3.85</v>
+      </c>
+      <c r="D53" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="E53" s="9">
+        <f>'2.1'!J53</f>
+        <v>3.71</v>
+      </c>
+      <c r="F53" s="2">
+        <v>3.41</v>
+      </c>
+      <c r="G53" s="2">
+        <f>'3.1'!I53</f>
+        <v>3.47</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="2">
+        <v>3.74</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3.22</v>
+      </c>
+      <c r="E54" s="9">
+        <f>'2.1'!J54</f>
+        <v>2.83</v>
+      </c>
+      <c r="F54" s="2">
+        <v>2.94</v>
+      </c>
+      <c r="G54" s="2">
+        <f>'3.1'!I54</f>
+        <v>2.99</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="0"/>
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2.87</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="E55" s="9">
+        <f>'2.1'!J55</f>
+        <v>2.69</v>
+      </c>
+      <c r="F55" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G55" s="2">
+        <f>'3.1'!I55</f>
+        <v>2.67</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="D56" s="2">
+        <v>3.52</v>
+      </c>
+      <c r="E56" s="9">
+        <f>'2.1'!J56</f>
+        <v>2.92</v>
+      </c>
+      <c r="F56" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="G56" s="2">
+        <f>'3.1'!I56</f>
+        <v>3.11</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="0"/>
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="D57" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="E57" s="9">
+        <f>'2.1'!J57</f>
+        <v>3.07</v>
+      </c>
+      <c r="F57" s="2">
+        <v>3.17</v>
+      </c>
+      <c r="G57" s="2">
+        <f>'3.1'!I57</f>
+        <v>3.27</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="0"/>
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C58" s="2">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="E58" s="9">
+        <f>'2.1'!J58</f>
+        <v>3.79</v>
+      </c>
+      <c r="F58" s="2">
+        <v>3.49</v>
+      </c>
+      <c r="G58" s="2">
+        <f>'3.1'!I58</f>
+        <v>3.41</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="0"/>
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3.15</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="E59" s="9">
+        <f>'2.1'!J59</f>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F59" s="2">
+        <v>2.52</v>
+      </c>
+      <c r="G59" s="2">
+        <f>'3.1'!I59</f>
+        <v>2.57</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="D60" s="2">
+        <v>3.01</v>
+      </c>
+      <c r="E60" s="9">
+        <f>'2.1'!J60</f>
+        <v>2.23</v>
+      </c>
+      <c r="F60" s="2">
+        <v>2.78</v>
+      </c>
+      <c r="G60" s="2">
+        <f>'3.1'!I60</f>
+        <v>2.63</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" si="0"/>
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3.42</v>
+      </c>
+      <c r="D61" s="2">
+        <v>3.01</v>
+      </c>
+      <c r="E61" s="9">
+        <f>'2.1'!J61</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1.57</v>
+      </c>
+      <c r="G61" s="2">
+        <f>'3.1'!I61</f>
+        <v>2.81</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="0"/>
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2.86</v>
+      </c>
+      <c r="E62" s="9">
+        <f>'2.1'!J62</f>
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="G62" s="2">
+        <f>'3.1'!I62</f>
+        <v>2.66</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="0"/>
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2.87</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2.27</v>
+      </c>
+      <c r="E63" s="9">
+        <f>'2.1'!J63</f>
+        <v>1.5</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="G63" s="2">
+        <f>'3.1'!I63</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2.89</v>
+      </c>
+      <c r="D64" s="2">
+        <v>3.21</v>
+      </c>
+      <c r="E64" s="9">
+        <f>'2.1'!J64</f>
+        <v>3.01</v>
+      </c>
+      <c r="F64" s="2">
+        <v>2.91</v>
+      </c>
+      <c r="G64" s="2">
+        <f>'3.1'!I64</f>
         <v>3.19</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D52" s="2">
+      <c r="H64" s="2">
+        <f t="shared" si="0"/>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2.74</v>
+      </c>
+      <c r="E65" s="9">
+        <f>'2.1'!J65</f>
+        <v>2.57</v>
+      </c>
+      <c r="F65" s="2">
+        <v>2.44</v>
+      </c>
+      <c r="G65" s="2">
+        <f>'3.1'!I65</f>
+        <v>2.67</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" si="0"/>
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" s="2">
+        <v>3.41</v>
+      </c>
+      <c r="D66" s="2">
         <v>3.05</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E66" s="9">
+        <f>'2.1'!J66</f>
+        <v>2.9</v>
+      </c>
+      <c r="F66" s="2">
+        <v>2.29</v>
+      </c>
+      <c r="G66" s="2">
+        <f>'3.1'!I66</f>
+        <v>2.91</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" si="0"/>
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" s="2">
+        <v>3.13</v>
+      </c>
+      <c r="D67" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="E67" s="9">
+        <f>'2.1'!J67</f>
+        <v>3.21</v>
+      </c>
+      <c r="F67" s="2">
+        <v>2.31</v>
+      </c>
+      <c r="G67" s="2">
+        <f>'3.1'!I67</f>
+        <v>2.87</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" ref="H67:H108" si="1">ROUND(SUM(C67:G67)/5, 2)</f>
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C68" s="2">
+        <v>3.51</v>
+      </c>
+      <c r="D68" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="E68" s="9">
+        <f>'2.1'!J68</f>
+        <v>3.6</v>
+      </c>
+      <c r="F68" s="2">
+        <v>2.71</v>
+      </c>
+      <c r="G68" s="2">
+        <f>'3.1'!I68</f>
+        <v>3.01</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" si="1"/>
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="E69" s="9">
+        <f>'2.1'!J69</f>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F69" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="G69" s="2">
+        <f>'3.1'!I69</f>
+        <v>2.85</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" si="1"/>
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2.73</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2.63</v>
+      </c>
+      <c r="E70" s="9">
+        <f>'2.1'!J70</f>
+        <v>1.97</v>
+      </c>
+      <c r="F70" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="G70" s="2">
+        <f>'3.1'!I70</f>
+        <v>2.16</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="1"/>
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2.31</v>
+      </c>
+      <c r="D71" s="2">
+        <v>2.48</v>
+      </c>
+      <c r="E71" s="9">
+        <f>'2.1'!J71</f>
+        <v>1.9</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="G71" s="2">
+        <f>'3.1'!I71</f>
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" s="2">
         <v>3.57</v>
       </c>
-      <c r="F52" s="9">
+      <c r="D72" s="2">
         <v>3.29</v>
       </c>
-      <c r="G52" s="2">
-        <v>2.93</v>
-      </c>
-      <c r="H52" s="2">
-        <f t="shared" si="0"/>
+      <c r="E72" s="9">
+        <f>'2.1'!J72</f>
+        <v>3.51</v>
+      </c>
+      <c r="F72" s="2">
+        <v>3.26</v>
+      </c>
+      <c r="G72" s="2">
+        <f>'3.1'!I72</f>
+        <v>3.33</v>
+      </c>
+      <c r="H72" s="2">
+        <f t="shared" si="1"/>
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C73" s="2">
+        <v>3.77</v>
+      </c>
+      <c r="D73" s="2">
+        <v>2.87</v>
+      </c>
+      <c r="E73" s="9">
+        <f>'2.1'!J73</f>
+        <v>2.41</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0</v>
+      </c>
+      <c r="G73" s="2">
+        <f>'3.1'!I73</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H73" s="2">
+        <f t="shared" si="1"/>
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C74" s="2">
+        <v>3.72</v>
+      </c>
+      <c r="D74" s="2">
+        <v>3.23</v>
+      </c>
+      <c r="E74" s="9">
+        <f>'2.1'!J74</f>
+        <v>3.06</v>
+      </c>
+      <c r="F74" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G74" s="2">
+        <f>'3.1'!I74</f>
+        <v>2.73</v>
+      </c>
+      <c r="H74" s="2">
+        <f t="shared" si="1"/>
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="2">
+        <v>3.92</v>
+      </c>
+      <c r="D75" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="E75" s="9">
+        <f>'2.1'!J75</f>
+        <v>2.62</v>
+      </c>
+      <c r="F75" s="2">
+        <v>2.35</v>
+      </c>
+      <c r="G75" s="2">
+        <f>'3.1'!I75</f>
+        <v>3.03</v>
+      </c>
+      <c r="H75" s="2">
+        <f t="shared" si="1"/>
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C76" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="D76" s="2">
+        <v>3.34</v>
+      </c>
+      <c r="E76" s="9">
+        <f>'2.1'!J76</f>
+        <v>2.91</v>
+      </c>
+      <c r="F76" s="2">
+        <v>2.21</v>
+      </c>
+      <c r="G76" s="2">
+        <f>'3.1'!I76</f>
+        <v>2.79</v>
+      </c>
+      <c r="H76" s="2">
+        <f t="shared" si="1"/>
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C77" s="2">
+        <v>2.97</v>
+      </c>
+      <c r="D77" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E77" s="9">
+        <f>'2.1'!J77</f>
+        <v>2.19</v>
+      </c>
+      <c r="F77" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="G77" s="2">
+        <f>'3.1'!I77</f>
+        <v>2.25</v>
+      </c>
+      <c r="H77" s="2">
+        <f t="shared" si="1"/>
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" s="2">
+        <v>4</v>
+      </c>
+      <c r="D78" s="2">
+        <v>3.69</v>
+      </c>
+      <c r="E78" s="9">
+        <f>'2.1'!J78</f>
+        <v>3.1</v>
+      </c>
+      <c r="F78" s="2">
+        <v>2.73</v>
+      </c>
+      <c r="G78" s="2">
+        <f>'3.1'!I78</f>
         <v>3.21</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D53" s="2">
-        <v>3.85</v>
-      </c>
-      <c r="E53" s="2">
-        <v>3.55</v>
-      </c>
-      <c r="F53" s="9">
-        <v>3.71</v>
-      </c>
-      <c r="G53" s="2">
-        <v>3.41</v>
-      </c>
-      <c r="H53" s="2">
-        <f t="shared" si="0"/>
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D54" s="2">
-        <v>3.74</v>
-      </c>
-      <c r="E54" s="2">
+      <c r="H78" s="2">
+        <f t="shared" si="1"/>
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" s="2">
+        <v>3.92</v>
+      </c>
+      <c r="D79" s="2">
+        <v>3.56</v>
+      </c>
+      <c r="E79" s="9">
+        <f>'2.1'!J79</f>
+        <v>3.23</v>
+      </c>
+      <c r="F79" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="G79" s="2">
+        <f>'3.1'!I79</f>
+        <v>3.23</v>
+      </c>
+      <c r="H79" s="2">
+        <f t="shared" si="1"/>
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C80" s="2">
+        <v>3.83</v>
+      </c>
+      <c r="D80" s="2">
+        <v>3.79</v>
+      </c>
+      <c r="E80" s="9">
+        <f>'2.1'!J80</f>
+        <v>3.69</v>
+      </c>
+      <c r="F80" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="G80" s="2">
+        <f>'3.1'!I80</f>
+        <v>3.27</v>
+      </c>
+      <c r="H80" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C81" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="D81" s="2">
+        <v>3.52</v>
+      </c>
+      <c r="E81" s="9">
+        <f>'2.1'!J81</f>
+        <v>3.65</v>
+      </c>
+      <c r="F81" s="2">
+        <v>2.74</v>
+      </c>
+      <c r="G81" s="2">
+        <f>'3.1'!I81</f>
+        <v>3.09</v>
+      </c>
+      <c r="H81" s="2">
+        <f t="shared" si="1"/>
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C82" s="2">
+        <v>3.27</v>
+      </c>
+      <c r="D82" s="2">
+        <v>2.66</v>
+      </c>
+      <c r="E82" s="9">
+        <f>'2.1'!J82</f>
+        <v>2.63</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2">
+        <f>'3.1'!I82</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="2">
+        <f t="shared" si="1"/>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" s="2">
+        <v>3.59</v>
+      </c>
+      <c r="D83" s="2">
         <v>3.22</v>
       </c>
-      <c r="F54" s="9">
-        <v>2.83</v>
-      </c>
-      <c r="G54" s="2">
-        <v>2.94</v>
-      </c>
-      <c r="H54" s="2">
-        <f t="shared" si="0"/>
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D55" s="2">
-        <v>2.87</v>
-      </c>
-      <c r="E55" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="F55" s="9">
-        <v>2.69</v>
-      </c>
-      <c r="G55" s="2">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="H55" s="2">
-        <f t="shared" si="0"/>
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D56" s="2">
-        <v>3.67</v>
-      </c>
-      <c r="E56" s="2">
-        <v>3.52</v>
-      </c>
-      <c r="F56" s="9">
-        <v>2.92</v>
-      </c>
-      <c r="G56" s="2">
-        <v>2.67</v>
-      </c>
-      <c r="H56" s="2">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D57" s="2">
-        <v>3.05</v>
-      </c>
-      <c r="E57" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="F57" s="9">
-        <v>3.07</v>
-      </c>
-      <c r="G57" s="2">
-        <v>3.17</v>
-      </c>
-      <c r="H57" s="2">
-        <f t="shared" si="0"/>
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D58" s="2">
-        <v>4</v>
-      </c>
-      <c r="E58" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="F58" s="9">
-        <v>3.79</v>
-      </c>
-      <c r="G58" s="2">
-        <v>3.49</v>
-      </c>
-      <c r="H58" s="2">
-        <f t="shared" si="0"/>
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D59" s="2">
-        <v>3.15</v>
-      </c>
-      <c r="E59" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="F59" s="9">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="G59" s="2">
-        <v>2.52</v>
-      </c>
-      <c r="H59" s="2">
-        <f t="shared" si="0"/>
-        <v>2.73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D60" s="2">
-        <v>3.25</v>
-      </c>
-      <c r="E60" s="2">
-        <v>3.01</v>
-      </c>
-      <c r="F60" s="9">
-        <v>2.23</v>
-      </c>
-      <c r="G60" s="2">
-        <v>2.78</v>
-      </c>
-      <c r="H60" s="2">
-        <f t="shared" si="0"/>
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D61" s="2">
-        <v>3.42</v>
-      </c>
-      <c r="E61" s="2">
-        <v>3.01</v>
-      </c>
-      <c r="F61" s="9">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="G61" s="2">
-        <v>1.57</v>
-      </c>
-      <c r="H61" s="2">
-        <f t="shared" si="0"/>
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D62" s="2">
-        <v>3.35</v>
-      </c>
-      <c r="E62" s="2">
-        <v>2.86</v>
-      </c>
-      <c r="F62" s="9">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="G62" s="2">
-        <v>1.56</v>
-      </c>
-      <c r="H62" s="2">
-        <f t="shared" si="0"/>
-        <v>2.57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D63" s="2">
-        <v>2.87</v>
-      </c>
-      <c r="E63" s="2">
-        <v>2.27</v>
-      </c>
-      <c r="F63" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="G63" s="2">
-        <v>1.36</v>
-      </c>
-      <c r="H63" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D64" s="2">
-        <v>2.89</v>
-      </c>
-      <c r="E64" s="2">
-        <v>3.21</v>
-      </c>
-      <c r="F64" s="9">
-        <v>3.01</v>
-      </c>
-      <c r="G64" s="2">
-        <v>2.91</v>
-      </c>
-      <c r="H64" s="2">
-        <f t="shared" si="0"/>
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D65" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="E65" s="2">
-        <v>2.74</v>
-      </c>
-      <c r="F65" s="9">
-        <v>2.57</v>
-      </c>
-      <c r="G65" s="2">
-        <v>2.44</v>
-      </c>
-      <c r="H65" s="2">
-        <f t="shared" si="0"/>
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D66" s="2">
-        <v>3.41</v>
-      </c>
-      <c r="E66" s="2">
-        <v>3.05</v>
-      </c>
-      <c r="F66" s="9">
-        <v>2.9</v>
-      </c>
-      <c r="G66" s="2">
-        <v>2.29</v>
-      </c>
-      <c r="H66" s="2">
-        <f t="shared" si="0"/>
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D67" s="2">
-        <v>3.13</v>
-      </c>
-      <c r="E67" s="2">
-        <v>3.32</v>
-      </c>
-      <c r="F67" s="9">
-        <v>3.21</v>
-      </c>
-      <c r="G67" s="2">
-        <v>2.31</v>
-      </c>
-      <c r="H67" s="2">
-        <f t="shared" ref="H67:H108" si="1">ROUND(SUM(D67:G67)/4, 2)</f>
+      <c r="E83" s="9">
+        <f>'2.1'!J83</f>
+        <v>3.27</v>
+      </c>
+      <c r="F83" s="2">
         <v>2.99</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D68" s="2">
-        <v>3.51</v>
-      </c>
-      <c r="E68" s="2">
-        <v>3.33</v>
-      </c>
-      <c r="F68" s="9">
-        <v>3.6</v>
-      </c>
-      <c r="G68" s="2">
-        <v>2.71</v>
-      </c>
-      <c r="H68" s="2">
-        <f t="shared" si="1"/>
+      <c r="G83" s="2">
+        <f>'3.1'!I83</f>
+        <v>3.11</v>
+      </c>
+      <c r="H83" s="2">
+        <f t="shared" si="1"/>
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84" s="2">
         <v>3.29</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D69" s="2">
-        <v>1.96</v>
-      </c>
-      <c r="E69" s="2">
-        <v>1.33</v>
-      </c>
-      <c r="F69" s="9">
-        <v>1.88</v>
-      </c>
-      <c r="G69" s="2">
-        <v>1.96</v>
-      </c>
-      <c r="H69" s="2">
-        <f t="shared" si="1"/>
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D70" s="2">
-        <v>2.73</v>
-      </c>
-      <c r="E70" s="2">
-        <v>2.63</v>
-      </c>
-      <c r="F70" s="9">
-        <v>1.97</v>
-      </c>
-      <c r="G70" s="2">
-        <v>1.55</v>
-      </c>
-      <c r="H70" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D71" s="2">
-        <v>2.31</v>
-      </c>
-      <c r="E71" s="2">
-        <v>2.48</v>
-      </c>
-      <c r="F71" s="9">
-        <v>1.9</v>
-      </c>
-      <c r="G71" s="2">
-        <v>1.97</v>
-      </c>
-      <c r="H71" s="2">
-        <f t="shared" si="1"/>
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D72" s="2">
-        <v>3.57</v>
-      </c>
-      <c r="E72" s="2">
-        <v>3.29</v>
-      </c>
-      <c r="F72" s="9">
-        <v>3.51</v>
-      </c>
-      <c r="G72" s="2">
-        <v>3.26</v>
-      </c>
-      <c r="H72" s="2">
-        <f t="shared" si="1"/>
-        <v>3.41</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D73" s="2">
-        <v>3.77</v>
-      </c>
-      <c r="E73" s="2">
-        <v>2.87</v>
-      </c>
-      <c r="F73" s="9">
-        <v>2.41</v>
-      </c>
-      <c r="G73" s="2">
-        <v>0</v>
-      </c>
-      <c r="H73" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D74" s="2">
-        <v>3.72</v>
-      </c>
-      <c r="E74" s="2">
-        <v>3.23</v>
-      </c>
-      <c r="F74" s="9">
-        <v>3.06</v>
-      </c>
-      <c r="G74" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="H74" s="2">
-        <f t="shared" si="1"/>
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D75" s="2">
-        <v>3.92</v>
-      </c>
-      <c r="E75" s="2">
-        <v>3.37</v>
-      </c>
-      <c r="F75" s="9">
-        <v>2.62</v>
-      </c>
-      <c r="G75" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="H75" s="2">
-        <f t="shared" si="1"/>
-        <v>3.07</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D76" s="2">
-        <v>3.65</v>
-      </c>
-      <c r="E76" s="2">
-        <v>3.34</v>
-      </c>
-      <c r="F76" s="9">
-        <v>2.91</v>
-      </c>
-      <c r="G76" s="2">
-        <v>2.21</v>
-      </c>
-      <c r="H76" s="2">
-        <f t="shared" si="1"/>
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D77" s="2">
-        <v>2.97</v>
-      </c>
-      <c r="E77" s="2">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="F77" s="9">
-        <v>2.19</v>
-      </c>
-      <c r="G77" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="H77" s="2">
-        <f t="shared" si="1"/>
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D78" s="2">
-        <v>4</v>
-      </c>
-      <c r="E78" s="2">
-        <v>3.69</v>
-      </c>
-      <c r="F78" s="9">
-        <v>3.1</v>
-      </c>
-      <c r="G78" s="2">
-        <v>2.73</v>
-      </c>
-      <c r="H78" s="2">
-        <f t="shared" si="1"/>
-        <v>3.38</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D79" s="2">
-        <v>3.92</v>
-      </c>
-      <c r="E79" s="2">
-        <v>3.56</v>
-      </c>
-      <c r="F79" s="9">
-        <v>3.23</v>
-      </c>
-      <c r="G79" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="H79" s="2">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D80" s="2">
-        <v>3.83</v>
-      </c>
-      <c r="E80" s="2">
-        <v>3.79</v>
-      </c>
-      <c r="F80" s="9">
-        <v>3.69</v>
-      </c>
-      <c r="G80" s="2">
-        <v>3.43</v>
-      </c>
-      <c r="H80" s="2">
-        <f t="shared" si="1"/>
-        <v>3.69</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D81" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="E81" s="2">
-        <v>3.52</v>
-      </c>
-      <c r="F81" s="9">
-        <v>3.65</v>
-      </c>
-      <c r="G81" s="2">
-        <v>2.74</v>
-      </c>
-      <c r="H81" s="2">
-        <f t="shared" si="1"/>
-        <v>3.38</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D82" s="2">
-        <v>3.27</v>
-      </c>
-      <c r="E82" s="2">
-        <v>2.66</v>
-      </c>
-      <c r="F82" s="9">
-        <v>2.63</v>
-      </c>
-      <c r="G82" s="2">
-        <v>0</v>
-      </c>
-      <c r="H82" s="2">
-        <f t="shared" si="1"/>
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D83" s="2">
-        <v>3.59</v>
-      </c>
-      <c r="E83" s="2">
-        <v>3.22</v>
-      </c>
-      <c r="F83" s="9">
-        <v>3.27</v>
-      </c>
-      <c r="G83" s="2">
-        <v>2.99</v>
-      </c>
-      <c r="H83" s="2">
-        <f t="shared" si="1"/>
-        <v>3.27</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="D84" s="2">
         <v>3.29</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="9">
+        <f>'2.1'!J84</f>
+        <v>3.57</v>
+      </c>
+      <c r="F84" s="2">
+        <v>2.86</v>
+      </c>
+      <c r="G84" s="2">
+        <f>'3.1'!I84</f>
+        <v>3.07</v>
+      </c>
+      <c r="H84" s="2">
+        <f t="shared" si="1"/>
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" s="2">
+        <v>3.83</v>
+      </c>
+      <c r="D85" s="2">
+        <v>3.51</v>
+      </c>
+      <c r="E85" s="9">
+        <f>'2.1'!J85</f>
+        <v>3.57</v>
+      </c>
+      <c r="F85" s="2">
+        <v>2.97</v>
+      </c>
+      <c r="G85" s="2">
+        <f>'3.1'!I85</f>
+        <v>3.17</v>
+      </c>
+      <c r="H85" s="2">
+        <f t="shared" si="1"/>
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C86" s="2">
+        <v>3.96</v>
+      </c>
+      <c r="D86" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="E86" s="9">
+        <f>'2.1'!J86</f>
+        <v>3.85</v>
+      </c>
+      <c r="F86" s="2">
+        <v>3.21</v>
+      </c>
+      <c r="G86" s="2">
+        <f>'3.1'!I86</f>
+        <v>3.43</v>
+      </c>
+      <c r="H86" s="2">
+        <f t="shared" si="1"/>
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="D87" s="2">
+        <v>2.79</v>
+      </c>
+      <c r="E87" s="9">
+        <f>'2.1'!J87</f>
+        <v>2.04</v>
+      </c>
+      <c r="F87" s="2">
+        <v>2.09</v>
+      </c>
+      <c r="G87" s="2">
+        <f>'3.1'!I87</f>
+        <v>2.59</v>
+      </c>
+      <c r="H87" s="2">
+        <f t="shared" si="1"/>
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="2">
+        <v>2.27</v>
+      </c>
+      <c r="D88" s="2">
+        <v>2.79</v>
+      </c>
+      <c r="E88" s="9">
+        <f>'2.1'!J88</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F88" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="G88" s="2">
+        <f>'3.1'!I88</f>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H88" s="2">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="D89" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="E89" s="9">
+        <f>'2.1'!J89</f>
+        <v>2.1</v>
+      </c>
+      <c r="F89" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="G89" s="2">
+        <f>'3.1'!I89</f>
+        <v>2.61</v>
+      </c>
+      <c r="H89" s="2">
+        <f t="shared" si="1"/>
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C90" s="2">
+        <v>2.78</v>
+      </c>
+      <c r="D90" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E90" s="9">
+        <f>'2.1'!J90</f>
+        <v>0</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2">
+        <f>'3.1'!I90</f>
+        <v>0</v>
+      </c>
+      <c r="H90" s="2">
+        <f t="shared" si="1"/>
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="D91" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="E91" s="9">
+        <f>'2.1'!J91</f>
         <v>3.29</v>
       </c>
-      <c r="F84" s="9">
-        <v>3.57</v>
-      </c>
-      <c r="G84" s="2">
-        <v>2.86</v>
-      </c>
-      <c r="H84" s="2">
-        <f t="shared" si="1"/>
+      <c r="F91" s="2">
+        <v>2.31</v>
+      </c>
+      <c r="G91" s="2">
+        <f>'3.1'!I91</f>
+        <v>3.11</v>
+      </c>
+      <c r="H91" s="2">
+        <f t="shared" si="1"/>
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C92" s="2">
+        <v>3.63</v>
+      </c>
+      <c r="D92" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="E92" s="9">
+        <f>'2.1'!J92</f>
+        <v>2.99</v>
+      </c>
+      <c r="F92" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="G92" s="2">
+        <f>'3.1'!I92</f>
+        <v>2.7</v>
+      </c>
+      <c r="H92" s="2">
+        <f t="shared" si="1"/>
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C93" s="2">
+        <v>3.92</v>
+      </c>
+      <c r="D93" s="2">
+        <v>3.47</v>
+      </c>
+      <c r="E93" s="9">
+        <f>'2.1'!J93</f>
+        <v>3.63</v>
+      </c>
+      <c r="F93" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="G93" s="2">
+        <f>'3.1'!I93</f>
+        <v>3.21</v>
+      </c>
+      <c r="H93" s="2">
+        <f t="shared" si="1"/>
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C94" s="2">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D85" s="2">
-        <v>3.83</v>
-      </c>
-      <c r="E85" s="2">
+      <c r="D94" s="2">
+        <v>3.31</v>
+      </c>
+      <c r="E94" s="9">
+        <f>'2.1'!J94</f>
+        <v>2.84</v>
+      </c>
+      <c r="F94" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G94" s="2">
+        <f>'3.1'!I94</f>
+        <v>2.95</v>
+      </c>
+      <c r="H94" s="2">
+        <f t="shared" si="1"/>
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C95" s="2">
+        <v>3.62</v>
+      </c>
+      <c r="D95" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="E95" s="9">
+        <f>'2.1'!J95</f>
+        <v>2.89</v>
+      </c>
+      <c r="F95" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="G95" s="2">
+        <f>'3.1'!I95</f>
+        <v>2.96</v>
+      </c>
+      <c r="H95" s="2">
+        <f t="shared" si="1"/>
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C96" s="2">
+        <v>3.73</v>
+      </c>
+      <c r="D96" s="2">
+        <v>3.56</v>
+      </c>
+      <c r="E96" s="9">
+        <f>'2.1'!J96</f>
+        <v>3.61</v>
+      </c>
+      <c r="F96" s="2">
+        <v>3.03</v>
+      </c>
+      <c r="G96" s="2">
+        <f>'3.1'!I96</f>
+        <v>3.17</v>
+      </c>
+      <c r="H96" s="2">
+        <f t="shared" si="1"/>
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97" s="2">
+        <v>3.18</v>
+      </c>
+      <c r="D97" s="2">
+        <v>3.54</v>
+      </c>
+      <c r="E97" s="9">
+        <f>'2.1'!J97</f>
+        <v>2.96</v>
+      </c>
+      <c r="F97" s="2">
+        <v>2.93</v>
+      </c>
+      <c r="G97" s="2">
+        <f>'3.1'!I97</f>
+        <v>3.01</v>
+      </c>
+      <c r="H97" s="2">
+        <f t="shared" si="1"/>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" s="2">
+        <v>2.87</v>
+      </c>
+      <c r="D98" s="2">
+        <v>3.15</v>
+      </c>
+      <c r="E98" s="9">
+        <f>'2.1'!J98</f>
+        <v>3.33</v>
+      </c>
+      <c r="F98" s="2">
+        <v>3.23</v>
+      </c>
+      <c r="G98" s="2">
+        <f>'3.1'!I98</f>
+        <v>3.19</v>
+      </c>
+      <c r="H98" s="2">
+        <f t="shared" si="1"/>
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C99" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="D99" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="E99" s="9">
+        <f>'2.1'!J99</f>
+        <v>2.75</v>
+      </c>
+      <c r="F99" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="G99" s="2">
+        <f>'3.1'!I99</f>
+        <v>2.93</v>
+      </c>
+      <c r="H99" s="2">
+        <f t="shared" si="1"/>
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100" s="2">
+        <v>2.94</v>
+      </c>
+      <c r="D100" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="E100" s="9">
+        <f>'2.1'!J100</f>
+        <v>2.99</v>
+      </c>
+      <c r="F100" s="2">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G100" s="2">
+        <f>'3.1'!I100</f>
+        <v>2.94</v>
+      </c>
+      <c r="H100" s="2">
+        <f t="shared" si="1"/>
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101" s="2">
+        <v>3.23</v>
+      </c>
+      <c r="D101" s="2">
+        <v>3.71</v>
+      </c>
+      <c r="E101" s="9">
+        <f>'2.1'!J101</f>
+        <v>3.43</v>
+      </c>
+      <c r="F101" s="2">
+        <v>2.91</v>
+      </c>
+      <c r="G101" s="2">
+        <f>'3.1'!I101</f>
+        <v>3.09</v>
+      </c>
+      <c r="H101" s="2">
+        <f t="shared" si="1"/>
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" s="2">
+        <v>2.37</v>
+      </c>
+      <c r="D102" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="E102" s="9">
+        <f>'2.1'!J102</f>
+        <v>2.65</v>
+      </c>
+      <c r="F102" s="2">
+        <v>2.41</v>
+      </c>
+      <c r="G102" s="2">
+        <f>'3.1'!I102</f>
+        <v>2.93</v>
+      </c>
+      <c r="H102" s="2">
+        <f t="shared" si="1"/>
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103" s="2">
+        <v>2.87</v>
+      </c>
+      <c r="D103" s="2">
+        <v>3.18</v>
+      </c>
+      <c r="E103" s="9">
+        <f>'2.1'!J103</f>
+        <v>2.65</v>
+      </c>
+      <c r="F103" s="2">
+        <v>2.46</v>
+      </c>
+      <c r="G103" s="2">
+        <f>'3.1'!I103</f>
+        <v>3.05</v>
+      </c>
+      <c r="H103" s="2">
+        <f t="shared" si="1"/>
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C104" s="2">
+        <v>2.85</v>
+      </c>
+      <c r="D104" s="2">
+        <v>2.71</v>
+      </c>
+      <c r="E104" s="9">
+        <f>'2.1'!J104</f>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F104" s="2">
+        <v>1.74</v>
+      </c>
+      <c r="G104" s="2">
+        <f>'3.1'!I104</f>
+        <v>2.85</v>
+      </c>
+      <c r="H104" s="2">
+        <f t="shared" si="1"/>
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C105" s="2">
+        <v>3.49</v>
+      </c>
+      <c r="D105" s="2">
+        <v>3.47</v>
+      </c>
+      <c r="E105" s="9">
+        <f>'2.1'!J105</f>
         <v>3.51</v>
       </c>
-      <c r="F85" s="9">
-        <v>3.57</v>
-      </c>
-      <c r="G85" s="2">
-        <v>2.97</v>
-      </c>
-      <c r="H85" s="2">
-        <f t="shared" si="1"/>
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D86" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="E86" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="F86" s="9">
-        <v>3.85</v>
-      </c>
-      <c r="G86" s="2">
+      <c r="F105" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="G105" s="2">
+        <f>'3.1'!I105</f>
+        <v>3.22</v>
+      </c>
+      <c r="H105" s="2">
+        <f t="shared" si="1"/>
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C106" s="2">
+        <v>3.09</v>
+      </c>
+      <c r="D106" s="2">
+        <v>2.93</v>
+      </c>
+      <c r="E106" s="9">
+        <f>'2.1'!J106</f>
+        <v>2.95</v>
+      </c>
+      <c r="F106" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="G106" s="2">
+        <f>'3.1'!I106</f>
+        <v>2.69</v>
+      </c>
+      <c r="H106" s="2">
+        <f t="shared" si="1"/>
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C107" s="2">
+        <v>3.77</v>
+      </c>
+      <c r="D107" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="E107" s="9">
+        <f>'2.1'!J107</f>
+        <v>3.49</v>
+      </c>
+      <c r="F107" s="2">
         <v>3.21</v>
       </c>
-      <c r="H86" s="2">
-        <f t="shared" si="1"/>
-        <v>3.66</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D87" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="E87" s="2">
-        <v>2.79</v>
-      </c>
-      <c r="F87" s="9">
-        <v>2.04</v>
-      </c>
-      <c r="G87" s="2">
-        <v>2.09</v>
-      </c>
-      <c r="H87" s="2">
-        <f t="shared" si="1"/>
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D88" s="2">
-        <v>2.27</v>
-      </c>
-      <c r="E88" s="2">
-        <v>2.79</v>
-      </c>
-      <c r="F88" s="9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G88" s="2">
-        <v>1.73</v>
-      </c>
-      <c r="H88" s="2">
-        <f t="shared" si="1"/>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D89" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="E89" s="2">
-        <v>3.05</v>
-      </c>
-      <c r="F89" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="G89" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="H89" s="2">
-        <f t="shared" si="1"/>
-        <v>2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D90" s="2">
-        <v>2.78</v>
-      </c>
-      <c r="E90" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F90" s="9">
-        <v>0</v>
-      </c>
-      <c r="G90" s="2">
-        <v>0</v>
-      </c>
-      <c r="H90" s="2">
-        <f t="shared" si="1"/>
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D91" s="2">
-        <v>3.37</v>
-      </c>
-      <c r="E91" s="2">
-        <v>3.55</v>
-      </c>
-      <c r="F91" s="9">
-        <v>3.29</v>
-      </c>
-      <c r="G91" s="2">
-        <v>2.31</v>
-      </c>
-      <c r="H91" s="2">
-        <f t="shared" si="1"/>
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D92" s="2">
-        <v>3.63</v>
-      </c>
-      <c r="E92" s="2">
-        <v>3.05</v>
-      </c>
-      <c r="F92" s="9">
-        <v>2.99</v>
-      </c>
-      <c r="G92" s="2">
-        <v>2.25</v>
-      </c>
-      <c r="H92" s="2">
-        <f t="shared" si="1"/>
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D93" s="2">
-        <v>3.92</v>
-      </c>
-      <c r="E93" s="2">
-        <v>3.47</v>
-      </c>
-      <c r="F93" s="9">
-        <v>3.63</v>
-      </c>
-      <c r="G93" s="2">
-        <v>3.37</v>
-      </c>
-      <c r="H93" s="2">
-        <f t="shared" si="1"/>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D94" s="2">
-        <v>3.25</v>
-      </c>
-      <c r="E94" s="2">
-        <v>3.31</v>
-      </c>
-      <c r="F94" s="9">
-        <v>2.84</v>
-      </c>
-      <c r="G94" s="2">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="H94" s="2">
-        <f t="shared" si="1"/>
-        <v>2.97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D95" s="2">
-        <v>3.62</v>
-      </c>
-      <c r="E95" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="F95" s="9">
-        <v>2.89</v>
-      </c>
-      <c r="G95" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="H95" s="2">
-        <f t="shared" si="1"/>
-        <v>3.09</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D96" s="2">
-        <v>3.73</v>
-      </c>
-      <c r="E96" s="2">
-        <v>3.56</v>
-      </c>
-      <c r="F96" s="9">
-        <v>3.61</v>
-      </c>
-      <c r="G96" s="2">
-        <v>3.03</v>
-      </c>
-      <c r="H96" s="2">
-        <f t="shared" si="1"/>
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D97" s="2">
-        <v>3.18</v>
-      </c>
-      <c r="E97" s="2">
-        <v>3.54</v>
-      </c>
-      <c r="F97" s="9">
-        <v>2.96</v>
-      </c>
-      <c r="G97" s="2">
-        <v>2.93</v>
-      </c>
-      <c r="H97" s="2">
-        <f t="shared" si="1"/>
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D98" s="2">
-        <v>2.87</v>
-      </c>
-      <c r="E98" s="2">
-        <v>3.15</v>
-      </c>
-      <c r="F98" s="9">
+      <c r="G107" s="2">
+        <f>'3.1'!I107</f>
+        <v>2.91</v>
+      </c>
+      <c r="H107" s="2">
+        <f t="shared" si="1"/>
         <v>3.33</v>
       </c>
-      <c r="G98" s="2">
-        <v>3.23</v>
-      </c>
-      <c r="H98" s="2">
-        <f t="shared" si="1"/>
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D99" s="2">
-        <v>2.98</v>
-      </c>
-      <c r="E99" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="F99" s="9">
-        <v>2.75</v>
-      </c>
-      <c r="G99" s="2">
-        <v>1.88</v>
-      </c>
-      <c r="H99" s="2">
-        <f t="shared" si="1"/>
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D100" s="2">
-        <v>2.94</v>
-      </c>
-      <c r="E100" s="2">
-        <v>3.29</v>
-      </c>
-      <c r="F100" s="9">
-        <v>2.99</v>
-      </c>
-      <c r="G100" s="2">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="H100" s="2">
-        <f t="shared" si="1"/>
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D101" s="2">
-        <v>3.23</v>
-      </c>
-      <c r="E101" s="2">
-        <v>3.71</v>
-      </c>
-      <c r="F101" s="9">
-        <v>3.43</v>
-      </c>
-      <c r="G101" s="2">
-        <v>2.91</v>
-      </c>
-      <c r="H101" s="2">
-        <f t="shared" si="1"/>
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D102" s="2">
-        <v>2.37</v>
-      </c>
-      <c r="E102" s="2">
-        <v>3.35</v>
-      </c>
-      <c r="F102" s="9">
-        <v>2.65</v>
-      </c>
-      <c r="G102" s="2">
-        <v>2.41</v>
-      </c>
-      <c r="H102" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D103" s="2">
-        <v>2.87</v>
-      </c>
-      <c r="E103" s="2">
-        <v>3.18</v>
-      </c>
-      <c r="F103" s="9">
-        <v>2.65</v>
-      </c>
-      <c r="G103" s="2">
-        <v>2.46</v>
-      </c>
-      <c r="H103" s="2">
-        <f t="shared" si="1"/>
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D104" s="2">
-        <v>2.85</v>
-      </c>
-      <c r="E104" s="2">
-        <v>2.71</v>
-      </c>
-      <c r="F104" s="9">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="G104" s="2">
-        <v>1.74</v>
-      </c>
-      <c r="H104" s="2">
-        <f t="shared" si="1"/>
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D105" s="2">
-        <v>3.49</v>
-      </c>
-      <c r="E105" s="2">
-        <v>3.47</v>
-      </c>
-      <c r="F105" s="9">
-        <v>3.51</v>
-      </c>
-      <c r="G105" s="2">
-        <v>3.28</v>
-      </c>
-      <c r="H105" s="2">
-        <f t="shared" si="1"/>
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D106" s="2">
-        <v>3.09</v>
-      </c>
-      <c r="E106" s="2">
-        <v>2.93</v>
-      </c>
-      <c r="F106" s="9">
-        <v>2.95</v>
-      </c>
-      <c r="G106" s="2">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="H106" s="2">
-        <f t="shared" si="1"/>
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D107" s="2">
-        <v>3.77</v>
-      </c>
-      <c r="E107" s="2">
-        <v>3.29</v>
-      </c>
-      <c r="F107" s="9">
-        <v>3.49</v>
-      </c>
-      <c r="G107" s="2">
-        <v>3.21</v>
-      </c>
-      <c r="H107" s="2">
-        <f t="shared" si="1"/>
-        <v>3.44</v>
-      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C108" s="2" t="s">
         <v>210</v>
       </c>
+      <c r="C108" s="2">
+        <v>2.38</v>
+      </c>
       <c r="D108" s="2">
-        <v>2.38</v>
-      </c>
-      <c r="E108" s="2">
         <v>2.56</v>
       </c>
-      <c r="F108" s="9">
+      <c r="E108" s="9">
+        <f>'2.1'!J108</f>
         <v>3.33</v>
       </c>
+      <c r="F108" s="2">
+        <v>2.63</v>
+      </c>
       <c r="G108" s="2">
-        <v>2.63</v>
+        <f>'3.1'!I108</f>
+        <v>2.77</v>
       </c>
       <c r="H108" s="2">
         <f t="shared" si="1"/>
@@ -20344,6 +20576,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H2:H108">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musny\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9A9160-F5CC-4D7E-AD9E-13357714E4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D982F2-F8A9-436E-9B6F-BEE06B6C176E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.1" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4434" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4434" uniqueCount="272">
   <si>
     <t>Reg. No</t>
   </si>
@@ -854,9 +854,6 @@
   </si>
   <si>
     <t>3.1 GPA</t>
-  </si>
-  <si>
-    <t>not released yet</t>
   </si>
 </sst>
 </file>
@@ -14127,15 +14124,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF4024C-D5C5-4006-A7A8-DFD50063D4CF}">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -14184,7 +14181,7 @@
         <v>218</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>26</v>
@@ -14206,7 +14203,7 @@
         (3 + 3 + 3 + 2 + 2 + 2),
     2),
 0)</f>
-        <v>2.79</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -14226,7 +14223,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>22</v>
@@ -14248,7 +14245,7 @@
         (3 + 3 + 3 + 2 + 2 + 2),
     2),
 0)</f>
-        <v>2.09</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -14268,7 +14265,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>27</v>
@@ -14290,7 +14287,7 @@
         (3 + 3 + 3 + 2 + 2 + 2),
     2),
 0)</f>
-        <v>2.97</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -14310,7 +14307,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>272</v>
+        <v>26</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>27</v>
@@ -14320,7 +14317,7 @@
       </c>
       <c r="I5" s="5">
         <f t="shared" si="0"/>
-        <v>3.03</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -14340,7 +14337,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>272</v>
+        <v>24</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>27</v>
@@ -14350,7 +14347,7 @@
       </c>
       <c r="I6" s="5">
         <f t="shared" si="0"/>
-        <v>3.23</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -14370,7 +14367,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>272</v>
+        <v>24</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>24</v>
@@ -14380,7 +14377,7 @@
       </c>
       <c r="I7" s="5">
         <f t="shared" si="0"/>
-        <v>3.33</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -14400,7 +14397,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>272</v>
+        <v>21</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>27</v>
@@ -14410,7 +14407,7 @@
       </c>
       <c r="I8" s="5">
         <f t="shared" si="0"/>
-        <v>2.4900000000000002</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -14430,7 +14427,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>272</v>
+        <v>21</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>22</v>
@@ -14440,7 +14437,7 @@
       </c>
       <c r="I9" s="5">
         <f t="shared" si="0"/>
-        <v>2.1800000000000002</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -14460,7 +14457,7 @@
         <v>218</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>24</v>
@@ -14470,7 +14467,7 @@
       </c>
       <c r="I10" s="5">
         <f t="shared" si="0"/>
-        <v>2.85</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -14490,7 +14487,7 @@
         <v>27</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>24</v>
@@ -14500,7 +14497,7 @@
       </c>
       <c r="I11" s="5">
         <f t="shared" si="0"/>
-        <v>3.11</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -14520,7 +14517,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>24</v>
@@ -14530,7 +14527,7 @@
       </c>
       <c r="I12" s="5">
         <f t="shared" si="0"/>
-        <v>2.95</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -14550,7 +14547,7 @@
         <v>218</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>27</v>
@@ -14560,7 +14557,7 @@
       </c>
       <c r="I13" s="5">
         <f t="shared" si="0"/>
-        <v>2.93</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -14580,7 +14577,7 @@
         <v>22</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>28</v>
@@ -14590,7 +14587,7 @@
       </c>
       <c r="I14" s="5">
         <f t="shared" si="0"/>
-        <v>2.68</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -14610,7 +14607,7 @@
         <v>27</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>27</v>
@@ -14620,7 +14617,7 @@
       </c>
       <c r="I15" s="5">
         <f t="shared" si="0"/>
-        <v>3.01</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -14640,7 +14637,7 @@
         <v>28</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>272</v>
+        <v>21</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>23</v>
@@ -14650,7 +14647,7 @@
       </c>
       <c r="I16" s="5">
         <f t="shared" si="0"/>
-        <v>1.85</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -14670,7 +14667,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>27</v>
@@ -14680,7 +14677,7 @@
       </c>
       <c r="I17" s="5">
         <f t="shared" si="0"/>
-        <v>3.11</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -14700,7 +14697,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>272</v>
+        <v>24</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>218</v>
@@ -14710,7 +14707,7 @@
       </c>
       <c r="I18" s="5">
         <f t="shared" si="0"/>
-        <v>3.31</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -14730,7 +14727,7 @@
         <v>23</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>26</v>
@@ -14740,7 +14737,7 @@
       </c>
       <c r="I19" s="5">
         <f t="shared" si="0"/>
-        <v>2.16</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -14760,7 +14757,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>27</v>
@@ -14770,7 +14767,7 @@
       </c>
       <c r="I20" s="5">
         <f t="shared" si="0"/>
-        <v>3.11</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -14790,7 +14787,7 @@
         <v>27</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>24</v>
@@ -14800,7 +14797,7 @@
       </c>
       <c r="I21" s="5">
         <f t="shared" si="0"/>
-        <v>3.33</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -14820,7 +14817,7 @@
         <v>218</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>26</v>
@@ -14830,7 +14827,7 @@
       </c>
       <c r="I22" s="5">
         <f t="shared" si="0"/>
-        <v>2.71</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -14850,7 +14847,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>26</v>
@@ -14860,7 +14857,7 @@
       </c>
       <c r="I23" s="5">
         <f t="shared" si="0"/>
-        <v>2.59</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -14880,7 +14877,7 @@
         <v>27</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>272</v>
+        <v>26</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>27</v>
@@ -14890,7 +14887,7 @@
       </c>
       <c r="I24" s="5">
         <f t="shared" si="0"/>
-        <v>2.97</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -14910,7 +14907,7 @@
         <v>26</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>26</v>
@@ -14920,7 +14917,7 @@
       </c>
       <c r="I25" s="5">
         <f t="shared" si="0"/>
-        <v>2.56</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -14940,7 +14937,7 @@
         <v>28</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>218</v>
@@ -14950,7 +14947,7 @@
       </c>
       <c r="I26" s="5">
         <f t="shared" si="0"/>
-        <v>2.31</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -14970,7 +14967,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>26</v>
@@ -14980,7 +14977,7 @@
       </c>
       <c r="I27" s="5">
         <f t="shared" si="0"/>
-        <v>2.48</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -15000,7 +14997,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>272</v>
+        <v>24</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>24</v>
@@ -15010,7 +15007,7 @@
       </c>
       <c r="I28" s="5">
         <f t="shared" si="0"/>
-        <v>3.37</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -15030,7 +15027,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>24</v>
@@ -15040,7 +15037,7 @@
       </c>
       <c r="I29" s="5">
         <f t="shared" si="0"/>
-        <v>3.15</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -15060,7 +15057,7 @@
         <v>218</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>26</v>
@@ -15070,7 +15067,7 @@
       </c>
       <c r="I30" s="5">
         <f t="shared" si="0"/>
-        <v>2.91</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -15090,7 +15087,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>27</v>
@@ -15100,7 +15097,7 @@
       </c>
       <c r="I31" s="5">
         <f t="shared" si="0"/>
-        <v>2.73</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -15120,7 +15117,7 @@
         <v>22</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>28</v>
@@ -15130,7 +15127,7 @@
       </c>
       <c r="I32" s="5">
         <f t="shared" si="0"/>
-        <v>2.34</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -15150,7 +15147,7 @@
         <v>218</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>26</v>
@@ -15160,7 +15157,7 @@
       </c>
       <c r="I33" s="5">
         <f t="shared" si="0"/>
-        <v>2.65</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -15180,7 +15177,7 @@
         <v>218</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>218</v>
@@ -15190,7 +15187,7 @@
       </c>
       <c r="I34" s="5">
         <f t="shared" si="0"/>
-        <v>2.79</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -15210,7 +15207,7 @@
         <v>24</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>24</v>
@@ -15220,7 +15217,7 @@
       </c>
       <c r="I35" s="5">
         <f t="shared" si="0"/>
-        <v>3.27</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -15240,7 +15237,7 @@
         <v>218</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>218</v>
@@ -15250,7 +15247,7 @@
       </c>
       <c r="I36" s="5">
         <f t="shared" si="0"/>
-        <v>2.99</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -15270,7 +15267,7 @@
         <v>218</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>27</v>
@@ -15280,7 +15277,7 @@
       </c>
       <c r="I37" s="5">
         <f t="shared" si="0"/>
-        <v>3.01</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -15300,7 +15297,7 @@
         <v>26</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>26</v>
@@ -15310,7 +15307,7 @@
       </c>
       <c r="I38" s="5">
         <f t="shared" si="0"/>
-        <v>2.73</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -15330,7 +15327,7 @@
         <v>26</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>27</v>
@@ -15340,7 +15337,7 @@
       </c>
       <c r="I39" s="5">
         <f t="shared" si="0"/>
-        <v>3.19</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -15360,7 +15357,7 @@
         <v>24</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>272</v>
+        <v>24</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>24</v>
@@ -15370,7 +15367,7 @@
       </c>
       <c r="I40" s="5">
         <f t="shared" si="0"/>
-        <v>3.17</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -15390,7 +15387,7 @@
         <v>27</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>27</v>
@@ -15400,7 +15397,7 @@
       </c>
       <c r="I41" s="5">
         <f t="shared" si="0"/>
-        <v>3.23</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -15420,7 +15417,7 @@
         <v>24</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>27</v>
@@ -15430,7 +15427,7 @@
       </c>
       <c r="I42" s="5">
         <f t="shared" si="0"/>
-        <v>3.11</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -15450,7 +15447,7 @@
         <v>24</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>272</v>
+        <v>24</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>27</v>
@@ -15460,7 +15457,7 @@
       </c>
       <c r="I43" s="5">
         <f t="shared" si="0"/>
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -15480,7 +15477,7 @@
         <v>24</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>24</v>
@@ -15490,7 +15487,7 @@
       </c>
       <c r="I44" s="5">
         <f t="shared" si="0"/>
-        <v>3.07</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -15510,7 +15507,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>272</v>
+        <v>24</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>24</v>
@@ -15520,7 +15517,7 @@
       </c>
       <c r="I45" s="5">
         <f t="shared" si="0"/>
-        <v>3.41</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -15540,7 +15537,7 @@
         <v>24</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>24</v>
@@ -15550,7 +15547,7 @@
       </c>
       <c r="I46" s="5">
         <f t="shared" si="0"/>
-        <v>3.33</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -15570,7 +15567,7 @@
         <v>219</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>26</v>
@@ -15580,7 +15577,7 @@
       </c>
       <c r="I47" s="5">
         <f t="shared" si="0"/>
-        <v>1.99</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -15600,7 +15597,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>24</v>
@@ -15610,7 +15607,7 @@
       </c>
       <c r="I48" s="5">
         <f t="shared" si="0"/>
-        <v>3.17</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -15630,7 +15627,7 @@
         <v>218</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>26</v>
@@ -15640,7 +15637,7 @@
       </c>
       <c r="I49" s="5">
         <f t="shared" si="0"/>
-        <v>2.82</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -15660,7 +15657,7 @@
         <v>24</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>24</v>
@@ -15670,7 +15667,7 @@
       </c>
       <c r="I50" s="5">
         <f t="shared" si="0"/>
-        <v>3.17</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -15690,7 +15687,7 @@
         <v>218</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>218</v>
@@ -15700,7 +15697,7 @@
       </c>
       <c r="I51" s="5">
         <f t="shared" si="0"/>
-        <v>2.83</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -15720,7 +15717,7 @@
         <v>24</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>24</v>
@@ -15730,7 +15727,7 @@
       </c>
       <c r="I52" s="5">
         <f t="shared" si="0"/>
-        <v>3.17</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -15750,7 +15747,7 @@
         <v>24</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>24</v>
@@ -15760,7 +15757,7 @@
       </c>
       <c r="I53" s="5">
         <f t="shared" si="0"/>
-        <v>3.47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -15780,7 +15777,7 @@
         <v>27</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>218</v>
@@ -15790,7 +15787,7 @@
       </c>
       <c r="I54" s="5">
         <f t="shared" si="0"/>
-        <v>2.99</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -15810,7 +15807,7 @@
         <v>24</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>218</v>
@@ -15820,7 +15817,7 @@
       </c>
       <c r="I55" s="5">
         <f t="shared" si="0"/>
-        <v>2.67</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -15840,7 +15837,7 @@
         <v>27</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>272</v>
+        <v>26</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>218</v>
@@ -15850,7 +15847,7 @@
       </c>
       <c r="I56" s="5">
         <f t="shared" si="0"/>
-        <v>3.11</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -15870,7 +15867,7 @@
         <v>24</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>272</v>
+        <v>24</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>24</v>
@@ -15880,7 +15877,7 @@
       </c>
       <c r="I57" s="5">
         <f t="shared" si="0"/>
-        <v>3.27</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -15900,7 +15897,7 @@
         <v>24</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>24</v>
@@ -15910,7 +15907,7 @@
       </c>
       <c r="I58" s="5">
         <f t="shared" si="0"/>
-        <v>3.41</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -15930,7 +15927,7 @@
         <v>26</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>26</v>
@@ -15940,7 +15937,7 @@
       </c>
       <c r="I59" s="5">
         <f t="shared" si="0"/>
-        <v>2.57</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -15960,7 +15957,7 @@
         <v>28</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>218</v>
@@ -15970,7 +15967,7 @@
       </c>
       <c r="I60" s="5">
         <f t="shared" si="0"/>
-        <v>2.63</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -15990,7 +15987,7 @@
         <v>26</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>218</v>
@@ -16000,7 +15997,7 @@
       </c>
       <c r="I61" s="5">
         <f t="shared" si="0"/>
-        <v>2.81</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -16020,7 +16017,7 @@
         <v>26</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>26</v>
@@ -16030,7 +16027,7 @@
       </c>
       <c r="I62" s="5">
         <f t="shared" si="0"/>
-        <v>2.66</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -16050,7 +16047,7 @@
         <v>25</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>23</v>
@@ -16060,7 +16057,7 @@
       </c>
       <c r="I63" s="5">
         <f t="shared" si="0"/>
-        <v>2.0499999999999998</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -16080,7 +16077,7 @@
         <v>24</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>26</v>
@@ -16090,7 +16087,7 @@
       </c>
       <c r="I64" s="5">
         <f t="shared" si="0"/>
-        <v>3.19</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -16110,7 +16107,7 @@
         <v>26</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>24</v>
@@ -16120,7 +16117,7 @@
       </c>
       <c r="I65" s="5">
         <f t="shared" si="0"/>
-        <v>2.67</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -16140,7 +16137,7 @@
         <v>218</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>27</v>
@@ -16150,7 +16147,7 @@
       </c>
       <c r="I66" s="5">
         <f t="shared" si="0"/>
-        <v>2.91</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -16170,7 +16167,7 @@
         <v>24</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>26</v>
@@ -16180,7 +16177,7 @@
       </c>
       <c r="I67" s="5">
         <f t="shared" si="0"/>
-        <v>2.87</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -16200,7 +16197,7 @@
         <v>218</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>272</v>
+        <v>26</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>27</v>
@@ -16222,7 +16219,7 @@
         (3 + 3 + 3 + 2 + 2 + 2),
     2),
 0)</f>
-        <v>3.01</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -16242,7 +16239,7 @@
         <v>26</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>272</v>
+        <v>26</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>218</v>
@@ -16252,7 +16249,7 @@
       </c>
       <c r="I69" s="5">
         <f t="shared" si="1"/>
-        <v>2.85</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -16272,7 +16269,7 @@
         <v>21</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>26</v>
@@ -16282,7 +16279,7 @@
       </c>
       <c r="I70" s="5">
         <f t="shared" si="1"/>
-        <v>2.16</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -16302,7 +16299,7 @@
         <v>28</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>218</v>
@@ -16312,7 +16309,7 @@
       </c>
       <c r="I71" s="5">
         <f t="shared" si="1"/>
-        <v>2.5299999999999998</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -16332,7 +16329,7 @@
         <v>24</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>24</v>
@@ -16342,7 +16339,7 @@
       </c>
       <c r="I72" s="5">
         <f t="shared" si="1"/>
-        <v>3.33</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -16362,7 +16359,7 @@
         <v>22</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>21</v>
@@ -16372,7 +16369,7 @@
       </c>
       <c r="I73" s="5">
         <f t="shared" si="1"/>
-        <v>2.2999999999999998</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -16392,7 +16389,7 @@
         <v>218</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>272</v>
+        <v>21</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>218</v>
@@ -16402,7 +16399,7 @@
       </c>
       <c r="I74" s="5">
         <f t="shared" si="1"/>
-        <v>2.73</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -16422,7 +16419,7 @@
         <v>27</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>24</v>
@@ -16432,7 +16429,7 @@
       </c>
       <c r="I75" s="5">
         <f t="shared" si="1"/>
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -16452,7 +16449,7 @@
         <v>26</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>218</v>
@@ -16462,7 +16459,7 @@
       </c>
       <c r="I76" s="5">
         <f t="shared" si="1"/>
-        <v>2.79</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -16482,7 +16479,7 @@
         <v>28</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>28</v>
@@ -16492,7 +16489,7 @@
       </c>
       <c r="I77" s="5">
         <f t="shared" si="1"/>
-        <v>2.25</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -16512,7 +16509,7 @@
         <v>24</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>24</v>
@@ -16522,7 +16519,7 @@
       </c>
       <c r="I78" s="5">
         <f t="shared" si="1"/>
-        <v>3.21</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -16542,7 +16539,7 @@
         <v>27</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>272</v>
+        <v>26</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>218</v>
@@ -16552,7 +16549,7 @@
       </c>
       <c r="I79" s="5">
         <f t="shared" si="1"/>
-        <v>3.23</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -16572,7 +16569,7 @@
         <v>27</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>218</v>
@@ -16582,7 +16579,7 @@
       </c>
       <c r="I80" s="5">
         <f t="shared" si="1"/>
-        <v>3.27</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -16602,7 +16599,7 @@
         <v>26</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>27</v>
@@ -16612,7 +16609,7 @@
       </c>
       <c r="I81" s="5">
         <f t="shared" si="1"/>
-        <v>3.09</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -16632,7 +16629,7 @@
         <v>222</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>222</v>
@@ -16662,7 +16659,7 @@
         <v>218</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>272</v>
+        <v>26</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>24</v>
@@ -16672,7 +16669,7 @@
       </c>
       <c r="I83" s="5">
         <f t="shared" si="1"/>
-        <v>3.11</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -16692,7 +16689,7 @@
         <v>24</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>218</v>
@@ -16702,7 +16699,7 @@
       </c>
       <c r="I84" s="5">
         <f t="shared" si="1"/>
-        <v>3.07</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -16722,7 +16719,7 @@
         <v>218</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>272</v>
+        <v>26</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>27</v>
@@ -16732,7 +16729,7 @@
       </c>
       <c r="I85" s="5">
         <f t="shared" si="1"/>
-        <v>3.17</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -16752,7 +16749,7 @@
         <v>24</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>272</v>
+        <v>26</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>24</v>
@@ -16762,7 +16759,7 @@
       </c>
       <c r="I86" s="5">
         <f t="shared" si="1"/>
-        <v>3.43</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -16782,7 +16779,7 @@
         <v>22</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>218</v>
@@ -16792,7 +16789,7 @@
       </c>
       <c r="I87" s="5">
         <f t="shared" si="1"/>
-        <v>2.59</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -16812,7 +16809,7 @@
         <v>28</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>28</v>
@@ -16822,7 +16819,7 @@
       </c>
       <c r="I88" s="5">
         <f t="shared" si="1"/>
-        <v>2.2799999999999998</v>
+        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -16842,7 +16839,7 @@
         <v>22</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>22</v>
@@ -16852,7 +16849,7 @@
       </c>
       <c r="I89" s="5">
         <f t="shared" si="1"/>
-        <v>2.61</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -16872,7 +16869,7 @@
         <v>222</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>222</v>
@@ -16902,7 +16899,7 @@
         <v>24</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>27</v>
@@ -16912,7 +16909,7 @@
       </c>
       <c r="I91" s="5">
         <f t="shared" si="1"/>
-        <v>3.11</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -16932,7 +16929,7 @@
         <v>22</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>22</v>
@@ -16942,7 +16939,7 @@
       </c>
       <c r="I92" s="5">
         <f t="shared" si="1"/>
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -16962,7 +16959,7 @@
         <v>218</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>272</v>
+        <v>26</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>218</v>
@@ -16972,7 +16969,7 @@
       </c>
       <c r="I93" s="5">
         <f t="shared" si="1"/>
-        <v>3.21</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -16992,7 +16989,7 @@
         <v>218</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>27</v>
@@ -17002,7 +16999,7 @@
       </c>
       <c r="I94" s="5">
         <f t="shared" si="1"/>
-        <v>2.95</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -17022,7 +17019,7 @@
         <v>27</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>22</v>
@@ -17032,7 +17029,7 @@
       </c>
       <c r="I95" s="5">
         <f t="shared" si="1"/>
-        <v>2.96</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -17052,7 +17049,7 @@
         <v>26</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>272</v>
+        <v>26</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>27</v>
@@ -17062,7 +17059,7 @@
       </c>
       <c r="I96" s="5">
         <f t="shared" si="1"/>
-        <v>3.17</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -17082,7 +17079,7 @@
         <v>24</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>218</v>
@@ -17092,7 +17089,7 @@
       </c>
       <c r="I97" s="5">
         <f t="shared" si="1"/>
-        <v>3.01</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -17112,7 +17109,7 @@
         <v>24</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>218</v>
@@ -17122,7 +17119,7 @@
       </c>
       <c r="I98" s="5">
         <f t="shared" si="1"/>
-        <v>3.19</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -17142,7 +17139,7 @@
         <v>27</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>26</v>
@@ -17152,7 +17149,7 @@
       </c>
       <c r="I99" s="5">
         <f t="shared" si="1"/>
-        <v>2.93</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -17172,7 +17169,7 @@
         <v>27</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>26</v>
@@ -17182,7 +17179,7 @@
       </c>
       <c r="I100" s="5">
         <f t="shared" si="1"/>
-        <v>2.94</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -17202,7 +17199,7 @@
         <v>26</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>27</v>
@@ -17212,7 +17209,7 @@
       </c>
       <c r="I101" s="5">
         <f t="shared" si="1"/>
-        <v>3.09</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -17232,7 +17229,7 @@
         <v>218</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>218</v>
@@ -17242,7 +17239,7 @@
       </c>
       <c r="I102" s="5">
         <f t="shared" si="1"/>
-        <v>2.93</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -17262,7 +17259,7 @@
         <v>24</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>218</v>
@@ -17272,7 +17269,7 @@
       </c>
       <c r="I103" s="5">
         <f t="shared" si="1"/>
-        <v>3.05</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -17292,7 +17289,7 @@
         <v>27</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>272</v>
+        <v>26</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>218</v>
@@ -17302,7 +17299,7 @@
       </c>
       <c r="I104" s="5">
         <f t="shared" si="1"/>
-        <v>2.85</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -17322,7 +17319,7 @@
         <v>24</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>26</v>
@@ -17332,7 +17329,7 @@
       </c>
       <c r="I105" s="5">
         <f t="shared" si="1"/>
-        <v>3.22</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -17352,7 +17349,7 @@
         <v>26</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>272</v>
+        <v>21</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>26</v>
@@ -17362,7 +17359,7 @@
       </c>
       <c r="I106" s="5">
         <f t="shared" si="1"/>
-        <v>2.69</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -17382,7 +17379,7 @@
         <v>218</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>218</v>
@@ -17392,7 +17389,7 @@
       </c>
       <c r="I107" s="5">
         <f t="shared" si="1"/>
-        <v>2.91</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -17412,7 +17409,7 @@
         <v>26</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>218</v>
@@ -17422,7 +17419,7 @@
       </c>
       <c r="I108" s="5">
         <f t="shared" si="1"/>
-        <v>2.77</v>
+        <v>3.07</v>
       </c>
     </row>
   </sheetData>
@@ -17434,8 +17431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325CB179-F49C-49B9-8265-356F4F1FB48D}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17494,11 +17491,11 @@
       </c>
       <c r="G2">
         <f>'3.1'!I2</f>
-        <v>2.79</v>
+        <v>3.1</v>
       </c>
       <c r="H2" s="2">
         <f>ROUND(SUM(C2:G2)/5, 2)</f>
-        <v>3.16</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -17523,11 +17520,11 @@
       </c>
       <c r="G3" s="2">
         <f>'3.1'!I3</f>
-        <v>2.09</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" ref="H3:H66" si="0">ROUND(SUM(C3:G3)/5, 2)</f>
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -17552,11 +17549,11 @@
       </c>
       <c r="G4" s="2">
         <f>'3.1'!I4</f>
-        <v>2.97</v>
+        <v>3.33</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>3.02</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -17581,11 +17578,11 @@
       </c>
       <c r="G5" s="2">
         <f>'3.1'!I5</f>
-        <v>3.03</v>
+        <v>3.47</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>2.97</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -17610,11 +17607,11 @@
       </c>
       <c r="G6" s="2">
         <f>'3.1'!I6</f>
-        <v>3.23</v>
+        <v>3.76</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="0"/>
-        <v>3.66</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -17639,11 +17636,11 @@
       </c>
       <c r="G7" s="2">
         <f>'3.1'!I7</f>
-        <v>3.33</v>
+        <v>3.86</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>3.67</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -17668,11 +17665,11 @@
       </c>
       <c r="G8" s="2">
         <f>'3.1'!I8</f>
-        <v>2.4900000000000002</v>
+        <v>2.75</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -17697,11 +17694,11 @@
       </c>
       <c r="G9" s="2">
         <f>'3.1'!I9</f>
-        <v>2.1800000000000002</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="0"/>
-        <v>2.33</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -17726,11 +17723,11 @@
       </c>
       <c r="G10" s="2">
         <f>'3.1'!I10</f>
-        <v>2.85</v>
+        <v>3.21</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="0"/>
-        <v>3.12</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -17755,11 +17752,11 @@
       </c>
       <c r="G11" s="2">
         <f>'3.1'!I11</f>
-        <v>3.11</v>
+        <v>3.61</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="0"/>
-        <v>3.21</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -17784,11 +17781,11 @@
       </c>
       <c r="G12" s="2">
         <f>'3.1'!I12</f>
-        <v>2.95</v>
+        <v>3.31</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="0"/>
-        <v>2.9</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -17813,11 +17810,11 @@
       </c>
       <c r="G13" s="2">
         <f>'3.1'!I13</f>
-        <v>2.93</v>
+        <v>3.33</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="0"/>
-        <v>3.13</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -17842,11 +17839,11 @@
       </c>
       <c r="G14" s="2">
         <f>'3.1'!I14</f>
-        <v>2.68</v>
+        <v>3.08</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="0"/>
-        <v>2.97</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -17871,11 +17868,11 @@
       </c>
       <c r="G15" s="2">
         <f>'3.1'!I15</f>
-        <v>3.01</v>
+        <v>3.41</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="0"/>
-        <v>3.14</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -17900,11 +17897,11 @@
       </c>
       <c r="G16" s="2">
         <f>'3.1'!I16</f>
-        <v>1.85</v>
+        <v>2.11</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="0"/>
-        <v>1.98</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -17929,11 +17926,11 @@
       </c>
       <c r="G17" s="2">
         <f>'3.1'!I17</f>
-        <v>3.11</v>
+        <v>3.6</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="0"/>
-        <v>3.41</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -17958,11 +17955,11 @@
       </c>
       <c r="G18" s="2">
         <f>'3.1'!I18</f>
-        <v>3.31</v>
+        <v>3.84</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="0"/>
-        <v>3.51</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -17987,11 +17984,11 @@
       </c>
       <c r="G19" s="2">
         <f>'3.1'!I19</f>
-        <v>2.16</v>
+        <v>2.52</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="0"/>
-        <v>2.33</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -18016,11 +18013,11 @@
       </c>
       <c r="G20" s="2">
         <f>'3.1'!I20</f>
-        <v>3.11</v>
+        <v>3.6</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="0"/>
-        <v>3.39</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -18045,11 +18042,11 @@
       </c>
       <c r="G21" s="2">
         <f>'3.1'!I21</f>
-        <v>3.33</v>
+        <v>3.82</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="0"/>
-        <v>3.64</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -18074,11 +18071,11 @@
       </c>
       <c r="G22" s="2">
         <f>'3.1'!I22</f>
-        <v>2.71</v>
+        <v>3.11</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="0"/>
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -18103,11 +18100,11 @@
       </c>
       <c r="G23" s="2">
         <f>'3.1'!I23</f>
-        <v>2.59</v>
+        <v>2.95</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="0"/>
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -18132,11 +18129,11 @@
       </c>
       <c r="G24" s="2">
         <f>'3.1'!I24</f>
-        <v>2.97</v>
+        <v>3.41</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="0"/>
-        <v>3.37</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -18161,11 +18158,11 @@
       </c>
       <c r="G25" s="2">
         <f>'3.1'!I25</f>
-        <v>2.56</v>
+        <v>2.92</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="0"/>
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -18190,11 +18187,11 @@
       </c>
       <c r="G26" s="2">
         <f>'3.1'!I26</f>
-        <v>2.31</v>
+        <v>2.54</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="0"/>
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -18219,11 +18216,11 @@
       </c>
       <c r="G27" s="2">
         <f>'3.1'!I27</f>
-        <v>2.48</v>
+        <v>2.88</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="0"/>
-        <v>2.83</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -18248,11 +18245,11 @@
       </c>
       <c r="G28" s="2">
         <f>'3.1'!I28</f>
-        <v>3.37</v>
+        <v>3.9</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -18277,11 +18274,11 @@
       </c>
       <c r="G29" s="2">
         <f>'3.1'!I29</f>
-        <v>3.15</v>
+        <v>3.68</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="0"/>
-        <v>3.67</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -18306,11 +18303,11 @@
       </c>
       <c r="G30" s="2">
         <f>'3.1'!I30</f>
-        <v>2.91</v>
+        <v>3.45</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="0"/>
-        <v>3.39</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -18335,11 +18332,11 @@
       </c>
       <c r="G31" s="2">
         <f>'3.1'!I31</f>
-        <v>2.73</v>
+        <v>3.09</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="0"/>
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -18364,11 +18361,11 @@
       </c>
       <c r="G32" s="2">
         <f>'3.1'!I32</f>
-        <v>2.34</v>
+        <v>2.74</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="0"/>
-        <v>2.81</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -18393,11 +18390,11 @@
       </c>
       <c r="G33" s="2">
         <f>'3.1'!I33</f>
-        <v>2.65</v>
+        <v>3.01</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="0"/>
-        <v>3.22</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -18422,11 +18419,11 @@
       </c>
       <c r="G34" s="2">
         <f>'3.1'!I34</f>
-        <v>2.79</v>
+        <v>3.15</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="0"/>
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -18451,11 +18448,11 @@
       </c>
       <c r="G35" s="2">
         <f>'3.1'!I35</f>
-        <v>3.27</v>
+        <v>3.76</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="0"/>
-        <v>3.43</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -18480,11 +18477,11 @@
       </c>
       <c r="G36" s="2">
         <f>'3.1'!I36</f>
-        <v>2.99</v>
+        <v>3.39</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" si="0"/>
-        <v>3.08</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -18509,11 +18506,11 @@
       </c>
       <c r="G37" s="2">
         <f>'3.1'!I37</f>
-        <v>3.01</v>
+        <v>3.41</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" si="0"/>
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -18538,11 +18535,11 @@
       </c>
       <c r="G38" s="2">
         <f>'3.1'!I38</f>
-        <v>2.73</v>
+        <v>3.13</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="0"/>
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -18567,11 +18564,11 @@
       </c>
       <c r="G39" s="2">
         <f>'3.1'!I39</f>
-        <v>3.19</v>
+        <v>3.68</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="0"/>
-        <v>3.31</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -18596,11 +18593,11 @@
       </c>
       <c r="G40" s="2">
         <f>'3.1'!I40</f>
-        <v>3.17</v>
+        <v>3.71</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>3.53</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -18625,11 +18622,11 @@
       </c>
       <c r="G41" s="2">
         <f>'3.1'!I41</f>
-        <v>3.23</v>
+        <v>3.76</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" si="0"/>
-        <v>3.38</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -18654,11 +18651,11 @@
       </c>
       <c r="G42" s="2">
         <f>'3.1'!I42</f>
-        <v>3.11</v>
+        <v>3.61</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" si="0"/>
-        <v>3.44</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -18683,11 +18680,11 @@
       </c>
       <c r="G43" s="2">
         <f>'3.1'!I43</f>
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" si="0"/>
-        <v>3.51</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -18712,11 +18709,11 @@
       </c>
       <c r="G44" s="2">
         <f>'3.1'!I44</f>
-        <v>3.07</v>
+        <v>3.6</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" si="0"/>
-        <v>3.59</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -18741,11 +18738,11 @@
       </c>
       <c r="G45" s="2">
         <f>'3.1'!I45</f>
-        <v>3.41</v>
+        <v>3.94</v>
       </c>
       <c r="H45" s="2">
         <f t="shared" si="0"/>
-        <v>3.59</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -18770,11 +18767,11 @@
       </c>
       <c r="G46" s="2">
         <f>'3.1'!I46</f>
-        <v>3.33</v>
+        <v>3.73</v>
       </c>
       <c r="H46" s="2">
         <f t="shared" si="0"/>
-        <v>3.44</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -18799,11 +18796,11 @@
       </c>
       <c r="G47" s="2">
         <f>'3.1'!I47</f>
-        <v>1.99</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="H47" s="2">
         <f t="shared" si="0"/>
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -18828,11 +18825,11 @@
       </c>
       <c r="G48" s="2">
         <f>'3.1'!I48</f>
-        <v>3.17</v>
+        <v>3.66</v>
       </c>
       <c r="H48" s="2">
         <f t="shared" si="0"/>
-        <v>3.46</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -18857,11 +18854,11 @@
       </c>
       <c r="G49" s="2">
         <f>'3.1'!I49</f>
-        <v>2.82</v>
+        <v>3.18</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" si="0"/>
-        <v>3.27</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -18886,11 +18883,11 @@
       </c>
       <c r="G50" s="2">
         <f>'3.1'!I50</f>
-        <v>3.17</v>
+        <v>3.67</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" si="0"/>
-        <v>3.59</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -18915,11 +18912,11 @@
       </c>
       <c r="G51" s="2">
         <f>'3.1'!I51</f>
-        <v>2.83</v>
+        <v>3.13</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" si="0"/>
-        <v>3.11</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -18944,11 +18941,11 @@
       </c>
       <c r="G52" s="2">
         <f>'3.1'!I52</f>
-        <v>3.17</v>
+        <v>3.7</v>
       </c>
       <c r="H52" s="2">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -18973,11 +18970,11 @@
       </c>
       <c r="G53" s="2">
         <f>'3.1'!I53</f>
-        <v>3.47</v>
+        <v>4</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -19002,11 +18999,11 @@
       </c>
       <c r="G54" s="2">
         <f>'3.1'!I54</f>
-        <v>2.99</v>
+        <v>3.48</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" si="0"/>
-        <v>3.14</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -19031,11 +19028,11 @@
       </c>
       <c r="G55" s="2">
         <f>'3.1'!I55</f>
-        <v>2.67</v>
+        <v>2.9</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" si="0"/>
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -19060,11 +19057,11 @@
       </c>
       <c r="G56" s="2">
         <f>'3.1'!I56</f>
-        <v>3.11</v>
+        <v>3.55</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" si="0"/>
-        <v>3.18</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -19089,11 +19086,11 @@
       </c>
       <c r="G57" s="2">
         <f>'3.1'!I57</f>
-        <v>3.27</v>
+        <v>3.8</v>
       </c>
       <c r="H57" s="2">
         <f t="shared" si="0"/>
-        <v>3.23</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -19118,11 +19115,11 @@
       </c>
       <c r="G58" s="2">
         <f>'3.1'!I58</f>
-        <v>3.41</v>
+        <v>3.94</v>
       </c>
       <c r="H58" s="2">
         <f t="shared" si="0"/>
-        <v>3.66</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -19147,11 +19144,11 @@
       </c>
       <c r="G59" s="2">
         <f>'3.1'!I59</f>
-        <v>2.57</v>
+        <v>2.97</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" si="0"/>
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -19176,11 +19173,11 @@
       </c>
       <c r="G60" s="2">
         <f>'3.1'!I60</f>
-        <v>2.63</v>
+        <v>2.99</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" si="0"/>
-        <v>2.78</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -19205,11 +19202,11 @@
       </c>
       <c r="G61" s="2">
         <f>'3.1'!I61</f>
-        <v>2.81</v>
+        <v>3.17</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" si="0"/>
-        <v>2.66</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -19234,11 +19231,11 @@
       </c>
       <c r="G62" s="2">
         <f>'3.1'!I62</f>
-        <v>2.66</v>
+        <v>2.89</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" si="0"/>
-        <v>2.59</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -19263,11 +19260,11 @@
       </c>
       <c r="G63" s="2">
         <f>'3.1'!I63</f>
-        <v>2.0499999999999998</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="H63" s="2">
         <f t="shared" si="0"/>
-        <v>2.0099999999999998</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -19292,11 +19289,11 @@
       </c>
       <c r="G64" s="2">
         <f>'3.1'!I64</f>
-        <v>3.19</v>
+        <v>3.69</v>
       </c>
       <c r="H64" s="2">
         <f t="shared" si="0"/>
-        <v>3.04</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -19321,11 +19318,11 @@
       </c>
       <c r="G65" s="2">
         <f>'3.1'!I65</f>
-        <v>2.67</v>
+        <v>2.98</v>
       </c>
       <c r="H65" s="2">
         <f t="shared" si="0"/>
-        <v>2.59</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -19350,11 +19347,11 @@
       </c>
       <c r="G66" s="2">
         <f>'3.1'!I66</f>
-        <v>2.91</v>
+        <v>3.13</v>
       </c>
       <c r="H66" s="2">
         <f t="shared" si="0"/>
-        <v>2.91</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -19379,11 +19376,11 @@
       </c>
       <c r="G67" s="2">
         <f>'3.1'!I67</f>
-        <v>2.87</v>
+        <v>3.23</v>
       </c>
       <c r="H67" s="2">
         <f t="shared" ref="H67:H108" si="1">ROUND(SUM(C67:G67)/5, 2)</f>
-        <v>2.97</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -19408,11 +19405,11 @@
       </c>
       <c r="G68" s="2">
         <f>'3.1'!I68</f>
-        <v>3.01</v>
+        <v>3.45</v>
       </c>
       <c r="H68" s="2">
         <f t="shared" si="1"/>
-        <v>3.23</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -19437,11 +19434,11 @@
       </c>
       <c r="G69" s="2">
         <f>'3.1'!I69</f>
-        <v>2.85</v>
+        <v>3.29</v>
       </c>
       <c r="H69" s="2">
         <f t="shared" si="1"/>
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -19466,11 +19463,11 @@
       </c>
       <c r="G70" s="2">
         <f>'3.1'!I70</f>
-        <v>2.16</v>
+        <v>2.39</v>
       </c>
       <c r="H70" s="2">
         <f t="shared" si="1"/>
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -19495,11 +19492,11 @@
       </c>
       <c r="G71" s="2">
         <f>'3.1'!I71</f>
-        <v>2.5299999999999998</v>
+        <v>2.75</v>
       </c>
       <c r="H71" s="2">
         <f t="shared" si="1"/>
-        <v>2.2400000000000002</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -19524,11 +19521,11 @@
       </c>
       <c r="G72" s="2">
         <f>'3.1'!I72</f>
-        <v>3.33</v>
+        <v>3.86</v>
       </c>
       <c r="H72" s="2">
         <f t="shared" si="1"/>
-        <v>3.39</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -19553,11 +19550,11 @@
       </c>
       <c r="G73" s="2">
         <f>'3.1'!I73</f>
-        <v>2.2999999999999998</v>
+        <v>2.66</v>
       </c>
       <c r="H73" s="2">
         <f t="shared" si="1"/>
-        <v>2.27</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -19582,11 +19579,11 @@
       </c>
       <c r="G74" s="2">
         <f>'3.1'!I74</f>
-        <v>2.73</v>
+        <v>2.99</v>
       </c>
       <c r="H74" s="2">
         <f t="shared" si="1"/>
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -19611,11 +19608,11 @@
       </c>
       <c r="G75" s="2">
         <f>'3.1'!I75</f>
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="H75" s="2">
         <f t="shared" si="1"/>
-        <v>3.06</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -19640,11 +19637,11 @@
       </c>
       <c r="G76" s="2">
         <f>'3.1'!I76</f>
-        <v>2.79</v>
+        <v>3.19</v>
       </c>
       <c r="H76" s="2">
         <f t="shared" si="1"/>
-        <v>2.98</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -19669,11 +19666,11 @@
       </c>
       <c r="G77" s="2">
         <f>'3.1'!I77</f>
-        <v>2.25</v>
+        <v>2.48</v>
       </c>
       <c r="H77" s="2">
         <f t="shared" si="1"/>
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -19698,11 +19695,11 @@
       </c>
       <c r="G78" s="2">
         <f>'3.1'!I78</f>
-        <v>3.21</v>
+        <v>3.61</v>
       </c>
       <c r="H78" s="2">
         <f t="shared" si="1"/>
-        <v>3.35</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -19727,11 +19724,11 @@
       </c>
       <c r="G79" s="2">
         <f>'3.1'!I79</f>
-        <v>3.23</v>
+        <v>3.67</v>
       </c>
       <c r="H79" s="2">
         <f t="shared" si="1"/>
-        <v>3.37</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -19756,11 +19753,11 @@
       </c>
       <c r="G80" s="2">
         <f>'3.1'!I80</f>
-        <v>3.27</v>
+        <v>3.76</v>
       </c>
       <c r="H80" s="2">
         <f t="shared" si="1"/>
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -19785,11 +19782,11 @@
       </c>
       <c r="G81" s="2">
         <f>'3.1'!I81</f>
-        <v>3.09</v>
+        <v>3.45</v>
       </c>
       <c r="H81" s="2">
         <f t="shared" si="1"/>
-        <v>3.32</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -19843,11 +19840,11 @@
       </c>
       <c r="G83" s="2">
         <f>'3.1'!I83</f>
-        <v>3.11</v>
+        <v>3.55</v>
       </c>
       <c r="H83" s="2">
         <f t="shared" si="1"/>
-        <v>3.24</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -19872,11 +19869,11 @@
       </c>
       <c r="G84" s="2">
         <f>'3.1'!I84</f>
-        <v>3.07</v>
+        <v>3.47</v>
       </c>
       <c r="H84" s="2">
         <f t="shared" si="1"/>
-        <v>3.22</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -19901,11 +19898,11 @@
       </c>
       <c r="G85" s="2">
         <f>'3.1'!I85</f>
-        <v>3.17</v>
+        <v>3.61</v>
       </c>
       <c r="H85" s="2">
         <f t="shared" si="1"/>
-        <v>3.41</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -19930,11 +19927,11 @@
       </c>
       <c r="G86" s="2">
         <f>'3.1'!I86</f>
-        <v>3.43</v>
+        <v>3.87</v>
       </c>
       <c r="H86" s="2">
         <f t="shared" si="1"/>
-        <v>3.61</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -19959,11 +19956,11 @@
       </c>
       <c r="G87" s="2">
         <f>'3.1'!I87</f>
-        <v>2.59</v>
+        <v>2.9</v>
       </c>
       <c r="H87" s="2">
         <f t="shared" si="1"/>
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -19988,11 +19985,11 @@
       </c>
       <c r="G88" s="2">
         <f>'3.1'!I88</f>
-        <v>2.2799999999999998</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="H88" s="2">
         <f t="shared" si="1"/>
-        <v>2.25</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -20017,11 +20014,11 @@
       </c>
       <c r="G89" s="2">
         <f>'3.1'!I89</f>
-        <v>2.61</v>
+        <v>2.92</v>
       </c>
       <c r="H89" s="2">
         <f t="shared" si="1"/>
-        <v>2.61</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -20075,11 +20072,11 @@
       </c>
       <c r="G91" s="2">
         <f>'3.1'!I91</f>
-        <v>3.11</v>
+        <v>3.51</v>
       </c>
       <c r="H91" s="2">
         <f t="shared" si="1"/>
-        <v>3.13</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -20104,11 +20101,11 @@
       </c>
       <c r="G92" s="2">
         <f>'3.1'!I92</f>
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H92" s="2">
         <f t="shared" si="1"/>
-        <v>2.92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -20133,11 +20130,11 @@
       </c>
       <c r="G93" s="2">
         <f>'3.1'!I93</f>
-        <v>3.21</v>
+        <v>3.65</v>
       </c>
       <c r="H93" s="2">
         <f t="shared" si="1"/>
-        <v>3.52</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -20162,11 +20159,11 @@
       </c>
       <c r="G94" s="2">
         <f>'3.1'!I94</f>
-        <v>2.95</v>
+        <v>3.31</v>
       </c>
       <c r="H94" s="2">
         <f t="shared" si="1"/>
-        <v>2.97</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -20191,11 +20188,11 @@
       </c>
       <c r="G95" s="2">
         <f>'3.1'!I95</f>
-        <v>2.96</v>
+        <v>3.32</v>
       </c>
       <c r="H95" s="2">
         <f t="shared" si="1"/>
-        <v>3.06</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -20220,11 +20217,11 @@
       </c>
       <c r="G96" s="2">
         <f>'3.1'!I96</f>
-        <v>3.17</v>
+        <v>3.61</v>
       </c>
       <c r="H96" s="2">
         <f t="shared" si="1"/>
-        <v>3.42</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -20249,11 +20246,11 @@
       </c>
       <c r="G97" s="2">
         <f>'3.1'!I97</f>
-        <v>3.01</v>
+        <v>3.41</v>
       </c>
       <c r="H97" s="2">
         <f t="shared" si="1"/>
-        <v>3.12</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -20278,11 +20275,11 @@
       </c>
       <c r="G98" s="2">
         <f>'3.1'!I98</f>
-        <v>3.19</v>
+        <v>3.59</v>
       </c>
       <c r="H98" s="2">
         <f t="shared" si="1"/>
-        <v>3.15</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -20307,11 +20304,11 @@
       </c>
       <c r="G99" s="2">
         <f>'3.1'!I99</f>
-        <v>2.93</v>
+        <v>3.33</v>
       </c>
       <c r="H99" s="2">
         <f t="shared" si="1"/>
-        <v>2.73</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -20336,11 +20333,11 @@
       </c>
       <c r="G100" s="2">
         <f>'3.1'!I100</f>
-        <v>2.94</v>
+        <v>3.3</v>
       </c>
       <c r="H100" s="2">
         <f t="shared" si="1"/>
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -20365,11 +20362,11 @@
       </c>
       <c r="G101" s="2">
         <f>'3.1'!I101</f>
-        <v>3.09</v>
+        <v>3.45</v>
       </c>
       <c r="H101" s="2">
         <f t="shared" si="1"/>
-        <v>3.27</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -20394,11 +20391,11 @@
       </c>
       <c r="G102" s="2">
         <f>'3.1'!I102</f>
-        <v>2.93</v>
+        <v>3.29</v>
       </c>
       <c r="H102" s="2">
         <f t="shared" si="1"/>
-        <v>2.74</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -20423,11 +20420,11 @@
       </c>
       <c r="G103" s="2">
         <f>'3.1'!I103</f>
-        <v>3.05</v>
+        <v>3.41</v>
       </c>
       <c r="H103" s="2">
         <f t="shared" si="1"/>
-        <v>2.84</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -20452,11 +20449,11 @@
       </c>
       <c r="G104" s="2">
         <f>'3.1'!I104</f>
-        <v>2.85</v>
+        <v>3.29</v>
       </c>
       <c r="H104" s="2">
         <f t="shared" si="1"/>
-        <v>2.48</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -20481,11 +20478,11 @@
       </c>
       <c r="G105" s="2">
         <f>'3.1'!I105</f>
-        <v>3.22</v>
+        <v>3.75</v>
       </c>
       <c r="H105" s="2">
         <f t="shared" si="1"/>
-        <v>3.39</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -20510,11 +20507,11 @@
       </c>
       <c r="G106" s="2">
         <f>'3.1'!I106</f>
-        <v>2.69</v>
+        <v>2.96</v>
       </c>
       <c r="H106" s="2">
         <f t="shared" si="1"/>
-        <v>2.84</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -20539,11 +20536,11 @@
       </c>
       <c r="G107" s="2">
         <f>'3.1'!I107</f>
-        <v>2.91</v>
+        <v>3.21</v>
       </c>
       <c r="H107" s="2">
         <f t="shared" si="1"/>
-        <v>3.33</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -20568,11 +20565,11 @@
       </c>
       <c r="G108" s="2">
         <f>'3.1'!I108</f>
-        <v>2.77</v>
+        <v>3.07</v>
       </c>
       <c r="H108" s="2">
         <f t="shared" si="1"/>
-        <v>2.73</v>
+        <v>2.79</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musny\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8B9820-9E25-4570-91D5-76B0486ADEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3DAA80-390F-42FB-A0AB-C762EE86D01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -941,27 +941,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -7519,8 +7499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L91" sqref="L91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9874,14 +9854,14 @@
         <v>215</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H86" s="4">
         <f t="shared" si="2"/>
-        <v>3.85</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -13466,8 +13446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF4024C-D5C5-4006-A7A8-DFD50063D4CF}">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I108"/>
+    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15788,7 +15768,7 @@
         <v>26</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>20</v>
@@ -15801,7 +15781,7 @@
       </c>
       <c r="I76" s="4">
         <f t="shared" si="1"/>
-        <v>3.19</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -16771,10 +16751,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325CB179-F49C-49B9-8265-356F4F1FB48D}">
-  <dimension ref="A1:L108"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N72" sqref="N72"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17246,7 +17226,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -17274,12 +17254,8 @@
         <f t="shared" si="0"/>
         <v>3.51</v>
       </c>
-      <c r="L17">
-        <f>COUNTIF(H2:H108, "&gt;3.7")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -17308,7 +17284,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -17337,7 +17313,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
@@ -17366,7 +17342,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
@@ -17395,7 +17371,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -17424,7 +17400,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -17453,7 +17429,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -17482,7 +17458,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
@@ -17511,7 +17487,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -17540,7 +17516,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
@@ -17569,7 +17545,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -17598,7 +17574,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
@@ -17627,7 +17603,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -17656,7 +17632,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>55</v>
       </c>
@@ -17685,7 +17661,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>56</v>
       </c>
@@ -18983,11 +18959,11 @@
       </c>
       <c r="G76" s="2">
         <f>'3.1'!I76</f>
-        <v>3.19</v>
+        <v>3.33</v>
       </c>
       <c r="H76" s="2">
         <f t="shared" si="1"/>
-        <v>3.06</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -19266,7 +19242,7 @@
       </c>
       <c r="E86" s="7">
         <f>'2.1'!H86</f>
-        <v>3.85</v>
+        <v>3.79</v>
       </c>
       <c r="F86" s="2">
         <v>3.21</v>
@@ -19277,7 +19253,7 @@
       </c>
       <c r="H86" s="2">
         <f t="shared" si="1"/>
-        <v>3.7</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musny\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3DAA80-390F-42FB-A0AB-C762EE86D01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F054B5A-2C18-4E38-87F1-BF506EAFC4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.1" sheetId="4" r:id="rId1"/>
@@ -1254,8 +1254,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9874ED4-E851-4563-B599-BBC062D4B46C}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2728,7 +2729,7 @@
         <v>215</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>24</v>
+        <v>215</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>215</v>
@@ -2738,7 +2739,7 @@
       </c>
       <c r="H54" s="2">
         <f t="shared" si="0"/>
-        <v>3.74</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -7499,8 +7500,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L91" sqref="L91"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8211,7 +8213,7 @@
         <v>23</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>19</v>
@@ -8221,7 +8223,7 @@
       </c>
       <c r="H26" s="4">
         <f t="shared" si="0"/>
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -10480,8 +10482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C31238-57BB-4E9D-B566-91C7DE8FC2F0}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12224,17 +12226,17 @@
         <v>26</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>215</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H64" s="2">
         <f t="shared" si="0"/>
-        <v>2.91</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -16753,8 +16755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325CB179-F49C-49B9-8265-356F4F1FB48D}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="L85" sqref="L85"/>
+    <sheetView topLeftCell="A5" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17502,7 +17504,7 @@
       </c>
       <c r="E26" s="7">
         <f>'2.1'!H26</f>
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="F26" s="2">
         <v>0.56999999999999995</v>
@@ -17513,7 +17515,7 @@
       </c>
       <c r="H26" s="2">
         <f t="shared" si="0"/>
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -18307,7 +18309,7 @@
         <v>161</v>
       </c>
       <c r="C54" s="2">
-        <v>3.74</v>
+        <v>3.82</v>
       </c>
       <c r="D54" s="2">
         <v>3.22</v>
@@ -18325,7 +18327,7 @@
       </c>
       <c r="H54" s="2">
         <f t="shared" si="0"/>
-        <v>3.24</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -18607,7 +18609,7 @@
         <v>3.01</v>
       </c>
       <c r="F64" s="2">
-        <v>2.91</v>
+        <v>3.15</v>
       </c>
       <c r="G64" s="2">
         <f>'3.1'!I64</f>
@@ -18615,7 +18617,7 @@
       </c>
       <c r="H64" s="2">
         <f t="shared" si="0"/>
-        <v>3.14</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musny\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musny\Desktop\GPA_Cal\result_backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7637C7-C3CA-40C6-9EE8-87F126330597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28354FAC-F861-46B9-96BC-4D1DFCE97181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.1" sheetId="1" r:id="rId1"/>
@@ -1193,8 +1193,8 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M88" sqref="M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1255,7 +1255,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="4">
-        <f t="shared" ref="H2:H108" si="0">IFERROR(
+        <f>IFERROR(
     ROUND(
         (
             (IF(C2="A+", 4, IF(C2="A", 4, IF(C2="A-", 3.7, IF(C2="B+", 3.3, IF(C2="B", 3, IF(C2="B-", 2.7, IF(C2="C+", 2.3, IF(C2="C", 2, IF(C2="C-", 1.7, IF(C2="D+", 1.3, IF(C2="D", 1, IF(C2="E", 0, 0)))))))))))) * 4) +
@@ -1264,7 +1264,7 @@
             (IF(F2="A+", 4, IF(F2="A", 4, IF(F2="A-", 3.7, IF(F2="B+", 3.3, IF(F2="B", 3, IF(F2="B-", 2.7, IF(F2="C+", 2.3, IF(F2="C", 2, IF(F2="C-", 1.7, IF(F2="D+", 1.3, IF(F2="D", 1, IF(F2="E", 0, 0)))))))))))) * 2) +
             (IF(G2="A+", 4, IF(G2="A", 4, IF(G2="A-", 3.7, IF(G2="B+", 3.3, IF(G2="B", 3, IF(G2="B-", 2.7, IF(G2="C+", 2.3, IF(G2="C", 2, IF(G2="C-", 1.7, IF(G2="D+", 1.3, IF(G2="D", 1, IF(G2="E", 0, 0)))))))))))) * 2)
         ) / (4 + 4 + 3 + 2 + 2),
-    2),
+    3),
 0)</f>
         <v>3.26</v>
       </c>
@@ -1289,10 +1289,20 @@
         <v>16</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H3:H66" si="0">IFERROR(
+    ROUND(
+        (
+            (IF(C3="A+", 4, IF(C3="A", 4, IF(C3="A-", 3.7, IF(C3="B+", 3.3, IF(C3="B", 3, IF(C3="B-", 2.7, IF(C3="C+", 2.3, IF(C3="C", 2, IF(C3="C-", 1.7, IF(C3="D+", 1.3, IF(C3="D", 1, IF(C3="E", 0, 0)))))))))))) * 4) +
+            (IF(D3="A+", 4, IF(D3="A", 4, IF(D3="A-", 3.7, IF(D3="B+", 3.3, IF(D3="B", 3, IF(D3="B-", 2.7, IF(D3="C+", 2.3, IF(D3="C", 2, IF(D3="C-", 1.7, IF(D3="D+", 1.3, IF(D3="D", 1, IF(D3="E", 0, 0)))))))))))) * 4) +
+            (IF(E3="A+", 4, IF(E3="A", 4, IF(E3="A-", 3.7, IF(E3="B+", 3.3, IF(E3="B", 3, IF(E3="B-", 2.7, IF(E3="C+", 2.3, IF(E3="C", 2, IF(E3="C-", 1.7, IF(E3="D+", 1.3, IF(E3="D", 1, IF(E3="E", 0, 0)))))))))))) * 3) +
+            (IF(F3="A+", 4, IF(F3="A", 4, IF(F3="A-", 3.7, IF(F3="B+", 3.3, IF(F3="B", 3, IF(F3="B-", 2.7, IF(F3="C+", 2.3, IF(F3="C", 2, IF(F3="C-", 1.7, IF(F3="D+", 1.3, IF(F3="D", 1, IF(F3="E", 0, 0)))))))))))) * 2) +
+            (IF(G3="A+", 4, IF(G3="A", 4, IF(G3="A-", 3.7, IF(G3="B+", 3.3, IF(G3="B", 3, IF(G3="B-", 2.7, IF(G3="C+", 2.3, IF(G3="C", 2, IF(G3="C-", 1.7, IF(G3="D+", 1.3, IF(G3="D", 1, IF(G3="E", 0, 0)))))))))))) * 2)
+        ) / (4 + 4 + 3 + 2 + 2),
+    3),
+0)</f>
         <v>2.08</v>
       </c>
     </row>
@@ -1320,7 +1330,7 @@
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>3.55</v>
+        <v>3.5529999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1347,7 +1357,7 @@
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>3.31</v>
+        <v>3.3130000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1455,7 +1465,7 @@
       </c>
       <c r="H9" s="4">
         <f t="shared" si="0"/>
-        <v>2.5299999999999998</v>
+        <v>2.5270000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1482,7 +1492,7 @@
       </c>
       <c r="H10" s="4">
         <f t="shared" si="0"/>
-        <v>3.77</v>
+        <v>3.7730000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1509,7 +1519,7 @@
       </c>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
-        <v>3.69</v>
+        <v>3.6869999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1536,7 +1546,7 @@
       </c>
       <c r="H12" s="4">
         <f t="shared" si="0"/>
-        <v>3.69</v>
+        <v>3.6930000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1698,7 +1708,7 @@
       </c>
       <c r="H18" s="4">
         <f t="shared" si="0"/>
-        <v>3.87</v>
+        <v>3.867</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1725,7 +1735,7 @@
       </c>
       <c r="H19" s="4">
         <f t="shared" si="0"/>
-        <v>3.45</v>
+        <v>3.4470000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1779,7 +1789,7 @@
       </c>
       <c r="H21" s="4">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>3.7530000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1806,7 +1816,7 @@
       </c>
       <c r="H22" s="4">
         <f t="shared" si="0"/>
-        <v>2.65</v>
+        <v>2.6469999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1860,7 +1870,7 @@
       </c>
       <c r="H24" s="4">
         <f t="shared" si="0"/>
-        <v>3.81</v>
+        <v>3.8130000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1887,7 +1897,7 @@
       </c>
       <c r="H25" s="4">
         <f t="shared" si="0"/>
-        <v>3.35</v>
+        <v>3.347</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1941,7 +1951,7 @@
       </c>
       <c r="H27" s="4">
         <f t="shared" si="0"/>
-        <v>3.79</v>
+        <v>3.7869999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2022,7 +2032,7 @@
       </c>
       <c r="H30" s="4">
         <f t="shared" si="0"/>
-        <v>3.87</v>
+        <v>3.867</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2049,7 +2059,7 @@
       </c>
       <c r="H31" s="4">
         <f t="shared" si="0"/>
-        <v>2.4700000000000002</v>
+        <v>2.4729999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2076,7 +2086,7 @@
       </c>
       <c r="H32" s="4">
         <f t="shared" si="0"/>
-        <v>3.77</v>
+        <v>3.7730000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2103,7 +2113,7 @@
       </c>
       <c r="H33" s="4">
         <f t="shared" si="0"/>
-        <v>3.77</v>
+        <v>3.7730000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2130,7 +2140,7 @@
       </c>
       <c r="H34" s="4">
         <f t="shared" si="0"/>
-        <v>3.17</v>
+        <v>3.1669999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2157,7 +2167,7 @@
       </c>
       <c r="H35" s="4">
         <f t="shared" si="0"/>
-        <v>3.41</v>
+        <v>3.407</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2211,7 +2221,7 @@
       </c>
       <c r="H37" s="4">
         <f t="shared" si="0"/>
-        <v>3.85</v>
+        <v>3.847</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2238,7 +2248,7 @@
       </c>
       <c r="H38" s="4">
         <f t="shared" si="0"/>
-        <v>2.87</v>
+        <v>2.867</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2292,7 +2302,7 @@
       </c>
       <c r="H40" s="4">
         <f t="shared" si="0"/>
-        <v>3.81</v>
+        <v>3.8130000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2319,7 +2329,7 @@
       </c>
       <c r="H41" s="4">
         <f t="shared" si="0"/>
-        <v>3.35</v>
+        <v>3.3530000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2346,7 +2356,7 @@
       </c>
       <c r="H42" s="4">
         <f t="shared" si="0"/>
-        <v>3.81</v>
+        <v>3.8130000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2373,7 +2383,7 @@
       </c>
       <c r="H43" s="4">
         <f t="shared" si="0"/>
-        <v>3.67</v>
+        <v>3.673</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2427,7 +2437,7 @@
       </c>
       <c r="H45" s="4">
         <f t="shared" si="0"/>
-        <v>3.61</v>
+        <v>3.613</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2481,7 +2491,7 @@
       </c>
       <c r="H47" s="4">
         <f t="shared" si="0"/>
-        <v>2.83</v>
+        <v>2.8330000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2508,7 +2518,7 @@
       </c>
       <c r="H48" s="4">
         <f t="shared" si="0"/>
-        <v>3.59</v>
+        <v>3.593</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2616,7 +2626,7 @@
       </c>
       <c r="H52" s="4">
         <f t="shared" si="0"/>
-        <v>3.05</v>
+        <v>3.0470000000000002</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2643,7 +2653,7 @@
       </c>
       <c r="H53" s="4">
         <f t="shared" si="0"/>
-        <v>3.85</v>
+        <v>3.847</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2697,7 +2707,7 @@
       </c>
       <c r="H55" s="4">
         <f t="shared" si="0"/>
-        <v>2.87</v>
+        <v>2.8730000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2724,7 +2734,7 @@
       </c>
       <c r="H56" s="4">
         <f t="shared" si="0"/>
-        <v>3.67</v>
+        <v>3.673</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2751,7 +2761,7 @@
       </c>
       <c r="H57" s="4">
         <f t="shared" si="0"/>
-        <v>3.05</v>
+        <v>3.0470000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2805,7 +2815,7 @@
       </c>
       <c r="H59" s="4">
         <f t="shared" si="0"/>
-        <v>3.15</v>
+        <v>3.153</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2832,7 +2842,7 @@
       </c>
       <c r="H60" s="4">
         <f t="shared" si="0"/>
-        <v>3.25</v>
+        <v>3.2469999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2886,7 +2896,7 @@
       </c>
       <c r="H62" s="4">
         <f t="shared" si="0"/>
-        <v>3.35</v>
+        <v>3.3530000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2913,7 +2923,7 @@
       </c>
       <c r="H63" s="4">
         <f t="shared" si="0"/>
-        <v>2.87</v>
+        <v>2.8730000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2940,7 +2950,7 @@
       </c>
       <c r="H64" s="4">
         <f t="shared" si="0"/>
-        <v>2.89</v>
+        <v>2.887</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2967,7 +2977,7 @@
       </c>
       <c r="H65" s="4">
         <f t="shared" si="0"/>
-        <v>2.5499999999999998</v>
+        <v>2.5529999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2994,7 +3004,7 @@
       </c>
       <c r="H66" s="4">
         <f t="shared" si="0"/>
-        <v>3.41</v>
+        <v>3.407</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3020,8 +3030,18 @@
         <v>20</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="0"/>
-        <v>3.13</v>
+        <f t="shared" ref="H67:H108" si="1">IFERROR(
+    ROUND(
+        (
+            (IF(C67="A+", 4, IF(C67="A", 4, IF(C67="A-", 3.7, IF(C67="B+", 3.3, IF(C67="B", 3, IF(C67="B-", 2.7, IF(C67="C+", 2.3, IF(C67="C", 2, IF(C67="C-", 1.7, IF(C67="D+", 1.3, IF(C67="D", 1, IF(C67="E", 0, 0)))))))))))) * 4) +
+            (IF(D67="A+", 4, IF(D67="A", 4, IF(D67="A-", 3.7, IF(D67="B+", 3.3, IF(D67="B", 3, IF(D67="B-", 2.7, IF(D67="C+", 2.3, IF(D67="C", 2, IF(D67="C-", 1.7, IF(D67="D+", 1.3, IF(D67="D", 1, IF(D67="E", 0, 0)))))))))))) * 4) +
+            (IF(E67="A+", 4, IF(E67="A", 4, IF(E67="A-", 3.7, IF(E67="B+", 3.3, IF(E67="B", 3, IF(E67="B-", 2.7, IF(E67="C+", 2.3, IF(E67="C", 2, IF(E67="C-", 1.7, IF(E67="D+", 1.3, IF(E67="D", 1, IF(E67="E", 0, 0)))))))))))) * 3) +
+            (IF(F67="A+", 4, IF(F67="A", 4, IF(F67="A-", 3.7, IF(F67="B+", 3.3, IF(F67="B", 3, IF(F67="B-", 2.7, IF(F67="C+", 2.3, IF(F67="C", 2, IF(F67="C-", 1.7, IF(F67="D+", 1.3, IF(F67="D", 1, IF(F67="E", 0, 0)))))))))))) * 2) +
+            (IF(G67="A+", 4, IF(G67="A", 4, IF(G67="A-", 3.7, IF(G67="B+", 3.3, IF(G67="B", 3, IF(G67="B-", 2.7, IF(G67="C+", 2.3, IF(G67="C", 2, IF(G67="C-", 1.7, IF(G67="D+", 1.3, IF(G67="D", 1, IF(G67="E", 0, 0)))))))))))) * 2)
+        ) / (4 + 4 + 3 + 2 + 2),
+    3),
+0)</f>
+        <v>3.1269999999999998</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3047,8 +3067,8 @@
         <v>10</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="0"/>
-        <v>3.51</v>
+        <f t="shared" si="1"/>
+        <v>3.5129999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3074,7 +3094,7 @@
         <v>33</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.96</v>
       </c>
     </row>
@@ -3101,8 +3121,8 @@
         <v>13</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="0"/>
-        <v>2.73</v>
+        <f t="shared" si="1"/>
+        <v>2.7330000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3128,8 +3148,8 @@
         <v>16</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="0"/>
-        <v>2.31</v>
+        <f t="shared" si="1"/>
+        <v>2.3130000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3155,8 +3175,8 @@
         <v>23</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" si="0"/>
-        <v>3.57</v>
+        <f t="shared" si="1"/>
+        <v>3.573</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3182,8 +3202,8 @@
         <v>10</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="0"/>
-        <v>3.77</v>
+        <f t="shared" si="1"/>
+        <v>3.7730000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3200,7 +3220,7 @@
         <v>23</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>20</v>
@@ -3209,8 +3229,8 @@
         <v>20</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="0"/>
-        <v>3.72</v>
+        <f t="shared" si="1"/>
+        <v>3.86</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3236,7 +3256,7 @@
         <v>23</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.92</v>
       </c>
     </row>
@@ -3263,8 +3283,8 @@
         <v>20</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="0"/>
-        <v>3.65</v>
+        <f t="shared" si="1"/>
+        <v>3.653</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3290,8 +3310,8 @@
         <v>33</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="0"/>
-        <v>2.97</v>
+        <f t="shared" si="1"/>
+        <v>2.9670000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3317,7 +3337,7 @@
         <v>23</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -3344,7 +3364,7 @@
         <v>23</v>
       </c>
       <c r="H79" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.92</v>
       </c>
     </row>
@@ -3371,8 +3391,8 @@
         <v>11</v>
       </c>
       <c r="H80" s="4">
-        <f t="shared" si="0"/>
-        <v>3.83</v>
+        <f t="shared" si="1"/>
+        <v>3.827</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3398,7 +3418,7 @@
         <v>12</v>
       </c>
       <c r="H81" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
     </row>
@@ -3425,8 +3445,8 @@
         <v>12</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" si="0"/>
-        <v>3.27</v>
+        <f t="shared" si="1"/>
+        <v>3.2730000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3452,8 +3472,8 @@
         <v>11</v>
       </c>
       <c r="H83" s="4">
-        <f t="shared" si="0"/>
-        <v>3.59</v>
+        <f t="shared" si="1"/>
+        <v>3.593</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3479,8 +3499,8 @@
         <v>12</v>
       </c>
       <c r="H84" s="4">
-        <f t="shared" si="0"/>
-        <v>3.29</v>
+        <f t="shared" si="1"/>
+        <v>3.2869999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3506,8 +3526,8 @@
         <v>11</v>
       </c>
       <c r="H85" s="4">
-        <f t="shared" si="0"/>
-        <v>3.83</v>
+        <f t="shared" si="1"/>
+        <v>3.827</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3533,7 +3553,7 @@
         <v>11</v>
       </c>
       <c r="H86" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.96</v>
       </c>
     </row>
@@ -3560,7 +3580,7 @@
         <v>10</v>
       </c>
       <c r="H87" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4</v>
       </c>
     </row>
@@ -3587,8 +3607,8 @@
         <v>13</v>
       </c>
       <c r="H88" s="4">
-        <f t="shared" si="0"/>
-        <v>2.27</v>
+        <f t="shared" si="1"/>
+        <v>2.2669999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3614,7 +3634,7 @@
         <v>12</v>
       </c>
       <c r="H89" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4</v>
       </c>
     </row>
@@ -3641,7 +3661,7 @@
         <v>33</v>
       </c>
       <c r="H90" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.78</v>
       </c>
     </row>
@@ -3668,8 +3688,8 @@
         <v>23</v>
       </c>
       <c r="H91" s="4">
-        <f t="shared" si="0"/>
-        <v>3.37</v>
+        <f t="shared" si="1"/>
+        <v>3.367</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3695,8 +3715,8 @@
         <v>20</v>
       </c>
       <c r="H92" s="4">
-        <f t="shared" si="0"/>
-        <v>3.63</v>
+        <f t="shared" si="1"/>
+        <v>3.633</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3722,7 +3742,7 @@
         <v>11</v>
       </c>
       <c r="H93" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.92</v>
       </c>
     </row>
@@ -3749,8 +3769,8 @@
         <v>12</v>
       </c>
       <c r="H94" s="4">
-        <f t="shared" si="0"/>
-        <v>3.25</v>
+        <f t="shared" si="1"/>
+        <v>3.2530000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3776,7 +3796,7 @@
         <v>12</v>
       </c>
       <c r="H95" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.62</v>
       </c>
     </row>
@@ -3803,8 +3823,8 @@
         <v>10</v>
       </c>
       <c r="H96" s="4">
-        <f t="shared" si="0"/>
-        <v>3.73</v>
+        <f t="shared" si="1"/>
+        <v>3.7330000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3830,7 +3850,7 @@
         <v>12</v>
       </c>
       <c r="H97" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.18</v>
       </c>
     </row>
@@ -3857,8 +3877,8 @@
         <v>30</v>
       </c>
       <c r="H98" s="4">
-        <f t="shared" si="0"/>
-        <v>2.87</v>
+        <f t="shared" si="1"/>
+        <v>2.8730000000000002</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3884,7 +3904,7 @@
         <v>11</v>
       </c>
       <c r="H99" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.12</v>
       </c>
     </row>
@@ -3911,7 +3931,7 @@
         <v>12</v>
       </c>
       <c r="H100" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.94</v>
       </c>
     </row>
@@ -3938,8 +3958,8 @@
         <v>12</v>
       </c>
       <c r="H101" s="4">
-        <f t="shared" si="0"/>
-        <v>3.23</v>
+        <f t="shared" si="1"/>
+        <v>3.2330000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3965,8 +3985,8 @@
         <v>13</v>
       </c>
       <c r="H102" s="4">
-        <f t="shared" si="0"/>
-        <v>2.37</v>
+        <f t="shared" si="1"/>
+        <v>2.367</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3992,8 +4012,8 @@
         <v>13</v>
       </c>
       <c r="H103" s="4">
-        <f t="shared" si="0"/>
-        <v>2.87</v>
+        <f t="shared" si="1"/>
+        <v>2.8730000000000002</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4019,8 +4039,8 @@
         <v>10</v>
       </c>
       <c r="H104" s="4">
-        <f t="shared" si="0"/>
-        <v>2.85</v>
+        <f t="shared" si="1"/>
+        <v>2.847</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4046,8 +4066,8 @@
         <v>13</v>
       </c>
       <c r="H105" s="4">
-        <f t="shared" si="0"/>
-        <v>3.49</v>
+        <f t="shared" si="1"/>
+        <v>3.4870000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4073,8 +4093,8 @@
         <v>20</v>
       </c>
       <c r="H106" s="4">
-        <f t="shared" si="0"/>
-        <v>3.09</v>
+        <f t="shared" si="1"/>
+        <v>3.0870000000000002</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4100,8 +4120,8 @@
         <v>23</v>
       </c>
       <c r="H107" s="4">
-        <f t="shared" si="0"/>
-        <v>3.77</v>
+        <f t="shared" si="1"/>
+        <v>3.7669999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4127,7 +4147,7 @@
         <v>16</v>
       </c>
       <c r="H108" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.38</v>
       </c>
     </row>
@@ -5033,7 +5053,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R89" sqref="R89"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5098,9 +5121,19 @@
       <c r="H2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="4" t="e">
-        <f t="shared" ref="I2:I108" si="0">#VALUE!</f>
-        <v>#VALUE!</v>
+      <c r="I2" s="4">
+        <f>IFERROR(
+    ROUND(
+        (
+            (IF(C2="A+", 4, IF(C2="A", 4, IF(C2="A-", 3.7, IF(C2="B+", 3.3, IF(C2="B", 3, IF(C2="B-", 2.7, IF(C2="C+", 2.3, IF(C2="C", 2, IF(C2="C-", 1.7, IF(C2="D+", 1.3, IF(C2="D", 1, IF(C2="E", 0, 0)))))))))))) * 4) +
+            (IF(D2="A+", 4, IF(D2="A", 4, IF(D2="A-", 3.7, IF(D2="B+", 3.3, IF(D2="B", 3, IF(D2="B-", 2.7, IF(D2="C+", 2.3, IF(D2="C", 2, IF(D2="C-", 1.7, IF(D2="D+", 1.3, IF(D2="D", 1, IF(D2="E", 0, 0)))))))))))) * 3) +
+            (IF(E2="A+", 4, IF(E2="A", 4, IF(E2="A-", 3.7, IF(E2="B+", 3.3, IF(E2="B", 3, IF(E2="B-", 2.7, IF(E2="C+", 2.3, IF(E2="C", 2, IF(E2="C-", 1.7, IF(E2="D+", 1.3, IF(E2="D", 1, IF(E2="E", 0, 0)))))))))))) * 2) +
+            (IF(F2="A+", 4, IF(F2="A", 4, IF(F2="A-", 3.7, IF(F2="B+", 3.3, IF(F2="B", 3, IF(F2="B-", 2.7, IF(F2="C+", 2.3, IF(F2="C", 2, IF(F2="C-", 1.7, IF(F2="D+", 1.3, IF(F2="D", 1, IF(F2="E", 0, 0)))))))))))) * 2) +
+            (IF(G2="A+", 4, IF(G2="A", 4, IF(G2="A-", 3.7, IF(G2="B+", 3.3, IF(G2="B", 3, IF(G2="B-", 2.7, IF(G2="C+", 2.3, IF(G2="C", 2, IF(G2="C-", 1.7, IF(G2="D+", 1.3, IF(G2="D", 1, IF(G2="E", 0, 0)))))))))))) * 2) +  (IF(H2="A+", 4, IF(H2="A", 4, IF(H2="A-", 3.7, IF(H2="B+", 3.3, IF(H2="B", 3, IF(H2="B-", 2.7, IF(H2="C+", 2.3, IF(H2="C", 2, IF(H2="C-", 1.7, IF(H2="D+", 1.3, IF(H2="D", 1, IF(H2="E", 0, 0)))))))))))) * 2)
+        ) / (4 + 3+ 2 + 2 + 2 + 2),
+    3),
+0)</f>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5128,9 +5161,19 @@
       <c r="H3" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I3" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I66" si="0">IFERROR(
+    ROUND(
+        (
+            (IF(C3="A+", 4, IF(C3="A", 4, IF(C3="A-", 3.7, IF(C3="B+", 3.3, IF(C3="B", 3, IF(C3="B-", 2.7, IF(C3="C+", 2.3, IF(C3="C", 2, IF(C3="C-", 1.7, IF(C3="D+", 1.3, IF(C3="D", 1, IF(C3="E", 0, 0)))))))))))) * 4) +
+            (IF(D3="A+", 4, IF(D3="A", 4, IF(D3="A-", 3.7, IF(D3="B+", 3.3, IF(D3="B", 3, IF(D3="B-", 2.7, IF(D3="C+", 2.3, IF(D3="C", 2, IF(D3="C-", 1.7, IF(D3="D+", 1.3, IF(D3="D", 1, IF(D3="E", 0, 0)))))))))))) * 3) +
+            (IF(E3="A+", 4, IF(E3="A", 4, IF(E3="A-", 3.7, IF(E3="B+", 3.3, IF(E3="B", 3, IF(E3="B-", 2.7, IF(E3="C+", 2.3, IF(E3="C", 2, IF(E3="C-", 1.7, IF(E3="D+", 1.3, IF(E3="D", 1, IF(E3="E", 0, 0)))))))))))) * 2) +
+            (IF(F3="A+", 4, IF(F3="A", 4, IF(F3="A-", 3.7, IF(F3="B+", 3.3, IF(F3="B", 3, IF(F3="B-", 2.7, IF(F3="C+", 2.3, IF(F3="C", 2, IF(F3="C-", 1.7, IF(F3="D+", 1.3, IF(F3="D", 1, IF(F3="E", 0, 0)))))))))))) * 2) +
+            (IF(G3="A+", 4, IF(G3="A", 4, IF(G3="A-", 3.7, IF(G3="B+", 3.3, IF(G3="B", 3, IF(G3="B-", 2.7, IF(G3="C+", 2.3, IF(G3="C", 2, IF(G3="C-", 1.7, IF(G3="D+", 1.3, IF(G3="D", 1, IF(G3="E", 0, 0)))))))))))) * 2) +  (IF(H3="A+", 4, IF(H3="A", 4, IF(H3="A-", 3.7, IF(H3="B+", 3.3, IF(H3="B", 3, IF(H3="B-", 2.7, IF(H3="C+", 2.3, IF(H3="C", 2, IF(H3="C-", 1.7, IF(H3="D+", 1.3, IF(H3="D", 1, IF(H3="E", 0, 0)))))))))))) * 2)
+        ) / (4 + 3+ 2 + 2 + 2 + 2),
+    3),
+0)</f>
+        <v>1.4670000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -5158,9 +5201,9 @@
       <c r="H4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.907</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5188,9 +5231,9 @@
       <c r="H5" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I5" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1869999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5218,9 +5261,9 @@
       <c r="H6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7730000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -5248,9 +5291,9 @@
       <c r="H7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5278,9 +5321,9 @@
       <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5308,9 +5351,9 @@
       <c r="H9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8730000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5338,9 +5381,9 @@
       <c r="H10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2930000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5368,9 +5411,9 @@
       <c r="H11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.3330000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5398,9 +5441,9 @@
       <c r="H12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>3.06</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -5428,9 +5471,9 @@
       <c r="H13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>3.24</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -5458,9 +5501,9 @@
       <c r="H14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>3.3330000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5488,9 +5531,9 @@
       <c r="H15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>3.113</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5518,9 +5561,9 @@
       <c r="H16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
+        <v>1.98</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -5548,9 +5591,9 @@
       <c r="H17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
+        <v>3.347</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -5578,9 +5621,9 @@
       <c r="H18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I18" s="4">
+        <f t="shared" si="0"/>
+        <v>3.3330000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -5608,9 +5651,9 @@
       <c r="H19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I19" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5870000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -5638,9 +5681,9 @@
       <c r="H20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I20" s="4">
+        <f t="shared" si="0"/>
+        <v>3.92</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5668,9 +5711,9 @@
       <c r="H21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I21" s="4">
+        <f t="shared" si="0"/>
+        <v>3.613</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5698,9 +5741,9 @@
       <c r="H22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I22" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8330000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5728,9 +5771,9 @@
       <c r="H23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I23" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8130000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5758,9 +5801,9 @@
       <c r="H24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I24" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7330000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5788,9 +5831,9 @@
       <c r="H25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I25" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9529999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5818,9 +5861,9 @@
       <c r="H26" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I26" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I26" s="4">
+        <f t="shared" si="0"/>
+        <v>1.653</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5848,9 +5891,9 @@
       <c r="H27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I27" s="4">
+        <f t="shared" si="0"/>
+        <v>3.113</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5878,9 +5921,9 @@
       <c r="H28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I28" s="4">
+        <f t="shared" si="0"/>
+        <v>3.96</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5908,9 +5951,9 @@
       <c r="H29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I29" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7869999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5938,9 +5981,9 @@
       <c r="H30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I30" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7730000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5968,9 +6011,9 @@
       <c r="H31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I31" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I31" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9670000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5998,9 +6041,9 @@
       <c r="H32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I32" s="4">
+        <f t="shared" si="0"/>
+        <v>3.3130000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6028,9 +6071,9 @@
       <c r="H33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I33" s="4">
+        <f t="shared" si="0"/>
+        <v>3.54</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6058,9 +6101,9 @@
       <c r="H34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I34" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I34" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8730000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6088,9 +6131,9 @@
       <c r="H35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I35" s="4">
+        <f t="shared" si="0"/>
+        <v>3.673</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6118,9 +6161,9 @@
       <c r="H36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I36" s="4">
+        <f t="shared" si="0"/>
+        <v>3.153</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6148,9 +6191,9 @@
       <c r="H37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I37" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I37" s="4">
+        <f t="shared" si="0"/>
+        <v>3.54</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6178,9 +6221,9 @@
       <c r="H38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I38" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4870000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6208,9 +6251,9 @@
       <c r="H39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I39" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4670000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6238,9 +6281,9 @@
       <c r="H40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I40" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7530000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6268,9 +6311,9 @@
       <c r="H41" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I41" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I41" s="4">
+        <f t="shared" si="0"/>
+        <v>3.653</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6298,9 +6341,9 @@
       <c r="H42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I42" s="4">
+        <f t="shared" si="0"/>
+        <v>3.573</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6328,9 +6371,9 @@
       <c r="H43" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I43" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I43" s="4">
+        <f t="shared" si="0"/>
+        <v>3.64</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6358,9 +6401,9 @@
       <c r="H44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I44" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I44" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7730000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6388,9 +6431,9 @@
       <c r="H45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I45" s="4">
+        <f t="shared" si="0"/>
+        <v>3.653</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6418,9 +6461,9 @@
       <c r="H46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I46" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I46" s="4">
+        <f t="shared" si="0"/>
+        <v>3.56</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6448,9 +6491,9 @@
       <c r="H47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I47" s="4">
+        <f t="shared" si="0"/>
+        <v>2.407</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6478,9 +6521,9 @@
       <c r="H48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I48" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I48" s="4">
+        <f t="shared" si="0"/>
+        <v>3.673</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6508,9 +6551,9 @@
       <c r="H49" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I49" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6538,9 +6581,9 @@
       <c r="H50" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I50" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I50" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7330000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6568,9 +6611,9 @@
       <c r="H51" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I51" s="4">
+        <f t="shared" si="0"/>
+        <v>3.58</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6598,9 +6641,9 @@
       <c r="H52" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I52" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I52" s="4">
+        <f t="shared" si="0"/>
+        <v>3.573</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6628,9 +6671,9 @@
       <c r="H53" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I53" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I53" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5470000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6658,9 +6701,9 @@
       <c r="H54" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I54" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I54" s="4">
+        <f t="shared" si="0"/>
+        <v>3.22</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6688,9 +6731,9 @@
       <c r="H55" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I55" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I55" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6718,9 +6761,9 @@
       <c r="H56" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I56" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I56" s="4">
+        <f t="shared" si="0"/>
+        <v>3.52</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6748,9 +6791,9 @@
       <c r="H57" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I57" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I57" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6778,9 +6821,9 @@
       <c r="H58" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I58" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I58" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6808,9 +6851,9 @@
       <c r="H59" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I59" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I59" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7530000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6838,9 +6881,9 @@
       <c r="H60" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I60" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I60" s="4">
+        <f t="shared" si="0"/>
+        <v>3.0129999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6868,9 +6911,9 @@
       <c r="H61" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I61" s="4">
+        <f t="shared" si="0"/>
+        <v>3.0070000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6898,9 +6941,9 @@
       <c r="H62" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I62" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I62" s="4">
+        <f t="shared" si="0"/>
+        <v>2.86</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6928,9 +6971,9 @@
       <c r="H63" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I63" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I63" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2669999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6958,9 +7001,9 @@
       <c r="H64" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I64" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I64" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2069999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6988,9 +7031,9 @@
       <c r="H65" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I65" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I65" s="4">
+        <f t="shared" si="0"/>
+        <v>2.74</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7018,9 +7061,9 @@
       <c r="H66" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I66" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I66" s="4">
+        <f t="shared" si="0"/>
+        <v>3.0470000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7048,9 +7091,19 @@
       <c r="H67" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I67" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I67" s="4">
+        <f t="shared" ref="I67:I108" si="1">IFERROR(
+    ROUND(
+        (
+            (IF(C67="A+", 4, IF(C67="A", 4, IF(C67="A-", 3.7, IF(C67="B+", 3.3, IF(C67="B", 3, IF(C67="B-", 2.7, IF(C67="C+", 2.3, IF(C67="C", 2, IF(C67="C-", 1.7, IF(C67="D+", 1.3, IF(C67="D", 1, IF(C67="E", 0, 0)))))))))))) * 4) +
+            (IF(D67="A+", 4, IF(D67="A", 4, IF(D67="A-", 3.7, IF(D67="B+", 3.3, IF(D67="B", 3, IF(D67="B-", 2.7, IF(D67="C+", 2.3, IF(D67="C", 2, IF(D67="C-", 1.7, IF(D67="D+", 1.3, IF(D67="D", 1, IF(D67="E", 0, 0)))))))))))) * 3) +
+            (IF(E67="A+", 4, IF(E67="A", 4, IF(E67="A-", 3.7, IF(E67="B+", 3.3, IF(E67="B", 3, IF(E67="B-", 2.7, IF(E67="C+", 2.3, IF(E67="C", 2, IF(E67="C-", 1.7, IF(E67="D+", 1.3, IF(E67="D", 1, IF(E67="E", 0, 0)))))))))))) * 2) +
+            (IF(F67="A+", 4, IF(F67="A", 4, IF(F67="A-", 3.7, IF(F67="B+", 3.3, IF(F67="B", 3, IF(F67="B-", 2.7, IF(F67="C+", 2.3, IF(F67="C", 2, IF(F67="C-", 1.7, IF(F67="D+", 1.3, IF(F67="D", 1, IF(F67="E", 0, 0)))))))))))) * 2) +
+            (IF(G67="A+", 4, IF(G67="A", 4, IF(G67="A-", 3.7, IF(G67="B+", 3.3, IF(G67="B", 3, IF(G67="B-", 2.7, IF(G67="C+", 2.3, IF(G67="C", 2, IF(G67="C-", 1.7, IF(G67="D+", 1.3, IF(G67="D", 1, IF(G67="E", 0, 0)))))))))))) * 2) +  (IF(H67="A+", 4, IF(H67="A", 4, IF(H67="A-", 3.7, IF(H67="B+", 3.3, IF(H67="B", 3, IF(H67="B-", 2.7, IF(H67="C+", 2.3, IF(H67="C", 2, IF(H67="C-", 1.7, IF(H67="D+", 1.3, IF(H67="D", 1, IF(H67="E", 0, 0)))))))))))) * 2)
+        ) / (4 + 3+ 2 + 2 + 2 + 2),
+    3),
+0)</f>
+        <v>3.32</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7078,9 +7131,9 @@
       <c r="H68" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I68" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I68" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3330000000000002</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7108,9 +7161,9 @@
       <c r="H69" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I69" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I69" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7138,9 +7191,9 @@
       <c r="H70" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I70" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I70" s="4">
+        <f t="shared" si="1"/>
+        <v>2.633</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7168,9 +7221,9 @@
       <c r="H71" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I71" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I71" s="4">
+        <f t="shared" si="1"/>
+        <v>2.48</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7198,9 +7251,9 @@
       <c r="H72" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I72" s="4">
+        <f t="shared" si="1"/>
+        <v>3.2869999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7217,7 +7270,7 @@
         <v>12</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>12</v>
@@ -7228,9 +7281,9 @@
       <c r="H73" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I73" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I73" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7258,9 +7311,9 @@
       <c r="H74" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I74" s="4">
+        <f t="shared" si="1"/>
+        <v>3.2330000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7288,9 +7341,9 @@
       <c r="H75" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I75" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I75" s="4">
+        <f t="shared" si="1"/>
+        <v>3.367</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7318,9 +7371,9 @@
       <c r="H76" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I76" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I76" s="4">
+        <f t="shared" si="1"/>
+        <v>3.34</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7348,9 +7401,9 @@
       <c r="H77" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I77" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I77" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4470000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7378,9 +7431,9 @@
       <c r="H78" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I78" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I78" s="4">
+        <f t="shared" si="1"/>
+        <v>3.6930000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7408,9 +7461,9 @@
       <c r="H79" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I79" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I79" s="4">
+        <f t="shared" si="1"/>
+        <v>3.56</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7438,9 +7491,9 @@
       <c r="H80" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I80" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I80" s="4">
+        <f t="shared" si="1"/>
+        <v>3.7869999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7468,9 +7521,9 @@
       <c r="H81" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I81" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I81" s="4">
+        <f t="shared" si="1"/>
+        <v>3.52</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7498,9 +7551,9 @@
       <c r="H82" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I82" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I82" s="4">
+        <f t="shared" si="1"/>
+        <v>2.66</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7528,9 +7581,9 @@
       <c r="H83" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I83" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I83" s="4">
+        <f t="shared" si="1"/>
+        <v>3.22</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7558,9 +7611,9 @@
       <c r="H84" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I84" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I84" s="4">
+        <f t="shared" si="1"/>
+        <v>3.2930000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7588,9 +7641,9 @@
       <c r="H85" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I85" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I85" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5070000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7618,9 +7671,9 @@
       <c r="H86" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I86" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I86" s="4">
+        <f t="shared" si="1"/>
+        <v>3.6</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7648,9 +7701,9 @@
       <c r="H87" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I87" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I87" s="4">
+        <f t="shared" si="1"/>
+        <v>2.7930000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7678,9 +7731,9 @@
       <c r="H88" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I88" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I88" s="4">
+        <f t="shared" si="1"/>
+        <v>2.7869999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7708,9 +7761,9 @@
       <c r="H89" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I89" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I89" s="4">
+        <f t="shared" si="1"/>
+        <v>3.0470000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7738,9 +7791,9 @@
       <c r="H90" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I90" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I90" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7768,9 +7821,9 @@
       <c r="H91" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I91" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I91" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5529999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7798,9 +7851,9 @@
       <c r="H92" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I92" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I92" s="4">
+        <f t="shared" si="1"/>
+        <v>3.0470000000000002</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7828,9 +7881,9 @@
       <c r="H93" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I93" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I93" s="4">
+        <f t="shared" si="1"/>
+        <v>3.4670000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7858,9 +7911,9 @@
       <c r="H94" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I94" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I94" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3130000000000002</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7888,9 +7941,9 @@
       <c r="H95" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I95" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I95" s="4">
+        <f t="shared" si="1"/>
+        <v>3.1</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7918,9 +7971,9 @@
       <c r="H96" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I96" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I96" s="4">
+        <f t="shared" si="1"/>
+        <v>3.56</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7948,9 +8001,9 @@
       <c r="H97" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I97" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I97" s="4">
+        <f t="shared" si="1"/>
+        <v>3.54</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7978,9 +8031,9 @@
       <c r="H98" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I98" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I98" s="4">
+        <f t="shared" si="1"/>
+        <v>3.153</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8008,9 +8061,9 @@
       <c r="H99" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I99" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I99" s="4">
+        <f t="shared" si="1"/>
+        <v>3.1</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8038,9 +8091,9 @@
       <c r="H100" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I100" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I100" s="4">
+        <f t="shared" si="1"/>
+        <v>3.2869999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8068,9 +8121,9 @@
       <c r="H101" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I101" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I101" s="4">
+        <f t="shared" si="1"/>
+        <v>3.7130000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8098,9 +8151,9 @@
       <c r="H102" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I102" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I102" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3530000000000002</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8128,9 +8181,9 @@
       <c r="H103" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I103" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I103" s="4">
+        <f t="shared" si="1"/>
+        <v>3.18</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8158,9 +8211,9 @@
       <c r="H104" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I104" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I104" s="4">
+        <f t="shared" si="1"/>
+        <v>2.7069999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8188,9 +8241,9 @@
       <c r="H105" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I105" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I105" s="4">
+        <f t="shared" si="1"/>
+        <v>3.4670000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8218,9 +8271,9 @@
       <c r="H106" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I106" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I106" s="4">
+        <f t="shared" si="1"/>
+        <v>2.927</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8248,9 +8301,9 @@
       <c r="H107" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I107" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I107" s="4">
+        <f t="shared" si="1"/>
+        <v>3.2930000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8278,9 +8331,9 @@
       <c r="H108" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I108" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="I108" s="4">
+        <f t="shared" si="1"/>
+        <v>2.56</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9186,8 +9239,8 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9251,7 +9304,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" ref="H2:H108" si="0">IFERROR(
+        <f>IFERROR(
     ROUND(
         (
             (IF(C2="A+", 4, IF(C2="A", 4, IF(C2="A-", 3.7, IF(C2="B+", 3.3, IF(C2="B", 3, IF(C2="B-", 2.7, IF(C2="C+", 2.3, IF(C2="C", 2, IF(C2="C-", 1.7, IF(C2="D+", 1.3, IF(C2="D", 1, IF(C2="E", 0, 0))))))))))))) * 4 +
@@ -9261,9 +9314,9 @@
             (IF(G2="A+", 4, IF(G2="A", 4, IF(G2="A-", 3.7, IF(G2="B+", 3.3, IF(G2="B", 3, IF(G2="B-", 2.7, IF(G2="C+", 2.3, IF(G2="C", 2, IF(G2="C-", 1.7, IF(G2="D+", 1.3, IF(G2="D", 1, IF(G2="E", 0, 0))))))))))))) * 2
         ) /
         (4 + 3 + 3 + 3 + 2),
-    2),
+    3),
 0)</f>
-        <v>3.67</v>
+        <v>3.6669999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9289,8 +9342,19 @@
         <v>33</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" si="0"/>
-        <v>1.01</v>
+        <f t="shared" ref="H3:H66" si="0">IFERROR(
+    ROUND(
+        (
+            (IF(C3="A+", 4, IF(C3="A", 4, IF(C3="A-", 3.7, IF(C3="B+", 3.3, IF(C3="B", 3, IF(C3="B-", 2.7, IF(C3="C+", 2.3, IF(C3="C", 2, IF(C3="C-", 1.7, IF(C3="D+", 1.3, IF(C3="D", 1, IF(C3="E", 0, 0))))))))))))) * 4 +
+            (IF(D3="A+", 4, IF(D3="A", 4, IF(D3="A-", 3.7, IF(D3="B+", 3.3, IF(D3="B", 3, IF(D3="B-", 2.7, IF(D3="C+", 2.3, IF(D3="C", 2, IF(D3="C-", 1.7, IF(D3="D+", 1.3, IF(D3="D", 1, IF(D3="E", 0, 0))))))))))))) * 3 +
+            (IF(E3="A+", 4, IF(E3="A", 4, IF(E3="A-", 3.7, IF(E3="B+", 3.3, IF(E3="B", 3, IF(E3="B-", 2.7, IF(E3="C+", 2.3, IF(E3="C", 2, IF(E3="C-", 1.7, IF(E3="D+", 1.3, IF(E3="D", 1, IF(E3="E", 0, 0))))))))))))) * 3 +
+            (IF(F3="A+", 4, IF(F3="A", 4, IF(F3="A-", 3.7, IF(F3="B+", 3.3, IF(F3="B", 3, IF(F3="B-", 2.7, IF(F3="C+", 2.3, IF(F3="C", 2, IF(F3="C-", 1.7, IF(F3="D+", 1.3, IF(F3="D", 1, IF(F3="E", 0, 0))))))))))))) * 3 +
+            (IF(G3="A+", 4, IF(G3="A", 4, IF(G3="A-", 3.7, IF(G3="B+", 3.3, IF(G3="B", 3, IF(G3="B-", 2.7, IF(G3="C+", 2.3, IF(G3="C", 2, IF(G3="C-", 1.7, IF(G3="D+", 1.3, IF(G3="D", 1, IF(G3="E", 0, 0))))))))))))) * 2
+        ) /
+        (4 + 3 + 3 + 3 + 2),
+    3),
+0)</f>
+        <v>1.0069999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -9317,7 +9381,7 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
-        <v>3.01</v>
+        <v>3.0070000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -9344,7 +9408,7 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>2.69</v>
+        <v>2.6869999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -9371,7 +9435,7 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>3.87</v>
+        <v>3.867</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -9398,7 +9462,7 @@
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>3.7469999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -9452,7 +9516,7 @@
       </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>2.35</v>
+        <v>2.347</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -9506,7 +9570,7 @@
       </c>
       <c r="H11" s="3">
         <f t="shared" si="0"/>
-        <v>3.25</v>
+        <v>3.2530000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -9560,7 +9624,7 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" si="0"/>
-        <v>3.43</v>
+        <v>3.4329999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -9614,7 +9678,7 @@
       </c>
       <c r="H15" s="3">
         <f t="shared" si="0"/>
-        <v>3.37</v>
+        <v>3.3730000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -9695,7 +9759,7 @@
       </c>
       <c r="H18" s="3">
         <f t="shared" si="0"/>
-        <v>3.65</v>
+        <v>3.6469999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -9776,7 +9840,7 @@
       </c>
       <c r="H21" s="3">
         <f t="shared" si="0"/>
-        <v>3.91</v>
+        <v>3.907</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9830,7 +9894,7 @@
       </c>
       <c r="H23" s="3">
         <f t="shared" si="0"/>
-        <v>3.03</v>
+        <v>3.0270000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9857,7 +9921,7 @@
       </c>
       <c r="H24" s="3">
         <f t="shared" si="0"/>
-        <v>3.23</v>
+        <v>3.2330000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9884,7 +9948,7 @@
       </c>
       <c r="H25" s="3">
         <f t="shared" si="0"/>
-        <v>2.77</v>
+        <v>2.7669999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9938,7 +10002,7 @@
       </c>
       <c r="H27" s="3">
         <f t="shared" si="0"/>
-        <v>2.5099999999999998</v>
+        <v>2.5070000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9965,7 +10029,7 @@
       </c>
       <c r="H28" s="3">
         <f t="shared" si="0"/>
-        <v>3.91</v>
+        <v>3.907</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9992,7 +10056,7 @@
       </c>
       <c r="H29" s="3">
         <f t="shared" si="0"/>
-        <v>3.87</v>
+        <v>3.867</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10019,7 +10083,7 @@
       </c>
       <c r="H30" s="3">
         <f t="shared" si="0"/>
-        <v>3.59</v>
+        <v>3.593</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10046,7 +10110,7 @@
       </c>
       <c r="H31" s="3">
         <f t="shared" si="0"/>
-        <v>2.4900000000000002</v>
+        <v>2.4870000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10073,7 +10137,7 @@
       </c>
       <c r="H32" s="3">
         <f t="shared" si="0"/>
-        <v>2.5499999999999998</v>
+        <v>2.5529999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10100,7 +10164,7 @@
       </c>
       <c r="H33" s="3">
         <f t="shared" si="0"/>
-        <v>3.43</v>
+        <v>3.4329999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10127,7 +10191,7 @@
       </c>
       <c r="H34" s="3">
         <f t="shared" si="0"/>
-        <v>2.65</v>
+        <v>2.6469999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10154,7 +10218,7 @@
       </c>
       <c r="H35" s="3">
         <f t="shared" si="0"/>
-        <v>3.67</v>
+        <v>3.6669999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10208,7 +10272,7 @@
       </c>
       <c r="H37" s="3">
         <f t="shared" si="0"/>
-        <v>3.13</v>
+        <v>3.1269999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10235,7 +10299,7 @@
       </c>
       <c r="H38" s="3">
         <f t="shared" si="0"/>
-        <v>2.91</v>
+        <v>2.907</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10262,7 +10326,7 @@
       </c>
       <c r="H39" s="3">
         <f t="shared" si="0"/>
-        <v>3.37</v>
+        <v>3.3730000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10289,7 +10353,7 @@
       </c>
       <c r="H40" s="3">
         <f t="shared" si="0"/>
-        <v>3.71</v>
+        <v>3.7069999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10316,7 +10380,7 @@
       </c>
       <c r="H41" s="3">
         <f t="shared" si="0"/>
-        <v>3.65</v>
+        <v>3.653</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10343,7 +10407,7 @@
       </c>
       <c r="H42" s="3">
         <f t="shared" si="0"/>
-        <v>3.71</v>
+        <v>3.7069999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10397,7 +10461,7 @@
       </c>
       <c r="H44" s="3">
         <f t="shared" si="0"/>
-        <v>3.79</v>
+        <v>3.7869999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10424,7 +10488,7 @@
       </c>
       <c r="H45" s="3">
         <f t="shared" si="0"/>
-        <v>3.71</v>
+        <v>3.7069999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10451,7 +10515,7 @@
       </c>
       <c r="H46" s="3">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>3.7469999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10505,7 +10569,7 @@
       </c>
       <c r="H48" s="3">
         <f t="shared" si="0"/>
-        <v>3.55</v>
+        <v>3.5529999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10532,7 +10596,7 @@
       </c>
       <c r="H49" s="3">
         <f t="shared" si="0"/>
-        <v>3.57</v>
+        <v>3.5670000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10559,7 +10623,7 @@
       </c>
       <c r="H50" s="3">
         <f t="shared" si="0"/>
-        <v>3.87</v>
+        <v>3.867</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10586,7 +10650,7 @@
       </c>
       <c r="H51" s="3">
         <f t="shared" si="0"/>
-        <v>2.93</v>
+        <v>2.927</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10613,7 +10677,7 @@
       </c>
       <c r="H52" s="3">
         <f t="shared" si="0"/>
-        <v>3.29</v>
+        <v>3.2869999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10640,7 +10704,7 @@
       </c>
       <c r="H53" s="3">
         <f t="shared" si="0"/>
-        <v>3.71</v>
+        <v>3.7130000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10667,7 +10731,7 @@
       </c>
       <c r="H54" s="3">
         <f t="shared" si="0"/>
-        <v>2.83</v>
+        <v>2.8330000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10694,7 +10758,7 @@
       </c>
       <c r="H55" s="3">
         <f t="shared" si="0"/>
-        <v>2.69</v>
+        <v>2.6869999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10748,7 +10812,7 @@
       </c>
       <c r="H57" s="3">
         <f t="shared" si="0"/>
-        <v>3.07</v>
+        <v>3.0670000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10775,7 +10839,7 @@
       </c>
       <c r="H58" s="3">
         <f t="shared" si="0"/>
-        <v>3.79</v>
+        <v>3.7869999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10802,7 +10866,7 @@
       </c>
       <c r="H59" s="3">
         <f t="shared" si="0"/>
-        <v>2.4900000000000002</v>
+        <v>2.4870000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10829,7 +10893,7 @@
       </c>
       <c r="H60" s="3">
         <f t="shared" si="0"/>
-        <v>2.23</v>
+        <v>2.2269999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10856,7 +10920,7 @@
       </c>
       <c r="H61" s="3">
         <f t="shared" si="0"/>
-        <v>2.4700000000000002</v>
+        <v>2.4670000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10883,7 +10947,7 @@
       </c>
       <c r="H62" s="3">
         <f t="shared" si="0"/>
-        <v>2.5099999999999998</v>
+        <v>2.5070000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10937,7 +11001,7 @@
       </c>
       <c r="H64" s="3">
         <f t="shared" si="0"/>
-        <v>3.01</v>
+        <v>3.0070000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10964,7 +11028,7 @@
       </c>
       <c r="H65" s="3">
         <f t="shared" si="0"/>
-        <v>2.57</v>
+        <v>2.5670000000000002</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11017,8 +11081,19 @@
         <v>16</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" si="0"/>
-        <v>3.21</v>
+        <f t="shared" ref="H67:H108" si="1">IFERROR(
+    ROUND(
+        (
+            (IF(C67="A+", 4, IF(C67="A", 4, IF(C67="A-", 3.7, IF(C67="B+", 3.3, IF(C67="B", 3, IF(C67="B-", 2.7, IF(C67="C+", 2.3, IF(C67="C", 2, IF(C67="C-", 1.7, IF(C67="D+", 1.3, IF(C67="D", 1, IF(C67="E", 0, 0))))))))))))) * 4 +
+            (IF(D67="A+", 4, IF(D67="A", 4, IF(D67="A-", 3.7, IF(D67="B+", 3.3, IF(D67="B", 3, IF(D67="B-", 2.7, IF(D67="C+", 2.3, IF(D67="C", 2, IF(D67="C-", 1.7, IF(D67="D+", 1.3, IF(D67="D", 1, IF(D67="E", 0, 0))))))))))))) * 3 +
+            (IF(E67="A+", 4, IF(E67="A", 4, IF(E67="A-", 3.7, IF(E67="B+", 3.3, IF(E67="B", 3, IF(E67="B-", 2.7, IF(E67="C+", 2.3, IF(E67="C", 2, IF(E67="C-", 1.7, IF(E67="D+", 1.3, IF(E67="D", 1, IF(E67="E", 0, 0))))))))))))) * 3 +
+            (IF(F67="A+", 4, IF(F67="A", 4, IF(F67="A-", 3.7, IF(F67="B+", 3.3, IF(F67="B", 3, IF(F67="B-", 2.7, IF(F67="C+", 2.3, IF(F67="C", 2, IF(F67="C-", 1.7, IF(F67="D+", 1.3, IF(F67="D", 1, IF(F67="E", 0, 0))))))))))))) * 3 +
+            (IF(G67="A+", 4, IF(G67="A", 4, IF(G67="A-", 3.7, IF(G67="B+", 3.3, IF(G67="B", 3, IF(G67="B-", 2.7, IF(G67="C+", 2.3, IF(G67="C", 2, IF(G67="C-", 1.7, IF(G67="D+", 1.3, IF(G67="D", 1, IF(G67="E", 0, 0))))))))))))) * 2
+        ) /
+        (4 + 3 + 3 + 3 + 2),
+    3),
+0)</f>
+        <v>3.2130000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11044,7 +11119,7 @@
         <v>10</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
     </row>
@@ -11071,7 +11146,7 @@
         <v>33</v>
       </c>
       <c r="H69" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2799999999999998</v>
       </c>
     </row>
@@ -11098,8 +11173,8 @@
         <v>30</v>
       </c>
       <c r="H70" s="3">
-        <f t="shared" si="0"/>
-        <v>1.97</v>
+        <f t="shared" si="1"/>
+        <v>1.9670000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11125,7 +11200,7 @@
         <v>16</v>
       </c>
       <c r="H71" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
     </row>
@@ -11152,8 +11227,8 @@
         <v>10</v>
       </c>
       <c r="H72" s="3">
-        <f t="shared" si="0"/>
-        <v>3.51</v>
+        <f t="shared" si="1"/>
+        <v>3.5070000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11179,8 +11254,8 @@
         <v>33</v>
       </c>
       <c r="H73" s="3">
-        <f t="shared" si="0"/>
-        <v>2.41</v>
+        <f t="shared" si="1"/>
+        <v>2.407</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11206,7 +11281,7 @@
         <v>13</v>
       </c>
       <c r="H74" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.06</v>
       </c>
     </row>
@@ -11231,7 +11306,7 @@
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.62</v>
       </c>
     </row>
@@ -11258,8 +11333,8 @@
         <v>30</v>
       </c>
       <c r="H76" s="3">
-        <f t="shared" si="0"/>
-        <v>2.91</v>
+        <f t="shared" si="1"/>
+        <v>2.907</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11285,8 +11360,8 @@
         <v>33</v>
       </c>
       <c r="H77" s="3">
-        <f t="shared" si="0"/>
-        <v>2.19</v>
+        <f t="shared" si="1"/>
+        <v>2.1869999999999998</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11312,7 +11387,7 @@
         <v>13</v>
       </c>
       <c r="H78" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1</v>
       </c>
     </row>
@@ -11339,8 +11414,8 @@
         <v>33</v>
       </c>
       <c r="H79" s="3">
-        <f t="shared" si="0"/>
-        <v>3.23</v>
+        <f t="shared" si="1"/>
+        <v>3.2330000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11366,8 +11441,8 @@
         <v>12</v>
       </c>
       <c r="H80" s="3">
-        <f t="shared" si="0"/>
-        <v>3.69</v>
+        <f t="shared" si="1"/>
+        <v>3.6869999999999998</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11393,8 +11468,8 @@
         <v>13</v>
       </c>
       <c r="H81" s="3">
-        <f t="shared" si="0"/>
-        <v>3.65</v>
+        <f t="shared" si="1"/>
+        <v>3.6469999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11420,8 +11495,8 @@
         <v>30</v>
       </c>
       <c r="H82" s="3">
-        <f t="shared" si="0"/>
-        <v>2.63</v>
+        <f t="shared" si="1"/>
+        <v>2.6269999999999998</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11447,8 +11522,8 @@
         <v>13</v>
       </c>
       <c r="H83" s="3">
-        <f t="shared" si="0"/>
-        <v>3.27</v>
+        <f t="shared" si="1"/>
+        <v>3.2669999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11474,8 +11549,8 @@
         <v>13</v>
       </c>
       <c r="H84" s="3">
-        <f t="shared" si="0"/>
-        <v>3.57</v>
+        <f t="shared" si="1"/>
+        <v>3.5670000000000002</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11501,8 +11576,8 @@
         <v>13</v>
       </c>
       <c r="H85" s="3">
-        <f t="shared" si="0"/>
-        <v>3.57</v>
+        <f t="shared" si="1"/>
+        <v>3.5670000000000002</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11528,8 +11603,8 @@
         <v>10</v>
       </c>
       <c r="H86" s="3">
-        <f t="shared" si="0"/>
-        <v>3.79</v>
+        <f t="shared" si="1"/>
+        <v>3.7869999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11555,7 +11630,7 @@
         <v>30</v>
       </c>
       <c r="H87" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.04</v>
       </c>
     </row>
@@ -11582,7 +11657,7 @@
         <v>33</v>
       </c>
       <c r="H88" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -11609,7 +11684,7 @@
         <v>16</v>
       </c>
       <c r="H89" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -11636,7 +11711,7 @@
         <v>17</v>
       </c>
       <c r="H90" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11663,8 +11738,8 @@
         <v>13</v>
       </c>
       <c r="H91" s="3">
-        <f t="shared" si="0"/>
-        <v>3.29</v>
+        <f t="shared" si="1"/>
+        <v>3.2869999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11690,8 +11765,8 @@
         <v>33</v>
       </c>
       <c r="H92" s="3">
-        <f t="shared" si="0"/>
-        <v>2.99</v>
+        <f t="shared" si="1"/>
+        <v>2.9929999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11717,8 +11792,8 @@
         <v>13</v>
       </c>
       <c r="H93" s="3">
-        <f t="shared" si="0"/>
-        <v>3.63</v>
+        <f t="shared" si="1"/>
+        <v>3.6269999999999998</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11744,7 +11819,7 @@
         <v>12</v>
       </c>
       <c r="H94" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.84</v>
       </c>
     </row>
@@ -11771,8 +11846,8 @@
         <v>16</v>
       </c>
       <c r="H95" s="3">
-        <f t="shared" si="0"/>
-        <v>2.89</v>
+        <f t="shared" si="1"/>
+        <v>2.887</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11798,8 +11873,8 @@
         <v>12</v>
       </c>
       <c r="H96" s="3">
-        <f t="shared" si="0"/>
-        <v>3.61</v>
+        <f t="shared" si="1"/>
+        <v>3.6070000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11825,7 +11900,7 @@
         <v>13</v>
       </c>
       <c r="H97" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.96</v>
       </c>
     </row>
@@ -11852,8 +11927,8 @@
         <v>13</v>
       </c>
       <c r="H98" s="3">
-        <f t="shared" si="0"/>
-        <v>3.33</v>
+        <f t="shared" si="1"/>
+        <v>3.327</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11879,8 +11954,8 @@
         <v>33</v>
       </c>
       <c r="H99" s="3">
-        <f t="shared" si="0"/>
-        <v>2.75</v>
+        <f t="shared" si="1"/>
+        <v>2.7469999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11906,8 +11981,8 @@
         <v>30</v>
       </c>
       <c r="H100" s="3">
-        <f t="shared" si="0"/>
-        <v>2.99</v>
+        <f t="shared" si="1"/>
+        <v>2.9870000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11933,8 +12008,8 @@
         <v>13</v>
       </c>
       <c r="H101" s="3">
-        <f t="shared" si="0"/>
-        <v>3.43</v>
+        <f t="shared" si="1"/>
+        <v>3.427</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11960,8 +12035,8 @@
         <v>30</v>
       </c>
       <c r="H102" s="3">
-        <f t="shared" si="0"/>
-        <v>2.65</v>
+        <f t="shared" si="1"/>
+        <v>2.6469999999999998</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11987,8 +12062,8 @@
         <v>13</v>
       </c>
       <c r="H103" s="3">
-        <f t="shared" si="0"/>
-        <v>2.65</v>
+        <f t="shared" si="1"/>
+        <v>2.653</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12014,7 +12089,7 @@
         <v>16</v>
       </c>
       <c r="H104" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2400000000000002</v>
       </c>
     </row>
@@ -12041,8 +12116,8 @@
         <v>10</v>
       </c>
       <c r="H105" s="3">
-        <f t="shared" si="0"/>
-        <v>3.51</v>
+        <f t="shared" si="1"/>
+        <v>3.5070000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12068,8 +12143,8 @@
         <v>33</v>
       </c>
       <c r="H106" s="3">
-        <f t="shared" si="0"/>
-        <v>2.95</v>
+        <f t="shared" si="1"/>
+        <v>2.9470000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12095,8 +12170,8 @@
         <v>16</v>
       </c>
       <c r="H107" s="3">
-        <f t="shared" si="0"/>
-        <v>3.49</v>
+        <f t="shared" si="1"/>
+        <v>3.4929999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12122,8 +12197,8 @@
         <v>12</v>
       </c>
       <c r="H108" s="3">
-        <f t="shared" si="0"/>
-        <v>3.33</v>
+        <f t="shared" si="1"/>
+        <v>3.327</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13028,7 +13103,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N80" sqref="N80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13087,9 +13165,19 @@
       <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="e">
-        <f t="shared" ref="H2:H68" si="0">#VALUE!</f>
-        <v>#VALUE!</v>
+      <c r="H2" s="4">
+        <f>IFERROR(
+    ROUND(
+        (
+            (IF(C2="A+", 4, IF(C2="A", 4, IF(C2="A-", 3.7, IF(C2="B+", 3.3, IF(C2="B", 3, IF(C2="B-", 2.7, IF(C2="C+", 2.3, IF(C2="C", 2, IF(C2="C-", 1.7, IF(C2="D+", 1.3, IF(C2="D", 1, IF(C2="E", 0, 0)))))))))))) * 4) +
+            (IF(D2="A+", 4, IF(D2="A", 4, IF(D2="A-", 3.7, IF(D2="B+", 3.3, IF(D2="B", 3, IF(D2="B-", 2.7, IF(D2="C+", 2.3, IF(D2="C", 2, IF(D2="C-", 1.7, IF(D2="D+", 1.3, IF(D2="D", 1, IF(D2="E", 0, 0)))))))))))) * 4) +
+            (IF(E2="A+", 4, IF(E2="A", 4, IF(E2="A-", 3.7, IF(E2="B+", 3.3, IF(E2="B", 3, IF(E2="B-", 2.7, IF(E2="C+", 2.3, IF(E2="C", 2, IF(E2="C-", 1.7, IF(E2="D+", 1.3, IF(E2="D", 1, IF(E2="E", 0, 0)))))))))))) * 3) +
+            (IF(F2="A+", 4, IF(F2="A", 4, IF(F2="A-", 3.7, IF(F2="B+", 3.3, IF(F2="B", 3, IF(F2="B-", 2.7, IF(F2="C+", 2.3, IF(F2="C", 2, IF(F2="C-", 1.7, IF(F2="D+", 1.3, IF(F2="D", 1, IF(F2="E", 0, 0)))))))))))) * 2) +
+            (IF(G2="A+", 4, IF(G2="A", 4, IF(G2="A-", 3.7, IF(G2="B+", 3.3, IF(G2="B", 3, IF(G2="B-", 2.7, IF(G2="C+", 2.3, IF(G2="C", 2, IF(G2="C-", 1.7, IF(G2="D+", 1.3, IF(G2="D", 1, IF(G2="E", 0, 0)))))))))))) * 2)
+        ) / (4 + 4 + 3 + 2 + 2),
+    3),
+0)</f>
+        <v>2.5870000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -13114,9 +13202,19 @@
       <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H66" si="0">IFERROR(
+    ROUND(
+        (
+            (IF(C3="A+", 4, IF(C3="A", 4, IF(C3="A-", 3.7, IF(C3="B+", 3.3, IF(C3="B", 3, IF(C3="B-", 2.7, IF(C3="C+", 2.3, IF(C3="C", 2, IF(C3="C-", 1.7, IF(C3="D+", 1.3, IF(C3="D", 1, IF(C3="E", 0, 0)))))))))))) * 4) +
+            (IF(D3="A+", 4, IF(D3="A", 4, IF(D3="A-", 3.7, IF(D3="B+", 3.3, IF(D3="B", 3, IF(D3="B-", 2.7, IF(D3="C+", 2.3, IF(D3="C", 2, IF(D3="C-", 1.7, IF(D3="D+", 1.3, IF(D3="D", 1, IF(D3="E", 0, 0)))))))))))) * 4) +
+            (IF(E3="A+", 4, IF(E3="A", 4, IF(E3="A-", 3.7, IF(E3="B+", 3.3, IF(E3="B", 3, IF(E3="B-", 2.7, IF(E3="C+", 2.3, IF(E3="C", 2, IF(E3="C-", 1.7, IF(E3="D+", 1.3, IF(E3="D", 1, IF(E3="E", 0, 0)))))))))))) * 3) +
+            (IF(F3="A+", 4, IF(F3="A", 4, IF(F3="A-", 3.7, IF(F3="B+", 3.3, IF(F3="B", 3, IF(F3="B-", 2.7, IF(F3="C+", 2.3, IF(F3="C", 2, IF(F3="C-", 1.7, IF(F3="D+", 1.3, IF(F3="D", 1, IF(F3="E", 0, 0)))))))))))) * 2) +
+            (IF(G3="A+", 4, IF(G3="A", 4, IF(G3="A-", 3.7, IF(G3="B+", 3.3, IF(G3="B", 3, IF(G3="B-", 2.7, IF(G3="C+", 2.3, IF(G3="C", 2, IF(G3="C-", 1.7, IF(G3="D+", 1.3, IF(G3="D", 1, IF(G3="E", 0, 0)))))))))))) * 2)
+        ) / (4 + 4 + 3 + 2 + 2),
+    3),
+0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -13141,9 +13239,9 @@
       <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6669999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -13168,9 +13266,9 @@
       <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>2.653</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -13195,9 +13293,9 @@
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>3.44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -13222,9 +13320,9 @@
       <c r="G7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>3.66</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -13249,9 +13347,9 @@
       <c r="G8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1869999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -13276,9 +13374,9 @@
       <c r="G9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1269999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -13303,9 +13401,9 @@
       <c r="G10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7469999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -13330,9 +13428,9 @@
       <c r="G11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>2.653</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -13357,9 +13455,9 @@
       <c r="G12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4929999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -13384,9 +13482,9 @@
       <c r="G13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>2.42</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -13411,9 +13509,9 @@
       <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6469999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -13438,9 +13536,9 @@
       <c r="G15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7730000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -13465,9 +13563,9 @@
       <c r="G16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0070000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -13492,9 +13590,9 @@
       <c r="G17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>3.18</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -13519,9 +13617,9 @@
       <c r="G18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>3.38</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -13546,9 +13644,9 @@
       <c r="G19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>2.347</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -13573,9 +13671,9 @@
       <c r="G20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>2.82</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13600,9 +13698,9 @@
       <c r="G21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5870000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13627,9 +13725,9 @@
       <c r="G22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7869999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13654,9 +13752,9 @@
       <c r="G23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H23" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2869999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13681,9 +13779,9 @@
       <c r="G24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H24" s="4">
+        <f t="shared" si="0"/>
+        <v>3.113</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13708,9 +13806,9 @@
       <c r="G25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H25" s="4">
+        <f t="shared" si="0"/>
+        <v>2.36</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13735,9 +13833,9 @@
       <c r="G26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13762,9 +13860,9 @@
       <c r="G27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H27" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2469999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13789,9 +13887,9 @@
       <c r="G28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H28" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4929999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13816,9 +13914,9 @@
       <c r="G29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H29" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5270000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13843,9 +13941,9 @@
       <c r="G30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H30" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8330000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13870,9 +13968,9 @@
       <c r="G31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H31" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13897,9 +13995,9 @@
       <c r="G32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H32" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2669999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13924,9 +14022,9 @@
       <c r="G33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H33" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13951,9 +14049,9 @@
       <c r="G34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H34" s="4">
+        <f t="shared" si="0"/>
+        <v>2.34</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13978,9 +14076,9 @@
       <c r="G35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H35" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1269999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14005,9 +14103,9 @@
       <c r="G36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H36" s="4">
+        <f t="shared" si="0"/>
+        <v>2.72</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14032,9 +14130,9 @@
       <c r="G37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H37" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9470000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14059,9 +14157,9 @@
       <c r="G38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H38" s="4">
+        <f t="shared" si="0"/>
+        <v>2.54</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14086,9 +14184,9 @@
       <c r="G39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H39" s="4">
+        <f t="shared" si="0"/>
+        <v>3.14</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14113,9 +14211,9 @@
       <c r="G40" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H40" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2069999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14140,9 +14238,9 @@
       <c r="G41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H41" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H41" s="4">
+        <f t="shared" si="0"/>
+        <v>3.0070000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14167,9 +14265,9 @@
       <c r="G42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H42" s="4">
+        <f t="shared" si="0"/>
+        <v>2.98</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14194,9 +14292,9 @@
       <c r="G43" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H43" s="4">
+        <f t="shared" si="0"/>
+        <v>3.327</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14221,9 +14319,9 @@
       <c r="G44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H44" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H44" s="4">
+        <f t="shared" si="0"/>
+        <v>3.3929999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14248,9 +14346,9 @@
       <c r="G45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H45" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5670000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14275,9 +14373,9 @@
       <c r="G46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H46" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6930000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14302,9 +14400,9 @@
       <c r="G47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H47" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H47" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14329,9 +14427,9 @@
       <c r="G48" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H48" s="4">
+        <f t="shared" si="0"/>
+        <v>3.3069999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14356,9 +14454,9 @@
       <c r="G49" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H49" s="4">
+        <f t="shared" si="0"/>
+        <v>2.48</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14383,9 +14481,9 @@
       <c r="G50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H50" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H50" s="4">
+        <f t="shared" si="0"/>
+        <v>3.34</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14410,9 +14508,9 @@
       <c r="G51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H51" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6469999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14437,9 +14535,9 @@
       <c r="G52" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H52" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H52" s="4">
+        <f t="shared" si="0"/>
+        <v>2.927</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14464,9 +14562,9 @@
       <c r="G53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H53" s="4">
+        <f t="shared" si="0"/>
+        <v>3.407</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14491,9 +14589,9 @@
       <c r="G54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H54" s="4">
+        <f t="shared" si="0"/>
+        <v>2.94</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14518,9 +14616,9 @@
       <c r="G55" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H55" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H55" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0529999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14545,9 +14643,9 @@
       <c r="G56" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H56" s="4">
+        <f t="shared" si="0"/>
+        <v>2.673</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14572,9 +14670,9 @@
       <c r="G57" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H57" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H57" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1669999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14599,9 +14697,9 @@
       <c r="G58" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H58" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H58" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4929999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14626,9 +14724,9 @@
       <c r="G59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H59" s="4">
+        <f t="shared" si="0"/>
+        <v>2.52</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14653,9 +14751,9 @@
       <c r="G60" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H60" s="4">
+        <f t="shared" si="0"/>
+        <v>2.78</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14680,9 +14778,9 @@
       <c r="G61" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H61" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H61" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5669999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14707,9 +14805,9 @@
       <c r="G62" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H62" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H62" s="4">
+        <f t="shared" si="0"/>
+        <v>1.56</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14734,9 +14832,9 @@
       <c r="G63" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H63" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H63" s="4">
+        <f t="shared" si="0"/>
+        <v>1.36</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14761,9 +14859,9 @@
       <c r="G64" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H64" s="4">
+        <f t="shared" si="0"/>
+        <v>3.153</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14788,9 +14886,9 @@
       <c r="G65" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H65" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H65" s="4">
+        <f t="shared" si="0"/>
+        <v>2.44</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14815,9 +14913,9 @@
       <c r="G66" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H66" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H66" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2930000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14842,9 +14940,19 @@
       <c r="G67" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H67" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H67" s="4">
+        <f t="shared" ref="H67:H108" si="1">IFERROR(
+    ROUND(
+        (
+            (IF(C67="A+", 4, IF(C67="A", 4, IF(C67="A-", 3.7, IF(C67="B+", 3.3, IF(C67="B", 3, IF(C67="B-", 2.7, IF(C67="C+", 2.3, IF(C67="C", 2, IF(C67="C-", 1.7, IF(C67="D+", 1.3, IF(C67="D", 1, IF(C67="E", 0, 0)))))))))))) * 4) +
+            (IF(D67="A+", 4, IF(D67="A", 4, IF(D67="A-", 3.7, IF(D67="B+", 3.3, IF(D67="B", 3, IF(D67="B-", 2.7, IF(D67="C+", 2.3, IF(D67="C", 2, IF(D67="C-", 1.7, IF(D67="D+", 1.3, IF(D67="D", 1, IF(D67="E", 0, 0)))))))))))) * 4) +
+            (IF(E67="A+", 4, IF(E67="A", 4, IF(E67="A-", 3.7, IF(E67="B+", 3.3, IF(E67="B", 3, IF(E67="B-", 2.7, IF(E67="C+", 2.3, IF(E67="C", 2, IF(E67="C-", 1.7, IF(E67="D+", 1.3, IF(E67="D", 1, IF(E67="E", 0, 0)))))))))))) * 3) +
+            (IF(F67="A+", 4, IF(F67="A", 4, IF(F67="A-", 3.7, IF(F67="B+", 3.3, IF(F67="B", 3, IF(F67="B-", 2.7, IF(F67="C+", 2.3, IF(F67="C", 2, IF(F67="C-", 1.7, IF(F67="D+", 1.3, IF(F67="D", 1, IF(F67="E", 0, 0)))))))))))) * 2) +
+            (IF(G67="A+", 4, IF(G67="A", 4, IF(G67="A-", 3.7, IF(G67="B+", 3.3, IF(G67="B", 3, IF(G67="B-", 2.7, IF(G67="C+", 2.3, IF(G67="C", 2, IF(G67="C-", 1.7, IF(G67="D+", 1.3, IF(G67="D", 1, IF(G67="E", 0, 0)))))))))))) * 2)
+        ) / (4 + 4 + 3 + 2 + 2),
+    3),
+0)</f>
+        <v>2.3069999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14869,9 +14977,9 @@
       <c r="G68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="H68" s="4">
+        <f t="shared" si="1"/>
+        <v>2.7069999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14897,20 +15005,8 @@
         <v>23</v>
       </c>
       <c r="H69" s="4">
-        <f>IFERROR(
-    ROUND(
-        (
-            (IF(C2="A+", 4, IF(C2="A", 4, IF(C2="A-", 3.7, IF(C2="B+", 3.3, IF(C2="B", 3, IF(C2="B-", 2.7, IF(C2="C+", 2.3, IF(C2="C", 2, IF(C2="C-", 1.7, IF(C2="D+", 1.3, IF(C2="D", 1, IF(C2="E", 0, 0))))))))))))) * 3 +
-            (IF(D2="A+", 4, IF(D2="A", 4, IF(D2="A-", 3.7, IF(D2="B+", 3.3, IF(D2="B", 3, IF(D2="B-", 2.7, IF(D2="C+", 2.3, IF(D2="C", 2, IF(D2="C-", 1.7, IF(D2="D+", 1.3, IF(D2="D", 1, IF(D2="E", 0, 0))))))))))))) * 3 +
-            (IF(E2="A+", 4, IF(E2="A", 4, IF(E2="A-", 3.7, IF(E2="B+", 3.3, IF(E2="B", 3, IF(E2="B-", 2.7, IF(E2="C+", 2.3, IF(E2="C", 2, IF(E2="C-", 1.7, IF(E2="D+", 1.3, IF(E2="D", 1, IF(E2="E", 0, 0))))))))))))) * 3 +
-            (IF(F2="A+", 4, IF(F2="A", 4, IF(F2="A-", 3.7, IF(F2="B+", 3.3, IF(F2="B", 3, IF(F2="B-", 2.7, IF(F2="C+", 2.3, IF(F2="C", 2, IF(F2="C-", 1.7, IF(F2="D+", 1.3, IF(F2="D", 1, IF(F2="E", 0, 0))))))))))))) * 2 +
-            (IF(G2="A+", 4, IF(G2="A", 4, IF(G2="A-", 3.7, IF(G2="B+", 3.3, IF(G2="B", 3, IF(G2="B-", 2.7, IF(G2="C+", 2.3, IF(G2="C", 2, IF(G2="C-", 1.7, IF(G2="D+", 1.3, IF(G2="D", 1, IF(G2="E", 0, 0))))))))))))) * 2 +
-            (IF(H2="A+", 4, IF(H2="A", 4, IF(H2="A-", 3.7, IF(H2="B+", 3.3, IF(H2="B", 3, IF(H2="B-", 2.7, IF(H2="C+", 2.3, IF(H2="C", 2, IF(H2="C-", 1.7, IF(H2="D+", 1.3, IF(H2="D", 1, IF(H2="E", 0, 0))))))))))))) * 2
-        ) /
-        (3 + 3 + 3 + 2 + 2 + 2),
-    2),
-0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.36</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14935,9 +15031,9 @@
       <c r="G70" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H70" s="4" t="e">
-        <f t="shared" ref="H70:H108" si="1">#VALUE!</f>
-        <v>#VALUE!</v>
+      <c r="H70" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5529999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14962,9 +15058,9 @@
       <c r="G71" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H71" s="4" t="e">
+      <c r="H71" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1.9730000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14989,9 +15085,9 @@
       <c r="G72" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H72" s="4" t="e">
+      <c r="H72" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15014,11 +15110,11 @@
         <v>17</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" s="4" t="e">
+        <v>33</v>
+      </c>
+      <c r="H73" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>0.26700000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15043,9 +15139,9 @@
       <c r="G74" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H74" s="4" t="e">
+      <c r="H74" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15070,9 +15166,9 @@
       <c r="G75" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H75" s="4" t="e">
+      <c r="H75" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2.3530000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15097,9 +15193,9 @@
       <c r="G76" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H76" s="4" t="e">
+      <c r="H76" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2.2130000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15124,9 +15220,9 @@
       <c r="G77" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H77" s="4" t="e">
+      <c r="H77" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15151,9 +15247,9 @@
       <c r="G78" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H78" s="4" t="e">
+      <c r="H78" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2.7269999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15178,9 +15274,9 @@
       <c r="G79" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H79" s="4" t="e">
+      <c r="H79" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15205,9 +15301,9 @@
       <c r="G80" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H80" s="4" t="e">
+      <c r="H80" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>3.4329999999999998</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15232,9 +15328,9 @@
       <c r="G81" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H81" s="4" t="e">
+      <c r="H81" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15259,9 +15355,9 @@
       <c r="G82" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H82" s="4" t="e">
+      <c r="H82" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15286,9 +15382,9 @@
       <c r="G83" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H83" s="4" t="e">
+      <c r="H83" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2.9929999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15313,9 +15409,9 @@
       <c r="G84" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H84" s="4" t="e">
+      <c r="H84" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15340,9 +15436,9 @@
       <c r="G85" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H85" s="4" t="e">
+      <c r="H85" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>3.173</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15367,9 +15463,9 @@
       <c r="G86" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H86" s="4" t="e">
+      <c r="H86" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>3.2069999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15394,9 +15490,9 @@
       <c r="G87" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H87" s="4" t="e">
+      <c r="H87" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2.0870000000000002</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15421,9 +15517,9 @@
       <c r="G88" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H88" s="4" t="e">
+      <c r="H88" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1.7330000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15448,9 +15544,9 @@
       <c r="G89" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H89" s="4" t="e">
+      <c r="H89" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15475,9 +15571,9 @@
       <c r="G90" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H90" s="4" t="e">
+      <c r="H90" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15502,9 +15598,9 @@
       <c r="G91" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H91" s="4" t="e">
+      <c r="H91" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2.3069999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15529,9 +15625,9 @@
       <c r="G92" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H92" s="4" t="e">
+      <c r="H92" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2.2469999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15556,9 +15652,9 @@
       <c r="G93" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H93" s="4" t="e">
+      <c r="H93" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>3.367</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15583,9 +15679,9 @@
       <c r="G94" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H94" s="4" t="e">
+      <c r="H94" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2.4929999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15610,9 +15706,9 @@
       <c r="G95" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H95" s="4" t="e">
+      <c r="H95" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2.7530000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15637,9 +15733,9 @@
       <c r="G96" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H96" s="4" t="e">
+      <c r="H96" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>3.0329999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15664,9 +15760,9 @@
       <c r="G97" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H97" s="4" t="e">
+      <c r="H97" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2.927</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15691,9 +15787,9 @@
       <c r="G98" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H98" s="4" t="e">
+      <c r="H98" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>3.2330000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15718,9 +15814,9 @@
       <c r="G99" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H99" s="4" t="e">
+      <c r="H99" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2.1469999999999998</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15745,9 +15841,9 @@
       <c r="G100" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H100" s="4" t="e">
+      <c r="H100" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15772,9 +15868,9 @@
       <c r="G101" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H101" s="4" t="e">
+      <c r="H101" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2.9129999999999998</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15799,9 +15895,9 @@
       <c r="G102" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H102" s="4" t="e">
+      <c r="H102" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2.4129999999999998</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15826,9 +15922,9 @@
       <c r="G103" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H103" s="4" t="e">
+      <c r="H103" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15853,9 +15949,9 @@
       <c r="G104" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H104" s="4" t="e">
+      <c r="H104" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15880,9 +15976,9 @@
       <c r="G105" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H105" s="4" t="e">
+      <c r="H105" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15907,9 +16003,9 @@
       <c r="G106" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H106" s="4" t="e">
+      <c r="H106" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2.5329999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15934,9 +16030,9 @@
       <c r="G107" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H107" s="4" t="e">
+      <c r="H107" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>3.2130000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15961,9 +16057,9 @@
       <c r="G108" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H108" s="4" t="e">
+      <c r="H108" s="4">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>2.633</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16868,7 +16964,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="N98" sqref="N98"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16936,7 +17034,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" ref="I2:I108" si="0">IFERROR(
+        <f>IFERROR(
     ROUND(
         (
             (IF(C2="A+", 4, IF(C2="A", 4, IF(C2="A-", 3.7, IF(C2="B+", 3.3, IF(C2="B", 3, IF(C2="B-", 2.7, IF(C2="C+", 2.3, IF(C2="C", 2, IF(C2="C-", 1.7, IF(C2="D+", 1.3, IF(C2="D", 1, IF(C2="E", 0, 0))))))))))))) * 3 +
@@ -16947,7 +17045,7 @@
             (IF(H2="A+", 4, IF(H2="A", 4, IF(H2="A-", 3.7, IF(H2="B+", 3.3, IF(H2="B", 3, IF(H2="B-", 2.7, IF(H2="C+", 2.3, IF(H2="C", 2, IF(H2="C-", 1.7, IF(H2="D+", 1.3, IF(H2="D", 1, IF(H2="E", 0, 0))))))))))))) * 2
         ) /
         (3 + 3 + 3 + 2 + 2 + 2),
-    2),
+    3),
 0)</f>
         <v>3.1</v>
       </c>
@@ -16978,7 +17076,19 @@
         <v>11</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I3:I66" si="0">IFERROR(
+    ROUND(
+        (
+            (IF(C3="A+", 4, IF(C3="A", 4, IF(C3="A-", 3.7, IF(C3="B+", 3.3, IF(C3="B", 3, IF(C3="B-", 2.7, IF(C3="C+", 2.3, IF(C3="C", 2, IF(C3="C-", 1.7, IF(C3="D+", 1.3, IF(C3="D", 1, IF(C3="E", 0, 0))))))))))))) * 3 +
+            (IF(D3="A+", 4, IF(D3="A", 4, IF(D3="A-", 3.7, IF(D3="B+", 3.3, IF(D3="B", 3, IF(D3="B-", 2.7, IF(D3="C+", 2.3, IF(D3="C", 2, IF(D3="C-", 1.7, IF(D3="D+", 1.3, IF(D3="D", 1, IF(D3="E", 0, 0))))))))))))) * 3 +
+            (IF(E3="A+", 4, IF(E3="A", 4, IF(E3="A-", 3.7, IF(E3="B+", 3.3, IF(E3="B", 3, IF(E3="B-", 2.7, IF(E3="C+", 2.3, IF(E3="C", 2, IF(E3="C-", 1.7, IF(E3="D+", 1.3, IF(E3="D", 1, IF(E3="E", 0, 0))))))))))))) * 3 +
+            (IF(F3="A+", 4, IF(F3="A", 4, IF(F3="A-", 3.7, IF(F3="B+", 3.3, IF(F3="B", 3, IF(F3="B-", 2.7, IF(F3="C+", 2.3, IF(F3="C", 2, IF(F3="C-", 1.7, IF(F3="D+", 1.3, IF(F3="D", 1, IF(F3="E", 0, 0))))))))))))) * 2 +
+            (IF(G3="A+", 4, IF(G3="A", 4, IF(G3="A-", 3.7, IF(G3="B+", 3.3, IF(G3="B", 3, IF(G3="B-", 2.7, IF(G3="C+", 2.3, IF(G3="C", 2, IF(G3="C-", 1.7, IF(G3="D+", 1.3, IF(G3="D", 1, IF(G3="E", 0, 0))))))))))))) * 2 +
+            (IF(H3="A+", 4, IF(H3="A", 4, IF(H3="A-", 3.7, IF(H3="B+", 3.3, IF(H3="B", 3, IF(H3="B-", 2.7, IF(H3="C+", 2.3, IF(H3="C", 2, IF(H3="C-", 1.7, IF(H3="D+", 1.3, IF(H3="D", 1, IF(H3="E", 0, 0))))))))))))) * 2
+        ) /
+        (3 + 3 + 3 + 2 + 2 + 2),
+    3),
+0)</f>
         <v>2.3199999999999998</v>
       </c>
     </row>
@@ -17009,7 +17119,7 @@
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>3.33</v>
+        <v>3.3330000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -17039,7 +17149,7 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
-        <v>3.47</v>
+        <v>3.4670000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -17129,7 +17239,7 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
-        <v>2.75</v>
+        <v>2.7530000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -17159,7 +17269,7 @@
       </c>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
-        <v>2.4500000000000002</v>
+        <v>2.4470000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -17189,7 +17299,7 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>3.21</v>
+        <v>3.2069999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -17219,7 +17329,7 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
-        <v>3.61</v>
+        <v>3.6070000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -17249,7 +17359,7 @@
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
-        <v>3.31</v>
+        <v>3.3069999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -17279,7 +17389,7 @@
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
-        <v>3.33</v>
+        <v>3.327</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -17339,7 +17449,7 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
-        <v>3.41</v>
+        <v>3.407</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -17369,7 +17479,7 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" si="0"/>
-        <v>2.11</v>
+        <v>2.113</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -17549,7 +17659,7 @@
       </c>
       <c r="I22" s="3">
         <f t="shared" si="0"/>
-        <v>3.11</v>
+        <v>3.113</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17579,7 +17689,7 @@
       </c>
       <c r="I23" s="3">
         <f t="shared" si="0"/>
-        <v>2.95</v>
+        <v>2.9529999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17609,7 +17719,7 @@
       </c>
       <c r="I24" s="3">
         <f t="shared" si="0"/>
-        <v>3.41</v>
+        <v>3.4129999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17789,7 +17899,7 @@
       </c>
       <c r="I30" s="3">
         <f t="shared" si="0"/>
-        <v>3.45</v>
+        <v>3.4470000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17819,7 +17929,7 @@
       </c>
       <c r="I31" s="3">
         <f t="shared" si="0"/>
-        <v>3.09</v>
+        <v>3.0870000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17879,7 +17989,7 @@
       </c>
       <c r="I33" s="3">
         <f t="shared" si="0"/>
-        <v>3.01</v>
+        <v>3.0129999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17909,7 +18019,7 @@
       </c>
       <c r="I34" s="3">
         <f t="shared" si="0"/>
-        <v>3.15</v>
+        <v>3.1469999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17969,7 +18079,7 @@
       </c>
       <c r="I36" s="3">
         <f t="shared" si="0"/>
-        <v>3.39</v>
+        <v>3.387</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17999,7 +18109,7 @@
       </c>
       <c r="I37" s="3">
         <f t="shared" si="0"/>
-        <v>3.41</v>
+        <v>3.4129999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18029,7 +18139,7 @@
       </c>
       <c r="I38" s="3">
         <f t="shared" si="0"/>
-        <v>3.13</v>
+        <v>3.133</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18089,7 +18199,7 @@
       </c>
       <c r="I40" s="3">
         <f t="shared" si="0"/>
-        <v>3.71</v>
+        <v>3.7069999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18149,7 +18259,7 @@
       </c>
       <c r="I42" s="3">
         <f t="shared" si="0"/>
-        <v>3.61</v>
+        <v>3.6070000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18269,7 +18379,7 @@
       </c>
       <c r="I46" s="3">
         <f t="shared" si="0"/>
-        <v>3.73</v>
+        <v>3.7269999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18389,7 +18499,7 @@
       </c>
       <c r="I50" s="3">
         <f t="shared" si="0"/>
-        <v>3.67</v>
+        <v>3.6669999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18419,7 +18529,7 @@
       </c>
       <c r="I51" s="3">
         <f t="shared" si="0"/>
-        <v>3.13</v>
+        <v>3.133</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18569,7 +18679,7 @@
       </c>
       <c r="I56" s="3">
         <f t="shared" si="0"/>
-        <v>3.55</v>
+        <v>3.5470000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18659,7 +18769,7 @@
       </c>
       <c r="I59" s="3">
         <f t="shared" si="0"/>
-        <v>2.97</v>
+        <v>2.9729999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18689,7 +18799,7 @@
       </c>
       <c r="I60" s="3">
         <f t="shared" si="0"/>
-        <v>2.99</v>
+        <v>2.9929999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18719,7 +18829,7 @@
       </c>
       <c r="I61" s="3">
         <f t="shared" si="0"/>
-        <v>3.17</v>
+        <v>3.1669999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18749,7 +18859,7 @@
       </c>
       <c r="I62" s="3">
         <f t="shared" si="0"/>
-        <v>2.89</v>
+        <v>2.887</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18809,7 +18919,7 @@
       </c>
       <c r="I64" s="3">
         <f t="shared" si="0"/>
-        <v>3.69</v>
+        <v>3.6869999999999998</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18869,7 +18979,7 @@
       </c>
       <c r="I66" s="3">
         <f t="shared" si="0"/>
-        <v>3.13</v>
+        <v>3.133</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18898,8 +19008,20 @@
         <v>11</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="0"/>
-        <v>3.23</v>
+        <f t="shared" ref="I67:I108" si="1">IFERROR(
+    ROUND(
+        (
+            (IF(C67="A+", 4, IF(C67="A", 4, IF(C67="A-", 3.7, IF(C67="B+", 3.3, IF(C67="B", 3, IF(C67="B-", 2.7, IF(C67="C+", 2.3, IF(C67="C", 2, IF(C67="C-", 1.7, IF(C67="D+", 1.3, IF(C67="D", 1, IF(C67="E", 0, 0))))))))))))) * 3 +
+            (IF(D67="A+", 4, IF(D67="A", 4, IF(D67="A-", 3.7, IF(D67="B+", 3.3, IF(D67="B", 3, IF(D67="B-", 2.7, IF(D67="C+", 2.3, IF(D67="C", 2, IF(D67="C-", 1.7, IF(D67="D+", 1.3, IF(D67="D", 1, IF(D67="E", 0, 0))))))))))))) * 3 +
+            (IF(E67="A+", 4, IF(E67="A", 4, IF(E67="A-", 3.7, IF(E67="B+", 3.3, IF(E67="B", 3, IF(E67="B-", 2.7, IF(E67="C+", 2.3, IF(E67="C", 2, IF(E67="C-", 1.7, IF(E67="D+", 1.3, IF(E67="D", 1, IF(E67="E", 0, 0))))))))))))) * 3 +
+            (IF(F67="A+", 4, IF(F67="A", 4, IF(F67="A-", 3.7, IF(F67="B+", 3.3, IF(F67="B", 3, IF(F67="B-", 2.7, IF(F67="C+", 2.3, IF(F67="C", 2, IF(F67="C-", 1.7, IF(F67="D+", 1.3, IF(F67="D", 1, IF(F67="E", 0, 0))))))))))))) * 2 +
+            (IF(G67="A+", 4, IF(G67="A", 4, IF(G67="A-", 3.7, IF(G67="B+", 3.3, IF(G67="B", 3, IF(G67="B-", 2.7, IF(G67="C+", 2.3, IF(G67="C", 2, IF(G67="C-", 1.7, IF(G67="D+", 1.3, IF(G67="D", 1, IF(G67="E", 0, 0))))))))))))) * 2 +
+            (IF(H67="A+", 4, IF(H67="A", 4, IF(H67="A-", 3.7, IF(H67="B+", 3.3, IF(H67="B", 3, IF(H67="B-", 2.7, IF(H67="C+", 2.3, IF(H67="C", 2, IF(H67="C-", 1.7, IF(H67="D+", 1.3, IF(H67="D", 1, IF(H67="E", 0, 0))))))))))))) * 2
+        ) /
+        (3 + 3 + 3 + 2 + 2 + 2),
+    3),
+0)</f>
+        <v>3.2330000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18928,8 +19050,8 @@
         <v>20</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="0"/>
-        <v>3.45</v>
+        <f t="shared" si="1"/>
+        <v>3.4470000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18958,8 +19080,8 @@
         <v>11</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="0"/>
-        <v>3.29</v>
+        <f t="shared" si="1"/>
+        <v>3.2869999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18988,8 +19110,8 @@
         <v>10</v>
       </c>
       <c r="I70" s="3">
-        <f t="shared" si="0"/>
-        <v>2.39</v>
+        <f t="shared" si="1"/>
+        <v>2.387</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19018,8 +19140,8 @@
         <v>11</v>
       </c>
       <c r="I71" s="3">
-        <f t="shared" si="0"/>
-        <v>2.75</v>
+        <f t="shared" si="1"/>
+        <v>2.7530000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19048,7 +19170,7 @@
         <v>20</v>
       </c>
       <c r="I72" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.86</v>
       </c>
     </row>
@@ -19078,7 +19200,7 @@
         <v>11</v>
       </c>
       <c r="I73" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.66</v>
       </c>
     </row>
@@ -19108,8 +19230,8 @@
         <v>11</v>
       </c>
       <c r="I74" s="3">
-        <f t="shared" si="0"/>
-        <v>2.99</v>
+        <f t="shared" si="1"/>
+        <v>2.9929999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19138,7 +19260,7 @@
         <v>11</v>
       </c>
       <c r="I75" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.56</v>
       </c>
     </row>
@@ -19168,8 +19290,8 @@
         <v>10</v>
       </c>
       <c r="I76" s="3">
-        <f t="shared" si="0"/>
-        <v>3.33</v>
+        <f t="shared" si="1"/>
+        <v>3.3330000000000002</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19198,7 +19320,7 @@
         <v>11</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.48</v>
       </c>
     </row>
@@ -19228,8 +19350,8 @@
         <v>20</v>
       </c>
       <c r="I78" s="3">
-        <f t="shared" si="0"/>
-        <v>3.61</v>
+        <f t="shared" si="1"/>
+        <v>3.6070000000000002</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19258,8 +19380,8 @@
         <v>20</v>
       </c>
       <c r="I79" s="3">
-        <f t="shared" si="0"/>
-        <v>3.67</v>
+        <f t="shared" si="1"/>
+        <v>3.6669999999999998</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19288,7 +19410,7 @@
         <v>11</v>
       </c>
       <c r="I80" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.76</v>
       </c>
     </row>
@@ -19318,8 +19440,8 @@
         <v>11</v>
       </c>
       <c r="I81" s="3">
-        <f t="shared" si="0"/>
-        <v>3.45</v>
+        <f t="shared" si="1"/>
+        <v>3.4470000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19348,7 +19470,7 @@
         <v>17</v>
       </c>
       <c r="I82" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -19378,8 +19500,8 @@
         <v>10</v>
       </c>
       <c r="I83" s="3">
-        <f t="shared" si="0"/>
-        <v>3.55</v>
+        <f t="shared" si="1"/>
+        <v>3.5529999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19408,8 +19530,8 @@
         <v>11</v>
       </c>
       <c r="I84" s="3">
-        <f t="shared" si="0"/>
-        <v>3.47</v>
+        <f t="shared" si="1"/>
+        <v>3.4670000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19438,8 +19560,8 @@
         <v>11</v>
       </c>
       <c r="I85" s="3">
-        <f t="shared" si="0"/>
-        <v>3.61</v>
+        <f t="shared" si="1"/>
+        <v>3.6070000000000002</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19468,8 +19590,8 @@
         <v>11</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" si="0"/>
-        <v>3.87</v>
+        <f t="shared" si="1"/>
+        <v>3.867</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19498,7 +19620,7 @@
         <v>10</v>
       </c>
       <c r="I87" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9</v>
       </c>
     </row>
@@ -19528,8 +19650,8 @@
         <v>10</v>
       </c>
       <c r="I88" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5099999999999998</v>
+        <f t="shared" si="1"/>
+        <v>2.5070000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19558,7 +19680,7 @@
         <v>20</v>
       </c>
       <c r="I89" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.92</v>
       </c>
     </row>
@@ -19588,7 +19710,7 @@
         <v>17</v>
       </c>
       <c r="I90" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -19618,8 +19740,8 @@
         <v>10</v>
       </c>
       <c r="I91" s="3">
-        <f t="shared" si="0"/>
-        <v>3.51</v>
+        <f t="shared" si="1"/>
+        <v>3.5129999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19648,7 +19770,7 @@
         <v>10</v>
       </c>
       <c r="I92" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1</v>
       </c>
     </row>
@@ -19678,8 +19800,8 @@
         <v>10</v>
       </c>
       <c r="I93" s="3">
-        <f t="shared" si="0"/>
-        <v>3.65</v>
+        <f t="shared" si="1"/>
+        <v>3.653</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19708,8 +19830,8 @@
         <v>20</v>
       </c>
       <c r="I94" s="3">
-        <f t="shared" si="0"/>
-        <v>3.31</v>
+        <f t="shared" si="1"/>
+        <v>3.3069999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19738,7 +19860,7 @@
         <v>10</v>
       </c>
       <c r="I95" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.32</v>
       </c>
     </row>
@@ -19768,8 +19890,8 @@
         <v>11</v>
       </c>
       <c r="I96" s="3">
-        <f t="shared" si="0"/>
-        <v>3.61</v>
+        <f t="shared" si="1"/>
+        <v>3.6070000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19798,8 +19920,8 @@
         <v>10</v>
       </c>
       <c r="I97" s="3">
-        <f t="shared" si="0"/>
-        <v>3.41</v>
+        <f t="shared" si="1"/>
+        <v>3.4129999999999998</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19828,8 +19950,8 @@
         <v>11</v>
       </c>
       <c r="I98" s="3">
-        <f t="shared" si="0"/>
-        <v>3.59</v>
+        <f t="shared" si="1"/>
+        <v>3.5870000000000002</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19858,8 +19980,8 @@
         <v>11</v>
       </c>
       <c r="I99" s="3">
-        <f t="shared" si="0"/>
-        <v>3.27</v>
+        <f t="shared" si="1"/>
+        <v>3.2730000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19888,7 +20010,7 @@
         <v>10</v>
       </c>
       <c r="I100" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
     </row>
@@ -19918,8 +20040,8 @@
         <v>11</v>
       </c>
       <c r="I101" s="3">
-        <f t="shared" si="0"/>
-        <v>3.45</v>
+        <f t="shared" si="1"/>
+        <v>3.4470000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19948,8 +20070,8 @@
         <v>11</v>
       </c>
       <c r="I102" s="3">
-        <f t="shared" si="0"/>
-        <v>3.29</v>
+        <f t="shared" si="1"/>
+        <v>3.2869999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19978,8 +20100,8 @@
         <v>11</v>
       </c>
       <c r="I103" s="3">
-        <f t="shared" si="0"/>
-        <v>3.41</v>
+        <f t="shared" si="1"/>
+        <v>3.407</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20008,8 +20130,8 @@
         <v>11</v>
       </c>
       <c r="I104" s="3">
-        <f t="shared" si="0"/>
-        <v>3.29</v>
+        <f t="shared" si="1"/>
+        <v>3.2869999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20038,8 +20160,8 @@
         <v>10</v>
       </c>
       <c r="I105" s="3">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
+        <f t="shared" si="1"/>
+        <v>3.7530000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20068,7 +20190,7 @@
         <v>20</v>
       </c>
       <c r="I106" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.96</v>
       </c>
     </row>
@@ -20098,8 +20220,8 @@
         <v>20</v>
       </c>
       <c r="I107" s="3">
-        <f t="shared" si="0"/>
-        <v>3.21</v>
+        <f t="shared" si="1"/>
+        <v>3.2130000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20128,8 +20250,8 @@
         <v>20</v>
       </c>
       <c r="I108" s="3">
-        <f t="shared" si="0"/>
-        <v>3.07</v>
+        <f t="shared" si="1"/>
+        <v>3.073</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21037,14 +21159,20 @@
   </sheetPr>
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -21102,7 +21230,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" ref="I2:I108" si="0">IFERROR(
+        <f>IFERROR(
     ROUND(
         (
             (IF(C2="A+", 4, IF(C2="A", 4, IF(C2="A-", 3.7, IF(C2="B+", 3.3, IF(C2="B", 3, IF(C2="B-", 2.7, IF(C2="C+", 2.3, IF(C2="C", 2, IF(C2="C-", 1.7, IF(C2="D+", 1.3, IF(C2="D", 1, IF(C2="E", 0, 0))))))))))))) * 3 +
@@ -21113,9 +21241,9 @@
             (IF(H2="A+", 4, IF(H2="A", 4, IF(H2="A-", 3.7, IF(H2="B+", 3.3, IF(H2="B", 3, IF(H2="B-", 2.7, IF(H2="C+", 2.3, IF(H2="C", 2, IF(H2="C-", 1.7, IF(H2="D+", 1.3, IF(H2="D", 1, IF(H2="E", 0, 0))))))))))))) * 2
         ) /
         (3 + 3 + 3 + 2 + 2 + 2),
-    2),
+    3),
 0)</f>
-        <v>3.15</v>
+        <v>3.1469999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -21144,8 +21272,20 @@
         <v>238</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" si="0"/>
-        <v>1.65</v>
+        <f t="shared" ref="I3:I66" si="0">IFERROR(
+    ROUND(
+        (
+            (IF(C3="A+", 4, IF(C3="A", 4, IF(C3="A-", 3.7, IF(C3="B+", 3.3, IF(C3="B", 3, IF(C3="B-", 2.7, IF(C3="C+", 2.3, IF(C3="C", 2, IF(C3="C-", 1.7, IF(C3="D+", 1.3, IF(C3="D", 1, IF(C3="E", 0, 0))))))))))))) * 3 +
+            (IF(D3="A+", 4, IF(D3="A", 4, IF(D3="A-", 3.7, IF(D3="B+", 3.3, IF(D3="B", 3, IF(D3="B-", 2.7, IF(D3="C+", 2.3, IF(D3="C", 2, IF(D3="C-", 1.7, IF(D3="D+", 1.3, IF(D3="D", 1, IF(D3="E", 0, 0))))))))))))) * 3 +
+            (IF(E3="A+", 4, IF(E3="A", 4, IF(E3="A-", 3.7, IF(E3="B+", 3.3, IF(E3="B", 3, IF(E3="B-", 2.7, IF(E3="C+", 2.3, IF(E3="C", 2, IF(E3="C-", 1.7, IF(E3="D+", 1.3, IF(E3="D", 1, IF(E3="E", 0, 0))))))))))))) * 3 +
+            (IF(F3="A+", 4, IF(F3="A", 4, IF(F3="A-", 3.7, IF(F3="B+", 3.3, IF(F3="B", 3, IF(F3="B-", 2.7, IF(F3="C+", 2.3, IF(F3="C", 2, IF(F3="C-", 1.7, IF(F3="D+", 1.3, IF(F3="D", 1, IF(F3="E", 0, 0))))))))))))) * 2 +
+            (IF(G3="A+", 4, IF(G3="A", 4, IF(G3="A-", 3.7, IF(G3="B+", 3.3, IF(G3="B", 3, IF(G3="B-", 2.7, IF(G3="C+", 2.3, IF(G3="C", 2, IF(G3="C-", 1.7, IF(G3="D+", 1.3, IF(G3="D", 1, IF(G3="E", 0, 0))))))))))))) * 2 +
+            (IF(H3="A+", 4, IF(H3="A", 4, IF(H3="A-", 3.7, IF(H3="B+", 3.3, IF(H3="B", 3, IF(H3="B-", 2.7, IF(H3="C+", 2.3, IF(H3="C", 2, IF(H3="C-", 1.7, IF(H3="D+", 1.3, IF(H3="D", 1, IF(H3="E", 0, 0))))))))))))) * 2
+        ) /
+        (3 + 3 + 3 + 2 + 2 + 2),
+    3),
+0)</f>
+        <v>1.647</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -21175,7 +21315,7 @@
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>3.23</v>
+        <v>3.2330000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -21295,7 +21435,7 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
-        <v>2.61</v>
+        <v>2.613</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -21355,7 +21495,7 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>3.23</v>
+        <v>3.2269999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -21385,7 +21525,7 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
-        <v>3.49</v>
+        <v>3.4870000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -21415,7 +21555,7 @@
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
-        <v>3.27</v>
+        <v>3.2669999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -21445,7 +21585,7 @@
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
-        <v>3.27</v>
+        <v>3.2669999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -21475,7 +21615,7 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
-        <v>3.47</v>
+        <v>3.4670000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -21505,7 +21645,7 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
-        <v>3.23</v>
+        <v>3.2330000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -21535,7 +21675,7 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>2.2530000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -21565,7 +21705,7 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" si="0"/>
-        <v>3.53</v>
+        <v>3.5270000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -21655,7 +21795,7 @@
       </c>
       <c r="I20" s="3">
         <f t="shared" si="0"/>
-        <v>3.31</v>
+        <v>3.3130000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -21745,7 +21885,7 @@
       </c>
       <c r="I23" s="3">
         <f t="shared" si="0"/>
-        <v>2.91</v>
+        <v>2.9129999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -21775,7 +21915,7 @@
       </c>
       <c r="I24" s="3">
         <f t="shared" si="0"/>
-        <v>3.19</v>
+        <v>3.1930000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -21805,7 +21945,7 @@
       </c>
       <c r="I25" s="3">
         <f t="shared" si="0"/>
-        <v>3.27</v>
+        <v>3.2730000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -21835,7 +21975,7 @@
       </c>
       <c r="I26" s="3">
         <f t="shared" si="0"/>
-        <v>2.33</v>
+        <v>2.327</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -21865,7 +22005,7 @@
       </c>
       <c r="I27" s="3">
         <f t="shared" si="0"/>
-        <v>2.89</v>
+        <v>2.8929999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -21895,7 +22035,7 @@
       </c>
       <c r="I28" s="3">
         <f t="shared" si="0"/>
-        <v>3.67</v>
+        <v>3.6669999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -21955,7 +22095,7 @@
       </c>
       <c r="I30" s="3">
         <f t="shared" si="0"/>
-        <v>3.31</v>
+        <v>3.3130000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -21985,7 +22125,7 @@
       </c>
       <c r="I31" s="3">
         <f t="shared" si="0"/>
-        <v>3.13</v>
+        <v>3.133</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -22045,7 +22185,7 @@
       </c>
       <c r="I33" s="3">
         <f t="shared" si="0"/>
-        <v>3.27</v>
+        <v>3.2730000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -22105,7 +22245,7 @@
       </c>
       <c r="I35" s="3">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>3.7469999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -22135,7 +22275,7 @@
       </c>
       <c r="I36" s="3">
         <f t="shared" si="0"/>
-        <v>3.29</v>
+        <v>3.2930000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -22165,7 +22305,7 @@
       </c>
       <c r="I37" s="3">
         <f t="shared" si="0"/>
-        <v>3.61</v>
+        <v>3.6070000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -22225,7 +22365,7 @@
       </c>
       <c r="I39" s="3">
         <f t="shared" si="0"/>
-        <v>3.71</v>
+        <v>3.7069999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -22255,7 +22395,7 @@
       </c>
       <c r="I40" s="3">
         <f t="shared" si="0"/>
-        <v>3.51</v>
+        <v>3.5070000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -22285,7 +22425,7 @@
       </c>
       <c r="I41" s="3">
         <f t="shared" si="0"/>
-        <v>3.61</v>
+        <v>3.6070000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -22315,7 +22455,7 @@
       </c>
       <c r="I42" s="3">
         <f t="shared" si="0"/>
-        <v>3.55</v>
+        <v>3.5470000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -22345,7 +22485,7 @@
       </c>
       <c r="I43" s="3">
         <f t="shared" si="0"/>
-        <v>3.51</v>
+        <v>3.5070000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -22435,7 +22575,7 @@
       </c>
       <c r="I46" s="3">
         <f t="shared" si="0"/>
-        <v>3.69</v>
+        <v>3.6869999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -22495,7 +22635,7 @@
       </c>
       <c r="I48" s="3">
         <f t="shared" si="0"/>
-        <v>3.63</v>
+        <v>3.6269999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -22585,7 +22725,7 @@
       </c>
       <c r="I51" s="3">
         <f t="shared" si="0"/>
-        <v>3.15</v>
+        <v>3.153</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -22615,7 +22755,7 @@
       </c>
       <c r="I52" s="3">
         <f t="shared" si="0"/>
-        <v>3.51</v>
+        <v>3.5070000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -22645,7 +22785,7 @@
       </c>
       <c r="I53" s="3">
         <f t="shared" si="0"/>
-        <v>3.59</v>
+        <v>3.5870000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -22675,7 +22815,7 @@
       </c>
       <c r="I54" s="3">
         <f t="shared" si="0"/>
-        <v>3.61</v>
+        <v>3.6070000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -22735,7 +22875,7 @@
       </c>
       <c r="I56" s="3">
         <f t="shared" si="0"/>
-        <v>3.61</v>
+        <v>3.6070000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -22765,7 +22905,7 @@
       </c>
       <c r="I57" s="3">
         <f t="shared" si="0"/>
-        <v>3.57</v>
+        <v>3.5670000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -22885,7 +23025,7 @@
       </c>
       <c r="I61" s="3">
         <f t="shared" si="0"/>
-        <v>3.05</v>
+        <v>3.0529999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -22975,7 +23115,7 @@
       </c>
       <c r="I64" s="3">
         <f t="shared" si="0"/>
-        <v>3.49</v>
+        <v>3.4870000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -23064,8 +23204,20 @@
         <v>20</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="0"/>
-        <v>3.33</v>
+        <f t="shared" ref="I67:I108" si="1">IFERROR(
+    ROUND(
+        (
+            (IF(C67="A+", 4, IF(C67="A", 4, IF(C67="A-", 3.7, IF(C67="B+", 3.3, IF(C67="B", 3, IF(C67="B-", 2.7, IF(C67="C+", 2.3, IF(C67="C", 2, IF(C67="C-", 1.7, IF(C67="D+", 1.3, IF(C67="D", 1, IF(C67="E", 0, 0))))))))))))) * 3 +
+            (IF(D67="A+", 4, IF(D67="A", 4, IF(D67="A-", 3.7, IF(D67="B+", 3.3, IF(D67="B", 3, IF(D67="B-", 2.7, IF(D67="C+", 2.3, IF(D67="C", 2, IF(D67="C-", 1.7, IF(D67="D+", 1.3, IF(D67="D", 1, IF(D67="E", 0, 0))))))))))))) * 3 +
+            (IF(E67="A+", 4, IF(E67="A", 4, IF(E67="A-", 3.7, IF(E67="B+", 3.3, IF(E67="B", 3, IF(E67="B-", 2.7, IF(E67="C+", 2.3, IF(E67="C", 2, IF(E67="C-", 1.7, IF(E67="D+", 1.3, IF(E67="D", 1, IF(E67="E", 0, 0))))))))))))) * 3 +
+            (IF(F67="A+", 4, IF(F67="A", 4, IF(F67="A-", 3.7, IF(F67="B+", 3.3, IF(F67="B", 3, IF(F67="B-", 2.7, IF(F67="C+", 2.3, IF(F67="C", 2, IF(F67="C-", 1.7, IF(F67="D+", 1.3, IF(F67="D", 1, IF(F67="E", 0, 0))))))))))))) * 2 +
+            (IF(G67="A+", 4, IF(G67="A", 4, IF(G67="A-", 3.7, IF(G67="B+", 3.3, IF(G67="B", 3, IF(G67="B-", 2.7, IF(G67="C+", 2.3, IF(G67="C", 2, IF(G67="C-", 1.7, IF(G67="D+", 1.3, IF(G67="D", 1, IF(G67="E", 0, 0))))))))))))) * 2 +
+            (IF(H67="A+", 4, IF(H67="A", 4, IF(H67="A-", 3.7, IF(H67="B+", 3.3, IF(H67="B", 3, IF(H67="B-", 2.7, IF(H67="C+", 2.3, IF(H67="C", 2, IF(H67="C-", 1.7, IF(H67="D+", 1.3, IF(H67="D", 1, IF(H67="E", 0, 0))))))))))))) * 2
+        ) /
+        (3 + 3 + 3 + 2 + 2 + 2),
+    3),
+0)</f>
+        <v>3.327</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -23094,8 +23246,8 @@
         <v>23</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="0"/>
-        <v>3.39</v>
+        <f t="shared" si="1"/>
+        <v>3.3929999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -23124,8 +23276,8 @@
         <v>12</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="0"/>
-        <v>3.19</v>
+        <f t="shared" si="1"/>
+        <v>3.1930000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -23154,8 +23306,8 @@
         <v>30</v>
       </c>
       <c r="I70" s="3">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
+        <f t="shared" si="1"/>
+        <v>2.2530000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -23184,8 +23336,8 @@
         <v>12</v>
       </c>
       <c r="I71" s="3">
-        <f t="shared" si="0"/>
-        <v>2.41</v>
+        <f t="shared" si="1"/>
+        <v>2.407</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -23214,8 +23366,8 @@
         <v>23</v>
       </c>
       <c r="I72" s="3">
-        <f t="shared" si="0"/>
-        <v>3.91</v>
+        <f t="shared" si="1"/>
+        <v>3.907</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -23244,8 +23396,8 @@
         <v>30</v>
       </c>
       <c r="I73" s="3">
-        <f t="shared" si="0"/>
-        <v>2.41</v>
+        <f t="shared" si="1"/>
+        <v>2.4129999999999998</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -23274,8 +23426,8 @@
         <v>23</v>
       </c>
       <c r="I74" s="3">
-        <f t="shared" si="0"/>
-        <v>3.49</v>
+        <f t="shared" si="1"/>
+        <v>3.4870000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -23304,8 +23456,8 @@
         <v>23</v>
       </c>
       <c r="I75" s="3">
-        <f t="shared" si="0"/>
-        <v>3.23</v>
+        <f t="shared" si="1"/>
+        <v>3.2269999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -23334,7 +23486,7 @@
         <v>23</v>
       </c>
       <c r="I76" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.22</v>
       </c>
     </row>
@@ -23364,8 +23516,8 @@
         <v>12</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="0"/>
-        <v>2.31</v>
+        <f t="shared" si="1"/>
+        <v>2.3069999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -23394,8 +23546,8 @@
         <v>23</v>
       </c>
       <c r="I78" s="3">
-        <f t="shared" si="0"/>
-        <v>3.59</v>
+        <f t="shared" si="1"/>
+        <v>3.5870000000000002</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -23424,8 +23576,8 @@
         <v>23</v>
       </c>
       <c r="I79" s="3">
-        <f t="shared" si="0"/>
-        <v>3.43</v>
+        <f t="shared" si="1"/>
+        <v>3.427</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -23454,7 +23606,7 @@
         <v>23</v>
       </c>
       <c r="I80" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.82</v>
       </c>
     </row>
@@ -23484,8 +23636,8 @@
         <v>23</v>
       </c>
       <c r="I81" s="3">
-        <f t="shared" si="0"/>
-        <v>3.43</v>
+        <f t="shared" si="1"/>
+        <v>3.4329999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -23514,7 +23666,7 @@
         <v>17</v>
       </c>
       <c r="I82" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -23544,8 +23696,8 @@
         <v>23</v>
       </c>
       <c r="I83" s="3">
-        <f t="shared" si="0"/>
-        <v>3.51</v>
+        <f t="shared" si="1"/>
+        <v>3.5129999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -23574,8 +23726,8 @@
         <v>23</v>
       </c>
       <c r="I84" s="3">
-        <f t="shared" si="0"/>
-        <v>3.35</v>
+        <f t="shared" si="1"/>
+        <v>3.3530000000000002</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -23604,8 +23756,8 @@
         <v>20</v>
       </c>
       <c r="I85" s="3">
-        <f t="shared" si="0"/>
-        <v>3.27</v>
+        <f t="shared" si="1"/>
+        <v>3.2730000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -23634,8 +23786,8 @@
         <v>23</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" si="0"/>
-        <v>3.77</v>
+        <f t="shared" si="1"/>
+        <v>3.7669999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -23664,8 +23816,8 @@
         <v>23</v>
       </c>
       <c r="I87" s="3">
-        <f t="shared" si="0"/>
-        <v>2.57</v>
+        <f t="shared" si="1"/>
+        <v>2.5670000000000002</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -23694,8 +23846,8 @@
         <v>10</v>
       </c>
       <c r="I88" s="3">
-        <f t="shared" si="0"/>
-        <v>2.13</v>
+        <f t="shared" si="1"/>
+        <v>2.1269999999999998</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -23724,7 +23876,7 @@
         <v>13</v>
       </c>
       <c r="I89" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.76</v>
       </c>
     </row>
@@ -23754,7 +23906,7 @@
         <v>17</v>
       </c>
       <c r="I90" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -23784,8 +23936,8 @@
         <v>23</v>
       </c>
       <c r="I91" s="3">
-        <f t="shared" si="0"/>
-        <v>3.39</v>
+        <f t="shared" si="1"/>
+        <v>3.387</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -23814,8 +23966,8 @@
         <v>23</v>
       </c>
       <c r="I92" s="3">
-        <f t="shared" si="0"/>
-        <v>3.03</v>
+        <f t="shared" si="1"/>
+        <v>3.0329999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -23844,8 +23996,8 @@
         <v>23</v>
       </c>
       <c r="I93" s="3">
-        <f t="shared" si="0"/>
-        <v>3.55</v>
+        <f t="shared" si="1"/>
+        <v>3.5529999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -23874,8 +24026,8 @@
         <v>20</v>
       </c>
       <c r="I94" s="3">
-        <f t="shared" si="0"/>
-        <v>3.11</v>
+        <f t="shared" si="1"/>
+        <v>3.113</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -23904,7 +24056,7 @@
         <v>23</v>
       </c>
       <c r="I95" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.02</v>
       </c>
     </row>
@@ -23934,7 +24086,7 @@
         <v>23</v>
       </c>
       <c r="I96" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.24</v>
       </c>
     </row>
@@ -23964,8 +24116,8 @@
         <v>23</v>
       </c>
       <c r="I97" s="3">
-        <f t="shared" si="0"/>
-        <v>3.33</v>
+        <f t="shared" si="1"/>
+        <v>3.3330000000000002</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -23994,7 +24146,7 @@
         <v>12</v>
       </c>
       <c r="I98" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.58</v>
       </c>
     </row>
@@ -24024,7 +24176,7 @@
         <v>23</v>
       </c>
       <c r="I99" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.04</v>
       </c>
     </row>
@@ -24054,8 +24206,8 @@
         <v>23</v>
       </c>
       <c r="I100" s="3">
-        <f t="shared" si="0"/>
-        <v>3.19</v>
+        <f t="shared" si="1"/>
+        <v>3.1930000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -24084,8 +24236,8 @@
         <v>20</v>
       </c>
       <c r="I101" s="3">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
+        <f t="shared" si="1"/>
+        <v>3.7469999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -24114,7 +24266,7 @@
         <v>20</v>
       </c>
       <c r="I102" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.74</v>
       </c>
     </row>
@@ -24144,8 +24296,8 @@
         <v>23</v>
       </c>
       <c r="I103" s="3">
-        <f t="shared" si="0"/>
-        <v>3.27</v>
+        <f t="shared" si="1"/>
+        <v>3.2669999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -24174,8 +24326,8 @@
         <v>23</v>
       </c>
       <c r="I104" s="3">
-        <f t="shared" si="0"/>
-        <v>3.05</v>
+        <f t="shared" si="1"/>
+        <v>3.0529999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -24204,7 +24356,7 @@
         <v>23</v>
       </c>
       <c r="I105" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.96</v>
       </c>
     </row>
@@ -24234,7 +24386,7 @@
         <v>11</v>
       </c>
       <c r="I106" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.92</v>
       </c>
     </row>
@@ -24264,8 +24416,8 @@
         <v>20</v>
       </c>
       <c r="I107" s="3">
-        <f t="shared" si="0"/>
-        <v>3.37</v>
+        <f t="shared" si="1"/>
+        <v>3.367</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -24294,7 +24446,7 @@
         <v>20</v>
       </c>
       <c r="I108" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.04</v>
       </c>
     </row>
@@ -24307,7 +24459,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="P74" sqref="P74"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24357,14 +24511,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="4">
+        <f>'1.1'!H2</f>
         <v>3.26</v>
       </c>
       <c r="D2" s="4">
+        <f>'1.2'!I2</f>
         <v>3.5</v>
       </c>
       <c r="E2" s="9">
         <f>'2.1'!H2</f>
-        <v>3.67</v>
+        <v>3.6669999999999998</v>
       </c>
       <c r="F2" s="4">
         <v>2.59</v>
@@ -24374,11 +24530,12 @@
         <v>3.1</v>
       </c>
       <c r="H2" s="4">
-        <v>3.15</v>
+        <f>'3.2'!I2</f>
+        <v>3.1469999999999998</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" ref="I2:I108" si="0">ROUND(SUM(C2:H2)/6,3)</f>
-        <v>3.2120000000000002</v>
+        <v>3.2109999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -24389,14 +24546,16 @@
         <v>15</v>
       </c>
       <c r="C3" s="4">
+        <f>'1.1'!H3</f>
         <v>2.08</v>
       </c>
       <c r="D3" s="4">
-        <v>1.47</v>
+        <f>'1.2'!I3</f>
+        <v>1.4670000000000001</v>
       </c>
       <c r="E3" s="9">
         <f>'2.1'!H3</f>
-        <v>1.01</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -24406,11 +24565,12 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="H3" s="4">
-        <v>1.65</v>
+        <f>'3.2'!I3</f>
+        <v>1.647</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="0"/>
-        <v>1.4219999999999999</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -24421,24 +24581,27 @@
         <v>19</v>
       </c>
       <c r="C4" s="4">
-        <v>3.55</v>
+        <f>'1.1'!H4</f>
+        <v>3.5529999999999999</v>
       </c>
       <c r="D4" s="4">
-        <v>2.91</v>
+        <f>'1.2'!I4</f>
+        <v>2.907</v>
       </c>
       <c r="E4" s="9">
         <f>'2.1'!H4</f>
-        <v>3.01</v>
+        <v>3.0070000000000001</v>
       </c>
       <c r="F4" s="4">
         <v>2.67</v>
       </c>
       <c r="G4" s="4">
         <f>'3.1'!I4</f>
-        <v>3.33</v>
+        <v>3.3330000000000002</v>
       </c>
       <c r="H4" s="4">
-        <v>3.23</v>
+        <f>'3.2'!I4</f>
+        <v>3.2330000000000001</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
@@ -24453,28 +24616,31 @@
         <v>22</v>
       </c>
       <c r="C5" s="4">
-        <v>3.31</v>
+        <f>'1.1'!H5</f>
+        <v>3.3130000000000002</v>
       </c>
       <c r="D5" s="4">
-        <v>3.19</v>
+        <f>'1.2'!I5</f>
+        <v>3.1869999999999998</v>
       </c>
       <c r="E5" s="9">
         <f>'2.1'!H5</f>
-        <v>2.69</v>
+        <v>2.6869999999999998</v>
       </c>
       <c r="F5" s="4">
         <v>2.65</v>
       </c>
       <c r="G5" s="4">
         <f>'3.1'!I5</f>
-        <v>3.47</v>
+        <v>3.4670000000000001</v>
       </c>
       <c r="H5" s="4">
+        <f>'3.2'!I5</f>
         <v>3.76</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>3.1779999999999999</v>
+        <v>3.177</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -24485,14 +24651,16 @@
         <v>25</v>
       </c>
       <c r="C6" s="4">
+        <f>'1.1'!H6</f>
         <v>4</v>
       </c>
       <c r="D6" s="4">
-        <v>3.77</v>
+        <f>'1.2'!I6</f>
+        <v>3.7730000000000001</v>
       </c>
       <c r="E6" s="9">
         <f>'2.1'!H6</f>
-        <v>3.87</v>
+        <v>3.867</v>
       </c>
       <c r="F6" s="4">
         <v>3.44</v>
@@ -24502,6 +24670,7 @@
         <v>3.76</v>
       </c>
       <c r="H6" s="4">
+        <f>'3.2'!I6</f>
         <v>3.84</v>
       </c>
       <c r="I6" s="4">
@@ -24517,14 +24686,16 @@
         <v>27</v>
       </c>
       <c r="C7" s="4">
+        <f>'1.1'!H7</f>
         <v>4</v>
       </c>
       <c r="D7" s="4">
+        <f>'1.2'!I7</f>
         <v>3.6</v>
       </c>
       <c r="E7" s="9">
         <f>'2.1'!H7</f>
-        <v>3.75</v>
+        <v>3.7469999999999999</v>
       </c>
       <c r="F7" s="4">
         <v>3.66</v>
@@ -24534,6 +24705,7 @@
         <v>3.86</v>
       </c>
       <c r="H7" s="4">
+        <f>'3.2'!I7</f>
         <v>3.8</v>
       </c>
       <c r="I7" s="4">
@@ -24549,9 +24721,11 @@
         <v>29</v>
       </c>
       <c r="C8" s="4">
+        <f>'1.1'!H8</f>
         <v>3.04</v>
       </c>
       <c r="D8" s="4">
+        <f>'1.2'!I8</f>
         <v>2.5</v>
       </c>
       <c r="E8" s="9">
@@ -24563,14 +24737,15 @@
       </c>
       <c r="G8" s="4">
         <f>'3.1'!I8</f>
-        <v>2.75</v>
+        <v>2.7530000000000001</v>
       </c>
       <c r="H8" s="4">
-        <v>2.61</v>
+        <f>'3.2'!I8</f>
+        <v>2.613</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6280000000000001</v>
+        <v>2.629</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -24581,28 +24756,31 @@
         <v>32</v>
       </c>
       <c r="C9" s="4">
-        <v>2.5299999999999998</v>
+        <f>'1.1'!H9</f>
+        <v>2.5270000000000001</v>
       </c>
       <c r="D9" s="4">
-        <v>2.87</v>
+        <f>'1.2'!I9</f>
+        <v>2.8730000000000002</v>
       </c>
       <c r="E9" s="9">
         <f>'2.1'!H9</f>
-        <v>2.35</v>
+        <v>2.347</v>
       </c>
       <c r="F9" s="4">
         <v>2.13</v>
       </c>
       <c r="G9" s="4">
         <f>'3.1'!I9</f>
-        <v>2.4500000000000002</v>
+        <v>2.4470000000000001</v>
       </c>
       <c r="H9" s="4">
+        <f>'3.2'!I9</f>
         <v>2.48</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="0"/>
-        <v>2.468</v>
+        <v>2.4670000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -24613,10 +24791,12 @@
         <v>35</v>
       </c>
       <c r="C10" s="4">
-        <v>3.77</v>
+        <f>'1.1'!H10</f>
+        <v>3.7730000000000001</v>
       </c>
       <c r="D10" s="4">
-        <v>3.29</v>
+        <f>'1.2'!I10</f>
+        <v>3.2930000000000001</v>
       </c>
       <c r="E10" s="9">
         <f>'2.1'!H10</f>
@@ -24627,10 +24807,11 @@
       </c>
       <c r="G10" s="4">
         <f>'3.1'!I10</f>
-        <v>3.21</v>
+        <v>3.2069999999999999</v>
       </c>
       <c r="H10" s="4">
-        <v>3.23</v>
+        <f>'3.2'!I10</f>
+        <v>3.2269999999999999</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="0"/>
@@ -24645,28 +24826,31 @@
         <v>37</v>
       </c>
       <c r="C11" s="4">
-        <v>3.69</v>
+        <f>'1.1'!H11</f>
+        <v>3.6869999999999998</v>
       </c>
       <c r="D11" s="4">
-        <v>3.33</v>
+        <f>'1.2'!I11</f>
+        <v>3.3330000000000002</v>
       </c>
       <c r="E11" s="9">
         <f>'2.1'!H11</f>
-        <v>3.25</v>
+        <v>3.2530000000000001</v>
       </c>
       <c r="F11" s="4">
         <v>2.65</v>
       </c>
       <c r="G11" s="4">
         <f>'3.1'!I11</f>
-        <v>3.61</v>
+        <v>3.6070000000000002</v>
       </c>
       <c r="H11" s="4">
-        <v>3.49</v>
+        <f>'3.2'!I11</f>
+        <v>3.4870000000000001</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="0"/>
-        <v>3.3370000000000002</v>
+        <v>3.3359999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -24677,9 +24861,11 @@
         <v>39</v>
       </c>
       <c r="C12" s="4">
-        <v>3.69</v>
+        <f>'1.1'!H12</f>
+        <v>3.6930000000000001</v>
       </c>
       <c r="D12" s="4">
+        <f>'1.2'!I12</f>
         <v>3.06</v>
       </c>
       <c r="E12" s="9">
@@ -24691,10 +24877,11 @@
       </c>
       <c r="G12" s="4">
         <f>'3.1'!I12</f>
-        <v>3.31</v>
+        <v>3.3069999999999999</v>
       </c>
       <c r="H12" s="4">
-        <v>3.27</v>
+        <f>'3.2'!I12</f>
+        <v>3.2669999999999999</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="0"/>
@@ -24709,28 +24896,31 @@
         <v>41</v>
       </c>
       <c r="C13" s="4">
+        <f>'1.1'!H13</f>
         <v>3.64</v>
       </c>
       <c r="D13" s="4">
+        <f>'1.2'!I13</f>
         <v>3.24</v>
       </c>
       <c r="E13" s="9">
         <f>'2.1'!H13</f>
-        <v>3.43</v>
+        <v>3.4329999999999998</v>
       </c>
       <c r="F13" s="4">
         <v>2.42</v>
       </c>
       <c r="G13" s="4">
         <f>'3.1'!I13</f>
-        <v>3.33</v>
+        <v>3.327</v>
       </c>
       <c r="H13" s="4">
-        <v>3.27</v>
+        <f>'3.2'!I13</f>
+        <v>3.2669999999999999</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="0"/>
-        <v>3.222</v>
+        <v>3.2210000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -24741,10 +24931,12 @@
         <v>43</v>
       </c>
       <c r="C14" s="4">
+        <f>'1.1'!H14</f>
         <v>3.22</v>
       </c>
       <c r="D14" s="4">
-        <v>3.33</v>
+        <f>'1.2'!I14</f>
+        <v>3.3330000000000002</v>
       </c>
       <c r="E14" s="9">
         <f>'2.1'!H14</f>
@@ -24758,7 +24950,8 @@
         <v>3.08</v>
       </c>
       <c r="H14" s="4">
-        <v>3.47</v>
+        <f>'3.2'!I14</f>
+        <v>3.4670000000000001</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="0"/>
@@ -24773,28 +24966,31 @@
         <v>45</v>
       </c>
       <c r="C15" s="4">
+        <f>'1.1'!H15</f>
         <v>3.44</v>
       </c>
       <c r="D15" s="4">
-        <v>3.11</v>
+        <f>'1.2'!I15</f>
+        <v>3.113</v>
       </c>
       <c r="E15" s="9">
         <f>'2.1'!H15</f>
-        <v>3.37</v>
+        <v>3.3730000000000002</v>
       </c>
       <c r="F15" s="4">
         <v>2.77</v>
       </c>
       <c r="G15" s="4">
         <f>'3.1'!I15</f>
-        <v>3.41</v>
+        <v>3.407</v>
       </c>
       <c r="H15" s="4">
-        <v>3.23</v>
+        <f>'3.2'!I15</f>
+        <v>3.2330000000000001</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="0"/>
-        <v>3.222</v>
+        <v>3.2229999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -24805,9 +25001,11 @@
         <v>47</v>
       </c>
       <c r="C16" s="4">
+        <f>'1.1'!H16</f>
         <v>1.98</v>
       </c>
       <c r="D16" s="4">
+        <f>'1.2'!I16</f>
         <v>1.98</v>
       </c>
       <c r="E16" s="9">
@@ -24819,14 +25017,15 @@
       </c>
       <c r="G16" s="4">
         <f>'3.1'!I16</f>
-        <v>2.11</v>
+        <v>2.113</v>
       </c>
       <c r="H16" s="4">
-        <v>2.25</v>
+        <f>'3.2'!I16</f>
+        <v>2.2530000000000001</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="0"/>
-        <v>2.0649999999999999</v>
+        <v>2.0659999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -24837,10 +25036,12 @@
         <v>245</v>
       </c>
       <c r="C17" s="4">
+        <f>'1.1'!H17</f>
         <v>3.5</v>
       </c>
       <c r="D17" s="4">
-        <v>3.35</v>
+        <f>'1.2'!I17</f>
+        <v>3.347</v>
       </c>
       <c r="E17" s="9">
         <f>'2.1'!H17</f>
@@ -24854,11 +25055,12 @@
         <v>3.6</v>
       </c>
       <c r="H17" s="4">
-        <v>3.53</v>
+        <f>'3.2'!I17</f>
+        <v>3.5270000000000001</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="0"/>
-        <v>3.51</v>
+        <v>3.5089999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -24869,14 +25071,16 @@
         <v>51</v>
       </c>
       <c r="C18" s="4">
-        <v>3.87</v>
+        <f>'1.1'!H18</f>
+        <v>3.867</v>
       </c>
       <c r="D18" s="4">
-        <v>3.33</v>
+        <f>'1.2'!I18</f>
+        <v>3.3330000000000002</v>
       </c>
       <c r="E18" s="9">
         <f>'2.1'!H18</f>
-        <v>3.65</v>
+        <v>3.6469999999999998</v>
       </c>
       <c r="F18" s="4">
         <v>3.38</v>
@@ -24886,6 +25090,7 @@
         <v>3.84</v>
       </c>
       <c r="H18" s="4">
+        <f>'3.2'!I18</f>
         <v>3.74</v>
       </c>
       <c r="I18" s="4">
@@ -24901,10 +25106,12 @@
         <v>53</v>
       </c>
       <c r="C19" s="4">
-        <v>3.45</v>
+        <f>'1.1'!H19</f>
+        <v>3.4470000000000001</v>
       </c>
       <c r="D19" s="4">
-        <v>2.59</v>
+        <f>'1.2'!I19</f>
+        <v>2.5870000000000002</v>
       </c>
       <c r="E19" s="9">
         <f>'2.1'!H19</f>
@@ -24918,11 +25125,12 @@
         <v>2.52</v>
       </c>
       <c r="H19" s="4">
+        <f>'3.2'!I19</f>
         <v>2.64</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="0"/>
-        <v>2.512</v>
+        <v>2.5110000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -24933,9 +25141,11 @@
         <v>55</v>
       </c>
       <c r="C20" s="4">
+        <f>'1.1'!H20</f>
         <v>3.88</v>
       </c>
       <c r="D20" s="4">
+        <f>'1.2'!I20</f>
         <v>3.92</v>
       </c>
       <c r="E20" s="9">
@@ -24950,7 +25160,8 @@
         <v>3.6</v>
       </c>
       <c r="H20" s="4">
-        <v>3.31</v>
+        <f>'3.2'!I20</f>
+        <v>3.3130000000000002</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="0"/>
@@ -24965,14 +25176,16 @@
         <v>57</v>
       </c>
       <c r="C21" s="4">
-        <v>3.75</v>
+        <f>'1.1'!H21</f>
+        <v>3.7530000000000001</v>
       </c>
       <c r="D21" s="4">
-        <v>3.61</v>
+        <f>'1.2'!I21</f>
+        <v>3.613</v>
       </c>
       <c r="E21" s="9">
         <f>'2.1'!H21</f>
-        <v>3.91</v>
+        <v>3.907</v>
       </c>
       <c r="F21" s="4">
         <v>3.59</v>
@@ -24982,11 +25195,12 @@
         <v>3.82</v>
       </c>
       <c r="H21" s="4">
+        <f>'3.2'!I21</f>
         <v>3.84</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="0"/>
-        <v>3.7530000000000001</v>
+        <v>3.754</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24997,10 +25211,12 @@
         <v>59</v>
       </c>
       <c r="C22" s="4">
-        <v>2.65</v>
+        <f>'1.1'!H22</f>
+        <v>2.6469999999999998</v>
       </c>
       <c r="D22" s="4">
-        <v>2.83</v>
+        <f>'1.2'!I22</f>
+        <v>2.8330000000000002</v>
       </c>
       <c r="E22" s="9">
         <f>'2.1'!H22</f>
@@ -25011,14 +25227,15 @@
       </c>
       <c r="G22" s="4">
         <f>'3.1'!I22</f>
-        <v>3.11</v>
+        <v>3.113</v>
       </c>
       <c r="H22" s="4">
+        <f>'3.2'!I22</f>
         <v>2.76</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="0"/>
-        <v>2.83</v>
+        <v>2.831</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25029,28 +25246,31 @@
         <v>61</v>
       </c>
       <c r="C23" s="4">
+        <f>'1.1'!H23</f>
         <v>3.3</v>
       </c>
       <c r="D23" s="4">
-        <v>2.81</v>
+        <f>'1.2'!I23</f>
+        <v>2.8130000000000002</v>
       </c>
       <c r="E23" s="9">
         <f>'2.1'!H23</f>
-        <v>3.03</v>
+        <v>3.0270000000000001</v>
       </c>
       <c r="F23" s="4">
         <v>2.29</v>
       </c>
       <c r="G23" s="4">
         <f>'3.1'!I23</f>
-        <v>2.95</v>
+        <v>2.9529999999999998</v>
       </c>
       <c r="H23" s="4">
-        <v>2.91</v>
+        <f>'3.2'!I23</f>
+        <v>2.9129999999999998</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" si="0"/>
-        <v>2.8820000000000001</v>
+        <v>2.883</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25061,28 +25281,31 @@
         <v>63</v>
       </c>
       <c r="C24" s="4">
-        <v>3.81</v>
+        <f>'1.1'!H24</f>
+        <v>3.8130000000000002</v>
       </c>
       <c r="D24" s="4">
-        <v>3.73</v>
+        <f>'1.2'!I24</f>
+        <v>3.7330000000000001</v>
       </c>
       <c r="E24" s="9">
         <f>'2.1'!H24</f>
-        <v>3.23</v>
+        <v>3.2330000000000001</v>
       </c>
       <c r="F24" s="4">
         <v>3.11</v>
       </c>
       <c r="G24" s="4">
         <f>'3.1'!I24</f>
-        <v>3.41</v>
+        <v>3.4129999999999998</v>
       </c>
       <c r="H24" s="4">
-        <v>3.19</v>
+        <f>'3.2'!I24</f>
+        <v>3.1930000000000001</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="0"/>
-        <v>3.4129999999999998</v>
+        <v>3.4159999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25093,14 +25316,16 @@
         <v>65</v>
       </c>
       <c r="C25" s="4">
-        <v>3.35</v>
+        <f>'1.1'!H25</f>
+        <v>3.347</v>
       </c>
       <c r="D25" s="4">
-        <v>2.95</v>
+        <f>'1.2'!I25</f>
+        <v>2.9529999999999998</v>
       </c>
       <c r="E25" s="9">
         <f>'2.1'!H25</f>
-        <v>2.77</v>
+        <v>2.7669999999999999</v>
       </c>
       <c r="F25" s="4">
         <v>2.36</v>
@@ -25110,7 +25335,8 @@
         <v>2.92</v>
       </c>
       <c r="H25" s="4">
-        <v>3.27</v>
+        <f>'3.2'!I25</f>
+        <v>3.2730000000000001</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="0"/>
@@ -25125,10 +25351,12 @@
         <v>67</v>
       </c>
       <c r="C26" s="4">
+        <f>'1.1'!H26</f>
         <v>1.98</v>
       </c>
       <c r="D26" s="4">
-        <v>1.65</v>
+        <f>'1.2'!I26</f>
+        <v>1.653</v>
       </c>
       <c r="E26" s="9">
         <f>'2.1'!H26</f>
@@ -25142,7 +25370,8 @@
         <v>2.54</v>
       </c>
       <c r="H26" s="4">
-        <v>2.33</v>
+        <f>'3.2'!I26</f>
+        <v>2.327</v>
       </c>
       <c r="I26" s="4">
         <f t="shared" si="0"/>
@@ -25157,14 +25386,16 @@
         <v>69</v>
       </c>
       <c r="C27" s="4">
-        <v>3.79</v>
+        <f>'1.1'!H27</f>
+        <v>3.7869999999999999</v>
       </c>
       <c r="D27" s="4">
-        <v>3.11</v>
+        <f>'1.2'!I27</f>
+        <v>3.113</v>
       </c>
       <c r="E27" s="9">
         <f>'2.1'!H27</f>
-        <v>2.5099999999999998</v>
+        <v>2.5070000000000001</v>
       </c>
       <c r="F27" s="4">
         <v>2.25</v>
@@ -25174,7 +25405,8 @@
         <v>2.88</v>
       </c>
       <c r="H27" s="4">
-        <v>2.89</v>
+        <f>'3.2'!I27</f>
+        <v>2.8929999999999998</v>
       </c>
       <c r="I27" s="4">
         <f t="shared" si="0"/>
@@ -25189,14 +25421,16 @@
         <v>71</v>
       </c>
       <c r="C28" s="4">
+        <f>'1.1'!H28</f>
         <v>4</v>
       </c>
       <c r="D28" s="4">
+        <f>'1.2'!I28</f>
         <v>3.96</v>
       </c>
       <c r="E28" s="9">
         <f>'2.1'!H28</f>
-        <v>3.91</v>
+        <v>3.907</v>
       </c>
       <c r="F28" s="4">
         <v>3.49</v>
@@ -25206,11 +25440,12 @@
         <v>3.9</v>
       </c>
       <c r="H28" s="4">
-        <v>3.67</v>
+        <f>'3.2'!I28</f>
+        <v>3.6669999999999998</v>
       </c>
       <c r="I28" s="4">
         <f t="shared" si="0"/>
-        <v>3.8220000000000001</v>
+        <v>3.8210000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25221,14 +25456,16 @@
         <v>73</v>
       </c>
       <c r="C29" s="4">
+        <f>'1.1'!H29</f>
         <v>4</v>
       </c>
       <c r="D29" s="4">
-        <v>3.79</v>
+        <f>'1.2'!I29</f>
+        <v>3.7869999999999999</v>
       </c>
       <c r="E29" s="9">
         <f>'2.1'!H29</f>
-        <v>3.87</v>
+        <v>3.867</v>
       </c>
       <c r="F29" s="4">
         <v>3.53</v>
@@ -25238,11 +25475,12 @@
         <v>3.68</v>
       </c>
       <c r="H29" s="4">
+        <f>'3.2'!I29</f>
         <v>3.76</v>
       </c>
       <c r="I29" s="4">
         <f t="shared" si="0"/>
-        <v>3.7719999999999998</v>
+        <v>3.7709999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25253,28 +25491,31 @@
         <v>75</v>
       </c>
       <c r="C30" s="4">
-        <v>3.87</v>
+        <f>'1.1'!H30</f>
+        <v>3.867</v>
       </c>
       <c r="D30" s="4">
-        <v>3.77</v>
+        <f>'1.2'!I30</f>
+        <v>3.7730000000000001</v>
       </c>
       <c r="E30" s="9">
         <f>'2.1'!H30</f>
-        <v>3.59</v>
+        <v>3.593</v>
       </c>
       <c r="F30" s="4">
         <v>2.83</v>
       </c>
       <c r="G30" s="4">
         <f>'3.1'!I30</f>
-        <v>3.45</v>
+        <v>3.4470000000000001</v>
       </c>
       <c r="H30" s="4">
-        <v>3.31</v>
+        <f>'3.2'!I30</f>
+        <v>3.3130000000000002</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" si="0"/>
-        <v>3.47</v>
+        <v>3.4710000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25285,24 +25526,27 @@
         <v>77</v>
       </c>
       <c r="C31" s="4">
-        <v>2.4700000000000002</v>
+        <f>'1.1'!H31</f>
+        <v>2.4729999999999999</v>
       </c>
       <c r="D31" s="4">
-        <v>2.97</v>
+        <f>'1.2'!I31</f>
+        <v>2.9670000000000001</v>
       </c>
       <c r="E31" s="9">
         <f>'2.1'!H31</f>
-        <v>2.4900000000000002</v>
+        <v>2.4870000000000001</v>
       </c>
       <c r="F31" s="4">
         <v>2.2200000000000002</v>
       </c>
       <c r="G31" s="4">
         <f>'3.1'!I31</f>
-        <v>3.09</v>
+        <v>3.0870000000000002</v>
       </c>
       <c r="H31" s="4">
-        <v>3.13</v>
+        <f>'3.2'!I31</f>
+        <v>3.133</v>
       </c>
       <c r="I31" s="4">
         <f t="shared" si="0"/>
@@ -25317,14 +25561,16 @@
         <v>79</v>
       </c>
       <c r="C32" s="4">
-        <v>3.77</v>
+        <f>'1.1'!H32</f>
+        <v>3.7730000000000001</v>
       </c>
       <c r="D32" s="4">
-        <v>3.31</v>
+        <f>'1.2'!I32</f>
+        <v>3.3130000000000002</v>
       </c>
       <c r="E32" s="9">
         <f>'2.1'!H32</f>
-        <v>2.5499999999999998</v>
+        <v>2.5529999999999999</v>
       </c>
       <c r="F32" s="4">
         <v>2.27</v>
@@ -25334,11 +25580,12 @@
         <v>2.74</v>
       </c>
       <c r="H32" s="4">
+        <f>'3.2'!I32</f>
         <v>3.08</v>
       </c>
       <c r="I32" s="4">
         <f t="shared" si="0"/>
-        <v>2.9529999999999998</v>
+        <v>2.9550000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25349,28 +25596,31 @@
         <v>81</v>
       </c>
       <c r="C33" s="4">
-        <v>3.77</v>
+        <f>'1.1'!H33</f>
+        <v>3.7730000000000001</v>
       </c>
       <c r="D33" s="4">
+        <f>'1.2'!I33</f>
         <v>3.54</v>
       </c>
       <c r="E33" s="9">
         <f>'2.1'!H33</f>
-        <v>3.43</v>
+        <v>3.4329999999999998</v>
       </c>
       <c r="F33" s="4">
         <v>2.7</v>
       </c>
       <c r="G33" s="4">
         <f>'3.1'!I33</f>
-        <v>3.01</v>
+        <v>3.0129999999999999</v>
       </c>
       <c r="H33" s="4">
-        <v>3.27</v>
+        <f>'3.2'!I33</f>
+        <v>3.2730000000000001</v>
       </c>
       <c r="I33" s="4">
         <f t="shared" si="0"/>
-        <v>3.2869999999999999</v>
+        <v>3.2890000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25381,28 +25631,31 @@
         <v>83</v>
       </c>
       <c r="C34" s="4">
-        <v>3.17</v>
+        <f>'1.1'!H34</f>
+        <v>3.1669999999999998</v>
       </c>
       <c r="D34" s="4">
-        <v>2.87</v>
+        <f>'1.2'!I34</f>
+        <v>2.8730000000000002</v>
       </c>
       <c r="E34" s="9">
         <f>'2.1'!H34</f>
-        <v>2.65</v>
+        <v>2.6469999999999998</v>
       </c>
       <c r="F34" s="4">
         <v>2.34</v>
       </c>
       <c r="G34" s="4">
         <f>'3.1'!I34</f>
-        <v>3.15</v>
+        <v>3.1469999999999998</v>
       </c>
       <c r="H34" s="4">
+        <f>'3.2'!I34</f>
         <v>3.08</v>
       </c>
       <c r="I34" s="4">
         <f t="shared" si="0"/>
-        <v>2.8769999999999998</v>
+        <v>2.8759999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25413,14 +25666,16 @@
         <v>85</v>
       </c>
       <c r="C35" s="4">
-        <v>3.41</v>
+        <f>'1.1'!H35</f>
+        <v>3.407</v>
       </c>
       <c r="D35" s="4">
-        <v>3.67</v>
+        <f>'1.2'!I35</f>
+        <v>3.673</v>
       </c>
       <c r="E35" s="9">
         <f>'2.1'!H35</f>
-        <v>3.67</v>
+        <v>3.6669999999999998</v>
       </c>
       <c r="F35" s="4">
         <v>3.13</v>
@@ -25430,11 +25685,12 @@
         <v>3.76</v>
       </c>
       <c r="H35" s="4">
-        <v>3.75</v>
+        <f>'3.2'!I35</f>
+        <v>3.7469999999999999</v>
       </c>
       <c r="I35" s="4">
         <f t="shared" si="0"/>
-        <v>3.5649999999999999</v>
+        <v>3.5640000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25445,10 +25701,12 @@
         <v>87</v>
       </c>
       <c r="C36" s="4">
+        <f>'1.1'!H36</f>
         <v>3.92</v>
       </c>
       <c r="D36" s="4">
-        <v>3.15</v>
+        <f>'1.2'!I36</f>
+        <v>3.153</v>
       </c>
       <c r="E36" s="9">
         <f>'2.1'!H36</f>
@@ -25459,10 +25717,11 @@
       </c>
       <c r="G36" s="4">
         <f>'3.1'!I36</f>
-        <v>3.39</v>
+        <v>3.387</v>
       </c>
       <c r="H36" s="4">
-        <v>3.29</v>
+        <f>'3.2'!I36</f>
+        <v>3.2930000000000001</v>
       </c>
       <c r="I36" s="4">
         <f t="shared" si="0"/>
@@ -25477,28 +25736,31 @@
         <v>89</v>
       </c>
       <c r="C37" s="4">
-        <v>3.85</v>
+        <f>'1.1'!H37</f>
+        <v>3.847</v>
       </c>
       <c r="D37" s="4">
+        <f>'1.2'!I37</f>
         <v>3.54</v>
       </c>
       <c r="E37" s="9">
         <f>'2.1'!H37</f>
-        <v>3.13</v>
+        <v>3.1269999999999998</v>
       </c>
       <c r="F37" s="4">
         <v>2.95</v>
       </c>
       <c r="G37" s="4">
         <f>'3.1'!I37</f>
-        <v>3.41</v>
+        <v>3.4129999999999998</v>
       </c>
       <c r="H37" s="4">
-        <v>3.61</v>
+        <f>'3.2'!I37</f>
+        <v>3.6070000000000002</v>
       </c>
       <c r="I37" s="4">
         <f t="shared" si="0"/>
-        <v>3.415</v>
+        <v>3.4140000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25509,28 +25771,31 @@
         <v>91</v>
       </c>
       <c r="C38" s="4">
-        <v>2.87</v>
+        <f>'1.1'!H38</f>
+        <v>2.867</v>
       </c>
       <c r="D38" s="4">
-        <v>3.45</v>
+        <f>'1.2'!I38</f>
+        <v>3.4870000000000001</v>
       </c>
       <c r="E38" s="9">
         <f>'2.1'!H38</f>
-        <v>2.91</v>
+        <v>2.907</v>
       </c>
       <c r="F38" s="4">
         <v>2.54</v>
       </c>
       <c r="G38" s="4">
         <f>'3.1'!I38</f>
-        <v>3.13</v>
+        <v>3.133</v>
       </c>
       <c r="H38" s="4">
+        <f>'3.2'!I38</f>
         <v>3.14</v>
       </c>
       <c r="I38" s="4">
         <f t="shared" si="0"/>
-        <v>3.0070000000000001</v>
+        <v>3.012</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25541,14 +25806,16 @@
         <v>93</v>
       </c>
       <c r="C39" s="4">
+        <f>'1.1'!H39</f>
         <v>3.44</v>
       </c>
       <c r="D39" s="4">
-        <v>3.41</v>
+        <f>'1.2'!I39</f>
+        <v>3.4670000000000001</v>
       </c>
       <c r="E39" s="9">
         <f>'2.1'!H39</f>
-        <v>3.37</v>
+        <v>3.3730000000000002</v>
       </c>
       <c r="F39" s="4">
         <v>3.14</v>
@@ -25558,11 +25825,12 @@
         <v>3.68</v>
       </c>
       <c r="H39" s="4">
-        <v>3.71</v>
+        <f>'3.2'!I39</f>
+        <v>3.7069999999999999</v>
       </c>
       <c r="I39" s="4">
         <f t="shared" si="0"/>
-        <v>3.4580000000000002</v>
+        <v>3.468</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25573,28 +25841,31 @@
         <v>95</v>
       </c>
       <c r="C40" s="4">
-        <v>3.81</v>
+        <f>'1.1'!H40</f>
+        <v>3.8130000000000002</v>
       </c>
       <c r="D40" s="4">
-        <v>3.75</v>
+        <f>'1.2'!I40</f>
+        <v>3.7530000000000001</v>
       </c>
       <c r="E40" s="9">
         <f>'2.1'!H40</f>
-        <v>3.71</v>
+        <v>3.7069999999999999</v>
       </c>
       <c r="F40" s="4">
         <v>3.21</v>
       </c>
       <c r="G40" s="4">
         <f>'3.1'!I40</f>
-        <v>3.71</v>
+        <v>3.7069999999999999</v>
       </c>
       <c r="H40" s="4">
-        <v>3.51</v>
+        <f>'3.2'!I40</f>
+        <v>3.5070000000000001</v>
       </c>
       <c r="I40" s="4">
         <f t="shared" si="0"/>
-        <v>3.617</v>
+        <v>3.6160000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25605,14 +25876,16 @@
         <v>97</v>
       </c>
       <c r="C41" s="4">
-        <v>3.35</v>
+        <f>'1.1'!H41</f>
+        <v>3.3530000000000002</v>
       </c>
       <c r="D41" s="4">
-        <v>3.65</v>
+        <f>'1.2'!I41</f>
+        <v>3.653</v>
       </c>
       <c r="E41" s="9">
         <f>'2.1'!H41</f>
-        <v>3.65</v>
+        <v>3.653</v>
       </c>
       <c r="F41" s="4">
         <v>3.01</v>
@@ -25622,11 +25895,12 @@
         <v>3.76</v>
       </c>
       <c r="H41" s="4">
-        <v>3.61</v>
+        <f>'3.2'!I41</f>
+        <v>3.6070000000000002</v>
       </c>
       <c r="I41" s="4">
         <f t="shared" si="0"/>
-        <v>3.5049999999999999</v>
+        <v>3.5059999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25637,24 +25911,27 @@
         <v>99</v>
       </c>
       <c r="C42" s="4">
-        <v>3.81</v>
+        <f>'1.1'!H42</f>
+        <v>3.8130000000000002</v>
       </c>
       <c r="D42" s="4">
-        <v>3.57</v>
+        <f>'1.2'!I42</f>
+        <v>3.573</v>
       </c>
       <c r="E42" s="9">
         <f>'2.1'!H42</f>
-        <v>3.71</v>
+        <v>3.7069999999999999</v>
       </c>
       <c r="F42" s="4">
         <v>2.98</v>
       </c>
       <c r="G42" s="4">
         <f>'3.1'!I42</f>
-        <v>3.61</v>
+        <v>3.6070000000000002</v>
       </c>
       <c r="H42" s="4">
-        <v>3.55</v>
+        <f>'3.2'!I42</f>
+        <v>3.5470000000000002</v>
       </c>
       <c r="I42" s="4">
         <f t="shared" si="0"/>
@@ -25669,9 +25946,11 @@
         <v>101</v>
       </c>
       <c r="C43" s="4">
-        <v>3.67</v>
+        <f>'1.1'!H43</f>
+        <v>3.673</v>
       </c>
       <c r="D43" s="4">
+        <f>'1.2'!I43</f>
         <v>3.64</v>
       </c>
       <c r="E43" s="9">
@@ -25686,7 +25965,8 @@
         <v>3.56</v>
       </c>
       <c r="H43" s="4">
-        <v>3.51</v>
+        <f>'3.2'!I43</f>
+        <v>3.5070000000000001</v>
       </c>
       <c r="I43" s="4">
         <f t="shared" si="0"/>
@@ -25701,14 +25981,16 @@
         <v>103</v>
       </c>
       <c r="C44" s="4">
+        <f>'1.1'!H44</f>
         <v>3.92</v>
       </c>
       <c r="D44" s="4">
-        <v>3.77</v>
+        <f>'1.2'!I44</f>
+        <v>3.7730000000000001</v>
       </c>
       <c r="E44" s="9">
         <f>'2.1'!H44</f>
-        <v>3.79</v>
+        <v>3.7869999999999999</v>
       </c>
       <c r="F44" s="4">
         <v>3.39</v>
@@ -25718,6 +26000,7 @@
         <v>3.6</v>
       </c>
       <c r="H44" s="4">
+        <f>'3.2'!I44</f>
         <v>3.86</v>
       </c>
       <c r="I44" s="4">
@@ -25733,14 +26016,16 @@
         <v>105</v>
       </c>
       <c r="C45" s="4">
-        <v>3.61</v>
+        <f>'1.1'!H45</f>
+        <v>3.613</v>
       </c>
       <c r="D45" s="4">
-        <v>3.65</v>
+        <f>'1.2'!I45</f>
+        <v>3.653</v>
       </c>
       <c r="E45" s="9">
         <f>'2.1'!H45</f>
-        <v>3.71</v>
+        <v>3.7069999999999999</v>
       </c>
       <c r="F45" s="4">
         <v>3.57</v>
@@ -25750,6 +26035,7 @@
         <v>3.94</v>
       </c>
       <c r="H45" s="4">
+        <f>'3.2'!I45</f>
         <v>3.76</v>
       </c>
       <c r="I45" s="4">
@@ -25765,28 +26051,31 @@
         <v>107</v>
       </c>
       <c r="C46" s="4">
+        <f>'1.1'!H46</f>
         <v>3.88</v>
       </c>
       <c r="D46" s="4">
+        <f>'1.2'!I46</f>
         <v>3.56</v>
       </c>
       <c r="E46" s="9">
         <f>'2.1'!H46</f>
-        <v>3.75</v>
+        <v>3.7469999999999999</v>
       </c>
       <c r="F46" s="4">
         <v>2.69</v>
       </c>
       <c r="G46" s="4">
         <f>'3.1'!I46</f>
-        <v>3.73</v>
+        <v>3.7269999999999999</v>
       </c>
       <c r="H46" s="4">
-        <v>3.69</v>
+        <f>'3.2'!I46</f>
+        <v>3.6869999999999998</v>
       </c>
       <c r="I46" s="4">
         <f t="shared" si="0"/>
-        <v>3.55</v>
+        <v>3.5489999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25797,10 +26086,12 @@
         <v>109</v>
       </c>
       <c r="C47" s="4">
-        <v>2.83</v>
+        <f>'1.1'!H47</f>
+        <v>2.8330000000000002</v>
       </c>
       <c r="D47" s="4">
-        <v>2.41</v>
+        <f>'1.2'!I47</f>
+        <v>2.407</v>
       </c>
       <c r="E47" s="9">
         <f>'2.1'!H47</f>
@@ -25814,6 +26105,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="H47" s="4">
+        <f>'3.2'!I47</f>
         <v>2.2400000000000002</v>
       </c>
       <c r="I47" s="4">
@@ -25829,14 +26121,16 @@
         <v>111</v>
       </c>
       <c r="C48" s="4">
-        <v>3.59</v>
+        <f>'1.1'!H48</f>
+        <v>3.593</v>
       </c>
       <c r="D48" s="4">
-        <v>3.67</v>
+        <f>'1.2'!I48</f>
+        <v>3.673</v>
       </c>
       <c r="E48" s="9">
         <f>'2.1'!H48</f>
-        <v>3.55</v>
+        <v>3.5529999999999999</v>
       </c>
       <c r="F48" s="4">
         <v>3.31</v>
@@ -25846,11 +26140,12 @@
         <v>3.66</v>
       </c>
       <c r="H48" s="4">
-        <v>3.63</v>
+        <f>'3.2'!I48</f>
+        <v>3.6269999999999998</v>
       </c>
       <c r="I48" s="4">
         <f t="shared" si="0"/>
-        <v>3.5680000000000001</v>
+        <v>3.569</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25861,14 +26156,16 @@
         <v>113</v>
       </c>
       <c r="C49" s="4">
+        <f>'1.1'!H49</f>
         <v>4</v>
       </c>
       <c r="D49" s="4">
+        <f>'1.2'!I49</f>
         <v>3.5</v>
       </c>
       <c r="E49" s="9">
         <f>'2.1'!H49</f>
-        <v>3.57</v>
+        <v>3.5670000000000002</v>
       </c>
       <c r="F49" s="4">
         <v>2.48</v>
@@ -25878,6 +26175,7 @@
         <v>3.18</v>
       </c>
       <c r="H49" s="4">
+        <f>'3.2'!I49</f>
         <v>2.86</v>
       </c>
       <c r="I49" s="4">
@@ -25893,28 +26191,31 @@
         <v>115</v>
       </c>
       <c r="C50" s="4">
-        <v>3.86</v>
+        <f>'1.1'!H50</f>
+        <v>4</v>
       </c>
       <c r="D50" s="4">
-        <v>3.73</v>
+        <f>'1.2'!I50</f>
+        <v>3.7330000000000001</v>
       </c>
       <c r="E50" s="9">
         <f>'2.1'!H50</f>
-        <v>3.87</v>
+        <v>3.867</v>
       </c>
       <c r="F50" s="4">
         <v>3.34</v>
       </c>
       <c r="G50" s="4">
         <f>'3.1'!I50</f>
-        <v>3.67</v>
+        <v>3.6669999999999998</v>
       </c>
       <c r="H50" s="4">
+        <f>'3.2'!I50</f>
         <v>3.76</v>
       </c>
       <c r="I50" s="4">
         <f t="shared" si="0"/>
-        <v>3.7050000000000001</v>
+        <v>3.7280000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25925,28 +26226,31 @@
         <v>117</v>
       </c>
       <c r="C51" s="4">
+        <f>'1.1'!H51</f>
         <v>3.58</v>
       </c>
       <c r="D51" s="4">
+        <f>'1.2'!I51</f>
         <v>3.58</v>
       </c>
       <c r="E51" s="9">
         <f>'2.1'!H51</f>
-        <v>2.93</v>
+        <v>2.927</v>
       </c>
       <c r="F51" s="4">
         <v>2.65</v>
       </c>
       <c r="G51" s="4">
         <f>'3.1'!I51</f>
-        <v>3.13</v>
+        <v>3.133</v>
       </c>
       <c r="H51" s="4">
-        <v>3.15</v>
+        <f>'3.2'!I51</f>
+        <v>3.153</v>
       </c>
       <c r="I51" s="4">
         <f t="shared" si="0"/>
-        <v>3.17</v>
+        <v>3.1709999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25957,14 +26261,16 @@
         <v>119</v>
       </c>
       <c r="C52" s="4">
-        <v>3.05</v>
+        <f>'1.1'!H52</f>
+        <v>3.0470000000000002</v>
       </c>
       <c r="D52" s="4">
-        <v>3.57</v>
+        <f>'1.2'!I52</f>
+        <v>3.573</v>
       </c>
       <c r="E52" s="9">
         <f>'2.1'!H52</f>
-        <v>3.29</v>
+        <v>3.2869999999999999</v>
       </c>
       <c r="F52" s="4">
         <v>2.93</v>
@@ -25974,11 +26280,12 @@
         <v>3.7</v>
       </c>
       <c r="H52" s="4">
-        <v>3.51</v>
+        <f>'3.2'!I52</f>
+        <v>3.5070000000000001</v>
       </c>
       <c r="I52" s="4">
         <f t="shared" si="0"/>
-        <v>3.3420000000000001</v>
+        <v>3.3410000000000002</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25989,14 +26296,16 @@
         <v>121</v>
       </c>
       <c r="C53" s="4">
-        <v>3.85</v>
+        <f>'1.1'!H53</f>
+        <v>3.847</v>
       </c>
       <c r="D53" s="4">
-        <v>3.55</v>
+        <f>'1.2'!I53</f>
+        <v>3.5470000000000002</v>
       </c>
       <c r="E53" s="9">
         <f>'2.1'!H53</f>
-        <v>3.71</v>
+        <v>3.7130000000000001</v>
       </c>
       <c r="F53" s="4">
         <v>3.41</v>
@@ -26006,11 +26315,12 @@
         <v>4</v>
       </c>
       <c r="H53" s="4">
-        <v>3.59</v>
+        <f>'3.2'!I53</f>
+        <v>3.5870000000000002</v>
       </c>
       <c r="I53" s="4">
         <f t="shared" si="0"/>
-        <v>3.6850000000000001</v>
+        <v>3.6840000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26021,14 +26331,16 @@
         <v>123</v>
       </c>
       <c r="C54" s="4">
+        <f>'1.1'!H54</f>
         <v>3.82</v>
       </c>
       <c r="D54" s="4">
+        <f>'1.2'!I54</f>
         <v>3.22</v>
       </c>
       <c r="E54" s="9">
         <f>'2.1'!H54</f>
-        <v>2.83</v>
+        <v>2.8330000000000002</v>
       </c>
       <c r="F54" s="4">
         <v>2.94</v>
@@ -26038,7 +26350,8 @@
         <v>3.48</v>
       </c>
       <c r="H54" s="4">
-        <v>3.61</v>
+        <f>'3.2'!I54</f>
+        <v>3.6070000000000002</v>
       </c>
       <c r="I54" s="4">
         <f t="shared" si="0"/>
@@ -26053,14 +26366,16 @@
         <v>125</v>
       </c>
       <c r="C55" s="4">
-        <v>2.87</v>
+        <f>'1.1'!H55</f>
+        <v>2.8730000000000002</v>
       </c>
       <c r="D55" s="4">
+        <f>'1.2'!I55</f>
         <v>2.7</v>
       </c>
       <c r="E55" s="9">
         <f>'2.1'!H55</f>
-        <v>2.69</v>
+        <v>2.6869999999999998</v>
       </c>
       <c r="F55" s="4">
         <v>2.0499999999999998</v>
@@ -26070,6 +26385,7 @@
         <v>2.9</v>
       </c>
       <c r="H55" s="4">
+        <f>'3.2'!I55</f>
         <v>2.64</v>
       </c>
       <c r="I55" s="4">
@@ -26085,9 +26401,11 @@
         <v>127</v>
       </c>
       <c r="C56" s="4">
-        <v>3.67</v>
+        <f>'1.1'!H56</f>
+        <v>3.673</v>
       </c>
       <c r="D56" s="4">
+        <f>'1.2'!I56</f>
         <v>3.52</v>
       </c>
       <c r="E56" s="9">
@@ -26099,10 +26417,11 @@
       </c>
       <c r="G56" s="4">
         <f>'3.1'!I56</f>
-        <v>3.55</v>
+        <v>3.5470000000000002</v>
       </c>
       <c r="H56" s="4">
-        <v>3.61</v>
+        <f>'3.2'!I56</f>
+        <v>3.6070000000000002</v>
       </c>
       <c r="I56" s="4">
         <f t="shared" si="0"/>
@@ -26117,14 +26436,16 @@
         <v>129</v>
       </c>
       <c r="C57" s="4">
-        <v>3.05</v>
+        <f>'1.1'!H57</f>
+        <v>3.0470000000000002</v>
       </c>
       <c r="D57" s="4">
+        <f>'1.2'!I57</f>
         <v>3.6</v>
       </c>
       <c r="E57" s="9">
         <f>'2.1'!H57</f>
-        <v>3.07</v>
+        <v>3.0670000000000002</v>
       </c>
       <c r="F57" s="4">
         <v>3.17</v>
@@ -26134,11 +26455,12 @@
         <v>3.8</v>
       </c>
       <c r="H57" s="4">
-        <v>3.57</v>
+        <f>'3.2'!I57</f>
+        <v>3.5670000000000002</v>
       </c>
       <c r="I57" s="4">
         <f t="shared" si="0"/>
-        <v>3.3769999999999998</v>
+        <v>3.375</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26149,14 +26471,16 @@
         <v>131</v>
       </c>
       <c r="C58" s="4">
+        <f>'1.1'!H58</f>
         <v>4</v>
       </c>
       <c r="D58" s="4">
+        <f>'1.2'!I58</f>
         <v>3.6</v>
       </c>
       <c r="E58" s="9">
         <f>'2.1'!H58</f>
-        <v>3.79</v>
+        <v>3.7869999999999999</v>
       </c>
       <c r="F58" s="4">
         <v>3.49</v>
@@ -26166,11 +26490,12 @@
         <v>3.94</v>
       </c>
       <c r="H58" s="4">
+        <f>'3.2'!I58</f>
         <v>3.96</v>
       </c>
       <c r="I58" s="4">
         <f t="shared" si="0"/>
-        <v>3.7970000000000002</v>
+        <v>3.7959999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26181,28 +26506,31 @@
         <v>133</v>
       </c>
       <c r="C59" s="4">
-        <v>3.15</v>
+        <f>'1.1'!H59</f>
+        <v>3.153</v>
       </c>
       <c r="D59" s="4">
-        <v>2.75</v>
+        <f>'1.2'!I59</f>
+        <v>2.7530000000000001</v>
       </c>
       <c r="E59" s="9">
         <f>'2.1'!H59</f>
-        <v>2.4900000000000002</v>
+        <v>2.4870000000000001</v>
       </c>
       <c r="F59" s="4">
         <v>2.52</v>
       </c>
       <c r="G59" s="4">
         <f>'3.1'!I59</f>
-        <v>2.97</v>
+        <v>2.9729999999999999</v>
       </c>
       <c r="H59" s="4">
+        <f>'3.2'!I59</f>
         <v>2.8</v>
       </c>
       <c r="I59" s="4">
         <f t="shared" si="0"/>
-        <v>2.78</v>
+        <v>2.7810000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26213,23 +26541,26 @@
         <v>135</v>
       </c>
       <c r="C60" s="4">
-        <v>3.25</v>
+        <f>'1.1'!H60</f>
+        <v>3.2469999999999999</v>
       </c>
       <c r="D60" s="4">
-        <v>3.01</v>
+        <f>'1.2'!I60</f>
+        <v>3.0129999999999999</v>
       </c>
       <c r="E60" s="9">
         <f>'2.1'!H60</f>
-        <v>2.23</v>
+        <v>2.2269999999999999</v>
       </c>
       <c r="F60" s="4">
         <v>2.78</v>
       </c>
       <c r="G60" s="4">
         <f>'3.1'!I60</f>
-        <v>2.99</v>
+        <v>2.9929999999999999</v>
       </c>
       <c r="H60" s="4">
+        <f>'3.2'!I60</f>
         <v>2.84</v>
       </c>
       <c r="I60" s="4">
@@ -26245,28 +26576,31 @@
         <v>137</v>
       </c>
       <c r="C61" s="4">
+        <f>'1.1'!H61</f>
         <v>3.42</v>
       </c>
       <c r="D61" s="4">
-        <v>3.01</v>
+        <f>'1.2'!I61</f>
+        <v>3.0070000000000001</v>
       </c>
       <c r="E61" s="9">
         <f>'2.1'!H61</f>
-        <v>2.4700000000000002</v>
+        <v>2.4670000000000001</v>
       </c>
       <c r="F61" s="4">
         <v>1.57</v>
       </c>
       <c r="G61" s="4">
         <f>'3.1'!I61</f>
-        <v>3.17</v>
+        <v>3.1669999999999998</v>
       </c>
       <c r="H61" s="4">
-        <v>3.05</v>
+        <f>'3.2'!I61</f>
+        <v>3.0529999999999999</v>
       </c>
       <c r="I61" s="4">
         <f t="shared" si="0"/>
-        <v>2.782</v>
+        <v>2.7810000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26277,23 +26611,26 @@
         <v>139</v>
       </c>
       <c r="C62" s="4">
-        <v>3.35</v>
+        <f>'1.1'!H62</f>
+        <v>3.3530000000000002</v>
       </c>
       <c r="D62" s="4">
+        <f>'1.2'!I62</f>
         <v>2.86</v>
       </c>
       <c r="E62" s="9">
         <f>'2.1'!H62</f>
-        <v>2.5099999999999998</v>
+        <v>2.5070000000000001</v>
       </c>
       <c r="F62" s="4">
         <v>1.56</v>
       </c>
       <c r="G62" s="4">
         <f>'3.1'!I62</f>
-        <v>2.89</v>
+        <v>2.887</v>
       </c>
       <c r="H62" s="4">
+        <f>'3.2'!I62</f>
         <v>2.88</v>
       </c>
       <c r="I62" s="4">
@@ -26309,10 +26646,12 @@
         <v>141</v>
       </c>
       <c r="C63" s="4">
-        <v>2.87</v>
+        <f>'1.1'!H63</f>
+        <v>2.8730000000000002</v>
       </c>
       <c r="D63" s="4">
-        <v>2.27</v>
+        <f>'1.2'!I63</f>
+        <v>2.2669999999999999</v>
       </c>
       <c r="E63" s="9">
         <f>'2.1'!H63</f>
@@ -26326,6 +26665,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="H63" s="4">
+        <f>'3.2'!I63</f>
         <v>1.38</v>
       </c>
       <c r="I63" s="4">
@@ -26341,28 +26681,31 @@
         <v>143</v>
       </c>
       <c r="C64" s="4">
-        <v>2.89</v>
+        <f>'1.1'!H64</f>
+        <v>2.887</v>
       </c>
       <c r="D64" s="4">
-        <v>3.21</v>
+        <f>'1.2'!I64</f>
+        <v>3.2069999999999999</v>
       </c>
       <c r="E64" s="9">
         <f>'2.1'!H64</f>
-        <v>3.01</v>
+        <v>3.0070000000000001</v>
       </c>
       <c r="F64" s="4">
         <v>3.15</v>
       </c>
       <c r="G64" s="4">
         <f>'3.1'!I64</f>
-        <v>3.69</v>
+        <v>3.6869999999999998</v>
       </c>
       <c r="H64" s="4">
-        <v>3.49</v>
+        <f>'3.2'!I64</f>
+        <v>3.4870000000000001</v>
       </c>
       <c r="I64" s="4">
         <f t="shared" si="0"/>
-        <v>3.24</v>
+        <v>3.238</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26373,14 +26716,16 @@
         <v>145</v>
       </c>
       <c r="C65" s="4">
-        <v>2.5499999999999998</v>
+        <f>'1.1'!H65</f>
+        <v>2.5529999999999999</v>
       </c>
       <c r="D65" s="4">
+        <f>'1.2'!I65</f>
         <v>2.74</v>
       </c>
       <c r="E65" s="9">
         <f>'2.1'!H65</f>
-        <v>2.57</v>
+        <v>2.5670000000000002</v>
       </c>
       <c r="F65" s="4">
         <v>2.44</v>
@@ -26390,6 +26735,7 @@
         <v>2.98</v>
       </c>
       <c r="H65" s="4">
+        <f>'3.2'!I65</f>
         <v>2.68</v>
       </c>
       <c r="I65" s="4">
@@ -26405,10 +26751,12 @@
         <v>147</v>
       </c>
       <c r="C66" s="4">
-        <v>3.41</v>
+        <f>'1.1'!H66</f>
+        <v>3.407</v>
       </c>
       <c r="D66" s="4">
-        <v>3.05</v>
+        <f>'1.2'!I66</f>
+        <v>3.0470000000000002</v>
       </c>
       <c r="E66" s="9">
         <f>'2.1'!H66</f>
@@ -26419,9 +26767,10 @@
       </c>
       <c r="G66" s="4">
         <f>'3.1'!I66</f>
-        <v>3.13</v>
+        <v>3.133</v>
       </c>
       <c r="H66" s="4">
+        <f>'3.2'!I66</f>
         <v>3.1</v>
       </c>
       <c r="I66" s="4">
@@ -26437,24 +26786,27 @@
         <v>149</v>
       </c>
       <c r="C67" s="4">
-        <v>3.13</v>
+        <f>'1.1'!H67</f>
+        <v>3.1269999999999998</v>
       </c>
       <c r="D67" s="4">
+        <f>'1.2'!I67</f>
         <v>3.32</v>
       </c>
       <c r="E67" s="9">
         <f>'2.1'!H67</f>
-        <v>3.21</v>
+        <v>3.2130000000000001</v>
       </c>
       <c r="F67" s="4">
         <v>2.31</v>
       </c>
       <c r="G67" s="4">
         <f>'3.1'!I67</f>
-        <v>3.23</v>
+        <v>3.2330000000000001</v>
       </c>
       <c r="H67" s="4">
-        <v>3.33</v>
+        <f>'3.2'!I67</f>
+        <v>3.327</v>
       </c>
       <c r="I67" s="4">
         <f t="shared" si="0"/>
@@ -26469,10 +26821,12 @@
         <v>151</v>
       </c>
       <c r="C68" s="4">
-        <v>3.51</v>
+        <f>'1.1'!H68</f>
+        <v>3.5129999999999999</v>
       </c>
       <c r="D68" s="4">
-        <v>3.33</v>
+        <f>'1.2'!I68</f>
+        <v>3.3330000000000002</v>
       </c>
       <c r="E68" s="9">
         <f>'2.1'!H68</f>
@@ -26483,14 +26837,15 @@
       </c>
       <c r="G68" s="4">
         <f>'3.1'!I68</f>
-        <v>3.45</v>
+        <v>3.4470000000000001</v>
       </c>
       <c r="H68" s="4">
-        <v>3.39</v>
+        <f>'3.2'!I68</f>
+        <v>3.3929999999999998</v>
       </c>
       <c r="I68" s="4">
         <f t="shared" si="0"/>
-        <v>3.3319999999999999</v>
+        <v>3.3330000000000002</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26501,10 +26856,12 @@
         <v>153</v>
       </c>
       <c r="C69" s="4">
+        <f>'1.1'!H69</f>
         <v>1.96</v>
       </c>
       <c r="D69" s="4">
-        <v>1.33</v>
+        <f>'1.2'!I69</f>
+        <v>2</v>
       </c>
       <c r="E69" s="9">
         <f>'2.1'!H69</f>
@@ -26515,14 +26872,15 @@
       </c>
       <c r="G69" s="4">
         <f>'3.1'!I69</f>
-        <v>3.29</v>
+        <v>3.2869999999999999</v>
       </c>
       <c r="H69" s="4">
-        <v>3.19</v>
+        <f>'3.2'!I69</f>
+        <v>3.1930000000000001</v>
       </c>
       <c r="I69" s="4">
         <f t="shared" si="0"/>
-        <v>2.335</v>
+        <v>2.4470000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26533,28 +26891,31 @@
         <v>155</v>
       </c>
       <c r="C70" s="4">
-        <v>2.73</v>
+        <f>'1.1'!H70</f>
+        <v>2.7330000000000001</v>
       </c>
       <c r="D70" s="4">
-        <v>2.63</v>
+        <f>'1.2'!I70</f>
+        <v>2.633</v>
       </c>
       <c r="E70" s="9">
         <f>'2.1'!H70</f>
-        <v>1.97</v>
+        <v>1.9670000000000001</v>
       </c>
       <c r="F70" s="4">
         <v>1.55</v>
       </c>
       <c r="G70" s="4">
         <f>'3.1'!I70</f>
-        <v>2.39</v>
+        <v>2.387</v>
       </c>
       <c r="H70" s="4">
-        <v>2.25</v>
+        <f>'3.2'!I70</f>
+        <v>2.2530000000000001</v>
       </c>
       <c r="I70" s="4">
         <f t="shared" si="0"/>
-        <v>2.2530000000000001</v>
+        <v>2.254</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26565,9 +26926,11 @@
         <v>157</v>
       </c>
       <c r="C71" s="4">
-        <v>2.31</v>
+        <f>'1.1'!H71</f>
+        <v>2.3130000000000002</v>
       </c>
       <c r="D71" s="4">
+        <f>'1.2'!I71</f>
         <v>2.48</v>
       </c>
       <c r="E71" s="9">
@@ -26579,14 +26942,15 @@
       </c>
       <c r="G71" s="4">
         <f>'3.1'!I71</f>
-        <v>2.75</v>
+        <v>2.7530000000000001</v>
       </c>
       <c r="H71" s="4">
-        <v>2.41</v>
+        <f>'3.2'!I71</f>
+        <v>2.407</v>
       </c>
       <c r="I71" s="4">
         <f t="shared" si="0"/>
-        <v>2.3029999999999999</v>
+        <v>2.3039999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26597,14 +26961,16 @@
         <v>159</v>
       </c>
       <c r="C72" s="4">
-        <v>3.57</v>
+        <f>'1.1'!H72</f>
+        <v>3.573</v>
       </c>
       <c r="D72" s="4">
-        <v>3.29</v>
+        <f>'1.2'!I72</f>
+        <v>3.2869999999999999</v>
       </c>
       <c r="E72" s="9">
         <f>'2.1'!H72</f>
-        <v>3.51</v>
+        <v>3.5070000000000001</v>
       </c>
       <c r="F72" s="4">
         <v>3.26</v>
@@ -26614,11 +26980,12 @@
         <v>3.86</v>
       </c>
       <c r="H72" s="4">
-        <v>3.91</v>
+        <f>'3.2'!I72</f>
+        <v>3.907</v>
       </c>
       <c r="I72" s="4">
         <f t="shared" si="0"/>
-        <v>3.5670000000000002</v>
+        <v>3.5659999999999998</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26629,14 +26996,16 @@
         <v>161</v>
       </c>
       <c r="C73" s="4">
-        <v>3.77</v>
+        <f>'1.1'!H73</f>
+        <v>3.7730000000000001</v>
       </c>
       <c r="D73" s="4">
-        <v>2.87</v>
+        <f>'1.2'!I73</f>
+        <v>3</v>
       </c>
       <c r="E73" s="9">
         <f>'2.1'!H73</f>
-        <v>2.41</v>
+        <v>2.407</v>
       </c>
       <c r="F73" s="4">
         <v>0</v>
@@ -26646,11 +27015,12 @@
         <v>2.66</v>
       </c>
       <c r="H73" s="4">
-        <v>2.41</v>
+        <f>'3.2'!I73</f>
+        <v>2.4129999999999998</v>
       </c>
       <c r="I73" s="4">
         <f t="shared" si="0"/>
-        <v>2.3530000000000002</v>
+        <v>2.3759999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26661,10 +27031,12 @@
         <v>163</v>
       </c>
       <c r="C74" s="4">
-        <v>3.72</v>
+        <f>'1.1'!H74</f>
+        <v>3.86</v>
       </c>
       <c r="D74" s="4">
-        <v>3.23</v>
+        <f>'1.2'!I74</f>
+        <v>3.2330000000000001</v>
       </c>
       <c r="E74" s="9">
         <f>'2.1'!H74</f>
@@ -26675,14 +27047,15 @@
       </c>
       <c r="G74" s="4">
         <f>'3.1'!I74</f>
-        <v>2.99</v>
+        <v>2.9929999999999999</v>
       </c>
       <c r="H74" s="4">
-        <v>3.49</v>
+        <f>'3.2'!I74</f>
+        <v>3.4870000000000001</v>
       </c>
       <c r="I74" s="4">
         <f t="shared" si="0"/>
-        <v>3.165</v>
+        <v>3.1890000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26693,10 +27066,12 @@
         <v>165</v>
       </c>
       <c r="C75" s="4">
+        <f>'1.1'!H75</f>
         <v>3.92</v>
       </c>
       <c r="D75" s="4">
-        <v>3.37</v>
+        <f>'1.2'!I75</f>
+        <v>3.367</v>
       </c>
       <c r="E75" s="9">
         <f>'2.1'!H75</f>
@@ -26710,11 +27085,12 @@
         <v>3.56</v>
       </c>
       <c r="H75" s="4">
-        <v>3.23</v>
+        <f>'3.2'!I75</f>
+        <v>3.2269999999999999</v>
       </c>
       <c r="I75" s="4">
         <f t="shared" si="0"/>
-        <v>3.1749999999999998</v>
+        <v>3.1739999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26725,28 +27101,31 @@
         <v>167</v>
       </c>
       <c r="C76" s="4">
-        <v>3.65</v>
+        <f>'1.1'!H76</f>
+        <v>3.653</v>
       </c>
       <c r="D76" s="4">
+        <f>'1.2'!I76</f>
         <v>3.34</v>
       </c>
       <c r="E76" s="9">
         <f>'2.1'!H76</f>
-        <v>2.91</v>
+        <v>2.907</v>
       </c>
       <c r="F76" s="4">
         <v>2.21</v>
       </c>
       <c r="G76" s="4">
         <f>'3.1'!I76</f>
-        <v>3.33</v>
+        <v>3.3330000000000002</v>
       </c>
       <c r="H76" s="4">
+        <f>'3.2'!I76</f>
         <v>3.22</v>
       </c>
       <c r="I76" s="4">
         <f t="shared" si="0"/>
-        <v>3.11</v>
+        <v>3.1110000000000002</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26757,14 +27136,16 @@
         <v>169</v>
       </c>
       <c r="C77" s="4">
-        <v>2.97</v>
+        <f>'1.1'!H77</f>
+        <v>2.9670000000000001</v>
       </c>
       <c r="D77" s="4">
-        <v>2.4500000000000002</v>
+        <f>'1.2'!I77</f>
+        <v>2.4470000000000001</v>
       </c>
       <c r="E77" s="9">
         <f>'2.1'!H77</f>
-        <v>2.19</v>
+        <v>2.1869999999999998</v>
       </c>
       <c r="F77" s="4">
         <v>1.8</v>
@@ -26774,11 +27155,12 @@
         <v>2.48</v>
       </c>
       <c r="H77" s="4">
-        <v>2.31</v>
+        <f>'3.2'!I77</f>
+        <v>2.3069999999999999</v>
       </c>
       <c r="I77" s="4">
         <f t="shared" si="0"/>
-        <v>2.367</v>
+        <v>2.3650000000000002</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26789,10 +27171,12 @@
         <v>171</v>
       </c>
       <c r="C78" s="4">
+        <f>'1.1'!H78</f>
         <v>4</v>
       </c>
       <c r="D78" s="4">
-        <v>3.69</v>
+        <f>'1.2'!I78</f>
+        <v>3.6930000000000001</v>
       </c>
       <c r="E78" s="9">
         <f>'2.1'!H78</f>
@@ -26803,10 +27187,11 @@
       </c>
       <c r="G78" s="4">
         <f>'3.1'!I78</f>
-        <v>3.61</v>
+        <v>3.6070000000000002</v>
       </c>
       <c r="H78" s="4">
-        <v>3.59</v>
+        <f>'3.2'!I78</f>
+        <v>3.5870000000000002</v>
       </c>
       <c r="I78" s="4">
         <f t="shared" si="0"/>
@@ -26821,28 +27206,31 @@
         <v>173</v>
       </c>
       <c r="C79" s="4">
+        <f>'1.1'!H79</f>
         <v>3.92</v>
       </c>
       <c r="D79" s="4">
+        <f>'1.2'!I79</f>
         <v>3.56</v>
       </c>
       <c r="E79" s="9">
         <f>'2.1'!H79</f>
-        <v>3.23</v>
+        <v>3.2330000000000001</v>
       </c>
       <c r="F79" s="4">
         <v>2.9</v>
       </c>
       <c r="G79" s="4">
         <f>'3.1'!I79</f>
-        <v>3.67</v>
+        <v>3.6669999999999998</v>
       </c>
       <c r="H79" s="4">
-        <v>3.43</v>
+        <f>'3.2'!I79</f>
+        <v>3.427</v>
       </c>
       <c r="I79" s="4">
         <f t="shared" si="0"/>
-        <v>3.452</v>
+        <v>3.4510000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26853,14 +27241,16 @@
         <v>175</v>
       </c>
       <c r="C80" s="4">
-        <v>3.83</v>
+        <f>'1.1'!H80</f>
+        <v>3.827</v>
       </c>
       <c r="D80" s="4">
-        <v>3.79</v>
+        <f>'1.2'!I80</f>
+        <v>3.7869999999999999</v>
       </c>
       <c r="E80" s="9">
         <f>'2.1'!H80</f>
-        <v>3.69</v>
+        <v>3.6869999999999998</v>
       </c>
       <c r="F80" s="4">
         <v>3.43</v>
@@ -26870,11 +27260,12 @@
         <v>3.76</v>
       </c>
       <c r="H80" s="4">
+        <f>'3.2'!I80</f>
         <v>3.82</v>
       </c>
       <c r="I80" s="4">
         <f t="shared" si="0"/>
-        <v>3.72</v>
+        <v>3.7189999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26885,24 +27276,27 @@
         <v>177</v>
       </c>
       <c r="C81" s="4">
+        <f>'1.1'!H81</f>
         <v>3.6</v>
       </c>
       <c r="D81" s="4">
+        <f>'1.2'!I81</f>
         <v>3.52</v>
       </c>
       <c r="E81" s="9">
         <f>'2.1'!H81</f>
-        <v>3.65</v>
+        <v>3.6469999999999998</v>
       </c>
       <c r="F81" s="4">
         <v>2.74</v>
       </c>
       <c r="G81" s="4">
         <f>'3.1'!I81</f>
-        <v>3.45</v>
+        <v>3.4470000000000001</v>
       </c>
       <c r="H81" s="4">
-        <v>3.43</v>
+        <f>'3.2'!I81</f>
+        <v>3.4329999999999998</v>
       </c>
       <c r="I81" s="4">
         <f t="shared" si="0"/>
@@ -26917,14 +27311,16 @@
         <v>179</v>
       </c>
       <c r="C82" s="4">
-        <v>3.27</v>
+        <f>'1.1'!H82</f>
+        <v>3.2730000000000001</v>
       </c>
       <c r="D82" s="4">
+        <f>'1.2'!I82</f>
         <v>2.66</v>
       </c>
       <c r="E82" s="9">
         <f>'2.1'!H82</f>
-        <v>2.63</v>
+        <v>2.6269999999999998</v>
       </c>
       <c r="F82" s="4">
         <v>0</v>
@@ -26934,6 +27330,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="4">
+        <f>'3.2'!I82</f>
         <v>0</v>
       </c>
       <c r="I82" s="4">
@@ -26949,28 +27346,31 @@
         <v>181</v>
       </c>
       <c r="C83" s="4">
-        <v>3.59</v>
+        <f>'1.1'!H83</f>
+        <v>3.593</v>
       </c>
       <c r="D83" s="4">
+        <f>'1.2'!I83</f>
         <v>3.22</v>
       </c>
       <c r="E83" s="9">
         <f>'2.1'!H83</f>
-        <v>3.27</v>
+        <v>3.2669999999999999</v>
       </c>
       <c r="F83" s="4">
         <v>2.99</v>
       </c>
       <c r="G83" s="4">
         <f>'3.1'!I83</f>
-        <v>3.55</v>
+        <v>3.5529999999999999</v>
       </c>
       <c r="H83" s="4">
-        <v>3.51</v>
+        <f>'3.2'!I83</f>
+        <v>3.5129999999999999</v>
       </c>
       <c r="I83" s="4">
         <f t="shared" si="0"/>
-        <v>3.355</v>
+        <v>3.3559999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26981,24 +27381,27 @@
         <v>183</v>
       </c>
       <c r="C84" s="4">
-        <v>3.29</v>
+        <f>'1.1'!H84</f>
+        <v>3.2869999999999999</v>
       </c>
       <c r="D84" s="4">
-        <v>3.29</v>
+        <f>'1.2'!I84</f>
+        <v>3.2930000000000001</v>
       </c>
       <c r="E84" s="9">
         <f>'2.1'!H84</f>
-        <v>3.57</v>
+        <v>3.5670000000000002</v>
       </c>
       <c r="F84" s="4">
         <v>2.86</v>
       </c>
       <c r="G84" s="4">
         <f>'3.1'!I84</f>
-        <v>3.47</v>
+        <v>3.4670000000000001</v>
       </c>
       <c r="H84" s="4">
-        <v>3.35</v>
+        <f>'3.2'!I84</f>
+        <v>3.3530000000000002</v>
       </c>
       <c r="I84" s="4">
         <f t="shared" si="0"/>
@@ -27013,28 +27416,31 @@
         <v>185</v>
       </c>
       <c r="C85" s="4">
-        <v>3.83</v>
+        <f>'1.1'!H85</f>
+        <v>3.827</v>
       </c>
       <c r="D85" s="4">
-        <v>3.51</v>
+        <f>'1.2'!I85</f>
+        <v>3.5070000000000001</v>
       </c>
       <c r="E85" s="9">
         <f>'2.1'!H85</f>
-        <v>3.57</v>
+        <v>3.5670000000000002</v>
       </c>
       <c r="F85" s="4">
         <v>2.97</v>
       </c>
       <c r="G85" s="4">
         <f>'3.1'!I85</f>
-        <v>3.61</v>
+        <v>3.6070000000000002</v>
       </c>
       <c r="H85" s="4">
-        <v>3.27</v>
+        <f>'3.2'!I85</f>
+        <v>3.2730000000000001</v>
       </c>
       <c r="I85" s="4">
         <f t="shared" si="0"/>
-        <v>3.46</v>
+        <v>3.4590000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27045,28 +27451,31 @@
         <v>187</v>
       </c>
       <c r="C86" s="4">
+        <f>'1.1'!H86</f>
         <v>3.96</v>
       </c>
       <c r="D86" s="4">
+        <f>'1.2'!I86</f>
         <v>3.6</v>
       </c>
       <c r="E86" s="9">
         <f>'2.1'!H86</f>
-        <v>3.79</v>
+        <v>3.7869999999999999</v>
       </c>
       <c r="F86" s="4">
         <v>3.21</v>
       </c>
       <c r="G86" s="4">
         <f>'3.1'!I86</f>
-        <v>3.87</v>
+        <v>3.867</v>
       </c>
       <c r="H86" s="4">
-        <v>3.77</v>
+        <f>'3.2'!I86</f>
+        <v>3.7669999999999999</v>
       </c>
       <c r="I86" s="4">
         <f t="shared" si="0"/>
-        <v>3.7</v>
+        <v>3.6989999999999998</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27077,10 +27486,12 @@
         <v>189</v>
       </c>
       <c r="C87" s="4">
+        <f>'1.1'!H87</f>
         <v>3.4</v>
       </c>
       <c r="D87" s="4">
-        <v>2.79</v>
+        <f>'1.2'!I87</f>
+        <v>2.7930000000000001</v>
       </c>
       <c r="E87" s="9">
         <f>'2.1'!H87</f>
@@ -27094,7 +27505,8 @@
         <v>2.9</v>
       </c>
       <c r="H87" s="4">
-        <v>2.57</v>
+        <f>'3.2'!I87</f>
+        <v>2.5670000000000002</v>
       </c>
       <c r="I87" s="4">
         <f t="shared" si="0"/>
@@ -27109,10 +27521,12 @@
         <v>191</v>
       </c>
       <c r="C88" s="4">
-        <v>2.27</v>
+        <f>'1.1'!H88</f>
+        <v>2.2669999999999999</v>
       </c>
       <c r="D88" s="4">
-        <v>2.79</v>
+        <f>'1.2'!I88</f>
+        <v>2.7869999999999999</v>
       </c>
       <c r="E88" s="9">
         <f>'2.1'!H88</f>
@@ -27123,14 +27537,15 @@
       </c>
       <c r="G88" s="4">
         <f>'3.1'!I88</f>
-        <v>2.5099999999999998</v>
+        <v>2.5070000000000001</v>
       </c>
       <c r="H88" s="4">
-        <v>2.13</v>
+        <f>'3.2'!I88</f>
+        <v>2.1269999999999998</v>
       </c>
       <c r="I88" s="4">
         <f t="shared" si="0"/>
-        <v>2.2719999999999998</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27141,10 +27556,12 @@
         <v>193</v>
       </c>
       <c r="C89" s="4">
+        <f>'1.1'!H89</f>
         <v>3.4</v>
       </c>
       <c r="D89" s="4">
-        <v>3.05</v>
+        <f>'1.2'!I89</f>
+        <v>3.0470000000000002</v>
       </c>
       <c r="E89" s="9">
         <f>'2.1'!H89</f>
@@ -27158,6 +27575,7 @@
         <v>2.92</v>
       </c>
       <c r="H89" s="4">
+        <f>'3.2'!I89</f>
         <v>2.76</v>
       </c>
       <c r="I89" s="4">
@@ -27173,9 +27591,11 @@
         <v>195</v>
       </c>
       <c r="C90" s="4">
+        <f>'1.1'!H90</f>
         <v>2.78</v>
       </c>
       <c r="D90" s="4">
+        <f>'1.2'!I90</f>
         <v>2.5</v>
       </c>
       <c r="E90" s="9">
@@ -27190,6 +27610,7 @@
         <v>0</v>
       </c>
       <c r="H90" s="4">
+        <f>'3.2'!I90</f>
         <v>0</v>
       </c>
       <c r="I90" s="4">
@@ -27205,28 +27626,31 @@
         <v>197</v>
       </c>
       <c r="C91" s="4">
-        <v>3.37</v>
+        <f>'1.1'!H91</f>
+        <v>3.367</v>
       </c>
       <c r="D91" s="4">
-        <v>3.55</v>
+        <f>'1.2'!I91</f>
+        <v>3.5529999999999999</v>
       </c>
       <c r="E91" s="9">
         <f>'2.1'!H91</f>
-        <v>3.29</v>
+        <v>3.2869999999999999</v>
       </c>
       <c r="F91" s="4">
         <v>2.31</v>
       </c>
       <c r="G91" s="4">
         <f>'3.1'!I91</f>
-        <v>3.51</v>
+        <v>3.5129999999999999</v>
       </c>
       <c r="H91" s="4">
-        <v>3.39</v>
+        <f>'3.2'!I91</f>
+        <v>3.387</v>
       </c>
       <c r="I91" s="4">
         <f t="shared" si="0"/>
-        <v>3.2370000000000001</v>
+        <v>3.2360000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27237,14 +27661,16 @@
         <v>199</v>
       </c>
       <c r="C92" s="4">
-        <v>3.63</v>
+        <f>'1.1'!H92</f>
+        <v>3.633</v>
       </c>
       <c r="D92" s="4">
-        <v>3.05</v>
+        <f>'1.2'!I92</f>
+        <v>3.0470000000000002</v>
       </c>
       <c r="E92" s="9">
         <f>'2.1'!H92</f>
-        <v>2.99</v>
+        <v>2.9929999999999999</v>
       </c>
       <c r="F92" s="4">
         <v>2.25</v>
@@ -27254,11 +27680,12 @@
         <v>3.1</v>
       </c>
       <c r="H92" s="4">
-        <v>3.03</v>
+        <f>'3.2'!I92</f>
+        <v>3.0329999999999999</v>
       </c>
       <c r="I92" s="4">
         <f t="shared" si="0"/>
-        <v>3.008</v>
+        <v>3.0089999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27269,24 +27696,27 @@
         <v>201</v>
       </c>
       <c r="C93" s="4">
+        <f>'1.1'!H93</f>
         <v>3.92</v>
       </c>
       <c r="D93" s="4">
-        <v>3.47</v>
+        <f>'1.2'!I93</f>
+        <v>3.4670000000000001</v>
       </c>
       <c r="E93" s="9">
         <f>'2.1'!H93</f>
-        <v>3.63</v>
+        <v>3.6269999999999998</v>
       </c>
       <c r="F93" s="4">
         <v>3.37</v>
       </c>
       <c r="G93" s="4">
         <f>'3.1'!I93</f>
-        <v>3.65</v>
+        <v>3.653</v>
       </c>
       <c r="H93" s="4">
-        <v>3.55</v>
+        <f>'3.2'!I93</f>
+        <v>3.5529999999999999</v>
       </c>
       <c r="I93" s="4">
         <f t="shared" si="0"/>
@@ -27301,10 +27731,12 @@
         <v>203</v>
       </c>
       <c r="C94" s="4">
-        <v>3.25</v>
+        <f>'1.1'!H94</f>
+        <v>3.2530000000000001</v>
       </c>
       <c r="D94" s="4">
-        <v>3.31</v>
+        <f>'1.2'!I94</f>
+        <v>3.3130000000000002</v>
       </c>
       <c r="E94" s="9">
         <f>'2.1'!H94</f>
@@ -27315,14 +27747,15 @@
       </c>
       <c r="G94" s="4">
         <f>'3.1'!I94</f>
-        <v>3.31</v>
+        <v>3.3069999999999999</v>
       </c>
       <c r="H94" s="4">
-        <v>3.11</v>
+        <f>'3.2'!I94</f>
+        <v>3.113</v>
       </c>
       <c r="I94" s="4">
         <f t="shared" si="0"/>
-        <v>3.052</v>
+        <v>3.0529999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27333,14 +27766,16 @@
         <v>205</v>
       </c>
       <c r="C95" s="4">
+        <f>'1.1'!H95</f>
         <v>3.62</v>
       </c>
       <c r="D95" s="4">
+        <f>'1.2'!I95</f>
         <v>3.1</v>
       </c>
       <c r="E95" s="9">
         <f>'2.1'!H95</f>
-        <v>2.89</v>
+        <v>2.887</v>
       </c>
       <c r="F95" s="4">
         <v>2.75</v>
@@ -27350,11 +27785,12 @@
         <v>3.32</v>
       </c>
       <c r="H95" s="4">
+        <f>'3.2'!I95</f>
         <v>3.02</v>
       </c>
       <c r="I95" s="4">
         <f t="shared" si="0"/>
-        <v>3.117</v>
+        <v>3.1160000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27365,23 +27801,26 @@
         <v>207</v>
       </c>
       <c r="C96" s="4">
-        <v>3.73</v>
+        <f>'1.1'!H96</f>
+        <v>3.7330000000000001</v>
       </c>
       <c r="D96" s="4">
+        <f>'1.2'!I96</f>
         <v>3.56</v>
       </c>
       <c r="E96" s="9">
         <f>'2.1'!H96</f>
-        <v>3.61</v>
+        <v>3.6070000000000002</v>
       </c>
       <c r="F96" s="4">
         <v>3.03</v>
       </c>
       <c r="G96" s="4">
         <f>'3.1'!I96</f>
-        <v>3.61</v>
+        <v>3.6070000000000002</v>
       </c>
       <c r="H96" s="4">
+        <f>'3.2'!I96</f>
         <v>3.24</v>
       </c>
       <c r="I96" s="4">
@@ -27397,9 +27836,11 @@
         <v>209</v>
       </c>
       <c r="C97" s="4">
+        <f>'1.1'!H97</f>
         <v>3.18</v>
       </c>
       <c r="D97" s="4">
+        <f>'1.2'!I97</f>
         <v>3.54</v>
       </c>
       <c r="E97" s="9">
@@ -27411,14 +27852,15 @@
       </c>
       <c r="G97" s="4">
         <f>'3.1'!I97</f>
-        <v>3.41</v>
+        <v>3.4129999999999998</v>
       </c>
       <c r="H97" s="4">
-        <v>3.33</v>
+        <f>'3.2'!I97</f>
+        <v>3.3330000000000002</v>
       </c>
       <c r="I97" s="4">
         <f t="shared" si="0"/>
-        <v>3.2250000000000001</v>
+        <v>3.226</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27429,23 +27871,26 @@
         <v>211</v>
       </c>
       <c r="C98" s="4">
-        <v>2.87</v>
+        <f>'1.1'!H98</f>
+        <v>2.8730000000000002</v>
       </c>
       <c r="D98" s="4">
-        <v>3.15</v>
+        <f>'1.2'!I98</f>
+        <v>3.153</v>
       </c>
       <c r="E98" s="9">
         <f>'2.1'!H98</f>
-        <v>3.33</v>
+        <v>3.327</v>
       </c>
       <c r="F98" s="4">
         <v>3.23</v>
       </c>
       <c r="G98" s="4">
         <f>'3.1'!I98</f>
-        <v>3.59</v>
+        <v>3.5870000000000002</v>
       </c>
       <c r="H98" s="4">
+        <f>'3.2'!I98</f>
         <v>3.58</v>
       </c>
       <c r="I98" s="4">
@@ -27461,28 +27906,31 @@
         <v>213</v>
       </c>
       <c r="C99" s="4">
-        <v>2.98</v>
+        <f>'1.1'!H99</f>
+        <v>3.12</v>
       </c>
       <c r="D99" s="4">
+        <f>'1.2'!I99</f>
         <v>3.1</v>
       </c>
       <c r="E99" s="9">
         <f>'2.1'!H99</f>
-        <v>2.75</v>
+        <v>2.7469999999999999</v>
       </c>
       <c r="F99" s="4">
         <v>1.88</v>
       </c>
       <c r="G99" s="4">
         <f>'3.1'!I99</f>
-        <v>3.27</v>
+        <v>3.2730000000000001</v>
       </c>
       <c r="H99" s="4">
+        <f>'3.2'!I99</f>
         <v>3.04</v>
       </c>
       <c r="I99" s="4">
         <f t="shared" si="0"/>
-        <v>2.8370000000000002</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27493,14 +27941,16 @@
         <v>215</v>
       </c>
       <c r="C100" s="4">
+        <f>'1.1'!H100</f>
         <v>2.94</v>
       </c>
       <c r="D100" s="4">
-        <v>3.29</v>
+        <f>'1.2'!I100</f>
+        <v>3.2869999999999999</v>
       </c>
       <c r="E100" s="9">
         <f>'2.1'!H100</f>
-        <v>2.99</v>
+        <v>2.9870000000000001</v>
       </c>
       <c r="F100" s="4">
         <v>2.2200000000000002</v>
@@ -27510,7 +27960,8 @@
         <v>3.3</v>
       </c>
       <c r="H100" s="4">
-        <v>3.19</v>
+        <f>'3.2'!I100</f>
+        <v>3.1930000000000001</v>
       </c>
       <c r="I100" s="4">
         <f t="shared" si="0"/>
@@ -27525,24 +27976,27 @@
         <v>217</v>
       </c>
       <c r="C101" s="4">
-        <v>3.23</v>
+        <f>'1.1'!H101</f>
+        <v>3.2330000000000001</v>
       </c>
       <c r="D101" s="4">
-        <v>3.71</v>
+        <f>'1.2'!I101</f>
+        <v>3.7130000000000001</v>
       </c>
       <c r="E101" s="9">
         <f>'2.1'!H101</f>
-        <v>3.43</v>
+        <v>3.427</v>
       </c>
       <c r="F101" s="4">
         <v>2.91</v>
       </c>
       <c r="G101" s="4">
         <f>'3.1'!I101</f>
-        <v>3.45</v>
+        <v>3.4470000000000001</v>
       </c>
       <c r="H101" s="4">
-        <v>3.75</v>
+        <f>'3.2'!I101</f>
+        <v>3.7469999999999999</v>
       </c>
       <c r="I101" s="4">
         <f t="shared" si="0"/>
@@ -27557,28 +28011,31 @@
         <v>219</v>
       </c>
       <c r="C102" s="4">
-        <v>2.37</v>
+        <f>'1.1'!H102</f>
+        <v>2.367</v>
       </c>
       <c r="D102" s="4">
-        <v>3.35</v>
+        <f>'1.2'!I102</f>
+        <v>3.3530000000000002</v>
       </c>
       <c r="E102" s="9">
         <f>'2.1'!H102</f>
-        <v>2.65</v>
+        <v>2.6469999999999998</v>
       </c>
       <c r="F102" s="4">
         <v>2.41</v>
       </c>
       <c r="G102" s="4">
         <f>'3.1'!I102</f>
-        <v>3.29</v>
+        <v>3.2869999999999999</v>
       </c>
       <c r="H102" s="4">
+        <f>'3.2'!I102</f>
         <v>2.74</v>
       </c>
       <c r="I102" s="4">
         <f t="shared" si="0"/>
-        <v>2.802</v>
+        <v>2.8010000000000002</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27589,24 +28046,27 @@
         <v>221</v>
       </c>
       <c r="C103" s="4">
-        <v>2.87</v>
+        <f>'1.1'!H103</f>
+        <v>2.8730000000000002</v>
       </c>
       <c r="D103" s="4">
+        <f>'1.2'!I103</f>
         <v>3.18</v>
       </c>
       <c r="E103" s="9">
         <f>'2.1'!H103</f>
-        <v>2.65</v>
+        <v>2.653</v>
       </c>
       <c r="F103" s="4">
         <v>2.46</v>
       </c>
       <c r="G103" s="4">
         <f>'3.1'!I103</f>
-        <v>3.41</v>
+        <v>3.407</v>
       </c>
       <c r="H103" s="4">
-        <v>3.27</v>
+        <f>'3.2'!I103</f>
+        <v>3.2669999999999999</v>
       </c>
       <c r="I103" s="4">
         <f t="shared" si="0"/>
@@ -27621,10 +28081,12 @@
         <v>223</v>
       </c>
       <c r="C104" s="4">
-        <v>2.85</v>
+        <f>'1.1'!H104</f>
+        <v>2.847</v>
       </c>
       <c r="D104" s="4">
-        <v>2.71</v>
+        <f>'1.2'!I104</f>
+        <v>2.7069999999999999</v>
       </c>
       <c r="E104" s="9">
         <f>'2.1'!H104</f>
@@ -27635,14 +28097,15 @@
       </c>
       <c r="G104" s="4">
         <f>'3.1'!I104</f>
-        <v>3.29</v>
+        <v>3.2869999999999999</v>
       </c>
       <c r="H104" s="4">
-        <v>3.05</v>
+        <f>'3.2'!I104</f>
+        <v>3.0529999999999999</v>
       </c>
       <c r="I104" s="4">
         <f t="shared" si="0"/>
-        <v>2.6469999999999998</v>
+        <v>2.6459999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27653,28 +28116,31 @@
         <v>225</v>
       </c>
       <c r="C105" s="4">
-        <v>3.49</v>
+        <f>'1.1'!H105</f>
+        <v>3.4870000000000001</v>
       </c>
       <c r="D105" s="4">
-        <v>3.47</v>
+        <f>'1.2'!I105</f>
+        <v>3.4670000000000001</v>
       </c>
       <c r="E105" s="9">
         <f>'2.1'!H105</f>
-        <v>3.51</v>
+        <v>3.5070000000000001</v>
       </c>
       <c r="F105" s="4">
         <v>3.28</v>
       </c>
       <c r="G105" s="4">
         <f>'3.1'!I105</f>
-        <v>3.75</v>
+        <v>3.7530000000000001</v>
       </c>
       <c r="H105" s="4">
+        <f>'3.2'!I105</f>
         <v>3.96</v>
       </c>
       <c r="I105" s="4">
         <f t="shared" si="0"/>
-        <v>3.577</v>
+        <v>3.5760000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27685,14 +28151,16 @@
         <v>227</v>
       </c>
       <c r="C106" s="4">
-        <v>3.09</v>
+        <f>'1.1'!H106</f>
+        <v>3.0870000000000002</v>
       </c>
       <c r="D106" s="4">
-        <v>2.93</v>
+        <f>'1.2'!I106</f>
+        <v>2.927</v>
       </c>
       <c r="E106" s="9">
         <f>'2.1'!H106</f>
-        <v>2.95</v>
+        <v>2.9470000000000001</v>
       </c>
       <c r="F106" s="4">
         <v>2.5299999999999998</v>
@@ -27702,11 +28170,12 @@
         <v>2.96</v>
       </c>
       <c r="H106" s="4">
+        <f>'3.2'!I106</f>
         <v>2.92</v>
       </c>
       <c r="I106" s="4">
         <f t="shared" si="0"/>
-        <v>2.8969999999999998</v>
+        <v>2.895</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27717,28 +28186,31 @@
         <v>229</v>
       </c>
       <c r="C107" s="4">
-        <v>3.77</v>
+        <f>'1.1'!H107</f>
+        <v>3.7669999999999999</v>
       </c>
       <c r="D107" s="4">
-        <v>3.29</v>
+        <f>'1.2'!I107</f>
+        <v>3.2930000000000001</v>
       </c>
       <c r="E107" s="9">
         <f>'2.1'!H107</f>
-        <v>3.49</v>
+        <v>3.4929999999999999</v>
       </c>
       <c r="F107" s="4">
         <v>3.21</v>
       </c>
       <c r="G107" s="4">
         <f>'3.1'!I107</f>
-        <v>3.21</v>
+        <v>3.2130000000000001</v>
       </c>
       <c r="H107" s="4">
-        <v>3.37</v>
+        <f>'3.2'!I107</f>
+        <v>3.367</v>
       </c>
       <c r="I107" s="4">
         <f t="shared" si="0"/>
-        <v>3.39</v>
+        <v>3.391</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27749,23 +28221,26 @@
         <v>231</v>
       </c>
       <c r="C108" s="4">
+        <f>'1.1'!H108</f>
         <v>2.38</v>
       </c>
       <c r="D108" s="4">
+        <f>'1.2'!I108</f>
         <v>2.56</v>
       </c>
       <c r="E108" s="9">
         <f>'2.1'!H108</f>
-        <v>3.33</v>
+        <v>3.327</v>
       </c>
       <c r="F108" s="4">
         <v>2.63</v>
       </c>
       <c r="G108" s="4">
         <f>'3.1'!I108</f>
-        <v>3.07</v>
+        <v>3.073</v>
       </c>
       <c r="H108" s="4">
+        <f>'3.2'!I108</f>
         <v>3.04</v>
       </c>
       <c r="I108" s="4">
